--- a/datasets/corporate-finance-data.xlsx
+++ b/datasets/corporate-finance-data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="132">
   <si>
     <t>상장일</t>
   </si>
@@ -69,6 +69,9 @@
     <t>총기관배정수량</t>
   </si>
   <si>
+    <t>2023-09-14</t>
+  </si>
+  <si>
     <t>2023-09-07</t>
   </si>
   <si>
@@ -114,207 +117,171 @@
     <t>2023-07-26</t>
   </si>
   <si>
-    <t>2023-07-25</t>
-  </si>
-  <si>
-    <t>2023-07-21</t>
+    <t>상상인제4호스팩</t>
+  </si>
+  <si>
+    <t>한화플러스제4호스팩</t>
+  </si>
+  <si>
+    <t>대신밸런스제16호스팩</t>
+  </si>
+  <si>
+    <t>유안타제11호스팩</t>
+  </si>
+  <si>
+    <t>한국제12호스팩</t>
+  </si>
+  <si>
+    <t>대신밸런스제15호스팩</t>
+  </si>
+  <si>
+    <t>시큐레터</t>
+  </si>
+  <si>
+    <t>스마트레이더시스템</t>
+  </si>
+  <si>
+    <t>넥스틸</t>
+  </si>
+  <si>
+    <t>빅텐츠</t>
+  </si>
+  <si>
+    <t>큐리옥스바이오시스템즈</t>
+  </si>
+  <si>
+    <t>하나28호스팩</t>
+  </si>
+  <si>
+    <t>SK증권제10호스팩</t>
+  </si>
+  <si>
+    <t>코츠테크놀로지</t>
+  </si>
+  <si>
+    <t>KB제26호스팩</t>
+  </si>
+  <si>
+    <t>파두</t>
+  </si>
+  <si>
+    <t>엠아이큐브솔루션</t>
+  </si>
+  <si>
+    <t>시지트로닉스</t>
+  </si>
+  <si>
+    <t>파로스아이바이오</t>
+  </si>
+  <si>
+    <t>유안타제14호스팩</t>
+  </si>
+  <si>
+    <t>에이엘티</t>
+  </si>
+  <si>
+    <t>버넥트</t>
+  </si>
+  <si>
+    <t>코스닥</t>
+  </si>
+  <si>
+    <t>코스피</t>
+  </si>
+  <si>
+    <t>상상인</t>
+  </si>
+  <si>
+    <t>한화</t>
+  </si>
+  <si>
+    <t>대신</t>
+  </si>
+  <si>
+    <t>유안타</t>
+  </si>
+  <si>
+    <t>한국</t>
+  </si>
+  <si>
+    <t>하나</t>
+  </si>
+  <si>
+    <t>NH</t>
+  </si>
+  <si>
+    <t>키움</t>
+  </si>
+  <si>
+    <t>SK</t>
+  </si>
+  <si>
+    <t>하이</t>
+  </si>
+  <si>
+    <t>KB</t>
+  </si>
+  <si>
+    <t>현대차</t>
+  </si>
+  <si>
+    <t>유진</t>
+  </si>
+  <si>
+    <t>미래</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>대표</t>
+  </si>
+  <si>
+    <t>인수</t>
+  </si>
+  <si>
+    <t>공동</t>
+  </si>
+  <si>
+    <t>2023-08-29</t>
+  </si>
+  <si>
+    <t>2023-08-23</t>
+  </si>
+  <si>
+    <t>2023-08-14</t>
+  </si>
+  <si>
+    <t>2023-08-09</t>
+  </si>
+  <si>
+    <t>2023-08-01</t>
+  </si>
+  <si>
+    <t>2023-07-31</t>
+  </si>
+  <si>
+    <t>2023-07-24</t>
+  </si>
+  <si>
+    <t>2023-07-17</t>
+  </si>
+  <si>
+    <t>2023-08-28</t>
+  </si>
+  <si>
+    <t>2023-08-25</t>
+  </si>
+  <si>
+    <t>2023-08-18</t>
+  </si>
+  <si>
+    <t>2023-08-16</t>
   </si>
   <si>
     <t>2023-07-20</t>
   </si>
   <si>
-    <t>2023-07-19</t>
-  </si>
-  <si>
-    <t>한화플러스제4호스팩</t>
-  </si>
-  <si>
-    <t>대신밸런스제16호스팩</t>
-  </si>
-  <si>
-    <t>유안타제11호스팩</t>
-  </si>
-  <si>
-    <t>한국제12호스팩</t>
-  </si>
-  <si>
-    <t>대신밸런스제15호스팩</t>
-  </si>
-  <si>
-    <t>시큐레터</t>
-  </si>
-  <si>
-    <t>스마트레이더시스템</t>
-  </si>
-  <si>
-    <t>넥스틸</t>
-  </si>
-  <si>
-    <t>빅텐츠</t>
-  </si>
-  <si>
-    <t>큐리옥스바이오시스템즈</t>
-  </si>
-  <si>
-    <t>하나28호스팩</t>
-  </si>
-  <si>
-    <t>SK증권제10호스팩</t>
-  </si>
-  <si>
-    <t>코츠테크놀로지</t>
-  </si>
-  <si>
-    <t>KB제26호스팩</t>
-  </si>
-  <si>
-    <t>파두</t>
-  </si>
-  <si>
-    <t>엠아이큐브솔루션</t>
-  </si>
-  <si>
-    <t>시지트로닉스</t>
-  </si>
-  <si>
-    <t>파로스아이바이오</t>
-  </si>
-  <si>
-    <t>유안타제14호스팩</t>
-  </si>
-  <si>
-    <t>에이엘티</t>
-  </si>
-  <si>
-    <t>버넥트</t>
-  </si>
-  <si>
-    <t>뷰티스킨</t>
-  </si>
-  <si>
-    <t>SK증권제9호스팩</t>
-  </si>
-  <si>
-    <t>와이랩</t>
-  </si>
-  <si>
-    <t>센서뷰</t>
-  </si>
-  <si>
-    <t>코스닥</t>
-  </si>
-  <si>
-    <t>코스피</t>
-  </si>
-  <si>
-    <t>한화</t>
-  </si>
-  <si>
-    <t>대신</t>
-  </si>
-  <si>
-    <t>유안타</t>
-  </si>
-  <si>
-    <t>한국</t>
-  </si>
-  <si>
-    <t>하나</t>
-  </si>
-  <si>
-    <t>NH</t>
-  </si>
-  <si>
-    <t>키움</t>
-  </si>
-  <si>
-    <t>SK</t>
-  </si>
-  <si>
-    <t>하이</t>
-  </si>
-  <si>
-    <t>KB</t>
-  </si>
-  <si>
-    <t>현대차</t>
-  </si>
-  <si>
-    <t>유진</t>
-  </si>
-  <si>
-    <t>미래</t>
-  </si>
-  <si>
-    <t>DB</t>
-  </si>
-  <si>
-    <t>삼성</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>대표</t>
-  </si>
-  <si>
-    <t>인수</t>
-  </si>
-  <si>
-    <t>공동</t>
-  </si>
-  <si>
-    <t>2023-08-29</t>
-  </si>
-  <si>
-    <t>2023-08-23</t>
-  </si>
-  <si>
-    <t>2023-08-14</t>
-  </si>
-  <si>
-    <t>2023-08-09</t>
-  </si>
-  <si>
-    <t>2023-08-01</t>
-  </si>
-  <si>
-    <t>2023-07-31</t>
-  </si>
-  <si>
-    <t>2023-07-24</t>
-  </si>
-  <si>
-    <t>2023-07-17</t>
-  </si>
-  <si>
-    <t>2023-07-13</t>
-  </si>
-  <si>
-    <t>2023-07-11</t>
-  </si>
-  <si>
-    <t>2023-07-10</t>
-  </si>
-  <si>
-    <t>2023-08-28</t>
-  </si>
-  <si>
-    <t>2023-08-25</t>
-  </si>
-  <si>
-    <t>2023-08-18</t>
-  </si>
-  <si>
-    <t>2023-08-16</t>
-  </si>
-  <si>
-    <t>2023-07-18</t>
-  </si>
-  <si>
-    <t>2023-07-14</t>
-  </si>
-  <si>
     <t>회사명</t>
   </si>
   <si>
@@ -366,6 +333,9 @@
     <t>수수료율</t>
   </si>
   <si>
+    <t>1010.2 : 1</t>
+  </si>
+  <si>
     <t>753.02 : 1</t>
   </si>
   <si>
@@ -427,18 +397,6 @@
   </si>
   <si>
     <t>1311.65 : 1</t>
-  </si>
-  <si>
-    <t>2316.1 : 1</t>
-  </si>
-  <si>
-    <t>296 : 1</t>
-  </si>
-  <si>
-    <t>1917.16 : 1</t>
-  </si>
-  <si>
-    <t>1568 : 1</t>
   </si>
   <si>
     <t>인수기관</t>
@@ -811,7 +769,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -875,37 +833,37 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D2">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F2">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="J2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="K2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="L2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="M2">
         <v>2000</v>
@@ -914,13 +872,13 @@
         <v>100</v>
       </c>
       <c r="O2" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="P2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q2">
-        <v>3562500</v>
+        <v>3375000</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -928,37 +886,37 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D3">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F3">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="G3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="J3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="K3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="L3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="M3">
         <v>2000</v>
@@ -967,13 +925,13 @@
         <v>100</v>
       </c>
       <c r="O3" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="P3" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="Q3">
-        <v>4875000</v>
+        <v>3562500</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -981,37 +939,37 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D4">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="E4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F4">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="G4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="L4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="M4">
         <v>2000</v>
@@ -1020,13 +978,13 @@
         <v>100</v>
       </c>
       <c r="O4" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="P4" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="Q4">
-        <v>3750000</v>
+        <v>4875000</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1034,37 +992,37 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D5">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F5">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G5" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H5" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I5" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="K5" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="L5" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="M5">
         <v>2000</v>
@@ -1076,48 +1034,48 @@
         <v>23</v>
       </c>
       <c r="P5" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="Q5">
-        <v>3000000</v>
+        <v>3750000</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6">
+        <v>80</v>
+      </c>
+      <c r="E6" t="s">
         <v>61</v>
       </c>
-      <c r="D6">
-        <v>130</v>
-      </c>
-      <c r="E6" t="s">
-        <v>64</v>
-      </c>
       <c r="F6">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="J6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="K6" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="L6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="M6">
         <v>2000</v>
@@ -1126,13 +1084,13 @@
         <v>100</v>
       </c>
       <c r="O6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q6">
-        <v>4875000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1140,52 +1098,52 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D7">
-        <v>160.0662</v>
+        <v>130</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F7">
-        <v>160.0662</v>
+        <v>130</v>
       </c>
       <c r="G7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="J7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="K7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="L7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="M7">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="N7">
         <v>100</v>
       </c>
       <c r="O7" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="P7" t="s">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="Q7">
-        <v>1000414</v>
+        <v>4875000</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1193,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D8">
-        <v>177.6</v>
+        <v>160.0662</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F8">
-        <v>177.6</v>
+        <v>160.0662</v>
       </c>
       <c r="G8" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H8" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I8" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="J8" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="K8" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="L8" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="M8">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="N8">
         <v>100</v>
       </c>
       <c r="O8" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="P8" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="Q8">
-        <v>1665000</v>
+        <v>1000414</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1246,52 +1204,52 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D9">
-        <v>805</v>
+        <v>177.6</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F9">
-        <v>805</v>
+        <v>177.6</v>
       </c>
       <c r="G9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="J9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="K9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="L9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="M9">
-        <v>11500</v>
+        <v>8000</v>
       </c>
       <c r="N9">
         <v>100</v>
       </c>
       <c r="O9" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="P9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q9">
-        <v>5239200</v>
+        <v>1665000</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1299,52 +1257,52 @@
         <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D10">
-        <v>107.686</v>
+        <v>805</v>
       </c>
       <c r="E10" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F10">
-        <v>107.686</v>
+        <v>805</v>
       </c>
       <c r="G10" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H10" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I10" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="J10" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="K10" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="L10" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="M10">
-        <v>23000</v>
+        <v>11500</v>
       </c>
       <c r="N10">
         <v>100</v>
       </c>
       <c r="O10" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="P10" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="Q10">
-        <v>351150</v>
+        <v>5239200</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1352,105 +1310,105 @@
         <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D11">
-        <v>182</v>
+        <v>107.686</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F11">
-        <v>182</v>
+        <v>107.686</v>
       </c>
       <c r="G11" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H11" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I11" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="J11" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="K11" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="L11" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="M11">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="N11">
         <v>100</v>
       </c>
       <c r="O11" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="P11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q11">
-        <v>1050000</v>
+        <v>351150</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D12">
-        <v>130</v>
+        <v>182</v>
       </c>
       <c r="E12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F12">
-        <v>130</v>
+        <v>182</v>
       </c>
       <c r="G12" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H12" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I12" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="J12" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="K12" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="L12" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="M12">
-        <v>2000</v>
+        <v>13000</v>
       </c>
       <c r="N12">
         <v>100</v>
       </c>
       <c r="O12" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="P12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q12">
-        <v>4875000</v>
+        <v>1050000</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1458,37 +1416,37 @@
         <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D13">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="E13" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F13">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="G13" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H13" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I13" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="J13" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="K13" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="L13" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="M13">
         <v>2000</v>
@@ -1497,116 +1455,116 @@
         <v>100</v>
       </c>
       <c r="O13" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="P13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q13">
-        <v>2250000</v>
+        <v>4875000</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D14">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="E14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F14">
-        <v>123.5</v>
+        <v>60</v>
       </c>
       <c r="G14" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H14" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I14" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="J14" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="K14" t="s">
+        <v>72</v>
+      </c>
+      <c r="L14" t="s">
+        <v>71</v>
+      </c>
+      <c r="M14">
+        <v>2000</v>
+      </c>
+      <c r="N14">
+        <v>100</v>
+      </c>
+      <c r="O14" t="s">
         <v>79</v>
       </c>
-      <c r="L14" t="s">
-        <v>78</v>
-      </c>
-      <c r="M14">
-        <v>13000</v>
-      </c>
-      <c r="N14">
-        <v>95</v>
-      </c>
-      <c r="O14" t="s">
-        <v>86</v>
-      </c>
       <c r="P14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q14">
-        <v>1348698</v>
+        <v>2250000</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D15">
         <v>130</v>
       </c>
       <c r="E15" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F15">
-        <v>6.5</v>
+        <v>123.5</v>
       </c>
       <c r="G15" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H15" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I15" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="J15" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="K15" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="L15" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="M15">
         <v>13000</v>
       </c>
       <c r="N15">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="O15" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="P15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q15">
         <v>1348698</v>
@@ -1614,158 +1572,158 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D16">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="E16" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F16">
-        <v>100</v>
+        <v>6.5</v>
       </c>
       <c r="G16" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H16" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I16" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="J16" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="K16" t="s">
+        <v>73</v>
+      </c>
+      <c r="L16" t="s">
+        <v>71</v>
+      </c>
+      <c r="M16">
+        <v>13000</v>
+      </c>
+      <c r="N16">
+        <v>5</v>
+      </c>
+      <c r="O16" t="s">
         <v>79</v>
-      </c>
-      <c r="L16" t="s">
-        <v>78</v>
-      </c>
-      <c r="M16">
-        <v>2000</v>
-      </c>
-      <c r="N16">
-        <v>100</v>
-      </c>
-      <c r="O16" t="s">
-        <v>87</v>
       </c>
       <c r="P16" t="s">
         <v>29</v>
       </c>
       <c r="Q16">
-        <v>3750000</v>
+        <v>1348698</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D17">
-        <v>1937.5</v>
+        <v>100</v>
       </c>
       <c r="E17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F17">
-        <v>1240</v>
+        <v>100</v>
       </c>
       <c r="G17" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H17" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I17" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="J17" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="K17" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="L17" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="M17">
-        <v>31000</v>
+        <v>2000</v>
       </c>
       <c r="N17">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="O17" t="s">
+        <v>80</v>
+      </c>
+      <c r="P17" t="s">
         <v>30</v>
       </c>
-      <c r="P17" t="s">
-        <v>86</v>
-      </c>
       <c r="Q17">
-        <v>26542452</v>
+        <v>3750000</v>
       </c>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D18">
         <v>1937.5</v>
       </c>
       <c r="E18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F18">
-        <v>542.5</v>
+        <v>1240</v>
       </c>
       <c r="G18" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H18" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I18" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="J18" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="K18" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="L18" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="M18">
         <v>31000</v>
       </c>
       <c r="N18">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="O18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P18" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="Q18">
         <v>26542452</v>
@@ -1773,52 +1731,52 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D19">
         <v>1937.5</v>
       </c>
       <c r="E19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F19">
-        <v>38.75</v>
+        <v>542.5</v>
       </c>
       <c r="G19" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H19" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I19" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="J19" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="K19" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L19" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="M19">
         <v>31000</v>
       </c>
       <c r="N19">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="O19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P19" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="Q19">
         <v>26542452</v>
@@ -1826,40 +1784,40 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D20">
         <v>1937.5</v>
       </c>
       <c r="E20" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="F20">
         <v>38.75</v>
       </c>
       <c r="G20" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H20" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I20" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="J20" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="K20" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="L20" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="M20">
         <v>31000</v>
@@ -1868,10 +1826,10 @@
         <v>2</v>
       </c>
       <c r="O20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P20" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="Q20">
         <v>26542452</v>
@@ -1879,40 +1837,40 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D21">
         <v>1937.5</v>
       </c>
       <c r="E21" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F21">
         <v>38.75</v>
       </c>
       <c r="G21" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H21" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I21" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="J21" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="K21" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="L21" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="M21">
         <v>31000</v>
@@ -1921,10 +1879,10 @@
         <v>2</v>
       </c>
       <c r="O21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P21" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="Q21">
         <v>26542452</v>
@@ -1932,40 +1890,40 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D22">
         <v>1937.5</v>
       </c>
       <c r="E22" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F22">
         <v>38.75</v>
       </c>
       <c r="G22" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H22" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I22" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="J22" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="K22" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="L22" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="M22">
         <v>31000</v>
@@ -1974,10 +1932,10 @@
         <v>2</v>
       </c>
       <c r="O22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P22" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="Q22">
         <v>26542452</v>
@@ -1988,52 +1946,52 @@
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D23">
-        <v>145.2</v>
+        <v>1937.5</v>
       </c>
       <c r="E23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F23">
-        <v>145.2</v>
+        <v>38.75</v>
       </c>
       <c r="G23" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H23" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I23" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="J23" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="K23" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="L23" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="M23">
-        <v>12000</v>
+        <v>31000</v>
       </c>
       <c r="N23">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="O23" t="s">
         <v>31</v>
       </c>
       <c r="P23" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="Q23">
-        <v>786500</v>
+        <v>26542452</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -2041,52 +1999,52 @@
         <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24">
+        <v>145.2</v>
+      </c>
+      <c r="E24" t="s">
         <v>61</v>
       </c>
-      <c r="D24">
-        <v>225</v>
-      </c>
-      <c r="E24" t="s">
-        <v>65</v>
-      </c>
       <c r="F24">
-        <v>225</v>
+        <v>145.2</v>
       </c>
       <c r="G24" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H24" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I24" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="J24" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="K24" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="L24" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="M24">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="N24">
         <v>100</v>
       </c>
       <c r="O24" t="s">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="P24" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="Q24">
-        <v>675000</v>
+        <v>786500</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2094,158 +2052,158 @@
         <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D25">
-        <v>196</v>
+        <v>225</v>
       </c>
       <c r="E25" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F25">
-        <v>196</v>
+        <v>225</v>
       </c>
       <c r="G25" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H25" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I25" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="J25" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="K25" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="L25" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="M25">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="N25">
         <v>100</v>
       </c>
       <c r="O25" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="P25" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="Q25">
-        <v>1050000</v>
+        <v>675000</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26">
+        <v>196</v>
+      </c>
+      <c r="E26" t="s">
         <v>61</v>
       </c>
-      <c r="D26">
-        <v>80</v>
-      </c>
-      <c r="E26" t="s">
-        <v>65</v>
-      </c>
       <c r="F26">
-        <v>80</v>
+        <v>196</v>
       </c>
       <c r="G26" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H26" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I26" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="J26" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="K26" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="L26" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="M26">
-        <v>2000</v>
+        <v>14000</v>
       </c>
       <c r="N26">
         <v>100</v>
       </c>
       <c r="O26" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="P26" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="Q26">
-        <v>3000000</v>
+        <v>1050000</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" t="s">
         <v>55</v>
       </c>
-      <c r="C27" t="s">
-        <v>61</v>
-      </c>
       <c r="D27">
-        <v>225</v>
+        <v>80</v>
       </c>
       <c r="E27" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="F27">
-        <v>225</v>
+        <v>80</v>
       </c>
       <c r="G27" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H27" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I27" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="J27" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="K27" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="L27" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="M27">
-        <v>25000</v>
+        <v>2000</v>
       </c>
       <c r="N27">
         <v>100</v>
       </c>
       <c r="O27" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="P27" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="Q27">
-        <v>675000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2253,52 +2211,52 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C28" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D28">
-        <v>307.2</v>
+        <v>225</v>
       </c>
       <c r="E28" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="F28">
-        <v>307.2</v>
+        <v>225</v>
       </c>
       <c r="G28" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H28" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I28" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="J28" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="K28" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="L28" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="M28">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="N28">
         <v>100</v>
       </c>
       <c r="O28" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="P28" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="Q28">
-        <v>1440000</v>
+        <v>675000</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2306,211 +2264,52 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D29">
-        <v>114.4</v>
+        <v>307.2</v>
       </c>
       <c r="E29" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="F29">
-        <v>114.4</v>
+        <v>307.2</v>
       </c>
       <c r="G29" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H29" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I29" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="J29" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="K29" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="L29" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="M29">
-        <v>26000</v>
+        <v>16000</v>
       </c>
       <c r="N29">
         <v>100</v>
       </c>
       <c r="O29" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="P29" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="Q29">
-        <v>261188</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="A30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30">
-        <v>80</v>
-      </c>
-      <c r="E30" t="s">
-        <v>70</v>
-      </c>
-      <c r="F30">
-        <v>80</v>
-      </c>
-      <c r="G30" t="s">
-        <v>78</v>
-      </c>
-      <c r="H30" t="s">
-        <v>78</v>
-      </c>
-      <c r="I30" t="s">
-        <v>78</v>
-      </c>
-      <c r="J30" t="s">
-        <v>78</v>
-      </c>
-      <c r="K30" t="s">
-        <v>79</v>
-      </c>
-      <c r="L30" t="s">
-        <v>78</v>
-      </c>
-      <c r="M30">
-        <v>2000</v>
-      </c>
-      <c r="N30">
-        <v>100</v>
-      </c>
-      <c r="O30" t="s">
-        <v>91</v>
-      </c>
-      <c r="P30" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q30">
-        <v>3000000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" t="s">
-        <v>61</v>
-      </c>
-      <c r="D31">
-        <v>270</v>
-      </c>
-      <c r="E31" t="s">
-        <v>66</v>
-      </c>
-      <c r="F31">
-        <v>270</v>
-      </c>
-      <c r="G31" t="s">
-        <v>78</v>
-      </c>
-      <c r="H31" t="s">
-        <v>78</v>
-      </c>
-      <c r="I31" t="s">
-        <v>78</v>
-      </c>
-      <c r="J31" t="s">
-        <v>78</v>
-      </c>
-      <c r="K31" t="s">
-        <v>79</v>
-      </c>
-      <c r="L31" t="s">
-        <v>78</v>
-      </c>
-      <c r="M31">
-        <v>9000</v>
-      </c>
-      <c r="N31">
-        <v>100</v>
-      </c>
-      <c r="O31" t="s">
-        <v>92</v>
-      </c>
-      <c r="P31" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q31">
-        <v>2160000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" t="s">
-        <v>61</v>
-      </c>
-      <c r="D32">
-        <v>175.5</v>
-      </c>
-      <c r="E32" t="s">
-        <v>77</v>
-      </c>
-      <c r="F32">
-        <v>175.5</v>
-      </c>
-      <c r="G32" t="s">
-        <v>78</v>
-      </c>
-      <c r="H32" t="s">
-        <v>78</v>
-      </c>
-      <c r="I32" t="s">
-        <v>78</v>
-      </c>
-      <c r="J32" t="s">
-        <v>78</v>
-      </c>
-      <c r="K32" t="s">
-        <v>79</v>
-      </c>
-      <c r="L32" t="s">
-        <v>78</v>
-      </c>
-      <c r="M32">
-        <v>4500</v>
-      </c>
-      <c r="N32">
-        <v>100</v>
-      </c>
-      <c r="O32" t="s">
-        <v>92</v>
-      </c>
-      <c r="P32" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q32">
-        <v>2925000</v>
+        <v>1440000</v>
       </c>
     </row>
   </sheetData>
@@ -2520,7 +2319,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2531,10 +2330,10 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>15</v>
@@ -2543,75 +2342,75 @@
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>9500000</v>
+        <v>9000000</v>
       </c>
       <c r="G2">
-        <v>4750000</v>
+        <v>4500000</v>
       </c>
       <c r="H2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I2">
         <v>2000</v>
@@ -2620,60 +2419,60 @@
         <v>2000</v>
       </c>
       <c r="K2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="L2">
         <v>2000</v>
       </c>
       <c r="M2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="N2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="Q2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="R2" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="S2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="T2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
       </c>
       <c r="F3">
-        <v>13000000</v>
+        <v>9500000</v>
       </c>
       <c r="G3">
-        <v>6500000</v>
+        <v>4750000</v>
       </c>
       <c r="H3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I3">
         <v>2000</v>
@@ -2682,60 +2481,60 @@
         <v>2000</v>
       </c>
       <c r="K3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="L3">
         <v>2000</v>
       </c>
       <c r="M3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="N3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="Q3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="R3" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="S3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="T3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="E4" t="s">
         <v>19</v>
       </c>
       <c r="F4">
-        <v>10000000</v>
+        <v>13000000</v>
       </c>
       <c r="G4">
-        <v>5000000</v>
+        <v>6500000</v>
       </c>
       <c r="H4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I4">
         <v>2000</v>
@@ -2744,34 +2543,34 @@
         <v>2000</v>
       </c>
       <c r="K4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="L4">
         <v>2000</v>
       </c>
       <c r="M4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="N4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="Q4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="R4" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="S4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="T4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -2779,25 +2578,25 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="E5" t="s">
         <v>20</v>
       </c>
       <c r="F5">
-        <v>8000000</v>
+        <v>10000000</v>
       </c>
       <c r="G5">
-        <v>4000000</v>
+        <v>5000000</v>
       </c>
       <c r="H5" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I5">
         <v>2000</v>
@@ -2806,60 +2605,60 @@
         <v>2000</v>
       </c>
       <c r="K5" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="L5">
         <v>2000</v>
       </c>
       <c r="M5" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="N5" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="Q5" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="R5" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="S5" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="T5" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
         <v>21</v>
       </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
       <c r="F6">
-        <v>13000000</v>
+        <v>8000000</v>
       </c>
       <c r="G6">
-        <v>6500000</v>
+        <v>4000000</v>
       </c>
       <c r="H6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I6">
         <v>2000</v>
@@ -2868,432 +2667,432 @@
         <v>2000</v>
       </c>
       <c r="K6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="L6">
         <v>2000</v>
       </c>
       <c r="M6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="N6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="Q6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="R6" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="S6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="T6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D7" t="s">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
         <v>21</v>
       </c>
       <c r="F7">
-        <v>16006620</v>
+        <v>13000000</v>
       </c>
       <c r="G7">
-        <v>1333885</v>
+        <v>6500000</v>
       </c>
       <c r="H7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I7">
-        <v>9200</v>
+        <v>2000</v>
       </c>
       <c r="J7">
-        <v>10600</v>
+        <v>2000</v>
       </c>
       <c r="K7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="L7">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="M7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="N7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="Q7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="R7" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="S7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="T7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D8" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="E8" t="s">
         <v>22</v>
       </c>
       <c r="F8">
-        <v>17760000</v>
+        <v>16006620</v>
       </c>
       <c r="G8">
-        <v>2220000</v>
+        <v>1333885</v>
       </c>
       <c r="H8" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I8">
-        <v>5800</v>
+        <v>9200</v>
       </c>
       <c r="J8">
-        <v>6800</v>
+        <v>10600</v>
       </c>
       <c r="K8" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="L8">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M8" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="N8" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="Q8" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="R8" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="S8" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="T8" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E9" t="s">
         <v>23</v>
       </c>
       <c r="F9">
-        <v>80500000</v>
+        <v>17760000</v>
       </c>
       <c r="G9">
-        <v>7000000</v>
+        <v>2220000</v>
       </c>
       <c r="H9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I9">
-        <v>11500</v>
+        <v>5800</v>
       </c>
       <c r="J9">
-        <v>12500</v>
+        <v>6800</v>
       </c>
       <c r="K9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="L9">
-        <v>11500</v>
+        <v>8000</v>
       </c>
       <c r="M9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="N9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="O9">
-        <v>47.85714285714286</v>
+        <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="Q9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="R9" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="S9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="T9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="E10" t="s">
         <v>24</v>
       </c>
       <c r="F10">
-        <v>10768600</v>
+        <v>80500000</v>
       </c>
       <c r="G10">
-        <v>468200</v>
+        <v>7000000</v>
       </c>
       <c r="H10" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I10">
-        <v>21000</v>
+        <v>11500</v>
       </c>
       <c r="J10">
-        <v>23000</v>
+        <v>12500</v>
       </c>
       <c r="K10" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="L10">
-        <v>23000</v>
+        <v>11500</v>
       </c>
       <c r="M10" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="N10" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>47.85714285714286</v>
       </c>
       <c r="P10" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="Q10" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="R10" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="S10" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="T10" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E11" t="s">
         <v>25</v>
       </c>
       <c r="F11">
-        <v>18200000</v>
+        <v>10768600</v>
       </c>
       <c r="G11">
-        <v>1400000</v>
+        <v>468200</v>
       </c>
       <c r="H11" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I11">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="J11">
-        <v>16000</v>
+        <v>23000</v>
       </c>
       <c r="K11" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="L11">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="M11" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="N11" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="Q11" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="R11" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="S11" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="T11" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F12">
-        <v>13000000</v>
+        <v>18200000</v>
       </c>
       <c r="G12">
-        <v>6500000</v>
+        <v>1400000</v>
       </c>
       <c r="H12" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I12">
-        <v>2000</v>
+        <v>13000</v>
       </c>
       <c r="J12">
-        <v>2000</v>
+        <v>16000</v>
       </c>
       <c r="K12" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="L12">
-        <v>2000</v>
+        <v>13000</v>
       </c>
       <c r="M12" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="N12" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="Q12" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="R12" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="S12" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="T12" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
         <v>26</v>
       </c>
       <c r="F13">
-        <v>6000000</v>
+        <v>13000000</v>
       </c>
       <c r="G13">
-        <v>3000000</v>
+        <v>6500000</v>
       </c>
       <c r="H13" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I13">
         <v>2000</v>
@@ -3302,220 +3101,220 @@
         <v>2000</v>
       </c>
       <c r="K13" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="L13">
         <v>2000</v>
       </c>
       <c r="M13" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="N13" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="Q13" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="R13" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="S13" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="T13" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F14">
-        <v>13000000</v>
+        <v>6000000</v>
       </c>
       <c r="G14">
-        <v>1000000</v>
+        <v>3000000</v>
       </c>
       <c r="H14" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I14">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="J14">
-        <v>11500</v>
+        <v>2000</v>
       </c>
       <c r="K14" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="L14">
-        <v>13000</v>
+        <v>2000</v>
       </c>
       <c r="M14" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="N14" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="Q14" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="R14" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="S14" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="T14" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D15" t="s">
         <v>29</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F15">
-        <v>10000000</v>
+        <v>13000000</v>
       </c>
       <c r="G15">
-        <v>5000000</v>
+        <v>1000000</v>
       </c>
       <c r="H15" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I15">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="J15">
-        <v>2000</v>
+        <v>11500</v>
       </c>
       <c r="K15" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="L15">
-        <v>2000</v>
+        <v>13000</v>
       </c>
       <c r="M15" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="N15" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="Q15" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="R15" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="S15" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="T15" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" t="s">
         <v>30</v>
       </c>
-      <c r="B16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" t="s">
-        <v>86</v>
-      </c>
       <c r="E16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F16">
-        <v>193750000</v>
+        <v>10000000</v>
       </c>
       <c r="G16">
-        <v>6250000</v>
+        <v>5000000</v>
       </c>
       <c r="H16" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I16">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="J16">
-        <v>31000</v>
+        <v>2000</v>
       </c>
       <c r="K16" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="L16">
-        <v>31000</v>
+        <v>2000</v>
       </c>
       <c r="M16" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="N16" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="Q16" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="R16" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="S16" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="T16" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -3523,619 +3322,433 @@
         <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D17" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E17" t="s">
         <v>28</v>
       </c>
       <c r="F17">
-        <v>14520000</v>
+        <v>193750000</v>
       </c>
       <c r="G17">
-        <v>1210000</v>
+        <v>6250000</v>
       </c>
       <c r="H17" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I17">
-        <v>8500</v>
+        <v>26000</v>
       </c>
       <c r="J17">
-        <v>10000</v>
+        <v>31000</v>
       </c>
       <c r="K17" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="L17">
-        <v>12000</v>
+        <v>31000</v>
       </c>
       <c r="M17" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="N17" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="Q17" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="R17" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="S17" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="T17" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="E18" t="s">
         <v>29</v>
       </c>
       <c r="F18">
-        <v>22500000</v>
+        <v>14520000</v>
       </c>
       <c r="G18">
-        <v>900000</v>
+        <v>1210000</v>
       </c>
       <c r="H18" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I18">
-        <v>18000</v>
+        <v>8500</v>
       </c>
       <c r="J18">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="K18" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="L18">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="M18" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="N18" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="Q18" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="R18" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="S18" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="T18" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E19" t="s">
         <v>30</v>
       </c>
       <c r="F19">
-        <v>19600000</v>
+        <v>22500000</v>
       </c>
       <c r="G19">
-        <v>1400000</v>
+        <v>900000</v>
       </c>
       <c r="H19" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I19">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="J19">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="K19" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="L19">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="M19" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="N19" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="Q19" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="R19" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="S19" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="T19" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D20" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F20">
-        <v>8000000</v>
+        <v>19600000</v>
       </c>
       <c r="G20">
-        <v>4000000</v>
+        <v>1400000</v>
       </c>
       <c r="H20" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I20">
-        <v>2000</v>
+        <v>14000</v>
       </c>
       <c r="J20">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="K20" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="L20">
-        <v>2000</v>
+        <v>14000</v>
       </c>
       <c r="M20" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="N20" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="Q20" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="R20" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="S20" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="T20" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="D21" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="E21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F21">
-        <v>22500000</v>
+        <v>8000000</v>
       </c>
       <c r="G21">
-        <v>900000</v>
+        <v>4000000</v>
       </c>
       <c r="H21" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I21">
-        <v>16700</v>
+        <v>2000</v>
       </c>
       <c r="J21">
-        <v>20500</v>
+        <v>2000</v>
       </c>
       <c r="K21" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="L21">
-        <v>25000</v>
+        <v>2000</v>
       </c>
       <c r="M21" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="N21" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="Q21" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="R21" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="S21" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="T21" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D22" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="E22" t="s">
         <v>31</v>
       </c>
       <c r="F22">
-        <v>30720000</v>
+        <v>22500000</v>
       </c>
       <c r="G22">
-        <v>1920000</v>
+        <v>900000</v>
       </c>
       <c r="H22" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I22">
-        <v>11500</v>
+        <v>16700</v>
       </c>
       <c r="J22">
-        <v>13600</v>
+        <v>20500</v>
       </c>
       <c r="K22" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="L22">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="M22" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="N22" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="Q22" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="R22" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="S22" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="T22" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C23" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="D23" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="E23" t="s">
         <v>32</v>
       </c>
       <c r="F23">
-        <v>11440000</v>
+        <v>30720000</v>
       </c>
       <c r="G23">
-        <v>440000</v>
+        <v>1920000</v>
       </c>
       <c r="H23" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I23">
-        <v>21000</v>
+        <v>11500</v>
       </c>
       <c r="J23">
-        <v>24000</v>
+        <v>13600</v>
       </c>
       <c r="K23" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="L23">
-        <v>26000</v>
+        <v>16000</v>
       </c>
       <c r="M23" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="N23" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="Q23" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="R23" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="S23" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="T23" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>91</v>
-      </c>
-      <c r="B24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" t="s">
-        <v>70</v>
-      </c>
-      <c r="D24" t="s">
-        <v>98</v>
-      </c>
-      <c r="E24" t="s">
-        <v>33</v>
-      </c>
-      <c r="F24">
-        <v>8000000</v>
-      </c>
-      <c r="G24">
-        <v>4000000</v>
-      </c>
-      <c r="H24" t="s">
-        <v>78</v>
-      </c>
-      <c r="I24">
-        <v>2000</v>
-      </c>
-      <c r="J24">
-        <v>2000</v>
-      </c>
-      <c r="K24" t="s">
-        <v>78</v>
-      </c>
-      <c r="L24">
-        <v>2000</v>
-      </c>
-      <c r="M24" t="s">
-        <v>78</v>
-      </c>
-      <c r="N24" t="s">
-        <v>78</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>78</v>
-      </c>
-      <c r="R24" t="s">
-        <v>138</v>
-      </c>
-      <c r="S24" t="s">
-        <v>78</v>
-      </c>
-      <c r="T24" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>92</v>
-      </c>
-      <c r="B25" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" t="s">
-        <v>90</v>
-      </c>
-      <c r="E25" t="s">
-        <v>34</v>
-      </c>
-      <c r="F25">
-        <v>27000000</v>
-      </c>
-      <c r="G25">
-        <v>3000000</v>
-      </c>
-      <c r="H25" t="s">
-        <v>78</v>
-      </c>
-      <c r="I25">
-        <v>7000</v>
-      </c>
-      <c r="J25">
-        <v>8000</v>
-      </c>
-      <c r="K25" t="s">
-        <v>78</v>
-      </c>
-      <c r="L25">
-        <v>9000</v>
-      </c>
-      <c r="M25" t="s">
-        <v>78</v>
-      </c>
-      <c r="N25" t="s">
-        <v>78</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>78</v>
-      </c>
-      <c r="R25" t="s">
-        <v>139</v>
-      </c>
-      <c r="S25" t="s">
-        <v>78</v>
-      </c>
-      <c r="T25" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>92</v>
-      </c>
-      <c r="B26" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" t="s">
-        <v>77</v>
-      </c>
-      <c r="D26" t="s">
-        <v>90</v>
-      </c>
-      <c r="E26" t="s">
-        <v>35</v>
-      </c>
-      <c r="F26">
-        <v>17550000</v>
-      </c>
-      <c r="G26">
-        <v>3900000</v>
-      </c>
-      <c r="H26" t="s">
-        <v>78</v>
-      </c>
-      <c r="I26">
-        <v>2900</v>
-      </c>
-      <c r="J26">
-        <v>3600</v>
-      </c>
-      <c r="K26" t="s">
-        <v>78</v>
-      </c>
-      <c r="L26">
-        <v>4500</v>
-      </c>
-      <c r="M26" t="s">
-        <v>78</v>
-      </c>
-      <c r="N26" t="s">
-        <v>78</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>78</v>
-      </c>
-      <c r="R26" t="s">
-        <v>140</v>
-      </c>
-      <c r="S26" t="s">
-        <v>78</v>
-      </c>
-      <c r="T26" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -4145,7 +3758,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4153,16 +3766,16 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -4174,10 +3787,10 @@
         <v>0</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>12</v>
@@ -4186,191 +3799,191 @@
         <v>6</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="F2" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H2">
-        <v>11440</v>
+        <v>3875</v>
       </c>
       <c r="I2">
-        <v>440000</v>
+        <v>6250000</v>
       </c>
       <c r="J2">
-        <v>26000</v>
+        <v>31000</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>100</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" t="s">
-        <v>144</v>
-      </c>
-      <c r="F3" t="s">
-        <v>86</v>
-      </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H3">
-        <v>3875</v>
+        <v>10000</v>
       </c>
       <c r="I3">
-        <v>6250000</v>
+        <v>5000000</v>
       </c>
       <c r="J3">
-        <v>31000</v>
+        <v>2000</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H4">
-        <v>10000</v>
+        <v>124000</v>
       </c>
       <c r="I4">
-        <v>5000000</v>
+        <v>6250000</v>
       </c>
       <c r="J4">
-        <v>2000</v>
+        <v>31000</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>100</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>144</v>
+        <v>63</v>
       </c>
       <c r="F5" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H5">
-        <v>124000</v>
+        <v>10768.6</v>
       </c>
       <c r="I5">
-        <v>6250000</v>
+        <v>468200</v>
       </c>
       <c r="J5">
-        <v>31000</v>
+        <v>23000</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>64</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" t="s">
-        <v>24</v>
-      </c>
       <c r="H6">
-        <v>10768.6</v>
+        <v>6000</v>
       </c>
       <c r="I6">
-        <v>468200</v>
+        <v>3000000</v>
       </c>
       <c r="J6">
-        <v>23000</v>
+        <v>2000</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -4381,34 +3994,34 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="F7" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H7">
-        <v>8000</v>
+        <v>30720</v>
       </c>
       <c r="I7">
-        <v>4000000</v>
+        <v>1920000</v>
       </c>
       <c r="J7">
-        <v>2000</v>
+        <v>16000</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -4419,31 +4032,31 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="E8" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="G8" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H8">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="I8">
-        <v>3000000</v>
+        <v>6500000</v>
       </c>
       <c r="J8">
         <v>2000</v>
@@ -4457,25 +4070,25 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F9" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H9">
         <v>13000</v>
@@ -4495,34 +4108,34 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="G10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H10">
-        <v>13000</v>
+        <v>16006.62</v>
       </c>
       <c r="I10">
-        <v>6500000</v>
+        <v>1333885</v>
       </c>
       <c r="J10">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -4533,34 +4146,34 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E11" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F11" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="G11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H11">
-        <v>16006.62</v>
+        <v>17760</v>
       </c>
       <c r="I11">
-        <v>1333885</v>
+        <v>2220000</v>
       </c>
       <c r="J11">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -4571,34 +4184,34 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E12" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="F12" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="G12" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H12">
-        <v>17760</v>
+        <v>22500</v>
       </c>
       <c r="I12">
-        <v>2220000</v>
+        <v>900000</v>
       </c>
       <c r="J12">
-        <v>8000</v>
+        <v>25000</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -4609,34 +4222,34 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E13" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="H13">
-        <v>30720</v>
+        <v>9000</v>
       </c>
       <c r="I13">
-        <v>1920000</v>
+        <v>4500000</v>
       </c>
       <c r="J13">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -4647,34 +4260,34 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B14" t="s">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="E14" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H14">
-        <v>22500</v>
+        <v>10000</v>
       </c>
       <c r="I14">
-        <v>900000</v>
+        <v>5000000</v>
       </c>
       <c r="J14">
-        <v>25000</v>
+        <v>2000</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -4685,34 +4298,34 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
         <v>60</v>
       </c>
-      <c r="D15" t="s">
-        <v>77</v>
-      </c>
       <c r="E15" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="F15" t="s">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H15">
-        <v>17550</v>
+        <v>22500</v>
       </c>
       <c r="I15">
-        <v>3900000</v>
+        <v>900000</v>
       </c>
       <c r="J15">
-        <v>4500</v>
+        <v>25000</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -4723,34 +4336,34 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C16" t="s">
         <v>52</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E16" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="G16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H16">
-        <v>22500</v>
+        <v>8000</v>
       </c>
       <c r="I16">
-        <v>900000</v>
+        <v>4000000</v>
       </c>
       <c r="J16">
-        <v>25000</v>
+        <v>2000</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -4761,72 +4374,72 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E17" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="F17" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H17">
-        <v>10000</v>
+        <v>3875</v>
       </c>
       <c r="I17">
-        <v>5000000</v>
+        <v>6250000</v>
       </c>
       <c r="J17">
-        <v>2000</v>
+        <v>31000</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>100</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H18">
-        <v>8000</v>
+        <v>18200</v>
       </c>
       <c r="I18">
-        <v>4000000</v>
+        <v>1400000</v>
       </c>
       <c r="J18">
-        <v>2000</v>
+        <v>13000</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -4837,72 +4450,72 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E19" t="s">
-        <v>144</v>
+        <v>62</v>
       </c>
       <c r="F19" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H19">
-        <v>3875</v>
+        <v>80500</v>
       </c>
       <c r="I19">
-        <v>6250000</v>
+        <v>7000000</v>
       </c>
       <c r="J19">
-        <v>31000</v>
+        <v>11500</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D20" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E20" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H20">
-        <v>18200</v>
+        <v>13000</v>
       </c>
       <c r="I20">
-        <v>1400000</v>
+        <v>6500000</v>
       </c>
       <c r="J20">
-        <v>13000</v>
+        <v>2000</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -4913,69 +4526,69 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B21" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D21" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E21" t="s">
-        <v>67</v>
+        <v>131</v>
       </c>
       <c r="F21" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H21">
-        <v>80500</v>
+        <v>650</v>
       </c>
       <c r="I21">
-        <v>7000000</v>
+        <v>1000000</v>
       </c>
       <c r="J21">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>100</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D22" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E22" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F22" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G22" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H22">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="I22">
-        <v>6500000</v>
+        <v>4000000</v>
       </c>
       <c r="J22">
         <v>2000</v>
@@ -4989,72 +4602,72 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
         <v>48</v>
       </c>
       <c r="D23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E23" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="F23" t="s">
+        <v>79</v>
+      </c>
+      <c r="G23" t="s">
         <v>28</v>
       </c>
-      <c r="G23" t="s">
-        <v>25</v>
-      </c>
       <c r="H23">
-        <v>650</v>
+        <v>54250</v>
       </c>
       <c r="I23">
-        <v>1000000</v>
+        <v>6250000</v>
       </c>
       <c r="J23">
-        <v>13000</v>
+        <v>31000</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D24" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E24" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F24" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="G24" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="H24">
-        <v>8000</v>
+        <v>14520</v>
       </c>
       <c r="I24">
-        <v>4000000</v>
+        <v>1210000</v>
       </c>
       <c r="J24">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -5065,104 +4678,104 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B25" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C25" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D25" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E25" t="s">
-        <v>145</v>
+        <v>61</v>
       </c>
       <c r="F25" t="s">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="G25" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H25">
-        <v>12350</v>
+        <v>19600</v>
       </c>
       <c r="I25">
-        <v>1000000</v>
+        <v>1400000</v>
       </c>
       <c r="J25">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D26" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E26" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="F26" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="G26" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H26">
-        <v>14520</v>
+        <v>12350</v>
       </c>
       <c r="I26">
-        <v>1210000</v>
+        <v>1000000</v>
       </c>
       <c r="J26">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D27" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E27" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="F27" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H27">
-        <v>54250</v>
+        <v>3875</v>
       </c>
       <c r="I27">
         <v>6250000</v>
@@ -5174,39 +4787,39 @@
         <v>0</v>
       </c>
       <c r="L27">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B28" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="D28" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E28" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F28" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="G28" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="H28">
-        <v>27000</v>
+        <v>9500</v>
       </c>
       <c r="I28">
-        <v>3000000</v>
+        <v>4750000</v>
       </c>
       <c r="J28">
-        <v>9000</v>
+        <v>2000</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -5217,153 +4830,39 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B29" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D29" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E29" t="s">
-        <v>66</v>
+        <v>130</v>
       </c>
       <c r="F29" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="G29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H29">
-        <v>19600</v>
+        <v>3875</v>
       </c>
       <c r="I29">
-        <v>1400000</v>
+        <v>6250000</v>
       </c>
       <c r="J29">
-        <v>14000</v>
+        <v>31000</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" t="s">
-        <v>63</v>
-      </c>
-      <c r="B30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" t="s">
-        <v>50</v>
-      </c>
-      <c r="D30" t="s">
-        <v>68</v>
-      </c>
-      <c r="E30" t="s">
-        <v>144</v>
-      </c>
-      <c r="F30" t="s">
-        <v>86</v>
-      </c>
-      <c r="G30" t="s">
-        <v>27</v>
-      </c>
-      <c r="H30">
-        <v>3875</v>
-      </c>
-      <c r="I30">
-        <v>6250000</v>
-      </c>
-      <c r="J30">
-        <v>31000</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" t="s">
-        <v>63</v>
-      </c>
-      <c r="B31" t="s">
-        <v>82</v>
-      </c>
-      <c r="C31" t="s">
-        <v>36</v>
-      </c>
-      <c r="D31" t="s">
-        <v>63</v>
-      </c>
-      <c r="E31" t="s">
-        <v>63</v>
-      </c>
-      <c r="F31" t="s">
-        <v>19</v>
-      </c>
-      <c r="G31" t="s">
-        <v>17</v>
-      </c>
-      <c r="H31">
-        <v>9500</v>
-      </c>
-      <c r="I31">
-        <v>4750000</v>
-      </c>
-      <c r="J31">
-        <v>2000</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" t="s">
-        <v>73</v>
-      </c>
-      <c r="B32" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32" t="s">
-        <v>50</v>
-      </c>
-      <c r="D32" t="s">
-        <v>68</v>
-      </c>
-      <c r="E32" t="s">
-        <v>144</v>
-      </c>
-      <c r="F32" t="s">
-        <v>86</v>
-      </c>
-      <c r="G32" t="s">
-        <v>27</v>
-      </c>
-      <c r="H32">
-        <v>3875</v>
-      </c>
-      <c r="I32">
-        <v>6250000</v>
-      </c>
-      <c r="J32">
-        <v>31000</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
         <v>2</v>
       </c>
     </row>

--- a/datasets/corporate-finance-data.xlsx
+++ b/datasets/corporate-finance-data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="124">
   <si>
     <t>상장일</t>
   </si>
@@ -69,6 +69,9 @@
     <t>총기관배정수량</t>
   </si>
   <si>
+    <t>2023-10-13</t>
+  </si>
+  <si>
     <t>2023-10-05</t>
   </si>
   <si>
@@ -108,150 +111,150 @@
     <t>2023-08-22</t>
   </si>
   <si>
+    <t>에이치엠씨제6호스팩</t>
+  </si>
+  <si>
+    <t>두산로보틱스</t>
+  </si>
+  <si>
+    <t>신한제11호스팩</t>
+  </si>
+  <si>
+    <t>한싹</t>
+  </si>
+  <si>
+    <t>레뷰코퍼레이션</t>
+  </si>
+  <si>
+    <t>아이엠티</t>
+  </si>
+  <si>
+    <t>밀리의서재</t>
+  </si>
+  <si>
+    <t>인스웨이브시스템즈</t>
+  </si>
+  <si>
+    <t>상상인제4호스팩</t>
+  </si>
+  <si>
+    <t>한화플러스제4호스팩</t>
+  </si>
+  <si>
+    <t>대신밸런스제16호스팩</t>
+  </si>
+  <si>
+    <t>유안타제11호스팩</t>
+  </si>
+  <si>
+    <t>한국제12호스팩</t>
+  </si>
+  <si>
+    <t>대신밸런스제15호스팩</t>
+  </si>
+  <si>
+    <t>시큐레터</t>
+  </si>
+  <si>
+    <t>스마트레이더시스템</t>
+  </si>
+  <si>
+    <t>코스닥</t>
+  </si>
+  <si>
+    <t>코스피</t>
+  </si>
+  <si>
+    <t>현대차</t>
+  </si>
+  <si>
+    <t>한국</t>
+  </si>
+  <si>
+    <t>미래</t>
+  </si>
+  <si>
+    <t>NH</t>
+  </si>
+  <si>
+    <t>KB</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>키움</t>
+  </si>
+  <si>
+    <t>신영</t>
+  </si>
+  <si>
+    <t>하나</t>
+  </si>
+  <si>
+    <t>유비에스</t>
+  </si>
+  <si>
+    <t>신한</t>
+  </si>
+  <si>
+    <t>삼성</t>
+  </si>
+  <si>
+    <t>유안타</t>
+  </si>
+  <si>
+    <t>유진</t>
+  </si>
+  <si>
+    <t>상상인</t>
+  </si>
+  <si>
+    <t>한화</t>
+  </si>
+  <si>
+    <t>대신</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>대표</t>
+  </si>
+  <si>
+    <t>공동대표</t>
+  </si>
+  <si>
+    <t>공동</t>
+  </si>
+  <si>
+    <t>인수</t>
+  </si>
+  <si>
+    <t>2023-09-21</t>
+  </si>
+  <si>
+    <t>2023-09-19</t>
+  </si>
+  <si>
+    <t>2023-09-18</t>
+  </si>
+  <si>
+    <t>2023-08-29</t>
+  </si>
+  <si>
+    <t>2023-08-23</t>
+  </si>
+  <si>
     <t>2023-08-21</t>
   </si>
   <si>
-    <t>두산로보틱스</t>
-  </si>
-  <si>
-    <t>신한제11호스팩</t>
-  </si>
-  <si>
-    <t>한싹</t>
-  </si>
-  <si>
-    <t>레뷰코퍼레이션</t>
-  </si>
-  <si>
-    <t>아이엠티</t>
-  </si>
-  <si>
-    <t>밀리의서재</t>
-  </si>
-  <si>
-    <t>인스웨이브시스템즈</t>
-  </si>
-  <si>
-    <t>상상인제4호스팩</t>
-  </si>
-  <si>
-    <t>한화플러스제4호스팩</t>
-  </si>
-  <si>
-    <t>대신밸런스제16호스팩</t>
-  </si>
-  <si>
-    <t>유안타제11호스팩</t>
-  </si>
-  <si>
-    <t>한국제12호스팩</t>
-  </si>
-  <si>
-    <t>대신밸런스제15호스팩</t>
-  </si>
-  <si>
-    <t>시큐레터</t>
-  </si>
-  <si>
-    <t>스마트레이더시스템</t>
-  </si>
-  <si>
-    <t>넥스틸</t>
-  </si>
-  <si>
-    <t>코스피</t>
-  </si>
-  <si>
-    <t>코스닥</t>
-  </si>
-  <si>
-    <t>한국</t>
-  </si>
-  <si>
-    <t>미래</t>
-  </si>
-  <si>
-    <t>NH</t>
-  </si>
-  <si>
-    <t>KB</t>
-  </si>
-  <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t>키움</t>
-  </si>
-  <si>
-    <t>신영</t>
-  </si>
-  <si>
-    <t>하나</t>
-  </si>
-  <si>
-    <t>유비에스</t>
-  </si>
-  <si>
-    <t>신한</t>
-  </si>
-  <si>
-    <t>삼성</t>
-  </si>
-  <si>
-    <t>유안타</t>
-  </si>
-  <si>
-    <t>유진</t>
-  </si>
-  <si>
-    <t>상상인</t>
-  </si>
-  <si>
-    <t>한화</t>
-  </si>
-  <si>
-    <t>대신</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>공동대표</t>
-  </si>
-  <si>
-    <t>공동</t>
-  </si>
-  <si>
-    <t>인수</t>
-  </si>
-  <si>
-    <t>대표</t>
-  </si>
-  <si>
-    <t>2023-09-21</t>
-  </si>
-  <si>
-    <t>2023-09-19</t>
-  </si>
-  <si>
-    <t>2023-09-18</t>
-  </si>
-  <si>
-    <t>2023-08-29</t>
-  </si>
-  <si>
-    <t>2023-08-23</t>
-  </si>
-  <si>
     <t>2023-08-14</t>
   </si>
   <si>
     <t>2023-08-10</t>
   </si>
   <si>
-    <t>2023-08-09</t>
-  </si>
-  <si>
     <t>2023-09-26</t>
   </si>
   <si>
@@ -324,6 +327,9 @@
     <t>한국, 미래</t>
   </si>
   <si>
+    <t>61.15 : 1</t>
+  </si>
+  <si>
     <t>519.6 : 1</t>
   </si>
   <si>
@@ -367,9 +373,6 @@
   </si>
   <si>
     <t>1366 : 1</t>
-  </si>
-  <si>
-    <t>4.63 : 1</t>
   </si>
   <si>
     <t>인수기관</t>
@@ -812,57 +815,57 @@
         <v>47</v>
       </c>
       <c r="D2">
-        <v>4212</v>
+        <v>80</v>
       </c>
       <c r="E2" t="s">
         <v>49</v>
       </c>
       <c r="F2">
-        <v>1263.6</v>
+        <v>80</v>
       </c>
       <c r="G2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M2">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="N2">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="O2" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="P2" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="Q2">
-        <v>87871545</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D3">
         <v>4212</v>
@@ -874,22 +877,22 @@
         <v>1263.6</v>
       </c>
       <c r="G3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M3">
         <v>26000</v>
@@ -898,10 +901,10 @@
         <v>30</v>
       </c>
       <c r="O3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q3">
         <v>87871545</v>
@@ -909,13 +912,13 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D4">
         <v>4212</v>
@@ -924,37 +927,37 @@
         <v>51</v>
       </c>
       <c r="F4">
-        <v>421.2</v>
+        <v>1263.6</v>
       </c>
       <c r="G4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M4">
         <v>26000</v>
       </c>
       <c r="N4">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="O4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q4">
         <v>87871545</v>
@@ -962,13 +965,13 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D5">
         <v>4212</v>
@@ -980,22 +983,22 @@
         <v>421.2</v>
       </c>
       <c r="G5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M5">
         <v>26000</v>
@@ -1004,10 +1007,10 @@
         <v>10</v>
       </c>
       <c r="O5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q5">
         <v>87871545</v>
@@ -1015,13 +1018,13 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D6">
         <v>4212</v>
@@ -1033,22 +1036,22 @@
         <v>421.2</v>
       </c>
       <c r="G6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M6">
         <v>26000</v>
@@ -1057,10 +1060,10 @@
         <v>10</v>
       </c>
       <c r="O6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q6">
         <v>87871545</v>
@@ -1068,13 +1071,13 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D7">
         <v>4212</v>
@@ -1083,37 +1086,37 @@
         <v>54</v>
       </c>
       <c r="F7">
-        <v>126.36</v>
+        <v>421.2</v>
       </c>
       <c r="G7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M7">
         <v>26000</v>
       </c>
       <c r="N7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="O7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q7">
         <v>87871545</v>
@@ -1121,13 +1124,13 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D8">
         <v>4212</v>
@@ -1139,22 +1142,22 @@
         <v>126.36</v>
       </c>
       <c r="G8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M8">
         <v>26000</v>
@@ -1163,10 +1166,10 @@
         <v>3</v>
       </c>
       <c r="O8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q8">
         <v>87871545</v>
@@ -1174,13 +1177,13 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D9">
         <v>4212</v>
@@ -1192,22 +1195,22 @@
         <v>126.36</v>
       </c>
       <c r="G9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M9">
         <v>26000</v>
@@ -1216,10 +1219,10 @@
         <v>3</v>
       </c>
       <c r="O9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q9">
         <v>87871545</v>
@@ -1227,13 +1230,13 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D10">
         <v>4212</v>
@@ -1242,37 +1245,37 @@
         <v>57</v>
       </c>
       <c r="F10">
-        <v>42.12</v>
+        <v>126.36</v>
       </c>
       <c r="G10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M10">
         <v>26000</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q10">
         <v>87871545</v>
@@ -1289,37 +1292,37 @@
         <v>48</v>
       </c>
       <c r="D11">
-        <v>360</v>
+        <v>4212</v>
       </c>
       <c r="E11" t="s">
         <v>58</v>
       </c>
       <c r="F11">
-        <v>360</v>
+        <v>42.12</v>
       </c>
       <c r="G11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M11">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="N11">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="O11" t="s">
         <v>71</v>
@@ -1328,60 +1331,60 @@
         <v>79</v>
       </c>
       <c r="Q11">
-        <v>13500000</v>
+        <v>87871545</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
         <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12">
-        <v>187.5</v>
+        <v>360</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F12">
-        <v>187.5</v>
+        <v>360</v>
       </c>
       <c r="G12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M12">
-        <v>12500</v>
+        <v>2000</v>
       </c>
       <c r="N12">
         <v>100</v>
       </c>
       <c r="O12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q12">
-        <v>1020000</v>
+        <v>13500000</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1392,49 +1395,49 @@
         <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D13">
-        <v>336</v>
+        <v>187.5</v>
       </c>
       <c r="E13" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F13">
-        <v>336</v>
+        <v>187.5</v>
       </c>
       <c r="G13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M13">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="N13">
         <v>100</v>
       </c>
       <c r="O13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q13">
-        <v>1619200</v>
+        <v>1020000</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1445,60 +1448,60 @@
         <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D14">
-        <v>221.2</v>
+        <v>336</v>
       </c>
       <c r="E14" t="s">
         <v>60</v>
       </c>
       <c r="F14">
-        <v>154.84</v>
+        <v>336</v>
       </c>
       <c r="G14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M14">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N14">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="O14" t="s">
         <v>72</v>
       </c>
       <c r="P14" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="Q14">
-        <v>2370000</v>
+        <v>1619200</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D15">
         <v>221.2</v>
@@ -1507,37 +1510,37 @@
         <v>61</v>
       </c>
       <c r="F15">
-        <v>66.36</v>
+        <v>154.84</v>
       </c>
       <c r="G15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M15">
         <v>14000</v>
       </c>
       <c r="N15">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="O15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q15">
         <v>2370000</v>
@@ -1551,49 +1554,49 @@
         <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16">
-        <v>345</v>
+        <v>221.2</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="F16">
-        <v>345</v>
+        <v>66.36</v>
       </c>
       <c r="G16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M16">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="N16">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="O16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q16">
-        <v>1125000</v>
+        <v>2370000</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1604,49 +1607,49 @@
         <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17">
-        <v>264</v>
+        <v>345</v>
       </c>
       <c r="E17" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F17">
-        <v>264</v>
+        <v>345</v>
       </c>
       <c r="G17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M17">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="N17">
         <v>100</v>
       </c>
       <c r="O17" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="P17" t="s">
         <v>71</v>
       </c>
       <c r="Q17">
-        <v>825000</v>
+        <v>1125000</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1657,49 +1660,49 @@
         <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D18">
-        <v>90</v>
+        <v>264</v>
       </c>
       <c r="E18" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F18">
-        <v>90</v>
+        <v>264</v>
       </c>
       <c r="G18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M18">
-        <v>2000</v>
+        <v>24000</v>
       </c>
       <c r="N18">
         <v>100</v>
       </c>
       <c r="O18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P18" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="Q18">
-        <v>3375000</v>
+        <v>825000</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1710,34 +1713,34 @@
         <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D19">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E19" t="s">
         <v>63</v>
       </c>
       <c r="F19">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M19">
         <v>2000</v>
@@ -1746,13 +1749,13 @@
         <v>100</v>
       </c>
       <c r="O19" t="s">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="P19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q19">
-        <v>3562500</v>
+        <v>3375000</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1763,34 +1766,34 @@
         <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D20">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="E20" t="s">
         <v>64</v>
       </c>
       <c r="F20">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="G20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M20">
         <v>2000</v>
@@ -1802,10 +1805,10 @@
         <v>74</v>
       </c>
       <c r="P20" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="Q20">
-        <v>4875000</v>
+        <v>3562500</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1816,34 +1819,34 @@
         <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D21">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="E21" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F21">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="G21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M21">
         <v>2000</v>
@@ -1852,13 +1855,13 @@
         <v>100</v>
       </c>
       <c r="O21" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="P21" t="s">
         <v>81</v>
       </c>
       <c r="Q21">
-        <v>3750000</v>
+        <v>4875000</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1869,34 +1872,34 @@
         <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D22">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E22" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="F22">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K22" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M22">
         <v>2000</v>
@@ -1908,48 +1911,48 @@
         <v>30</v>
       </c>
       <c r="P22" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="Q22">
-        <v>3000000</v>
+        <v>3750000</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
         <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D23">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="E23" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="F23">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H23" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I23" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J23" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L23" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M23">
         <v>2000</v>
@@ -1958,13 +1961,13 @@
         <v>100</v>
       </c>
       <c r="O23" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="P23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q23">
-        <v>4875000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1975,49 +1978,49 @@
         <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D24">
-        <v>160.0662</v>
+        <v>130</v>
       </c>
       <c r="E24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F24">
-        <v>160.0662</v>
+        <v>130</v>
       </c>
       <c r="G24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M24">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="N24">
         <v>100</v>
       </c>
       <c r="O24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P24" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="Q24">
-        <v>1000414</v>
+        <v>4875000</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2028,49 +2031,49 @@
         <v>45</v>
       </c>
       <c r="C25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D25">
-        <v>177.6</v>
+        <v>160.0662</v>
       </c>
       <c r="E25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F25">
-        <v>177.6</v>
+        <v>160.0662</v>
       </c>
       <c r="G25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K25" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M25">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="N25">
         <v>100</v>
       </c>
       <c r="O25" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P25" t="s">
         <v>83</v>
       </c>
       <c r="Q25">
-        <v>1665000</v>
+        <v>1000414</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2084,46 +2087,46 @@
         <v>47</v>
       </c>
       <c r="D26">
-        <v>805</v>
+        <v>177.6</v>
       </c>
       <c r="E26" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="F26">
-        <v>805</v>
+        <v>177.6</v>
       </c>
       <c r="G26" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H26" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I26" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J26" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L26" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M26">
-        <v>11500</v>
+        <v>8000</v>
       </c>
       <c r="N26">
         <v>100</v>
       </c>
       <c r="O26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P26" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="Q26">
-        <v>5239200</v>
+        <v>1665000</v>
       </c>
     </row>
   </sheetData>
@@ -2144,10 +2147,10 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>15</v>
@@ -2156,111 +2159,111 @@
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
         <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>421200000</v>
+        <v>8000000</v>
       </c>
       <c r="G2">
-        <v>16200000</v>
+        <v>4000000</v>
       </c>
       <c r="H2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I2">
-        <v>21000</v>
+        <v>2000</v>
       </c>
       <c r="J2">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="K2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L2">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="M2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="R2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="S2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="T2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -2271,7 +2274,7 @@
         <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="D3" t="s">
         <v>79</v>
@@ -2280,173 +2283,173 @@
         <v>18</v>
       </c>
       <c r="F3">
-        <v>36000000</v>
+        <v>421200000</v>
       </c>
       <c r="G3">
-        <v>18000000</v>
+        <v>16200000</v>
       </c>
       <c r="H3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I3">
-        <v>2000</v>
+        <v>21000</v>
       </c>
       <c r="J3">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="K3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L3">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="M3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="R3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="S3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="T3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
         <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4">
-        <v>18750000</v>
+        <v>36000000</v>
       </c>
       <c r="G4">
-        <v>1500000</v>
+        <v>18000000</v>
       </c>
       <c r="H4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I4">
-        <v>8900</v>
+        <v>2000</v>
       </c>
       <c r="J4">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L4">
-        <v>12500</v>
+        <v>2000</v>
       </c>
       <c r="M4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="R4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="S4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="T4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
         <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E5" t="s">
         <v>19</v>
       </c>
       <c r="F5">
-        <v>33600000</v>
+        <v>18750000</v>
       </c>
       <c r="G5">
-        <v>2240000</v>
+        <v>1500000</v>
       </c>
       <c r="H5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I5">
-        <v>11500</v>
+        <v>8900</v>
       </c>
       <c r="J5">
-        <v>13200</v>
+        <v>11000</v>
       </c>
       <c r="K5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L5">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="M5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O5">
-        <v>26.78571428571428</v>
+        <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="R5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="S5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="T5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -2460,128 +2463,128 @@
         <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E6" t="s">
         <v>20</v>
       </c>
       <c r="F6">
-        <v>22120000</v>
+        <v>33600000</v>
       </c>
       <c r="G6">
-        <v>1580000</v>
+        <v>2240000</v>
       </c>
       <c r="H6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I6">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="J6">
-        <v>12000</v>
+        <v>13200</v>
       </c>
       <c r="K6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L6">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>26.78571428571428</v>
       </c>
       <c r="P6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="R6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="S6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="T6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B7" t="s">
         <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E7" t="s">
         <v>21</v>
       </c>
       <c r="F7">
-        <v>34500000</v>
+        <v>22120000</v>
       </c>
       <c r="G7">
-        <v>1500000</v>
+        <v>1580000</v>
       </c>
       <c r="H7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I7">
-        <v>20000</v>
+        <v>10500</v>
       </c>
       <c r="J7">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="K7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L7">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="M7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="R7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="S7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="T7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="B8" t="s">
         <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
         <v>71</v>
@@ -2590,116 +2593,116 @@
         <v>22</v>
       </c>
       <c r="F8">
-        <v>26400000</v>
+        <v>34500000</v>
       </c>
       <c r="G8">
-        <v>1100000</v>
+        <v>1500000</v>
       </c>
       <c r="H8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I8">
         <v>20000</v>
       </c>
       <c r="J8">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="K8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L8">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="M8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O8">
-        <v>18.18181818181818</v>
+        <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="R8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="S8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="T8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
         <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="E9" t="s">
         <v>23</v>
       </c>
       <c r="F9">
-        <v>9000000</v>
+        <v>26400000</v>
       </c>
       <c r="G9">
-        <v>4500000</v>
+        <v>1100000</v>
       </c>
       <c r="H9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I9">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="J9">
-        <v>2000</v>
+        <v>24000</v>
       </c>
       <c r="K9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L9">
-        <v>2000</v>
+        <v>24000</v>
       </c>
       <c r="M9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="P9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="R9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="S9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="T9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
         <v>39</v>
@@ -2708,19 +2711,19 @@
         <v>63</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10" t="s">
         <v>24</v>
       </c>
       <c r="F10">
-        <v>9500000</v>
+        <v>9000000</v>
       </c>
       <c r="G10">
-        <v>4750000</v>
+        <v>4500000</v>
       </c>
       <c r="H10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I10">
         <v>2000</v>
@@ -2729,34 +2732,34 @@
         <v>2000</v>
       </c>
       <c r="K10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L10">
         <v>2000</v>
       </c>
       <c r="M10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="R10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="S10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="T10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -2770,19 +2773,19 @@
         <v>64</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s">
         <v>25</v>
       </c>
       <c r="F11">
-        <v>13000000</v>
+        <v>9500000</v>
       </c>
       <c r="G11">
-        <v>6500000</v>
+        <v>4750000</v>
       </c>
       <c r="H11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I11">
         <v>2000</v>
@@ -2791,45 +2794,45 @@
         <v>2000</v>
       </c>
       <c r="K11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L11">
         <v>2000</v>
       </c>
       <c r="M11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="R11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="S11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="T11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="B12" t="s">
         <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D12" t="s">
         <v>81</v>
@@ -2838,13 +2841,13 @@
         <v>26</v>
       </c>
       <c r="F12">
-        <v>10000000</v>
+        <v>13000000</v>
       </c>
       <c r="G12">
-        <v>5000000</v>
+        <v>6500000</v>
       </c>
       <c r="H12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I12">
         <v>2000</v>
@@ -2853,34 +2856,34 @@
         <v>2000</v>
       </c>
       <c r="K12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L12">
         <v>2000</v>
       </c>
       <c r="M12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="R12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="S12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="T12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -2891,22 +2894,22 @@
         <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="E13" t="s">
         <v>27</v>
       </c>
       <c r="F13">
-        <v>8000000</v>
+        <v>10000000</v>
       </c>
       <c r="G13">
-        <v>4000000</v>
+        <v>5000000</v>
       </c>
       <c r="H13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I13">
         <v>2000</v>
@@ -2915,60 +2918,60 @@
         <v>2000</v>
       </c>
       <c r="K13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L13">
         <v>2000</v>
       </c>
       <c r="M13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="R13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="S13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="T13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="B14" t="s">
         <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" t="s">
         <v>28</v>
       </c>
-      <c r="E14" t="s">
-        <v>27</v>
-      </c>
       <c r="F14">
-        <v>13000000</v>
+        <v>8000000</v>
       </c>
       <c r="G14">
-        <v>6500000</v>
+        <v>4000000</v>
       </c>
       <c r="H14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I14">
         <v>2000</v>
@@ -2977,107 +2980,107 @@
         <v>2000</v>
       </c>
       <c r="K14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L14">
         <v>2000</v>
       </c>
       <c r="M14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="R14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="S14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="T14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B15" t="s">
         <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D15" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="E15" t="s">
         <v>28</v>
       </c>
       <c r="F15">
-        <v>16006620</v>
+        <v>13000000</v>
       </c>
       <c r="G15">
-        <v>1333885</v>
+        <v>6500000</v>
       </c>
       <c r="H15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I15">
-        <v>9200</v>
+        <v>2000</v>
       </c>
       <c r="J15">
-        <v>10600</v>
+        <v>2000</v>
       </c>
       <c r="K15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L15">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="M15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="R15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="S15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="T15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B16" t="s">
         <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D16" t="s">
         <v>83</v>
@@ -3086,111 +3089,111 @@
         <v>29</v>
       </c>
       <c r="F16">
-        <v>17760000</v>
+        <v>16006620</v>
       </c>
       <c r="G16">
-        <v>2220000</v>
+        <v>1333885</v>
       </c>
       <c r="H16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I16">
-        <v>5800</v>
+        <v>9200</v>
       </c>
       <c r="J16">
-        <v>6800</v>
+        <v>10600</v>
       </c>
       <c r="K16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L16">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="R16" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="S16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="T16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B17" t="s">
         <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D17" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E17" t="s">
         <v>30</v>
       </c>
       <c r="F17">
-        <v>80500000</v>
+        <v>17760000</v>
       </c>
       <c r="G17">
-        <v>7000000</v>
+        <v>2220000</v>
       </c>
       <c r="H17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I17">
-        <v>11500</v>
+        <v>5800</v>
       </c>
       <c r="J17">
-        <v>12500</v>
+        <v>6800</v>
       </c>
       <c r="K17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L17">
-        <v>11500</v>
+        <v>8000</v>
       </c>
       <c r="M17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O17">
-        <v>47.85714285714286</v>
+        <v>0</v>
       </c>
       <c r="P17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="R17" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="S17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="T17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -3208,16 +3211,16 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -3229,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>12</v>
@@ -3241,30 +3244,30 @@
         <v>6</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2">
         <v>42120</v>
@@ -3284,25 +3287,25 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H3">
         <v>42120</v>
@@ -3322,25 +3325,25 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H4">
         <v>18750</v>
@@ -3360,25 +3363,25 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H5">
         <v>42120</v>
@@ -3398,34 +3401,34 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" t="s">
         <v>30</v>
       </c>
-      <c r="C6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" t="s">
-        <v>27</v>
-      </c>
       <c r="H6">
-        <v>13000</v>
+        <v>17760</v>
       </c>
       <c r="I6">
-        <v>6500000</v>
+        <v>2220000</v>
       </c>
       <c r="J6">
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -3436,34 +3439,34 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s">
         <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="G7" t="s">
         <v>28</v>
       </c>
       <c r="H7">
-        <v>16006.62</v>
+        <v>13000</v>
       </c>
       <c r="I7">
-        <v>1333885</v>
+        <v>6500000</v>
       </c>
       <c r="J7">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -3474,25 +3477,25 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H8">
         <v>13000</v>
@@ -3512,19 +3515,19 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s">
         <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F9" t="s">
         <v>83</v>
@@ -3533,13 +3536,13 @@
         <v>29</v>
       </c>
       <c r="H9">
-        <v>17760</v>
+        <v>16006.62</v>
       </c>
       <c r="I9">
-        <v>2220000</v>
+        <v>1333885</v>
       </c>
       <c r="J9">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -3550,25 +3553,25 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H10">
         <v>126360</v>
@@ -3588,25 +3591,25 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H11">
         <v>34500</v>
@@ -3626,25 +3629,25 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H12">
         <v>33600</v>
@@ -3664,25 +3667,25 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>24</v>
-      </c>
-      <c r="G13" t="s">
-        <v>23</v>
       </c>
       <c r="H13">
         <v>9000</v>
@@ -3702,25 +3705,25 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H14">
         <v>12636</v>
@@ -3740,25 +3743,25 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" t="s">
         <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" t="s">
-        <v>71</v>
-      </c>
-      <c r="G15" t="s">
-        <v>22</v>
       </c>
       <c r="H15">
         <v>26400</v>
@@ -3778,25 +3781,25 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H16">
         <v>36000</v>
@@ -3816,25 +3819,25 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E17" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H17">
         <v>4212</v>
@@ -3854,25 +3857,25 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E18" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H18">
         <v>15484</v>
@@ -3892,25 +3895,25 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H19">
         <v>10000</v>
@@ -3930,25 +3933,25 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" t="s">
         <v>61</v>
       </c>
-      <c r="B20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" t="s">
-        <v>60</v>
-      </c>
       <c r="E20" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H20">
         <v>6636</v>
@@ -3968,25 +3971,25 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E21" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H21">
         <v>12636</v>
@@ -4006,183 +4009,183 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="E22" t="s">
-        <v>56</v>
+        <v>122</v>
       </c>
       <c r="F22" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G22" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="H22">
-        <v>80500</v>
+        <v>12636</v>
       </c>
       <c r="I22">
-        <v>7000000</v>
+        <v>16200000</v>
       </c>
       <c r="J22">
-        <v>11500</v>
+        <v>26000</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="D23" t="s">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="E23" t="s">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="F23" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="G23" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="H23">
-        <v>12636</v>
+        <v>8000</v>
       </c>
       <c r="I23">
-        <v>16200000</v>
+        <v>4000000</v>
       </c>
       <c r="J23">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="E24" t="s">
-        <v>49</v>
+        <v>122</v>
       </c>
       <c r="F24" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="G24" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H24">
-        <v>8000</v>
+        <v>126360</v>
       </c>
       <c r="I24">
-        <v>4000000</v>
+        <v>16200000</v>
       </c>
       <c r="J24">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D25" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="E25" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="F25" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="G25" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H25">
-        <v>126360</v>
+        <v>9500</v>
       </c>
       <c r="I25">
-        <v>16200000</v>
+        <v>4750000</v>
       </c>
       <c r="J25">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="E26" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="F26" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G26" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H26">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="I26">
-        <v>4750000</v>
+        <v>4000000</v>
       </c>
       <c r="J26">
         <v>2000</v>

--- a/datasets/corporate-finance-data.xlsx
+++ b/datasets/corporate-finance-data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="120">
   <si>
     <t>상장일</t>
   </si>
@@ -108,153 +108,147 @@
     <t>2023-08-24</t>
   </si>
   <si>
+    <t>에이치엠씨제6호스팩</t>
+  </si>
+  <si>
+    <t>두산로보틱스</t>
+  </si>
+  <si>
+    <t>신한제11호스팩</t>
+  </si>
+  <si>
+    <t>한싹</t>
+  </si>
+  <si>
+    <t>레뷰코퍼레이션</t>
+  </si>
+  <si>
+    <t>아이엠티</t>
+  </si>
+  <si>
+    <t>밀리의서재</t>
+  </si>
+  <si>
+    <t>인스웨이브시스템즈</t>
+  </si>
+  <si>
+    <t>상상인제4호스팩</t>
+  </si>
+  <si>
+    <t>한화플러스제4호스팩</t>
+  </si>
+  <si>
+    <t>대신밸런스제16호스팩</t>
+  </si>
+  <si>
+    <t>유안타제11호스팩</t>
+  </si>
+  <si>
+    <t>한국제12호스팩</t>
+  </si>
+  <si>
+    <t>대신밸런스제15호스팩</t>
+  </si>
+  <si>
+    <t>시큐레터</t>
+  </si>
+  <si>
+    <t>코스닥</t>
+  </si>
+  <si>
+    <t>코스피</t>
+  </si>
+  <si>
+    <t>현대차</t>
+  </si>
+  <si>
+    <t>한국</t>
+  </si>
+  <si>
+    <t>미래</t>
+  </si>
+  <si>
+    <t>NH</t>
+  </si>
+  <si>
+    <t>KB</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>키움</t>
+  </si>
+  <si>
+    <t>신영</t>
+  </si>
+  <si>
+    <t>하나</t>
+  </si>
+  <si>
+    <t>유비에스</t>
+  </si>
+  <si>
+    <t>신한</t>
+  </si>
+  <si>
+    <t>삼성</t>
+  </si>
+  <si>
+    <t>유안타</t>
+  </si>
+  <si>
+    <t>유진</t>
+  </si>
+  <si>
+    <t>상상인</t>
+  </si>
+  <si>
+    <t>한화</t>
+  </si>
+  <si>
+    <t>대신</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>대표</t>
+  </si>
+  <si>
+    <t>공동대표</t>
+  </si>
+  <si>
+    <t>공동</t>
+  </si>
+  <si>
+    <t>인수</t>
+  </si>
+  <si>
+    <t>2023-09-21</t>
+  </si>
+  <si>
+    <t>2023-09-19</t>
+  </si>
+  <si>
+    <t>2023-09-18</t>
+  </si>
+  <si>
+    <t>2023-08-29</t>
+  </si>
+  <si>
+    <t>2023-08-23</t>
+  </si>
+  <si>
     <t>2023-08-22</t>
   </si>
   <si>
-    <t>에이치엠씨제6호스팩</t>
-  </si>
-  <si>
-    <t>두산로보틱스</t>
-  </si>
-  <si>
-    <t>신한제11호스팩</t>
-  </si>
-  <si>
-    <t>한싹</t>
-  </si>
-  <si>
-    <t>레뷰코퍼레이션</t>
-  </si>
-  <si>
-    <t>아이엠티</t>
-  </si>
-  <si>
-    <t>밀리의서재</t>
-  </si>
-  <si>
-    <t>인스웨이브시스템즈</t>
-  </si>
-  <si>
-    <t>상상인제4호스팩</t>
-  </si>
-  <si>
-    <t>한화플러스제4호스팩</t>
-  </si>
-  <si>
-    <t>대신밸런스제16호스팩</t>
-  </si>
-  <si>
-    <t>유안타제11호스팩</t>
-  </si>
-  <si>
-    <t>한국제12호스팩</t>
-  </si>
-  <si>
-    <t>대신밸런스제15호스팩</t>
-  </si>
-  <si>
-    <t>시큐레터</t>
-  </si>
-  <si>
-    <t>스마트레이더시스템</t>
-  </si>
-  <si>
-    <t>코스닥</t>
-  </si>
-  <si>
-    <t>코스피</t>
-  </si>
-  <si>
-    <t>현대차</t>
-  </si>
-  <si>
-    <t>한국</t>
-  </si>
-  <si>
-    <t>미래</t>
-  </si>
-  <si>
-    <t>NH</t>
-  </si>
-  <si>
-    <t>KB</t>
-  </si>
-  <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t>키움</t>
-  </si>
-  <si>
-    <t>신영</t>
-  </si>
-  <si>
-    <t>하나</t>
-  </si>
-  <si>
-    <t>유비에스</t>
-  </si>
-  <si>
-    <t>신한</t>
-  </si>
-  <si>
-    <t>삼성</t>
-  </si>
-  <si>
-    <t>유안타</t>
-  </si>
-  <si>
-    <t>유진</t>
-  </si>
-  <si>
-    <t>상상인</t>
-  </si>
-  <si>
-    <t>한화</t>
-  </si>
-  <si>
-    <t>대신</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>대표</t>
-  </si>
-  <si>
-    <t>공동대표</t>
-  </si>
-  <si>
-    <t>공동</t>
-  </si>
-  <si>
-    <t>인수</t>
-  </si>
-  <si>
-    <t>2023-09-21</t>
-  </si>
-  <si>
-    <t>2023-09-19</t>
-  </si>
-  <si>
-    <t>2023-09-18</t>
-  </si>
-  <si>
-    <t>2023-08-29</t>
-  </si>
-  <si>
-    <t>2023-08-23</t>
-  </si>
-  <si>
     <t>2023-08-21</t>
   </si>
   <si>
     <t>2023-08-14</t>
   </si>
   <si>
-    <t>2023-08-10</t>
-  </si>
-  <si>
     <t>2023-09-26</t>
   </si>
   <si>
@@ -270,9 +264,6 @@
     <t>2023-08-18</t>
   </si>
   <si>
-    <t>2023-08-16</t>
-  </si>
-  <si>
     <t>회사명</t>
   </si>
   <si>
@@ -370,9 +361,6 @@
   </si>
   <si>
     <t>1698.41 : 1</t>
-  </si>
-  <si>
-    <t>1366 : 1</t>
   </si>
   <si>
     <t>인수기관</t>
@@ -745,7 +733,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -809,37 +797,37 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D2">
         <v>80</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F2">
         <v>80</v>
       </c>
       <c r="G2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M2">
         <v>2000</v>
@@ -862,37 +850,37 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D3">
         <v>4212</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F3">
         <v>1263.6</v>
       </c>
       <c r="G3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K3" t="s">
         <v>66</v>
       </c>
-      <c r="H3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I3" t="s">
-        <v>66</v>
-      </c>
-      <c r="J3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K3" t="s">
-        <v>68</v>
-      </c>
       <c r="L3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M3">
         <v>26000</v>
@@ -901,10 +889,10 @@
         <v>30</v>
       </c>
       <c r="O3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="P3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="Q3">
         <v>87871545</v>
@@ -915,37 +903,37 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D4">
         <v>4212</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F4">
         <v>1263.6</v>
       </c>
       <c r="G4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
         <v>66</v>
       </c>
-      <c r="H4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I4" t="s">
-        <v>66</v>
-      </c>
-      <c r="J4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K4" t="s">
-        <v>68</v>
-      </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M4">
         <v>26000</v>
@@ -954,10 +942,10 @@
         <v>30</v>
       </c>
       <c r="O4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="P4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="Q4">
         <v>87871545</v>
@@ -968,37 +956,37 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D5">
         <v>4212</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F5">
         <v>421.2</v>
       </c>
       <c r="G5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M5">
         <v>26000</v>
@@ -1007,10 +995,10 @@
         <v>10</v>
       </c>
       <c r="O5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="P5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="Q5">
         <v>87871545</v>
@@ -1021,37 +1009,37 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D6">
         <v>4212</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F6">
         <v>421.2</v>
       </c>
       <c r="G6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M6">
         <v>26000</v>
@@ -1060,10 +1048,10 @@
         <v>10</v>
       </c>
       <c r="O6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="P6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="Q6">
         <v>87871545</v>
@@ -1074,37 +1062,37 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D7">
         <v>4212</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F7">
         <v>421.2</v>
       </c>
       <c r="G7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M7">
         <v>26000</v>
@@ -1113,10 +1101,10 @@
         <v>10</v>
       </c>
       <c r="O7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="P7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="Q7">
         <v>87871545</v>
@@ -1127,37 +1115,37 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D8">
         <v>4212</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F8">
         <v>126.36</v>
       </c>
       <c r="G8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M8">
         <v>26000</v>
@@ -1166,10 +1154,10 @@
         <v>3</v>
       </c>
       <c r="O8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="P8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="Q8">
         <v>87871545</v>
@@ -1180,37 +1168,37 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D9">
         <v>4212</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F9">
         <v>126.36</v>
       </c>
       <c r="G9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M9">
         <v>26000</v>
@@ -1219,10 +1207,10 @@
         <v>3</v>
       </c>
       <c r="O9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="P9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="Q9">
         <v>87871545</v>
@@ -1233,37 +1221,37 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D10">
         <v>4212</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F10">
         <v>126.36</v>
       </c>
       <c r="G10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M10">
         <v>26000</v>
@@ -1272,10 +1260,10 @@
         <v>3</v>
       </c>
       <c r="O10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="P10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="Q10">
         <v>87871545</v>
@@ -1286,37 +1274,37 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D11">
         <v>4212</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F11">
         <v>42.12</v>
       </c>
       <c r="G11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M11">
         <v>26000</v>
@@ -1325,10 +1313,10 @@
         <v>1</v>
       </c>
       <c r="O11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="P11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="Q11">
         <v>87871545</v>
@@ -1339,37 +1327,37 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D12">
         <v>360</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F12">
         <v>360</v>
       </c>
       <c r="G12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M12">
         <v>2000</v>
@@ -1378,10 +1366,10 @@
         <v>100</v>
       </c>
       <c r="O12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="P12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Q12">
         <v>13500000</v>
@@ -1392,37 +1380,37 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D13">
         <v>187.5</v>
       </c>
       <c r="E13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F13">
         <v>187.5</v>
       </c>
       <c r="G13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M13">
         <v>12500</v>
@@ -1431,10 +1419,10 @@
         <v>100</v>
       </c>
       <c r="O13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="P13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Q13">
         <v>1020000</v>
@@ -1445,37 +1433,37 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D14">
         <v>336</v>
       </c>
       <c r="E14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F14">
         <v>336</v>
       </c>
       <c r="G14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M14">
         <v>15000</v>
@@ -1484,10 +1472,10 @@
         <v>100</v>
       </c>
       <c r="O14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="P14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Q14">
         <v>1619200</v>
@@ -1498,37 +1486,37 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D15">
         <v>221.2</v>
       </c>
       <c r="E15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F15">
         <v>154.84</v>
       </c>
       <c r="G15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M15">
         <v>14000</v>
@@ -1537,10 +1525,10 @@
         <v>70</v>
       </c>
       <c r="O15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="P15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="Q15">
         <v>2370000</v>
@@ -1551,37 +1539,37 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D16">
         <v>221.2</v>
       </c>
       <c r="E16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F16">
         <v>66.36</v>
       </c>
       <c r="G16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M16">
         <v>14000</v>
@@ -1590,10 +1578,10 @@
         <v>30</v>
       </c>
       <c r="O16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="P16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="Q16">
         <v>2370000</v>
@@ -1604,37 +1592,37 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D17">
         <v>345</v>
       </c>
       <c r="E17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F17">
         <v>345</v>
       </c>
       <c r="G17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M17">
         <v>23000</v>
@@ -1643,10 +1631,10 @@
         <v>100</v>
       </c>
       <c r="O17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="P17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="Q17">
         <v>1125000</v>
@@ -1657,37 +1645,37 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D18">
         <v>264</v>
       </c>
       <c r="E18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F18">
         <v>264</v>
       </c>
       <c r="G18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M18">
         <v>24000</v>
@@ -1699,7 +1687,7 @@
         <v>24</v>
       </c>
       <c r="P18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q18">
         <v>825000</v>
@@ -1710,37 +1698,37 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D19">
         <v>90</v>
       </c>
       <c r="E19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F19">
         <v>90</v>
       </c>
       <c r="G19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M19">
         <v>2000</v>
@@ -1763,37 +1751,37 @@
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D20">
         <v>95</v>
       </c>
       <c r="E20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F20">
         <v>95</v>
       </c>
       <c r="G20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M20">
         <v>2000</v>
@@ -1802,7 +1790,7 @@
         <v>100</v>
       </c>
       <c r="O20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P20" t="s">
         <v>27</v>
@@ -1816,37 +1804,37 @@
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D21">
         <v>130</v>
       </c>
       <c r="E21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F21">
         <v>130</v>
       </c>
       <c r="G21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M21">
         <v>2000</v>
@@ -1855,10 +1843,10 @@
         <v>100</v>
       </c>
       <c r="O21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q21">
         <v>4875000</v>
@@ -1869,37 +1857,37 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D22">
         <v>100</v>
       </c>
       <c r="E22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F22">
         <v>100</v>
       </c>
       <c r="G22" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H22" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I22" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J22" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L22" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M22">
         <v>2000</v>
@@ -1908,10 +1896,10 @@
         <v>100</v>
       </c>
       <c r="O22" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="P22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q22">
         <v>3750000</v>
@@ -1922,37 +1910,37 @@
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D23">
         <v>80</v>
       </c>
       <c r="E23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F23">
         <v>80</v>
       </c>
       <c r="G23" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H23" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I23" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J23" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L23" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M23">
         <v>2000</v>
@@ -1961,7 +1949,7 @@
         <v>100</v>
       </c>
       <c r="O23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P23" t="s">
         <v>29</v>
@@ -1975,37 +1963,37 @@
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D24">
         <v>130</v>
       </c>
       <c r="E24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F24">
         <v>130</v>
       </c>
       <c r="G24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M24">
         <v>2000</v>
@@ -2014,7 +2002,7 @@
         <v>100</v>
       </c>
       <c r="O24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P24" t="s">
         <v>29</v>
@@ -2028,37 +2016,37 @@
         <v>29</v>
       </c>
       <c r="B25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" t="s">
         <v>45</v>
-      </c>
-      <c r="C25" t="s">
-        <v>47</v>
       </c>
       <c r="D25">
         <v>160.0662</v>
       </c>
       <c r="E25" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F25">
         <v>160.0662</v>
       </c>
       <c r="G25" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H25" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I25" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J25" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L25" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M25">
         <v>12000</v>
@@ -2067,66 +2055,13 @@
         <v>100</v>
       </c>
       <c r="O25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="Q25">
         <v>1000414</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="A26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26">
-        <v>177.6</v>
-      </c>
-      <c r="E26" t="s">
-        <v>65</v>
-      </c>
-      <c r="F26">
-        <v>177.6</v>
-      </c>
-      <c r="G26" t="s">
-        <v>66</v>
-      </c>
-      <c r="H26" t="s">
-        <v>66</v>
-      </c>
-      <c r="I26" t="s">
-        <v>66</v>
-      </c>
-      <c r="J26" t="s">
-        <v>66</v>
-      </c>
-      <c r="K26" t="s">
-        <v>67</v>
-      </c>
-      <c r="L26" t="s">
-        <v>66</v>
-      </c>
-      <c r="M26">
-        <v>8000</v>
-      </c>
-      <c r="N26">
-        <v>100</v>
-      </c>
-      <c r="O26" t="s">
-        <v>78</v>
-      </c>
-      <c r="P26" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q26">
-        <v>1665000</v>
       </c>
     </row>
   </sheetData>
@@ -2136,7 +2071,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2147,10 +2082,10 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>15</v>
@@ -2159,49 +2094,49 @@
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -2209,10 +2144,10 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
@@ -2227,7 +2162,7 @@
         <v>4000000</v>
       </c>
       <c r="H2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I2">
         <v>2000</v>
@@ -2236,48 +2171,48 @@
         <v>2000</v>
       </c>
       <c r="K2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L2">
         <v>2000</v>
       </c>
       <c r="M2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Q2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="R2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="S2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="T2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
@@ -2289,7 +2224,7 @@
         <v>16200000</v>
       </c>
       <c r="H3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I3">
         <v>21000</v>
@@ -2298,48 +2233,48 @@
         <v>26000</v>
       </c>
       <c r="K3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L3">
         <v>26000</v>
       </c>
       <c r="M3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Q3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="R3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="S3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="T3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E4" t="s">
         <v>19</v>
@@ -2351,7 +2286,7 @@
         <v>18000000</v>
       </c>
       <c r="H4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I4">
         <v>2000</v>
@@ -2360,48 +2295,48 @@
         <v>2000</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L4">
         <v>2000</v>
       </c>
       <c r="M4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Q4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="R4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="S4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="T4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E5" t="s">
         <v>19</v>
@@ -2413,7 +2348,7 @@
         <v>1500000</v>
       </c>
       <c r="H5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I5">
         <v>8900</v>
@@ -2422,48 +2357,48 @@
         <v>11000</v>
       </c>
       <c r="K5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L5">
         <v>12500</v>
       </c>
       <c r="M5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Q5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="R5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="S5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="T5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E6" t="s">
         <v>20</v>
@@ -2475,7 +2410,7 @@
         <v>2240000</v>
       </c>
       <c r="H6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I6">
         <v>11500</v>
@@ -2484,48 +2419,48 @@
         <v>13200</v>
       </c>
       <c r="K6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L6">
         <v>15000</v>
       </c>
       <c r="M6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O6">
         <v>26.78571428571428</v>
       </c>
       <c r="P6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Q6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="R6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="S6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="T6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E7" t="s">
         <v>21</v>
@@ -2537,7 +2472,7 @@
         <v>1580000</v>
       </c>
       <c r="H7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I7">
         <v>10500</v>
@@ -2546,48 +2481,48 @@
         <v>12000</v>
       </c>
       <c r="K7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L7">
         <v>14000</v>
       </c>
       <c r="M7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Q7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="R7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="S7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="T7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E8" t="s">
         <v>22</v>
@@ -2599,7 +2534,7 @@
         <v>1500000</v>
       </c>
       <c r="H8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I8">
         <v>20000</v>
@@ -2608,34 +2543,34 @@
         <v>23000</v>
       </c>
       <c r="K8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L8">
         <v>23000</v>
       </c>
       <c r="M8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Q8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="R8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="S8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="T8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -2643,13 +2578,13 @@
         <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E9" t="s">
         <v>23</v>
@@ -2661,7 +2596,7 @@
         <v>1100000</v>
       </c>
       <c r="H9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I9">
         <v>20000</v>
@@ -2670,34 +2605,34 @@
         <v>24000</v>
       </c>
       <c r="K9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L9">
         <v>24000</v>
       </c>
       <c r="M9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O9">
         <v>18.18181818181818</v>
       </c>
       <c r="P9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Q9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="R9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="S9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="T9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -2705,10 +2640,10 @@
         <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
@@ -2723,7 +2658,7 @@
         <v>4500000</v>
       </c>
       <c r="H10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I10">
         <v>2000</v>
@@ -2732,45 +2667,45 @@
         <v>2000</v>
       </c>
       <c r="K10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L10">
         <v>2000</v>
       </c>
       <c r="M10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Q10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="R10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="S10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="T10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D11" t="s">
         <v>27</v>
@@ -2785,7 +2720,7 @@
         <v>4750000</v>
       </c>
       <c r="H11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I11">
         <v>2000</v>
@@ -2794,48 +2729,48 @@
         <v>2000</v>
       </c>
       <c r="K11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L11">
         <v>2000</v>
       </c>
       <c r="M11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Q11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="R11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="S11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="T11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E12" t="s">
         <v>26</v>
@@ -2847,7 +2782,7 @@
         <v>6500000</v>
       </c>
       <c r="H12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I12">
         <v>2000</v>
@@ -2856,48 +2791,48 @@
         <v>2000</v>
       </c>
       <c r="K12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L12">
         <v>2000</v>
       </c>
       <c r="M12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Q12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="R12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="S12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="T12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E13" t="s">
         <v>27</v>
@@ -2909,7 +2844,7 @@
         <v>5000000</v>
       </c>
       <c r="H13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I13">
         <v>2000</v>
@@ -2918,45 +2853,45 @@
         <v>2000</v>
       </c>
       <c r="K13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L13">
         <v>2000</v>
       </c>
       <c r="M13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Q13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="R13" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="S13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="T13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
         <v>29</v>
@@ -2971,7 +2906,7 @@
         <v>4000000</v>
       </c>
       <c r="H14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I14">
         <v>2000</v>
@@ -2980,45 +2915,45 @@
         <v>2000</v>
       </c>
       <c r="K14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L14">
         <v>2000</v>
       </c>
       <c r="M14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Q14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="R14" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="S14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="T14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D15" t="s">
         <v>29</v>
@@ -3033,7 +2968,7 @@
         <v>6500000</v>
       </c>
       <c r="H15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I15">
         <v>2000</v>
@@ -3042,48 +2977,48 @@
         <v>2000</v>
       </c>
       <c r="K15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L15">
         <v>2000</v>
       </c>
       <c r="M15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Q15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="R15" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="S15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="T15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E16" t="s">
         <v>29</v>
@@ -3095,7 +3030,7 @@
         <v>1333885</v>
       </c>
       <c r="H16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I16">
         <v>9200</v>
@@ -3104,96 +3039,34 @@
         <v>10600</v>
       </c>
       <c r="K16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L16">
         <v>12000</v>
       </c>
       <c r="M16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Q16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="R16" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="S16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="T16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E17" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17">
-        <v>17760000</v>
-      </c>
-      <c r="G17">
-        <v>2220000</v>
-      </c>
-      <c r="H17" t="s">
-        <v>66</v>
-      </c>
-      <c r="I17">
-        <v>5800</v>
-      </c>
-      <c r="J17">
-        <v>6800</v>
-      </c>
-      <c r="K17" t="s">
-        <v>66</v>
-      </c>
-      <c r="L17">
-        <v>8000</v>
-      </c>
-      <c r="M17" t="s">
-        <v>66</v>
-      </c>
-      <c r="N17" t="s">
-        <v>66</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>66</v>
-      </c>
-      <c r="R17" t="s">
-        <v>118</v>
-      </c>
-      <c r="S17" t="s">
-        <v>66</v>
-      </c>
-      <c r="T17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -3203,7 +3076,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3211,16 +3084,16 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -3232,10 +3105,10 @@
         <v>0</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>12</v>
@@ -3244,27 +3117,27 @@
         <v>6</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s">
         <v>18</v>
@@ -3287,98 +3160,98 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="F3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H3">
-        <v>42120</v>
+        <v>18750</v>
       </c>
       <c r="I3">
-        <v>16200000</v>
+        <v>1500000</v>
       </c>
       <c r="J3">
-        <v>26000</v>
+        <v>12500</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="F4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H4">
-        <v>18750</v>
+        <v>42120</v>
       </c>
       <c r="I4">
-        <v>1500000</v>
+        <v>16200000</v>
       </c>
       <c r="J4">
-        <v>12500</v>
+        <v>26000</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s">
         <v>18</v>
@@ -3401,34 +3274,34 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H6">
-        <v>17760</v>
+        <v>13000</v>
       </c>
       <c r="I6">
-        <v>2220000</v>
+        <v>6500000</v>
       </c>
       <c r="J6">
-        <v>8000</v>
+        <v>2000</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -3439,19 +3312,19 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -3477,34 +3350,34 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F8" t="s">
         <v>81</v>
       </c>
       <c r="G8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H8">
-        <v>13000</v>
+        <v>16006.62</v>
       </c>
       <c r="I8">
-        <v>6500000</v>
+        <v>1333885</v>
       </c>
       <c r="J8">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -3515,34 +3388,34 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="F9" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H9">
-        <v>16006.62</v>
+        <v>34500</v>
       </c>
       <c r="I9">
-        <v>1333885</v>
+        <v>1500000</v>
       </c>
       <c r="J9">
-        <v>12000</v>
+        <v>23000</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -3553,22 +3426,22 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s">
         <v>18</v>
@@ -3591,34 +3464,34 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F11" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H11">
-        <v>34500</v>
+        <v>33600</v>
       </c>
       <c r="I11">
-        <v>1500000</v>
+        <v>2240000</v>
       </c>
       <c r="J11">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -3629,34 +3502,34 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F12" t="s">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="G12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H12">
-        <v>33600</v>
+        <v>9000</v>
       </c>
       <c r="I12">
-        <v>2240000</v>
+        <v>4500000</v>
       </c>
       <c r="J12">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -3667,34 +3540,34 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="F13" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="G13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H13">
-        <v>9000</v>
+        <v>26400</v>
       </c>
       <c r="I13">
-        <v>4500000</v>
+        <v>1100000</v>
       </c>
       <c r="J13">
-        <v>2000</v>
+        <v>24000</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -3705,22 +3578,22 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E14" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G14" t="s">
         <v>18</v>
@@ -3743,34 +3616,34 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F15" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G15" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H15">
-        <v>26400</v>
+        <v>36000</v>
       </c>
       <c r="I15">
-        <v>1100000</v>
+        <v>18000000</v>
       </c>
       <c r="J15">
-        <v>24000</v>
+        <v>2000</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -3781,192 +3654,192 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="E16" t="s">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="F16" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H16">
-        <v>36000</v>
+        <v>4212</v>
       </c>
       <c r="I16">
-        <v>18000000</v>
+        <v>16200000</v>
       </c>
       <c r="J16">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s">
         <v>71</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="E17" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F17" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H17">
-        <v>4212</v>
+        <v>15484</v>
       </c>
       <c r="I17">
-        <v>16200000</v>
+        <v>1580000</v>
       </c>
       <c r="J17">
-        <v>26000</v>
+        <v>14000</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>123</v>
+        <v>59</v>
       </c>
       <c r="F18" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="G18" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H18">
-        <v>15484</v>
+        <v>10000</v>
       </c>
       <c r="I18">
-        <v>1580000</v>
+        <v>5000000</v>
       </c>
       <c r="J18">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E19" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
       <c r="F19" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="G19" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H19">
-        <v>10000</v>
+        <v>6636</v>
       </c>
       <c r="I19">
-        <v>5000000</v>
+        <v>1580000</v>
       </c>
       <c r="J19">
-        <v>2000</v>
+        <v>14000</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="E20" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F20" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G20" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H20">
-        <v>6636</v>
+        <v>12636</v>
       </c>
       <c r="I20">
-        <v>1580000</v>
+        <v>16200000</v>
       </c>
       <c r="J20">
-        <v>14000</v>
+        <v>26000</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -3974,19 +3847,19 @@
         <v>55</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E21" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G21" t="s">
         <v>18</v>
@@ -4009,28 +3882,28 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E22" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F22" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G22" t="s">
         <v>18</v>
       </c>
       <c r="H22">
-        <v>12636</v>
+        <v>126360</v>
       </c>
       <c r="I22">
         <v>16200000</v>
@@ -4042,24 +3915,24 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F23" t="s">
         <v>29</v>
@@ -4085,69 +3958,69 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D24" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="E24" t="s">
-        <v>122</v>
+        <v>62</v>
       </c>
       <c r="F24" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="G24" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H24">
-        <v>126360</v>
+        <v>9500</v>
       </c>
       <c r="I24">
-        <v>16200000</v>
+        <v>4750000</v>
       </c>
       <c r="J24">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D25" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="E25" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="F25" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="G25" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H25">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="I25">
-        <v>4750000</v>
+        <v>4000000</v>
       </c>
       <c r="J25">
         <v>2000</v>
@@ -4156,44 +4029,6 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" t="s">
-        <v>49</v>
-      </c>
-      <c r="E26" t="s">
-        <v>49</v>
-      </c>
-      <c r="F26" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26">
-        <v>8000</v>
-      </c>
-      <c r="I26">
-        <v>4000000</v>
-      </c>
-      <c r="J26">
-        <v>2000</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
         <v>100</v>
       </c>
     </row>

--- a/datasets/corporate-finance-data.xlsx
+++ b/datasets/corporate-finance-data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="116">
   <si>
     <t>상장일</t>
   </si>
@@ -105,165 +105,156 @@
     <t>2023-08-30</t>
   </si>
   <si>
+    <t>에이치엠씨제6호스팩</t>
+  </si>
+  <si>
+    <t>두산로보틱스</t>
+  </si>
+  <si>
+    <t>신한제11호스팩</t>
+  </si>
+  <si>
+    <t>한싹</t>
+  </si>
+  <si>
+    <t>레뷰코퍼레이션</t>
+  </si>
+  <si>
+    <t>아이엠티</t>
+  </si>
+  <si>
+    <t>밀리의서재</t>
+  </si>
+  <si>
+    <t>인스웨이브시스템즈</t>
+  </si>
+  <si>
+    <t>상상인제4호스팩</t>
+  </si>
+  <si>
+    <t>한화플러스제4호스팩</t>
+  </si>
+  <si>
+    <t>대신밸런스제16호스팩</t>
+  </si>
+  <si>
+    <t>유안타제11호스팩</t>
+  </si>
+  <si>
+    <t>한국제12호스팩</t>
+  </si>
+  <si>
+    <t>대신밸런스제15호스팩</t>
+  </si>
+  <si>
+    <t>코스닥</t>
+  </si>
+  <si>
+    <t>코스피</t>
+  </si>
+  <si>
+    <t>현대차</t>
+  </si>
+  <si>
+    <t>한국</t>
+  </si>
+  <si>
+    <t>미래</t>
+  </si>
+  <si>
+    <t>NH</t>
+  </si>
+  <si>
+    <t>KB</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>키움</t>
+  </si>
+  <si>
+    <t>신영</t>
+  </si>
+  <si>
+    <t>하나</t>
+  </si>
+  <si>
+    <t>유비에스</t>
+  </si>
+  <si>
+    <t>신한</t>
+  </si>
+  <si>
+    <t>삼성</t>
+  </si>
+  <si>
+    <t>유안타</t>
+  </si>
+  <si>
+    <t>유진</t>
+  </si>
+  <si>
+    <t>상상인</t>
+  </si>
+  <si>
+    <t>한화</t>
+  </si>
+  <si>
+    <t>대신</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>대표</t>
+  </si>
+  <si>
+    <t>공동대표</t>
+  </si>
+  <si>
+    <t>공동</t>
+  </si>
+  <si>
+    <t>인수</t>
+  </si>
+  <si>
+    <t>2023-09-21</t>
+  </si>
+  <si>
+    <t>2023-09-19</t>
+  </si>
+  <si>
+    <t>2023-09-18</t>
+  </si>
+  <si>
+    <t>2023-08-29</t>
+  </si>
+  <si>
+    <t>2023-08-23</t>
+  </si>
+  <si>
+    <t>2023-08-22</t>
+  </si>
+  <si>
+    <t>2023-08-21</t>
+  </si>
+  <si>
+    <t>2023-09-26</t>
+  </si>
+  <si>
+    <t>2023-09-22</t>
+  </si>
+  <si>
+    <t>2023-08-28</t>
+  </si>
+  <si>
+    <t>2023-08-25</t>
+  </si>
+  <si>
     <t>2023-08-24</t>
   </si>
   <si>
-    <t>에이치엠씨제6호스팩</t>
-  </si>
-  <si>
-    <t>두산로보틱스</t>
-  </si>
-  <si>
-    <t>신한제11호스팩</t>
-  </si>
-  <si>
-    <t>한싹</t>
-  </si>
-  <si>
-    <t>레뷰코퍼레이션</t>
-  </si>
-  <si>
-    <t>아이엠티</t>
-  </si>
-  <si>
-    <t>밀리의서재</t>
-  </si>
-  <si>
-    <t>인스웨이브시스템즈</t>
-  </si>
-  <si>
-    <t>상상인제4호스팩</t>
-  </si>
-  <si>
-    <t>한화플러스제4호스팩</t>
-  </si>
-  <si>
-    <t>대신밸런스제16호스팩</t>
-  </si>
-  <si>
-    <t>유안타제11호스팩</t>
-  </si>
-  <si>
-    <t>한국제12호스팩</t>
-  </si>
-  <si>
-    <t>대신밸런스제15호스팩</t>
-  </si>
-  <si>
-    <t>시큐레터</t>
-  </si>
-  <si>
-    <t>코스닥</t>
-  </si>
-  <si>
-    <t>코스피</t>
-  </si>
-  <si>
-    <t>현대차</t>
-  </si>
-  <si>
-    <t>한국</t>
-  </si>
-  <si>
-    <t>미래</t>
-  </si>
-  <si>
-    <t>NH</t>
-  </si>
-  <si>
-    <t>KB</t>
-  </si>
-  <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t>키움</t>
-  </si>
-  <si>
-    <t>신영</t>
-  </si>
-  <si>
-    <t>하나</t>
-  </si>
-  <si>
-    <t>유비에스</t>
-  </si>
-  <si>
-    <t>신한</t>
-  </si>
-  <si>
-    <t>삼성</t>
-  </si>
-  <si>
-    <t>유안타</t>
-  </si>
-  <si>
-    <t>유진</t>
-  </si>
-  <si>
-    <t>상상인</t>
-  </si>
-  <si>
-    <t>한화</t>
-  </si>
-  <si>
-    <t>대신</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>대표</t>
-  </si>
-  <si>
-    <t>공동대표</t>
-  </si>
-  <si>
-    <t>공동</t>
-  </si>
-  <si>
-    <t>인수</t>
-  </si>
-  <si>
-    <t>2023-09-21</t>
-  </si>
-  <si>
-    <t>2023-09-19</t>
-  </si>
-  <si>
-    <t>2023-09-18</t>
-  </si>
-  <si>
-    <t>2023-08-29</t>
-  </si>
-  <si>
-    <t>2023-08-23</t>
-  </si>
-  <si>
-    <t>2023-08-22</t>
-  </si>
-  <si>
-    <t>2023-08-21</t>
-  </si>
-  <si>
-    <t>2023-08-14</t>
-  </si>
-  <si>
-    <t>2023-09-26</t>
-  </si>
-  <si>
-    <t>2023-09-22</t>
-  </si>
-  <si>
-    <t>2023-08-28</t>
-  </si>
-  <si>
-    <t>2023-08-25</t>
-  </si>
-  <si>
-    <t>2023-08-18</t>
-  </si>
-  <si>
     <t>회사명</t>
   </si>
   <si>
@@ -358,9 +349,6 @@
   </si>
   <si>
     <t>548.99 : 1</t>
-  </si>
-  <si>
-    <t>1698.41 : 1</t>
   </si>
   <si>
     <t>인수기관</t>
@@ -733,7 +721,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -797,37 +785,37 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D2">
         <v>80</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F2">
         <v>80</v>
       </c>
       <c r="G2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M2">
         <v>2000</v>
@@ -850,37 +838,37 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D3">
         <v>4212</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F3">
         <v>1263.6</v>
       </c>
       <c r="G3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3" t="s">
         <v>64</v>
       </c>
-      <c r="H3" t="s">
-        <v>64</v>
-      </c>
-      <c r="I3" t="s">
-        <v>64</v>
-      </c>
-      <c r="J3" t="s">
-        <v>64</v>
-      </c>
-      <c r="K3" t="s">
-        <v>66</v>
-      </c>
       <c r="L3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M3">
         <v>26000</v>
@@ -889,10 +877,10 @@
         <v>30</v>
       </c>
       <c r="O3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="Q3">
         <v>87871545</v>
@@ -903,37 +891,37 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D4">
         <v>4212</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F4">
         <v>1263.6</v>
       </c>
       <c r="G4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
         <v>64</v>
       </c>
-      <c r="H4" t="s">
-        <v>64</v>
-      </c>
-      <c r="I4" t="s">
-        <v>64</v>
-      </c>
-      <c r="J4" t="s">
-        <v>64</v>
-      </c>
-      <c r="K4" t="s">
-        <v>66</v>
-      </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M4">
         <v>26000</v>
@@ -942,10 +930,10 @@
         <v>30</v>
       </c>
       <c r="O4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="Q4">
         <v>87871545</v>
@@ -956,37 +944,37 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D5">
         <v>4212</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F5">
         <v>421.2</v>
       </c>
       <c r="G5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M5">
         <v>26000</v>
@@ -995,10 +983,10 @@
         <v>10</v>
       </c>
       <c r="O5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="Q5">
         <v>87871545</v>
@@ -1009,37 +997,37 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D6">
         <v>4212</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F6">
         <v>421.2</v>
       </c>
       <c r="G6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M6">
         <v>26000</v>
@@ -1048,10 +1036,10 @@
         <v>10</v>
       </c>
       <c r="O6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="Q6">
         <v>87871545</v>
@@ -1062,37 +1050,37 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D7">
         <v>4212</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F7">
         <v>421.2</v>
       </c>
       <c r="G7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M7">
         <v>26000</v>
@@ -1101,10 +1089,10 @@
         <v>10</v>
       </c>
       <c r="O7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="Q7">
         <v>87871545</v>
@@ -1115,37 +1103,37 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D8">
         <v>4212</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F8">
         <v>126.36</v>
       </c>
       <c r="G8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M8">
         <v>26000</v>
@@ -1154,10 +1142,10 @@
         <v>3</v>
       </c>
       <c r="O8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="Q8">
         <v>87871545</v>
@@ -1168,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D9">
         <v>4212</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F9">
         <v>126.36</v>
       </c>
       <c r="G9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M9">
         <v>26000</v>
@@ -1207,10 +1195,10 @@
         <v>3</v>
       </c>
       <c r="O9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="Q9">
         <v>87871545</v>
@@ -1221,37 +1209,37 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D10">
         <v>4212</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F10">
         <v>126.36</v>
       </c>
       <c r="G10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M10">
         <v>26000</v>
@@ -1260,10 +1248,10 @@
         <v>3</v>
       </c>
       <c r="O10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="Q10">
         <v>87871545</v>
@@ -1274,37 +1262,37 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D11">
         <v>4212</v>
       </c>
       <c r="E11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F11">
         <v>42.12</v>
       </c>
       <c r="G11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M11">
         <v>26000</v>
@@ -1313,10 +1301,10 @@
         <v>1</v>
       </c>
       <c r="O11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="Q11">
         <v>87871545</v>
@@ -1327,37 +1315,37 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D12">
         <v>360</v>
       </c>
       <c r="E12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F12">
         <v>360</v>
       </c>
       <c r="G12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M12">
         <v>2000</v>
@@ -1366,10 +1354,10 @@
         <v>100</v>
       </c>
       <c r="O12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="Q12">
         <v>13500000</v>
@@ -1380,37 +1368,37 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D13">
         <v>187.5</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F13">
         <v>187.5</v>
       </c>
       <c r="G13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M13">
         <v>12500</v>
@@ -1419,10 +1407,10 @@
         <v>100</v>
       </c>
       <c r="O13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="Q13">
         <v>1020000</v>
@@ -1433,37 +1421,37 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D14">
         <v>336</v>
       </c>
       <c r="E14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F14">
         <v>336</v>
       </c>
       <c r="G14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M14">
         <v>15000</v>
@@ -1472,10 +1460,10 @@
         <v>100</v>
       </c>
       <c r="O14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="Q14">
         <v>1619200</v>
@@ -1486,37 +1474,37 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D15">
         <v>221.2</v>
       </c>
       <c r="E15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F15">
         <v>154.84</v>
       </c>
       <c r="G15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M15">
         <v>14000</v>
@@ -1525,10 +1513,10 @@
         <v>70</v>
       </c>
       <c r="O15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="P15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="Q15">
         <v>2370000</v>
@@ -1539,37 +1527,37 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D16">
         <v>221.2</v>
       </c>
       <c r="E16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F16">
         <v>66.36</v>
       </c>
       <c r="G16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M16">
         <v>14000</v>
@@ -1578,10 +1566,10 @@
         <v>30</v>
       </c>
       <c r="O16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="P16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="Q16">
         <v>2370000</v>
@@ -1592,37 +1580,37 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D17">
         <v>345</v>
       </c>
       <c r="E17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F17">
         <v>345</v>
       </c>
       <c r="G17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M17">
         <v>23000</v>
@@ -1631,10 +1619,10 @@
         <v>100</v>
       </c>
       <c r="O17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="P17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="Q17">
         <v>1125000</v>
@@ -1645,37 +1633,37 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D18">
         <v>264</v>
       </c>
       <c r="E18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F18">
         <v>264</v>
       </c>
       <c r="G18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M18">
         <v>24000</v>
@@ -1687,7 +1675,7 @@
         <v>24</v>
       </c>
       <c r="P18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Q18">
         <v>825000</v>
@@ -1698,37 +1686,37 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D19">
         <v>90</v>
       </c>
       <c r="E19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F19">
         <v>90</v>
       </c>
       <c r="G19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M19">
         <v>2000</v>
@@ -1751,37 +1739,37 @@
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D20">
         <v>95</v>
       </c>
       <c r="E20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F20">
         <v>95</v>
       </c>
       <c r="G20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M20">
         <v>2000</v>
@@ -1790,7 +1778,7 @@
         <v>100</v>
       </c>
       <c r="O20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="P20" t="s">
         <v>27</v>
@@ -1804,37 +1792,37 @@
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D21">
         <v>130</v>
       </c>
       <c r="E21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F21">
         <v>130</v>
       </c>
       <c r="G21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M21">
         <v>2000</v>
@@ -1843,10 +1831,10 @@
         <v>100</v>
       </c>
       <c r="O21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="P21" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="Q21">
         <v>4875000</v>
@@ -1857,37 +1845,37 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D22">
         <v>100</v>
       </c>
       <c r="E22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F22">
         <v>100</v>
       </c>
       <c r="G22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M22">
         <v>2000</v>
@@ -1896,10 +1884,10 @@
         <v>100</v>
       </c>
       <c r="O22" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P22" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="Q22">
         <v>3750000</v>
@@ -1910,37 +1898,37 @@
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D23">
         <v>80</v>
       </c>
       <c r="E23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F23">
         <v>80</v>
       </c>
       <c r="G23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M23">
         <v>2000</v>
@@ -1949,10 +1937,10 @@
         <v>100</v>
       </c>
       <c r="O23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P23" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="Q23">
         <v>3000000</v>
@@ -1963,37 +1951,37 @@
         <v>28</v>
       </c>
       <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" t="s">
         <v>43</v>
-      </c>
-      <c r="C24" t="s">
-        <v>45</v>
       </c>
       <c r="D24">
         <v>130</v>
       </c>
       <c r="E24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F24">
         <v>130</v>
       </c>
       <c r="G24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M24">
         <v>2000</v>
@@ -2002,66 +1990,13 @@
         <v>100</v>
       </c>
       <c r="O24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P24" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="Q24">
         <v>4875000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25">
-        <v>160.0662</v>
-      </c>
-      <c r="E25" t="s">
-        <v>63</v>
-      </c>
-      <c r="F25">
-        <v>160.0662</v>
-      </c>
-      <c r="G25" t="s">
-        <v>64</v>
-      </c>
-      <c r="H25" t="s">
-        <v>64</v>
-      </c>
-      <c r="I25" t="s">
-        <v>64</v>
-      </c>
-      <c r="J25" t="s">
-        <v>64</v>
-      </c>
-      <c r="K25" t="s">
-        <v>65</v>
-      </c>
-      <c r="L25" t="s">
-        <v>64</v>
-      </c>
-      <c r="M25">
-        <v>12000</v>
-      </c>
-      <c r="N25">
-        <v>100</v>
-      </c>
-      <c r="O25" t="s">
-        <v>76</v>
-      </c>
-      <c r="P25" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q25">
-        <v>1000414</v>
       </c>
     </row>
   </sheetData>
@@ -2071,7 +2006,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2082,10 +2017,10 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>15</v>
@@ -2094,49 +2029,49 @@
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -2144,10 +2079,10 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
@@ -2162,7 +2097,7 @@
         <v>4000000</v>
       </c>
       <c r="H2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I2">
         <v>2000</v>
@@ -2171,48 +2106,48 @@
         <v>2000</v>
       </c>
       <c r="K2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L2">
         <v>2000</v>
       </c>
       <c r="M2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Q2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="S2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="T2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
@@ -2224,7 +2159,7 @@
         <v>16200000</v>
       </c>
       <c r="H3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I3">
         <v>21000</v>
@@ -2233,48 +2168,48 @@
         <v>26000</v>
       </c>
       <c r="K3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L3">
         <v>26000</v>
       </c>
       <c r="M3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Q3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="S3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="T3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E4" t="s">
         <v>19</v>
@@ -2286,7 +2221,7 @@
         <v>18000000</v>
       </c>
       <c r="H4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I4">
         <v>2000</v>
@@ -2295,48 +2230,48 @@
         <v>2000</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L4">
         <v>2000</v>
       </c>
       <c r="M4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Q4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="S4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="T4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E5" t="s">
         <v>19</v>
@@ -2348,7 +2283,7 @@
         <v>1500000</v>
       </c>
       <c r="H5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I5">
         <v>8900</v>
@@ -2357,48 +2292,48 @@
         <v>11000</v>
       </c>
       <c r="K5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L5">
         <v>12500</v>
       </c>
       <c r="M5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Q5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="S5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="T5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E6" t="s">
         <v>20</v>
@@ -2410,7 +2345,7 @@
         <v>2240000</v>
       </c>
       <c r="H6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I6">
         <v>11500</v>
@@ -2419,48 +2354,48 @@
         <v>13200</v>
       </c>
       <c r="K6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L6">
         <v>15000</v>
       </c>
       <c r="M6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O6">
         <v>26.78571428571428</v>
       </c>
       <c r="P6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Q6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="S6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="T6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E7" t="s">
         <v>21</v>
@@ -2472,7 +2407,7 @@
         <v>1580000</v>
       </c>
       <c r="H7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I7">
         <v>10500</v>
@@ -2481,48 +2416,48 @@
         <v>12000</v>
       </c>
       <c r="K7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L7">
         <v>14000</v>
       </c>
       <c r="M7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Q7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="S7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="T7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E8" t="s">
         <v>22</v>
@@ -2534,7 +2469,7 @@
         <v>1500000</v>
       </c>
       <c r="H8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I8">
         <v>20000</v>
@@ -2543,34 +2478,34 @@
         <v>23000</v>
       </c>
       <c r="K8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L8">
         <v>23000</v>
       </c>
       <c r="M8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Q8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="S8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="T8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -2578,13 +2513,13 @@
         <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E9" t="s">
         <v>23</v>
@@ -2596,7 +2531,7 @@
         <v>1100000</v>
       </c>
       <c r="H9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I9">
         <v>20000</v>
@@ -2605,34 +2540,34 @@
         <v>24000</v>
       </c>
       <c r="K9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L9">
         <v>24000</v>
       </c>
       <c r="M9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O9">
         <v>18.18181818181818</v>
       </c>
       <c r="P9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Q9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="S9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="T9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -2640,10 +2575,10 @@
         <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
@@ -2658,7 +2593,7 @@
         <v>4500000</v>
       </c>
       <c r="H10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I10">
         <v>2000</v>
@@ -2667,45 +2602,45 @@
         <v>2000</v>
       </c>
       <c r="K10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L10">
         <v>2000</v>
       </c>
       <c r="M10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Q10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="S10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="T10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D11" t="s">
         <v>27</v>
@@ -2720,7 +2655,7 @@
         <v>4750000</v>
       </c>
       <c r="H11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I11">
         <v>2000</v>
@@ -2729,48 +2664,48 @@
         <v>2000</v>
       </c>
       <c r="K11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L11">
         <v>2000</v>
       </c>
       <c r="M11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Q11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="S11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="T11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D12" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E12" t="s">
         <v>26</v>
@@ -2782,7 +2717,7 @@
         <v>6500000</v>
       </c>
       <c r="H12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I12">
         <v>2000</v>
@@ -2791,48 +2726,48 @@
         <v>2000</v>
       </c>
       <c r="K12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L12">
         <v>2000</v>
       </c>
       <c r="M12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Q12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R12" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="S12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="T12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E13" t="s">
         <v>27</v>
@@ -2844,7 +2779,7 @@
         <v>5000000</v>
       </c>
       <c r="H13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I13">
         <v>2000</v>
@@ -2853,48 +2788,48 @@
         <v>2000</v>
       </c>
       <c r="K13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L13">
         <v>2000</v>
       </c>
       <c r="M13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Q13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="S13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="T13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="E14" t="s">
         <v>28</v>
@@ -2906,7 +2841,7 @@
         <v>4000000</v>
       </c>
       <c r="H14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I14">
         <v>2000</v>
@@ -2915,48 +2850,48 @@
         <v>2000</v>
       </c>
       <c r="K14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L14">
         <v>2000</v>
       </c>
       <c r="M14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Q14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R14" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="S14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="T14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="E15" t="s">
         <v>28</v>
@@ -2968,7 +2903,7 @@
         <v>6500000</v>
       </c>
       <c r="H15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I15">
         <v>2000</v>
@@ -2977,96 +2912,34 @@
         <v>2000</v>
       </c>
       <c r="K15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L15">
         <v>2000</v>
       </c>
       <c r="M15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Q15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R15" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="S15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="T15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>76</v>
-      </c>
-      <c r="B16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" t="s">
-        <v>81</v>
-      </c>
-      <c r="E16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16">
-        <v>16006620</v>
-      </c>
-      <c r="G16">
-        <v>1333885</v>
-      </c>
-      <c r="H16" t="s">
-        <v>64</v>
-      </c>
-      <c r="I16">
-        <v>9200</v>
-      </c>
-      <c r="J16">
-        <v>10600</v>
-      </c>
-      <c r="K16" t="s">
-        <v>64</v>
-      </c>
-      <c r="L16">
-        <v>12000</v>
-      </c>
-      <c r="M16" t="s">
-        <v>64</v>
-      </c>
-      <c r="N16" t="s">
-        <v>64</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>64</v>
-      </c>
-      <c r="R16" t="s">
-        <v>114</v>
-      </c>
-      <c r="S16" t="s">
-        <v>64</v>
-      </c>
-      <c r="T16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -3076,7 +2949,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3084,16 +2957,16 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -3105,10 +2978,10 @@
         <v>0</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>12</v>
@@ -3117,27 +2990,27 @@
         <v>6</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G2" t="s">
         <v>18</v>
@@ -3160,22 +3033,22 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G3" t="s">
         <v>19</v>
@@ -3198,22 +3071,22 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G4" t="s">
         <v>18</v>
@@ -3236,22 +3109,22 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
         <v>18</v>
@@ -3274,22 +3147,22 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s">
         <v>26</v>
@@ -3312,22 +3185,22 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s">
         <v>28</v>
@@ -3350,60 +3223,60 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="E8" t="s">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="F8" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H8">
-        <v>16006.62</v>
+        <v>126360</v>
       </c>
       <c r="I8">
-        <v>1333885</v>
+        <v>16200000</v>
       </c>
       <c r="J8">
-        <v>12000</v>
+        <v>26000</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G9" t="s">
         <v>22</v>
@@ -3426,72 +3299,72 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="F10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H10">
-        <v>126360</v>
+        <v>33600</v>
       </c>
       <c r="I10">
-        <v>16200000</v>
+        <v>2240000</v>
       </c>
       <c r="J10">
-        <v>26000</v>
+        <v>15000</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F11" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="G11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H11">
-        <v>33600</v>
+        <v>9000</v>
       </c>
       <c r="I11">
-        <v>2240000</v>
+        <v>4500000</v>
       </c>
       <c r="J11">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -3502,60 +3375,60 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="F12" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="G12" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H12">
-        <v>9000</v>
+        <v>12636</v>
       </c>
       <c r="I12">
-        <v>4500000</v>
+        <v>16200000</v>
       </c>
       <c r="J12">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G13" t="s">
         <v>23</v>
@@ -3578,136 +3451,136 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C14" t="s">
         <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="E14" t="s">
-        <v>118</v>
+        <v>55</v>
       </c>
       <c r="F14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H14">
-        <v>12636</v>
+        <v>36000</v>
       </c>
       <c r="I14">
-        <v>16200000</v>
+        <v>18000000</v>
       </c>
       <c r="J14">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="F15" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H15">
-        <v>36000</v>
+        <v>4212</v>
       </c>
       <c r="I15">
-        <v>18000000</v>
+        <v>16200000</v>
       </c>
       <c r="J15">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="E16" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="F16" t="s">
         <v>77</v>
       </c>
       <c r="G16" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="H16">
-        <v>4212</v>
+        <v>10000</v>
       </c>
       <c r="I16">
-        <v>16200000</v>
+        <v>5000000</v>
       </c>
       <c r="J16">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E17" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G17" t="s">
         <v>21</v>
@@ -3730,78 +3603,78 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E18" t="s">
-        <v>59</v>
+        <v>115</v>
       </c>
       <c r="F18" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="G18" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H18">
-        <v>10000</v>
+        <v>6636</v>
       </c>
       <c r="I18">
-        <v>5000000</v>
+        <v>1580000</v>
       </c>
       <c r="J18">
-        <v>2000</v>
+        <v>14000</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="E19" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F19" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G19" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H19">
-        <v>6636</v>
+        <v>12636</v>
       </c>
       <c r="I19">
-        <v>1580000</v>
+        <v>16200000</v>
       </c>
       <c r="J19">
-        <v>14000</v>
+        <v>26000</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -3809,19 +3682,19 @@
         <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E20" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G20" t="s">
         <v>18</v>
@@ -3844,28 +3717,28 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E21" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F21" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G21" t="s">
         <v>18</v>
       </c>
       <c r="H21">
-        <v>12636</v>
+        <v>126360</v>
       </c>
       <c r="I21">
         <v>16200000</v>
@@ -3877,74 +3750,74 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D22" t="s">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c r="E22" t="s">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="F22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G22" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H22">
-        <v>126360</v>
+        <v>8000</v>
       </c>
       <c r="I22">
-        <v>16200000</v>
+        <v>4000000</v>
       </c>
       <c r="J22">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B23" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D23" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E23" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="F23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G23" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H23">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="I23">
-        <v>4000000</v>
+        <v>4750000</v>
       </c>
       <c r="J23">
         <v>2000</v>
@@ -3958,31 +3831,31 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E24" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="G24" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H24">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="I24">
-        <v>4750000</v>
+        <v>4000000</v>
       </c>
       <c r="J24">
         <v>2000</v>
@@ -3991,44 +3864,6 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" t="s">
-        <v>47</v>
-      </c>
-      <c r="E25" t="s">
-        <v>47</v>
-      </c>
-      <c r="F25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25" t="s">
-        <v>17</v>
-      </c>
-      <c r="H25">
-        <v>8000</v>
-      </c>
-      <c r="I25">
-        <v>4000000</v>
-      </c>
-      <c r="J25">
-        <v>2000</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
         <v>100</v>
       </c>
     </row>

--- a/datasets/corporate-finance-data.xlsx
+++ b/datasets/corporate-finance-data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="120">
   <si>
     <t>상장일</t>
   </si>
@@ -69,6 +69,9 @@
     <t>총기관배정수량</t>
   </si>
   <si>
+    <t>2023-10-18</t>
+  </si>
+  <si>
     <t>2023-10-13</t>
   </si>
   <si>
@@ -105,6 +108,9 @@
     <t>2023-08-30</t>
   </si>
   <si>
+    <t>퓨릿</t>
+  </si>
+  <si>
     <t>에이치엠씨제6호스팩</t>
   </si>
   <si>
@@ -153,15 +159,15 @@
     <t>코스피</t>
   </si>
   <si>
+    <t>미래</t>
+  </si>
+  <si>
     <t>현대차</t>
   </si>
   <si>
     <t>한국</t>
   </si>
   <si>
-    <t>미래</t>
-  </si>
-  <si>
     <t>NH</t>
   </si>
   <si>
@@ -240,6 +246,9 @@
     <t>2023-08-21</t>
   </si>
   <si>
+    <t>2023-10-11</t>
+  </si>
+  <si>
     <t>2023-09-26</t>
   </si>
   <si>
@@ -307,6 +316,9 @@
   </si>
   <si>
     <t>한국, 미래</t>
+  </si>
+  <si>
+    <t>1415.77 : 1</t>
   </si>
   <si>
     <t>61.15 : 1</t>
@@ -721,7 +733,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -785,52 +797,52 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D2">
-        <v>80</v>
+        <v>442.659</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F2">
-        <v>80</v>
+        <v>442.659</v>
       </c>
       <c r="G2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M2">
-        <v>2000</v>
+        <v>10700</v>
       </c>
       <c r="N2">
         <v>100</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="P2" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="Q2">
-        <v>3000000</v>
+        <v>3102750</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -838,90 +850,90 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3">
-        <v>4212</v>
+        <v>80</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F3">
-        <v>1263.6</v>
+        <v>80</v>
       </c>
       <c r="G3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M3">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="N3">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="O3" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="P3" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="Q3">
-        <v>87871545</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D4">
         <v>4212</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F4">
         <v>1263.6</v>
       </c>
       <c r="G4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M4">
         <v>26000</v>
@@ -930,10 +942,10 @@
         <v>30</v>
       </c>
       <c r="O4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Q4">
         <v>87871545</v>
@@ -941,52 +953,52 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D5">
         <v>4212</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F5">
-        <v>421.2</v>
+        <v>1263.6</v>
       </c>
       <c r="G5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M5">
         <v>26000</v>
       </c>
       <c r="N5">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="O5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Q5">
         <v>87871545</v>
@@ -994,40 +1006,40 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D6">
         <v>4212</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F6">
         <v>421.2</v>
       </c>
       <c r="G6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M6">
         <v>26000</v>
@@ -1036,10 +1048,10 @@
         <v>10</v>
       </c>
       <c r="O6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Q6">
         <v>87871545</v>
@@ -1047,40 +1059,40 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D7">
         <v>4212</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F7">
         <v>421.2</v>
       </c>
       <c r="G7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M7">
         <v>26000</v>
@@ -1089,10 +1101,10 @@
         <v>10</v>
       </c>
       <c r="O7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Q7">
         <v>87871545</v>
@@ -1100,52 +1112,52 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D8">
         <v>4212</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F8">
-        <v>126.36</v>
+        <v>421.2</v>
       </c>
       <c r="G8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M8">
         <v>26000</v>
       </c>
       <c r="N8">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="O8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Q8">
         <v>87871545</v>
@@ -1153,40 +1165,40 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D9">
         <v>4212</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F9">
         <v>126.36</v>
       </c>
       <c r="G9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M9">
         <v>26000</v>
@@ -1195,10 +1207,10 @@
         <v>3</v>
       </c>
       <c r="O9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P9" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Q9">
         <v>87871545</v>
@@ -1206,40 +1218,40 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D10">
         <v>4212</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F10">
         <v>126.36</v>
       </c>
       <c r="G10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M10">
         <v>26000</v>
@@ -1248,10 +1260,10 @@
         <v>3</v>
       </c>
       <c r="O10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P10" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Q10">
         <v>87871545</v>
@@ -1259,52 +1271,52 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D11">
         <v>4212</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F11">
-        <v>42.12</v>
+        <v>126.36</v>
       </c>
       <c r="G11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M11">
         <v>26000</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Q11">
         <v>87871545</v>
@@ -1315,105 +1327,105 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D12">
-        <v>360</v>
+        <v>4212</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F12">
-        <v>360</v>
+        <v>42.12</v>
       </c>
       <c r="G12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K12" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="L12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M12">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="N12">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="O12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q12">
-        <v>13500000</v>
+        <v>87871545</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D13">
-        <v>187.5</v>
+        <v>360</v>
       </c>
       <c r="E13" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="F13">
-        <v>187.5</v>
+        <v>360</v>
       </c>
       <c r="G13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M13">
-        <v>12500</v>
+        <v>2000</v>
       </c>
       <c r="N13">
         <v>100</v>
       </c>
       <c r="O13" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P13" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Q13">
-        <v>1020000</v>
+        <v>13500000</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1421,52 +1433,52 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D14">
-        <v>336</v>
+        <v>187.5</v>
       </c>
       <c r="E14" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F14">
-        <v>336</v>
+        <v>187.5</v>
       </c>
       <c r="G14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M14">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="N14">
         <v>100</v>
       </c>
       <c r="O14" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P14" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Q14">
-        <v>1619200</v>
+        <v>1020000</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1474,102 +1486,102 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D15">
-        <v>221.2</v>
+        <v>336</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F15">
-        <v>154.84</v>
+        <v>336</v>
       </c>
       <c r="G15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M15">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N15">
+        <v>100</v>
+      </c>
+      <c r="O15" t="s">
         <v>70</v>
       </c>
-      <c r="O15" t="s">
-        <v>69</v>
-      </c>
       <c r="P15" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="Q15">
-        <v>2370000</v>
+        <v>1619200</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D16">
         <v>221.2</v>
       </c>
       <c r="E16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F16">
-        <v>66.36</v>
+        <v>154.84</v>
       </c>
       <c r="G16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M16">
         <v>14000</v>
       </c>
       <c r="N16">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="O16" t="s">
+        <v>71</v>
+      </c>
+      <c r="P16" t="s">
         <v>69</v>
-      </c>
-      <c r="P16" t="s">
-        <v>67</v>
       </c>
       <c r="Q16">
         <v>2370000</v>
@@ -1580,52 +1592,52 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D17">
-        <v>345</v>
+        <v>221.2</v>
       </c>
       <c r="E17" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="F17">
-        <v>345</v>
+        <v>66.36</v>
       </c>
       <c r="G17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K17" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="L17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M17">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="N17">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="O17" t="s">
+        <v>71</v>
+      </c>
+      <c r="P17" t="s">
         <v>69</v>
       </c>
-      <c r="P17" t="s">
-        <v>67</v>
-      </c>
       <c r="Q17">
-        <v>1125000</v>
+        <v>2370000</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1633,52 +1645,52 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D18">
-        <v>264</v>
+        <v>345</v>
       </c>
       <c r="E18" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F18">
-        <v>264</v>
+        <v>345</v>
       </c>
       <c r="G18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M18">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="N18">
         <v>100</v>
       </c>
       <c r="O18" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="P18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q18">
-        <v>825000</v>
+        <v>1125000</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1686,52 +1698,52 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D19">
-        <v>90</v>
+        <v>264</v>
       </c>
       <c r="E19" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F19">
-        <v>90</v>
+        <v>264</v>
       </c>
       <c r="G19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M19">
-        <v>2000</v>
+        <v>24000</v>
       </c>
       <c r="N19">
         <v>100</v>
       </c>
       <c r="O19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P19" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="Q19">
-        <v>3375000</v>
+        <v>825000</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1739,37 +1751,37 @@
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D20">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F20">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M20">
         <v>2000</v>
@@ -1778,13 +1790,13 @@
         <v>100</v>
       </c>
       <c r="O20" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="P20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q20">
-        <v>3562500</v>
+        <v>3375000</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1792,37 +1804,37 @@
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D21">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="E21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F21">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="G21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M21">
         <v>2000</v>
@@ -1831,13 +1843,13 @@
         <v>100</v>
       </c>
       <c r="O21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P21" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="Q21">
-        <v>4875000</v>
+        <v>3562500</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1845,37 +1857,37 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D22">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="E22" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F22">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="G22" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H22" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I22" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J22" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K22" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L22" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M22">
         <v>2000</v>
@@ -1884,13 +1896,13 @@
         <v>100</v>
       </c>
       <c r="O22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P22" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q22">
-        <v>3750000</v>
+        <v>4875000</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1898,37 +1910,37 @@
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D23">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E23" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="F23">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K23" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M23">
         <v>2000</v>
@@ -1937,51 +1949,51 @@
         <v>100</v>
       </c>
       <c r="O23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P23" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q23">
-        <v>3000000</v>
+        <v>3750000</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D24">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="E24" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="F24">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="G24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K24" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M24">
         <v>2000</v>
@@ -1990,12 +2002,65 @@
         <v>100</v>
       </c>
       <c r="O24" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P24" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="Q24">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25">
+        <v>130</v>
+      </c>
+      <c r="E25" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25">
+        <v>130</v>
+      </c>
+      <c r="G25" t="s">
+        <v>64</v>
+      </c>
+      <c r="H25" t="s">
+        <v>64</v>
+      </c>
+      <c r="I25" t="s">
+        <v>64</v>
+      </c>
+      <c r="J25" t="s">
+        <v>64</v>
+      </c>
+      <c r="K25" t="s">
+        <v>65</v>
+      </c>
+      <c r="L25" t="s">
+        <v>64</v>
+      </c>
+      <c r="M25">
+        <v>2000</v>
+      </c>
+      <c r="N25">
+        <v>100</v>
+      </c>
+      <c r="O25" t="s">
+        <v>75</v>
+      </c>
+      <c r="P25" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q25">
         <v>4875000</v>
       </c>
     </row>
@@ -2006,7 +2071,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T15"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2017,10 +2082,10 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>15</v>
@@ -2029,633 +2094,633 @@
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>8000000</v>
+        <v>44265900</v>
       </c>
       <c r="G2">
-        <v>4000000</v>
+        <v>4137000</v>
       </c>
       <c r="H2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I2">
-        <v>2000</v>
+        <v>8800</v>
       </c>
       <c r="J2">
-        <v>2000</v>
+        <v>10700</v>
       </c>
       <c r="K2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L2">
-        <v>2000</v>
+        <v>10700</v>
       </c>
       <c r="M2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>30.21513173797438</v>
       </c>
       <c r="P2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="R2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="S2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="T2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
       </c>
       <c r="F3">
-        <v>421200000</v>
+        <v>8000000</v>
       </c>
       <c r="G3">
-        <v>16200000</v>
+        <v>4000000</v>
       </c>
       <c r="H3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I3">
-        <v>21000</v>
+        <v>2000</v>
       </c>
       <c r="J3">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="K3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L3">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="M3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="R3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="S3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="T3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E4" t="s">
         <v>19</v>
       </c>
       <c r="F4">
-        <v>36000000</v>
+        <v>421200000</v>
       </c>
       <c r="G4">
-        <v>18000000</v>
+        <v>16200000</v>
       </c>
       <c r="H4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I4">
-        <v>2000</v>
+        <v>21000</v>
       </c>
       <c r="J4">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="K4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L4">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="M4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="R4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="S4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="T4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5">
-        <v>18750000</v>
+        <v>36000000</v>
       </c>
       <c r="G5">
-        <v>1500000</v>
+        <v>18000000</v>
       </c>
       <c r="H5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I5">
-        <v>8900</v>
+        <v>2000</v>
       </c>
       <c r="J5">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="K5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L5">
-        <v>12500</v>
+        <v>2000</v>
       </c>
       <c r="M5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="R5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="S5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="T5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E6" t="s">
         <v>20</v>
       </c>
       <c r="F6">
-        <v>33600000</v>
+        <v>18750000</v>
       </c>
       <c r="G6">
-        <v>2240000</v>
+        <v>1500000</v>
       </c>
       <c r="H6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I6">
-        <v>11500</v>
+        <v>8900</v>
       </c>
       <c r="J6">
-        <v>13200</v>
+        <v>11000</v>
       </c>
       <c r="K6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L6">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="M6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O6">
-        <v>26.78571428571428</v>
+        <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="R6" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="S6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="T6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="E7" t="s">
         <v>21</v>
       </c>
       <c r="F7">
-        <v>22120000</v>
+        <v>33600000</v>
       </c>
       <c r="G7">
-        <v>1580000</v>
+        <v>2240000</v>
       </c>
       <c r="H7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I7">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="J7">
-        <v>12000</v>
+        <v>13200</v>
       </c>
       <c r="K7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L7">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>26.78571428571428</v>
       </c>
       <c r="P7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="R7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="S7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="T7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" t="s">
         <v>69</v>
-      </c>
-      <c r="B8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" t="s">
-        <v>67</v>
       </c>
       <c r="E8" t="s">
         <v>22</v>
       </c>
       <c r="F8">
-        <v>34500000</v>
+        <v>22120000</v>
       </c>
       <c r="G8">
-        <v>1500000</v>
+        <v>1580000</v>
       </c>
       <c r="H8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I8">
-        <v>20000</v>
+        <v>10500</v>
       </c>
       <c r="J8">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="K8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L8">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="M8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="R8" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="S8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="T8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E9" t="s">
         <v>23</v>
       </c>
       <c r="F9">
-        <v>26400000</v>
+        <v>34500000</v>
       </c>
       <c r="G9">
-        <v>1100000</v>
+        <v>1500000</v>
       </c>
       <c r="H9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I9">
         <v>20000</v>
       </c>
       <c r="J9">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="K9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L9">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="M9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O9">
-        <v>18.18181818181818</v>
+        <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="R9" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="S9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="T9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="E10" t="s">
         <v>24</v>
       </c>
       <c r="F10">
-        <v>9000000</v>
+        <v>26400000</v>
       </c>
       <c r="G10">
-        <v>4500000</v>
+        <v>1100000</v>
       </c>
       <c r="H10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I10">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="J10">
-        <v>2000</v>
+        <v>24000</v>
       </c>
       <c r="K10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L10">
-        <v>2000</v>
+        <v>24000</v>
       </c>
       <c r="M10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="P10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="R10" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="S10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="T10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" t="s">
         <v>25</v>
       </c>
       <c r="F11">
-        <v>9500000</v>
+        <v>9000000</v>
       </c>
       <c r="G11">
-        <v>4750000</v>
+        <v>4500000</v>
       </c>
       <c r="H11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I11">
         <v>2000</v>
@@ -2664,60 +2729,60 @@
         <v>2000</v>
       </c>
       <c r="K11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11">
         <v>2000</v>
       </c>
       <c r="M11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="R11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="S11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="T11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D12" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="E12" t="s">
         <v>26</v>
       </c>
       <c r="F12">
-        <v>13000000</v>
+        <v>9500000</v>
       </c>
       <c r="G12">
-        <v>6500000</v>
+        <v>4750000</v>
       </c>
       <c r="H12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I12">
         <v>2000</v>
@@ -2726,60 +2791,60 @@
         <v>2000</v>
       </c>
       <c r="K12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L12">
         <v>2000</v>
       </c>
       <c r="M12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="R12" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="S12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="T12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E13" t="s">
         <v>27</v>
       </c>
       <c r="F13">
-        <v>10000000</v>
+        <v>13000000</v>
       </c>
       <c r="G13">
-        <v>5000000</v>
+        <v>6500000</v>
       </c>
       <c r="H13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I13">
         <v>2000</v>
@@ -2788,60 +2853,60 @@
         <v>2000</v>
       </c>
       <c r="K13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L13">
         <v>2000</v>
       </c>
       <c r="M13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="R13" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="S13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="T13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="D14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E14" t="s">
         <v>28</v>
       </c>
       <c r="F14">
-        <v>8000000</v>
+        <v>10000000</v>
       </c>
       <c r="G14">
-        <v>4000000</v>
+        <v>5000000</v>
       </c>
       <c r="H14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I14">
         <v>2000</v>
@@ -2850,60 +2915,60 @@
         <v>2000</v>
       </c>
       <c r="K14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L14">
         <v>2000</v>
       </c>
       <c r="M14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="R14" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="S14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="T14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F15">
-        <v>13000000</v>
+        <v>8000000</v>
       </c>
       <c r="G15">
-        <v>6500000</v>
+        <v>4000000</v>
       </c>
       <c r="H15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I15">
         <v>2000</v>
@@ -2912,34 +2977,96 @@
         <v>2000</v>
       </c>
       <c r="K15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L15">
         <v>2000</v>
       </c>
       <c r="M15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="R15" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="S15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="T15" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16">
+        <v>13000000</v>
+      </c>
+      <c r="G16">
+        <v>6500000</v>
+      </c>
+      <c r="H16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16">
+        <v>2000</v>
+      </c>
+      <c r="J16">
+        <v>2000</v>
+      </c>
+      <c r="K16" t="s">
+        <v>64</v>
+      </c>
+      <c r="L16">
+        <v>2000</v>
+      </c>
+      <c r="M16" t="s">
+        <v>64</v>
+      </c>
+      <c r="N16" t="s">
+        <v>64</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>64</v>
+      </c>
+      <c r="R16" t="s">
+        <v>114</v>
+      </c>
+      <c r="S16" t="s">
+        <v>64</v>
+      </c>
+      <c r="T16" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2949,7 +3076,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2957,16 +3084,16 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -2978,10 +3105,10 @@
         <v>0</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>12</v>
@@ -2990,30 +3117,30 @@
         <v>6</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2">
         <v>42120</v>
@@ -3033,25 +3160,25 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H3">
         <v>18750</v>
@@ -3071,25 +3198,25 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E4" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H4">
         <v>42120</v>
@@ -3109,25 +3236,25 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E5" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H5">
         <v>42120</v>
@@ -3147,25 +3274,25 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H6">
         <v>13000</v>
@@ -3185,25 +3312,25 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B7" t="s">
         <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H7">
         <v>13000</v>
@@ -3226,37 +3353,37 @@
         <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>114</v>
+        <v>47</v>
       </c>
       <c r="F8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H8">
-        <v>126360</v>
+        <v>34500</v>
       </c>
       <c r="I8">
-        <v>16200000</v>
+        <v>1500000</v>
       </c>
       <c r="J8">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -3264,10 +3391,10 @@
         <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
         <v>47</v>
@@ -3276,19 +3403,19 @@
         <v>47</v>
       </c>
       <c r="F9" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="G9" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H9">
-        <v>34500</v>
+        <v>44265.9</v>
       </c>
       <c r="I9">
-        <v>1500000</v>
+        <v>4137000</v>
       </c>
       <c r="J9">
-        <v>23000</v>
+        <v>10700</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -3299,72 +3426,72 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>118</v>
       </c>
       <c r="F10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H10">
-        <v>33600</v>
+        <v>126360</v>
       </c>
       <c r="I10">
-        <v>2240000</v>
+        <v>16200000</v>
       </c>
       <c r="J10">
-        <v>15000</v>
+        <v>26000</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H11">
-        <v>9000</v>
+        <v>33600</v>
       </c>
       <c r="I11">
-        <v>4500000</v>
+        <v>2240000</v>
       </c>
       <c r="J11">
-        <v>2000</v>
+        <v>15000</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -3375,110 +3502,110 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="E12" t="s">
-        <v>114</v>
+        <v>61</v>
       </c>
       <c r="F12" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="G12" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H12">
-        <v>12636</v>
+        <v>9000</v>
       </c>
       <c r="I12">
-        <v>16200000</v>
+        <v>4500000</v>
       </c>
       <c r="J12">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="E13" t="s">
-        <v>52</v>
+        <v>118</v>
       </c>
       <c r="F13" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="G13" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H13">
-        <v>26400</v>
+        <v>12636</v>
       </c>
       <c r="I13">
-        <v>1100000</v>
+        <v>16200000</v>
       </c>
       <c r="J13">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F14" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G14" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H14">
-        <v>36000</v>
+        <v>26400</v>
       </c>
       <c r="I14">
-        <v>18000000</v>
+        <v>1100000</v>
       </c>
       <c r="J14">
-        <v>2000</v>
+        <v>24000</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -3489,101 +3616,101 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="E15" t="s">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="F15" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H15">
-        <v>4212</v>
+        <v>36000</v>
       </c>
       <c r="I15">
-        <v>16200000</v>
+        <v>18000000</v>
       </c>
       <c r="J15">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="F16" t="s">
         <v>77</v>
       </c>
       <c r="G16" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H16">
-        <v>10000</v>
+        <v>4212</v>
       </c>
       <c r="I16">
-        <v>5000000</v>
+        <v>16200000</v>
       </c>
       <c r="J16">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" t="s">
+        <v>119</v>
+      </c>
+      <c r="F17" t="s">
         <v>69</v>
       </c>
-      <c r="C17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" t="s">
-        <v>115</v>
-      </c>
-      <c r="F17" t="s">
-        <v>67</v>
-      </c>
       <c r="G17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H17">
         <v>15484</v>
@@ -3603,78 +3730,78 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>115</v>
+        <v>59</v>
       </c>
       <c r="F18" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="G18" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H18">
-        <v>6636</v>
+        <v>10000</v>
       </c>
       <c r="I18">
-        <v>1580000</v>
+        <v>5000000</v>
       </c>
       <c r="J18">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="E19" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="F19" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G19" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H19">
-        <v>12636</v>
+        <v>6636</v>
       </c>
       <c r="I19">
-        <v>16200000</v>
+        <v>1580000</v>
       </c>
       <c r="J19">
-        <v>26000</v>
+        <v>14000</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -3682,22 +3809,22 @@
         <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E20" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F20" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H20">
         <v>12636</v>
@@ -3717,28 +3844,28 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E21" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F21" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H21">
-        <v>126360</v>
+        <v>12636</v>
       </c>
       <c r="I21">
         <v>16200000</v>
@@ -3750,30 +3877,30 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D22" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E22" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F22" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H22">
         <v>8000</v>
@@ -3793,69 +3920,69 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D23" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="E23" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="F23" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="G23" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H23">
-        <v>9500</v>
+        <v>126360</v>
       </c>
       <c r="I23">
-        <v>4750000</v>
+        <v>16200000</v>
       </c>
       <c r="J23">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D24" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="F24" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G24" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H24">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="I24">
-        <v>4000000</v>
+        <v>4750000</v>
       </c>
       <c r="J24">
         <v>2000</v>
@@ -3864,6 +3991,44 @@
         <v>0</v>
       </c>
       <c r="L24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25">
+        <v>8000</v>
+      </c>
+      <c r="I25">
+        <v>4000000</v>
+      </c>
+      <c r="J25">
+        <v>2000</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
         <v>100</v>
       </c>
     </row>

--- a/datasets/corporate-finance-data.xlsx
+++ b/datasets/corporate-finance-data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="123">
   <si>
     <t>상장일</t>
   </si>
@@ -69,6 +69,9 @@
     <t>총기관배정수량</t>
   </si>
   <si>
+    <t>2023-10-19</t>
+  </si>
+  <si>
     <t>2023-10-18</t>
   </si>
   <si>
@@ -108,6 +111,9 @@
     <t>2023-08-30</t>
   </si>
   <si>
+    <t>신성에스티</t>
+  </si>
+  <si>
     <t>퓨릿</t>
   </si>
   <si>
@@ -316,6 +322,9 @@
   </si>
   <si>
     <t>한국, 미래</t>
+  </si>
+  <si>
+    <t>1891.4 : 1</t>
   </si>
   <si>
     <t>1415.77 : 1</t>
@@ -733,7 +742,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -797,52 +806,52 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D2">
-        <v>442.659</v>
+        <v>520</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F2">
-        <v>442.659</v>
+        <v>520</v>
       </c>
       <c r="G2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M2">
-        <v>10700</v>
+        <v>26000</v>
       </c>
       <c r="N2">
         <v>100</v>
       </c>
       <c r="O2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" t="s">
         <v>19</v>
       </c>
-      <c r="P2" t="s">
-        <v>76</v>
-      </c>
       <c r="Q2">
-        <v>3102750</v>
+        <v>1300000</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -850,52 +859,52 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D3">
-        <v>80</v>
+        <v>442.659</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F3">
-        <v>80</v>
+        <v>442.659</v>
       </c>
       <c r="G3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M3">
-        <v>2000</v>
+        <v>10700</v>
       </c>
       <c r="N3">
         <v>100</v>
       </c>
       <c r="O3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="P3" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="Q3">
-        <v>3000000</v>
+        <v>3102750</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -903,90 +912,90 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D4">
-        <v>4212</v>
+        <v>80</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F4">
-        <v>1263.6</v>
+        <v>80</v>
       </c>
       <c r="G4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M4">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="N4">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="O4" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="P4" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="Q4">
-        <v>87871545</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D5">
         <v>4212</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F5">
         <v>1263.6</v>
       </c>
       <c r="G5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M5">
         <v>26000</v>
@@ -995,10 +1004,10 @@
         <v>30</v>
       </c>
       <c r="O5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q5">
         <v>87871545</v>
@@ -1006,52 +1015,52 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D6">
         <v>4212</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F6">
-        <v>421.2</v>
+        <v>1263.6</v>
       </c>
       <c r="G6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M6">
         <v>26000</v>
       </c>
       <c r="N6">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="O6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q6">
         <v>87871545</v>
@@ -1059,40 +1068,40 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D7">
         <v>4212</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F7">
         <v>421.2</v>
       </c>
       <c r="G7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M7">
         <v>26000</v>
@@ -1101,10 +1110,10 @@
         <v>10</v>
       </c>
       <c r="O7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q7">
         <v>87871545</v>
@@ -1112,40 +1121,40 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D8">
         <v>4212</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F8">
         <v>421.2</v>
       </c>
       <c r="G8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M8">
         <v>26000</v>
@@ -1154,10 +1163,10 @@
         <v>10</v>
       </c>
       <c r="O8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q8">
         <v>87871545</v>
@@ -1165,52 +1174,52 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D9">
         <v>4212</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F9">
-        <v>126.36</v>
+        <v>421.2</v>
       </c>
       <c r="G9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M9">
         <v>26000</v>
       </c>
       <c r="N9">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="O9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q9">
         <v>87871545</v>
@@ -1218,40 +1227,40 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D10">
         <v>4212</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F10">
         <v>126.36</v>
       </c>
       <c r="G10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M10">
         <v>26000</v>
@@ -1260,10 +1269,10 @@
         <v>3</v>
       </c>
       <c r="O10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q10">
         <v>87871545</v>
@@ -1271,40 +1280,40 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D11">
         <v>4212</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F11">
         <v>126.36</v>
       </c>
       <c r="G11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M11">
         <v>26000</v>
@@ -1313,10 +1322,10 @@
         <v>3</v>
       </c>
       <c r="O11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q11">
         <v>87871545</v>
@@ -1324,52 +1333,52 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D12">
         <v>4212</v>
       </c>
       <c r="E12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F12">
-        <v>42.12</v>
+        <v>126.36</v>
       </c>
       <c r="G12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M12">
         <v>26000</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q12">
         <v>87871545</v>
@@ -1380,105 +1389,105 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D13">
-        <v>360</v>
+        <v>4212</v>
       </c>
       <c r="E13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F13">
-        <v>360</v>
+        <v>42.12</v>
       </c>
       <c r="G13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K13" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="L13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M13">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="N13">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="O13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q13">
-        <v>13500000</v>
+        <v>87871545</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D14">
-        <v>187.5</v>
+        <v>360</v>
       </c>
       <c r="E14" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="F14">
-        <v>187.5</v>
+        <v>360</v>
       </c>
       <c r="G14" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H14" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I14" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J14" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L14" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M14">
-        <v>12500</v>
+        <v>2000</v>
       </c>
       <c r="N14">
         <v>100</v>
       </c>
       <c r="O14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q14">
-        <v>1020000</v>
+        <v>13500000</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1486,52 +1495,52 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D15">
-        <v>336</v>
+        <v>187.5</v>
       </c>
       <c r="E15" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F15">
-        <v>336</v>
+        <v>187.5</v>
       </c>
       <c r="G15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M15">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="N15">
         <v>100</v>
       </c>
       <c r="O15" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q15">
-        <v>1619200</v>
+        <v>1020000</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1539,102 +1548,102 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D16">
-        <v>221.2</v>
+        <v>336</v>
       </c>
       <c r="E16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F16">
-        <v>154.84</v>
+        <v>336</v>
       </c>
       <c r="G16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K16" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M16">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N16">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="O16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P16" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="Q16">
-        <v>2370000</v>
+        <v>1619200</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D17">
         <v>221.2</v>
       </c>
       <c r="E17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F17">
-        <v>66.36</v>
+        <v>154.84</v>
       </c>
       <c r="G17" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H17" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I17" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J17" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L17" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M17">
         <v>14000</v>
       </c>
       <c r="N17">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="O17" t="s">
+        <v>73</v>
+      </c>
+      <c r="P17" t="s">
         <v>71</v>
-      </c>
-      <c r="P17" t="s">
-        <v>69</v>
       </c>
       <c r="Q17">
         <v>2370000</v>
@@ -1645,52 +1654,52 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D18">
-        <v>345</v>
+        <v>221.2</v>
       </c>
       <c r="E18" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="F18">
-        <v>345</v>
+        <v>66.36</v>
       </c>
       <c r="G18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K18" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="L18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M18">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="N18">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="O18" t="s">
+        <v>73</v>
+      </c>
+      <c r="P18" t="s">
         <v>71</v>
       </c>
-      <c r="P18" t="s">
-        <v>69</v>
-      </c>
       <c r="Q18">
-        <v>1125000</v>
+        <v>2370000</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1698,52 +1707,52 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D19">
-        <v>264</v>
+        <v>345</v>
       </c>
       <c r="E19" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F19">
-        <v>264</v>
+        <v>345</v>
       </c>
       <c r="G19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K19" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M19">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="N19">
         <v>100</v>
       </c>
       <c r="O19" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="P19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q19">
-        <v>825000</v>
+        <v>1125000</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1751,52 +1760,52 @@
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D20">
-        <v>90</v>
+        <v>264</v>
       </c>
       <c r="E20" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F20">
-        <v>90</v>
+        <v>264</v>
       </c>
       <c r="G20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K20" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M20">
-        <v>2000</v>
+        <v>24000</v>
       </c>
       <c r="N20">
         <v>100</v>
       </c>
       <c r="O20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P20" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="Q20">
-        <v>3375000</v>
+        <v>825000</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1804,37 +1813,37 @@
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D21">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F21">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G21" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H21" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I21" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J21" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K21" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L21" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M21">
         <v>2000</v>
@@ -1843,13 +1852,13 @@
         <v>100</v>
       </c>
       <c r="O21" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="P21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q21">
-        <v>3562500</v>
+        <v>3375000</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1857,37 +1866,37 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D22">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="E22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F22">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="G22" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H22" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I22" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J22" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K22" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L22" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M22">
         <v>2000</v>
@@ -1896,13 +1905,13 @@
         <v>100</v>
       </c>
       <c r="O22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P22" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="Q22">
-        <v>4875000</v>
+        <v>3562500</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1910,37 +1919,37 @@
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D23">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="E23" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F23">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="G23" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H23" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I23" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J23" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K23" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L23" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M23">
         <v>2000</v>
@@ -1949,13 +1958,13 @@
         <v>100</v>
       </c>
       <c r="O23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q23">
-        <v>3750000</v>
+        <v>4875000</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1963,37 +1972,37 @@
         <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D24">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E24" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="F24">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G24" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H24" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I24" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J24" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K24" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L24" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M24">
         <v>2000</v>
@@ -2002,51 +2011,51 @@
         <v>100</v>
       </c>
       <c r="O24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q24">
-        <v>3000000</v>
+        <v>3750000</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C25" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D25">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="E25" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F25">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="G25" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H25" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I25" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J25" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K25" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L25" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M25">
         <v>2000</v>
@@ -2055,12 +2064,65 @@
         <v>100</v>
       </c>
       <c r="O25" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P25" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q25">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26">
+        <v>130</v>
+      </c>
+      <c r="E26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26">
+        <v>130</v>
+      </c>
+      <c r="G26" t="s">
+        <v>66</v>
+      </c>
+      <c r="H26" t="s">
+        <v>66</v>
+      </c>
+      <c r="I26" t="s">
+        <v>66</v>
+      </c>
+      <c r="J26" t="s">
+        <v>66</v>
+      </c>
+      <c r="K26" t="s">
+        <v>67</v>
+      </c>
+      <c r="L26" t="s">
+        <v>66</v>
+      </c>
+      <c r="M26">
+        <v>2000</v>
+      </c>
+      <c r="N26">
+        <v>100</v>
+      </c>
+      <c r="O26" t="s">
+        <v>77</v>
+      </c>
+      <c r="P26" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q26">
         <v>4875000</v>
       </c>
     </row>
@@ -2071,7 +2133,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2082,10 +2144,10 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>15</v>
@@ -2094,695 +2156,695 @@
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" t="s">
         <v>19</v>
-      </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" t="s">
-        <v>76</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>44265900</v>
+        <v>52000000</v>
       </c>
       <c r="G2">
-        <v>4137000</v>
+        <v>2000000</v>
       </c>
       <c r="H2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I2">
-        <v>8800</v>
+        <v>22000</v>
       </c>
       <c r="J2">
-        <v>10700</v>
+        <v>25000</v>
       </c>
       <c r="K2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L2">
-        <v>10700</v>
+        <v>26000</v>
       </c>
       <c r="M2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O2">
-        <v>30.21513173797438</v>
+        <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Q2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="R2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="S2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="T2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
       </c>
       <c r="F3">
-        <v>8000000</v>
+        <v>44265900</v>
       </c>
       <c r="G3">
-        <v>4000000</v>
+        <v>4137000</v>
       </c>
       <c r="H3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I3">
-        <v>2000</v>
+        <v>8800</v>
       </c>
       <c r="J3">
-        <v>2000</v>
+        <v>10700</v>
       </c>
       <c r="K3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L3">
-        <v>2000</v>
+        <v>10700</v>
       </c>
       <c r="M3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>30.21513173797438</v>
       </c>
       <c r="P3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Q3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="R3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="S3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="T3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
         <v>19</v>
       </c>
       <c r="F4">
-        <v>421200000</v>
+        <v>8000000</v>
       </c>
       <c r="G4">
-        <v>16200000</v>
+        <v>4000000</v>
       </c>
       <c r="H4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I4">
-        <v>21000</v>
+        <v>2000</v>
       </c>
       <c r="J4">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L4">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="M4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Q4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="R4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="S4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="T4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="D5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E5" t="s">
         <v>20</v>
       </c>
       <c r="F5">
-        <v>36000000</v>
+        <v>421200000</v>
       </c>
       <c r="G5">
-        <v>18000000</v>
+        <v>16200000</v>
       </c>
       <c r="H5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I5">
-        <v>2000</v>
+        <v>21000</v>
       </c>
       <c r="J5">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="K5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L5">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="M5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Q5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="R5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="S5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="T5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F6">
-        <v>18750000</v>
+        <v>36000000</v>
       </c>
       <c r="G6">
-        <v>1500000</v>
+        <v>18000000</v>
       </c>
       <c r="H6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I6">
-        <v>8900</v>
+        <v>2000</v>
       </c>
       <c r="J6">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="K6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L6">
-        <v>12500</v>
+        <v>2000</v>
       </c>
       <c r="M6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Q6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="R6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="S6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="T6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E7" t="s">
         <v>21</v>
       </c>
       <c r="F7">
-        <v>33600000</v>
+        <v>18750000</v>
       </c>
       <c r="G7">
-        <v>2240000</v>
+        <v>1500000</v>
       </c>
       <c r="H7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I7">
-        <v>11500</v>
+        <v>8900</v>
       </c>
       <c r="J7">
-        <v>13200</v>
+        <v>11000</v>
       </c>
       <c r="K7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L7">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="M7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O7">
-        <v>26.78571428571428</v>
+        <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Q7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="R7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="S7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="T7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E8" t="s">
         <v>22</v>
       </c>
       <c r="F8">
-        <v>22120000</v>
+        <v>33600000</v>
       </c>
       <c r="G8">
-        <v>1580000</v>
+        <v>2240000</v>
       </c>
       <c r="H8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I8">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="J8">
-        <v>12000</v>
+        <v>13200</v>
       </c>
       <c r="K8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L8">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>26.78571428571428</v>
       </c>
       <c r="P8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Q8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="R8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="S8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="T8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" t="s">
         <v>71</v>
-      </c>
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" t="s">
-        <v>69</v>
       </c>
       <c r="E9" t="s">
         <v>23</v>
       </c>
       <c r="F9">
-        <v>34500000</v>
+        <v>22120000</v>
       </c>
       <c r="G9">
-        <v>1500000</v>
+        <v>1580000</v>
       </c>
       <c r="H9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I9">
-        <v>20000</v>
+        <v>10500</v>
       </c>
       <c r="J9">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="K9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L9">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="M9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Q9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="R9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="S9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="T9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E10" t="s">
         <v>24</v>
       </c>
       <c r="F10">
-        <v>26400000</v>
+        <v>34500000</v>
       </c>
       <c r="G10">
-        <v>1100000</v>
+        <v>1500000</v>
       </c>
       <c r="H10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I10">
         <v>20000</v>
       </c>
       <c r="J10">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="K10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L10">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="M10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O10">
-        <v>18.18181818181818</v>
+        <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Q10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="R10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="S10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="T10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="E11" t="s">
         <v>25</v>
       </c>
       <c r="F11">
-        <v>9000000</v>
+        <v>26400000</v>
       </c>
       <c r="G11">
-        <v>4500000</v>
+        <v>1100000</v>
       </c>
       <c r="H11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I11">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="J11">
-        <v>2000</v>
+        <v>24000</v>
       </c>
       <c r="K11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L11">
-        <v>2000</v>
+        <v>24000</v>
       </c>
       <c r="M11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="P11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Q11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="R11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="S11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="T11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s">
         <v>26</v>
       </c>
       <c r="F12">
-        <v>9500000</v>
+        <v>9000000</v>
       </c>
       <c r="G12">
-        <v>4750000</v>
+        <v>4500000</v>
       </c>
       <c r="H12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I12">
         <v>2000</v>
@@ -2791,60 +2853,60 @@
         <v>2000</v>
       </c>
       <c r="K12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L12">
         <v>2000</v>
       </c>
       <c r="M12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Q12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="R12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="S12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="T12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D13" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
         <v>27</v>
       </c>
       <c r="F13">
-        <v>13000000</v>
+        <v>9500000</v>
       </c>
       <c r="G13">
-        <v>6500000</v>
+        <v>4750000</v>
       </c>
       <c r="H13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I13">
         <v>2000</v>
@@ -2853,60 +2915,60 @@
         <v>2000</v>
       </c>
       <c r="K13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L13">
         <v>2000</v>
       </c>
       <c r="M13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Q13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="R13" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="S13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="T13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E14" t="s">
         <v>28</v>
       </c>
       <c r="F14">
-        <v>10000000</v>
+        <v>13000000</v>
       </c>
       <c r="G14">
-        <v>5000000</v>
+        <v>6500000</v>
       </c>
       <c r="H14" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I14">
         <v>2000</v>
@@ -2915,60 +2977,60 @@
         <v>2000</v>
       </c>
       <c r="K14" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L14">
         <v>2000</v>
       </c>
       <c r="M14" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N14" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Q14" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="R14" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="S14" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="T14" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E15" t="s">
         <v>29</v>
       </c>
       <c r="F15">
-        <v>8000000</v>
+        <v>10000000</v>
       </c>
       <c r="G15">
-        <v>4000000</v>
+        <v>5000000</v>
       </c>
       <c r="H15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I15">
         <v>2000</v>
@@ -2977,60 +3039,60 @@
         <v>2000</v>
       </c>
       <c r="K15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L15">
         <v>2000</v>
       </c>
       <c r="M15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Q15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="R15" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="S15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="T15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F16">
-        <v>13000000</v>
+        <v>8000000</v>
       </c>
       <c r="G16">
-        <v>6500000</v>
+        <v>4000000</v>
       </c>
       <c r="H16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I16">
         <v>2000</v>
@@ -3039,34 +3101,96 @@
         <v>2000</v>
       </c>
       <c r="K16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L16">
         <v>2000</v>
       </c>
       <c r="M16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Q16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="R16" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="S16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="T16" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17">
+        <v>13000000</v>
+      </c>
+      <c r="G17">
+        <v>6500000</v>
+      </c>
+      <c r="H17" t="s">
+        <v>66</v>
+      </c>
+      <c r="I17">
+        <v>2000</v>
+      </c>
+      <c r="J17">
+        <v>2000</v>
+      </c>
+      <c r="K17" t="s">
+        <v>66</v>
+      </c>
+      <c r="L17">
+        <v>2000</v>
+      </c>
+      <c r="M17" t="s">
+        <v>66</v>
+      </c>
+      <c r="N17" t="s">
+        <v>66</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>66</v>
+      </c>
+      <c r="R17" t="s">
+        <v>117</v>
+      </c>
+      <c r="S17" t="s">
+        <v>66</v>
+      </c>
+      <c r="T17" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -3076,7 +3200,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3084,16 +3208,16 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -3105,10 +3229,10 @@
         <v>0</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>12</v>
@@ -3117,30 +3241,30 @@
         <v>6</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2">
         <v>42120</v>
@@ -3160,25 +3284,25 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H3">
         <v>18750</v>
@@ -3198,25 +3322,25 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H4">
         <v>42120</v>
@@ -3236,25 +3360,25 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E5" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H5">
         <v>42120</v>
@@ -3274,25 +3398,25 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H6">
         <v>13000</v>
@@ -3312,25 +3436,25 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H7">
         <v>13000</v>
@@ -3350,25 +3474,25 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" t="s">
         <v>71</v>
       </c>
-      <c r="C8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" t="s">
-        <v>69</v>
-      </c>
       <c r="G8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H8">
         <v>34500</v>
@@ -3388,34 +3512,34 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" t="s">
         <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" t="s">
-        <v>76</v>
       </c>
       <c r="G9" t="s">
         <v>17</v>
       </c>
       <c r="H9">
-        <v>44265.9</v>
+        <v>52000</v>
       </c>
       <c r="I9">
-        <v>4137000</v>
+        <v>2000000</v>
       </c>
       <c r="J9">
-        <v>10700</v>
+        <v>26000</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -3426,110 +3550,110 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
         <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="E10" t="s">
-        <v>118</v>
+        <v>49</v>
       </c>
       <c r="F10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H10">
-        <v>126360</v>
+        <v>44265.9</v>
       </c>
       <c r="I10">
-        <v>16200000</v>
+        <v>4137000</v>
       </c>
       <c r="J10">
-        <v>26000</v>
+        <v>10700</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>121</v>
       </c>
       <c r="F11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H11">
-        <v>33600</v>
+        <v>126360</v>
       </c>
       <c r="I11">
-        <v>2240000</v>
+        <v>16200000</v>
       </c>
       <c r="J11">
-        <v>15000</v>
+        <v>26000</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="G12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H12">
-        <v>9000</v>
+        <v>33600</v>
       </c>
       <c r="I12">
-        <v>4500000</v>
+        <v>2240000</v>
       </c>
       <c r="J12">
-        <v>2000</v>
+        <v>15000</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -3540,110 +3664,110 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="E13" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
       <c r="F13" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="G13" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H13">
-        <v>12636</v>
+        <v>9000</v>
       </c>
       <c r="I13">
-        <v>16200000</v>
+        <v>4500000</v>
       </c>
       <c r="J13">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="E14" t="s">
-        <v>54</v>
+        <v>121</v>
       </c>
       <c r="F14" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H14">
-        <v>26400</v>
+        <v>12636</v>
       </c>
       <c r="I14">
-        <v>1100000</v>
+        <v>16200000</v>
       </c>
       <c r="J14">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F15" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G15" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H15">
-        <v>36000</v>
+        <v>26400</v>
       </c>
       <c r="I15">
-        <v>18000000</v>
+        <v>1100000</v>
       </c>
       <c r="J15">
-        <v>2000</v>
+        <v>24000</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -3654,101 +3778,101 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D16" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="E16" t="s">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="F16" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H16">
-        <v>4212</v>
+        <v>36000</v>
       </c>
       <c r="I16">
-        <v>16200000</v>
+        <v>18000000</v>
       </c>
       <c r="J16">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B17" t="s">
         <v>71</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="E17" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F17" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H17">
-        <v>15484</v>
+        <v>4212</v>
       </c>
       <c r="I17">
-        <v>1580000</v>
+        <v>16200000</v>
       </c>
       <c r="J17">
-        <v>14000</v>
+        <v>26000</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>70</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F18" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H18">
         <v>10000</v>
@@ -3768,28 +3892,28 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" t="s">
         <v>71</v>
       </c>
-      <c r="C19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" t="s">
-        <v>119</v>
-      </c>
-      <c r="F19" t="s">
-        <v>69</v>
-      </c>
       <c r="G19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H19">
-        <v>6636</v>
+        <v>15484</v>
       </c>
       <c r="I19">
         <v>1580000</v>
@@ -3801,45 +3925,45 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="E20" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F20" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G20" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H20">
-        <v>12636</v>
+        <v>6636</v>
       </c>
       <c r="I20">
-        <v>16200000</v>
+        <v>1580000</v>
       </c>
       <c r="J20">
-        <v>26000</v>
+        <v>14000</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -3847,22 +3971,22 @@
         <v>55</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D21" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E21" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F21" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H21">
         <v>12636</v>
@@ -3882,63 +4006,63 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B22" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D22" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="E22" t="s">
-        <v>49</v>
+        <v>121</v>
       </c>
       <c r="F22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G22" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="H22">
-        <v>8000</v>
+        <v>12636</v>
       </c>
       <c r="I22">
-        <v>4000000</v>
+        <v>16200000</v>
       </c>
       <c r="J22">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D23" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E23" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F23" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H23">
         <v>126360</v>
@@ -3958,31 +4082,31 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C24" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D24" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E24" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F24" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="G24" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H24">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="I24">
-        <v>4750000</v>
+        <v>4000000</v>
       </c>
       <c r="J24">
         <v>2000</v>
@@ -3996,31 +4120,31 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="D25" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="E25" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="F25" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G25" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="H25">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="I25">
-        <v>4000000</v>
+        <v>4750000</v>
       </c>
       <c r="J25">
         <v>2000</v>
@@ -4029,6 +4153,44 @@
         <v>0</v>
       </c>
       <c r="L25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26">
+        <v>8000</v>
+      </c>
+      <c r="I26">
+        <v>4000000</v>
+      </c>
+      <c r="J26">
+        <v>2000</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
         <v>100</v>
       </c>
     </row>

--- a/datasets/corporate-finance-data.xlsx
+++ b/datasets/corporate-finance-data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="126">
   <si>
     <t>상장일</t>
   </si>
@@ -69,6 +69,9 @@
     <t>총기관배정수량</t>
   </si>
   <si>
+    <t>2023-10-20</t>
+  </si>
+  <si>
     <t>2023-10-19</t>
   </si>
   <si>
@@ -111,6 +114,9 @@
     <t>2023-08-30</t>
   </si>
   <si>
+    <t>에스엘에스바이오</t>
+  </si>
+  <si>
     <t>신성에스티</t>
   </si>
   <si>
@@ -165,6 +171,9 @@
     <t>코스피</t>
   </si>
   <si>
+    <t>하나</t>
+  </si>
+  <si>
     <t>미래</t>
   </si>
   <si>
@@ -189,9 +198,6 @@
     <t>신영</t>
   </si>
   <si>
-    <t>하나</t>
-  </si>
-  <si>
     <t>유비에스</t>
   </si>
   <si>
@@ -322,6 +328,9 @@
   </si>
   <si>
     <t>한국, 미래</t>
+  </si>
+  <si>
+    <t>345.96 : 1</t>
   </si>
   <si>
     <t>1891.4 : 1</t>
@@ -742,7 +751,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -806,52 +815,52 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D2">
-        <v>520</v>
+        <v>53.9</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F2">
-        <v>520</v>
+        <v>53.9</v>
       </c>
       <c r="G2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M2">
-        <v>26000</v>
+        <v>7000</v>
       </c>
       <c r="N2">
         <v>100</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q2">
-        <v>1300000</v>
+        <v>577500</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -859,52 +868,52 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D3">
-        <v>442.659</v>
+        <v>520</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F3">
-        <v>442.659</v>
+        <v>520</v>
       </c>
       <c r="G3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M3">
-        <v>10700</v>
+        <v>26000</v>
       </c>
       <c r="N3">
         <v>100</v>
       </c>
       <c r="O3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" t="s">
         <v>20</v>
       </c>
-      <c r="P3" t="s">
-        <v>78</v>
-      </c>
       <c r="Q3">
-        <v>3102750</v>
+        <v>1300000</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -912,52 +921,52 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D4">
-        <v>80</v>
+        <v>442.659</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F4">
-        <v>80</v>
+        <v>442.659</v>
       </c>
       <c r="G4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M4">
-        <v>2000</v>
+        <v>10700</v>
       </c>
       <c r="N4">
         <v>100</v>
       </c>
       <c r="O4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="P4" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="Q4">
-        <v>3000000</v>
+        <v>3102750</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -965,90 +974,90 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D5">
-        <v>4212</v>
+        <v>80</v>
       </c>
       <c r="E5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F5">
-        <v>1263.6</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M5">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="N5">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="O5" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="P5" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="Q5">
-        <v>87871545</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D6">
         <v>4212</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F6">
         <v>1263.6</v>
       </c>
       <c r="G6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M6">
         <v>26000</v>
@@ -1057,10 +1066,10 @@
         <v>30</v>
       </c>
       <c r="O6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q6">
         <v>87871545</v>
@@ -1068,13 +1077,13 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D7">
         <v>4212</v>
@@ -1083,37 +1092,37 @@
         <v>52</v>
       </c>
       <c r="F7">
-        <v>421.2</v>
+        <v>1263.6</v>
       </c>
       <c r="G7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M7">
         <v>26000</v>
       </c>
       <c r="N7">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="O7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q7">
         <v>87871545</v>
@@ -1121,40 +1130,40 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D8">
         <v>4212</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F8">
         <v>421.2</v>
       </c>
       <c r="G8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M8">
         <v>26000</v>
@@ -1163,10 +1172,10 @@
         <v>10</v>
       </c>
       <c r="O8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q8">
         <v>87871545</v>
@@ -1174,40 +1183,40 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D9">
         <v>4212</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F9">
         <v>421.2</v>
       </c>
       <c r="G9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M9">
         <v>26000</v>
@@ -1216,10 +1225,10 @@
         <v>10</v>
       </c>
       <c r="O9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q9">
         <v>87871545</v>
@@ -1227,52 +1236,52 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D10">
         <v>4212</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F10">
-        <v>126.36</v>
+        <v>421.2</v>
       </c>
       <c r="G10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M10">
         <v>26000</v>
       </c>
       <c r="N10">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="O10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q10">
         <v>87871545</v>
@@ -1280,40 +1289,40 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D11">
         <v>4212</v>
       </c>
       <c r="E11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F11">
         <v>126.36</v>
       </c>
       <c r="G11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M11">
         <v>26000</v>
@@ -1322,10 +1331,10 @@
         <v>3</v>
       </c>
       <c r="O11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q11">
         <v>87871545</v>
@@ -1333,40 +1342,40 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D12">
         <v>4212</v>
       </c>
       <c r="E12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F12">
         <v>126.36</v>
       </c>
       <c r="G12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M12">
         <v>26000</v>
@@ -1375,10 +1384,10 @@
         <v>3</v>
       </c>
       <c r="O12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q12">
         <v>87871545</v>
@@ -1386,52 +1395,52 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D13">
         <v>4212</v>
       </c>
       <c r="E13" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F13">
-        <v>42.12</v>
+        <v>126.36</v>
       </c>
       <c r="G13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M13">
         <v>26000</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q13">
         <v>87871545</v>
@@ -1442,105 +1451,105 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D14">
-        <v>360</v>
+        <v>4212</v>
       </c>
       <c r="E14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F14">
-        <v>360</v>
+        <v>42.12</v>
       </c>
       <c r="G14" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H14" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I14" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J14" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K14" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="L14" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M14">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="N14">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="O14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q14">
-        <v>13500000</v>
+        <v>87871545</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D15">
-        <v>187.5</v>
+        <v>360</v>
       </c>
       <c r="E15" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F15">
-        <v>187.5</v>
+        <v>360</v>
       </c>
       <c r="G15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K15" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M15">
-        <v>12500</v>
+        <v>2000</v>
       </c>
       <c r="N15">
         <v>100</v>
       </c>
       <c r="O15" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q15">
-        <v>1020000</v>
+        <v>13500000</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1548,52 +1557,52 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D16">
-        <v>336</v>
+        <v>187.5</v>
       </c>
       <c r="E16" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F16">
-        <v>336</v>
+        <v>187.5</v>
       </c>
       <c r="G16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M16">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="N16">
         <v>100</v>
       </c>
       <c r="O16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P16" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q16">
-        <v>1619200</v>
+        <v>1020000</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1601,102 +1610,102 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D17">
-        <v>221.2</v>
+        <v>336</v>
       </c>
       <c r="E17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F17">
-        <v>154.84</v>
+        <v>336</v>
       </c>
       <c r="G17" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H17" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I17" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J17" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K17" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L17" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M17">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N17">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="O17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P17" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="Q17">
-        <v>2370000</v>
+        <v>1619200</v>
       </c>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D18">
         <v>221.2</v>
       </c>
       <c r="E18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F18">
-        <v>66.36</v>
+        <v>154.84</v>
       </c>
       <c r="G18" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H18" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I18" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J18" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L18" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M18">
         <v>14000</v>
       </c>
       <c r="N18">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="O18" t="s">
+        <v>75</v>
+      </c>
+      <c r="P18" t="s">
         <v>73</v>
-      </c>
-      <c r="P18" t="s">
-        <v>71</v>
       </c>
       <c r="Q18">
         <v>2370000</v>
@@ -1707,52 +1716,52 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D19">
-        <v>345</v>
+        <v>221.2</v>
       </c>
       <c r="E19" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="F19">
-        <v>345</v>
+        <v>66.36</v>
       </c>
       <c r="G19" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H19" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I19" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J19" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K19" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="L19" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M19">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="N19">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="O19" t="s">
+        <v>75</v>
+      </c>
+      <c r="P19" t="s">
         <v>73</v>
       </c>
-      <c r="P19" t="s">
-        <v>71</v>
-      </c>
       <c r="Q19">
-        <v>1125000</v>
+        <v>2370000</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1760,52 +1769,52 @@
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D20">
-        <v>264</v>
+        <v>345</v>
       </c>
       <c r="E20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F20">
-        <v>264</v>
+        <v>345</v>
       </c>
       <c r="G20" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H20" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I20" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J20" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K20" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L20" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M20">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="N20">
         <v>100</v>
       </c>
       <c r="O20" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="P20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q20">
-        <v>825000</v>
+        <v>1125000</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1813,52 +1822,52 @@
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D21">
-        <v>90</v>
+        <v>264</v>
       </c>
       <c r="E21" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F21">
-        <v>90</v>
+        <v>264</v>
       </c>
       <c r="G21" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H21" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I21" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J21" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K21" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L21" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M21">
-        <v>2000</v>
+        <v>24000</v>
       </c>
       <c r="N21">
         <v>100</v>
       </c>
       <c r="O21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P21" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="Q21">
-        <v>3375000</v>
+        <v>825000</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1866,37 +1875,37 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D22">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F22">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G22" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H22" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I22" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J22" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K22" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L22" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M22">
         <v>2000</v>
@@ -1905,13 +1914,13 @@
         <v>100</v>
       </c>
       <c r="O22" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="P22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q22">
-        <v>3562500</v>
+        <v>3375000</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1919,37 +1928,37 @@
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D23">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="E23" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F23">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="G23" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H23" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I23" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J23" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K23" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L23" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M23">
         <v>2000</v>
@@ -1958,13 +1967,13 @@
         <v>100</v>
       </c>
       <c r="O23" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P23" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="Q23">
-        <v>4875000</v>
+        <v>3562500</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1972,37 +1981,37 @@
         <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D24">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="E24" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F24">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="G24" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H24" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I24" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J24" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K24" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L24" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M24">
         <v>2000</v>
@@ -2011,13 +2020,13 @@
         <v>100</v>
       </c>
       <c r="O24" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q24">
-        <v>3750000</v>
+        <v>4875000</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2025,37 +2034,37 @@
         <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D25">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E25" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F25">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G25" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H25" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I25" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J25" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K25" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L25" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M25">
         <v>2000</v>
@@ -2064,51 +2073,51 @@
         <v>100</v>
       </c>
       <c r="O25" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P25" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q25">
-        <v>3000000</v>
+        <v>3750000</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D26">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="E26" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="F26">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="G26" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H26" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I26" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J26" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K26" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L26" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M26">
         <v>2000</v>
@@ -2117,12 +2126,65 @@
         <v>100</v>
       </c>
       <c r="O26" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P26" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q26">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27">
+        <v>130</v>
+      </c>
+      <c r="E27" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27">
+        <v>130</v>
+      </c>
+      <c r="G27" t="s">
+        <v>68</v>
+      </c>
+      <c r="H27" t="s">
+        <v>68</v>
+      </c>
+      <c r="I27" t="s">
+        <v>68</v>
+      </c>
+      <c r="J27" t="s">
+        <v>68</v>
+      </c>
+      <c r="K27" t="s">
+        <v>69</v>
+      </c>
+      <c r="L27" t="s">
+        <v>68</v>
+      </c>
+      <c r="M27">
+        <v>2000</v>
+      </c>
+      <c r="N27">
+        <v>100</v>
+      </c>
+      <c r="O27" t="s">
+        <v>79</v>
+      </c>
+      <c r="P27" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q27">
         <v>4875000</v>
       </c>
     </row>
@@ -2133,7 +2195,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2144,10 +2206,10 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>15</v>
@@ -2156,757 +2218,757 @@
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>52000000</v>
+        <v>5390000</v>
       </c>
       <c r="G2">
-        <v>2000000</v>
+        <v>770000</v>
       </c>
       <c r="H2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I2">
-        <v>22000</v>
+        <v>8200</v>
       </c>
       <c r="J2">
-        <v>25000</v>
+        <v>9400</v>
       </c>
       <c r="K2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L2">
-        <v>26000</v>
+        <v>7000</v>
       </c>
       <c r="M2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="N2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="R2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="S2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="T2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" t="s">
         <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" t="s">
-        <v>78</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
       </c>
       <c r="F3">
-        <v>44265900</v>
+        <v>52000000</v>
       </c>
       <c r="G3">
-        <v>4137000</v>
+        <v>2000000</v>
       </c>
       <c r="H3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I3">
-        <v>8800</v>
+        <v>22000</v>
       </c>
       <c r="J3">
-        <v>10700</v>
+        <v>25000</v>
       </c>
       <c r="K3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L3">
-        <v>10700</v>
+        <v>26000</v>
       </c>
       <c r="M3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="N3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O3">
-        <v>30.21513173797438</v>
+        <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="R3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="S3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="T3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="E4" t="s">
         <v>19</v>
       </c>
       <c r="F4">
-        <v>8000000</v>
+        <v>44265900</v>
       </c>
       <c r="G4">
-        <v>4000000</v>
+        <v>4137000</v>
       </c>
       <c r="H4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I4">
-        <v>2000</v>
+        <v>8800</v>
       </c>
       <c r="J4">
-        <v>2000</v>
+        <v>10700</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L4">
-        <v>2000</v>
+        <v>10700</v>
       </c>
       <c r="M4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>30.21513173797438</v>
       </c>
       <c r="P4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="R4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="S4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="T4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
         <v>20</v>
       </c>
       <c r="F5">
-        <v>421200000</v>
+        <v>8000000</v>
       </c>
       <c r="G5">
-        <v>16200000</v>
+        <v>4000000</v>
       </c>
       <c r="H5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I5">
-        <v>21000</v>
+        <v>2000</v>
       </c>
       <c r="J5">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="K5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L5">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="M5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="N5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="R5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="S5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="T5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="D6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E6" t="s">
         <v>21</v>
       </c>
       <c r="F6">
-        <v>36000000</v>
+        <v>421200000</v>
       </c>
       <c r="G6">
-        <v>18000000</v>
+        <v>16200000</v>
       </c>
       <c r="H6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I6">
-        <v>2000</v>
+        <v>21000</v>
       </c>
       <c r="J6">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="K6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L6">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="M6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="N6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="R6" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="S6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="T6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7">
-        <v>18750000</v>
+        <v>36000000</v>
       </c>
       <c r="G7">
-        <v>1500000</v>
+        <v>18000000</v>
       </c>
       <c r="H7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I7">
-        <v>8900</v>
+        <v>2000</v>
       </c>
       <c r="J7">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="K7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L7">
-        <v>12500</v>
+        <v>2000</v>
       </c>
       <c r="M7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="N7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="R7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="S7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="T7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E8" t="s">
         <v>22</v>
       </c>
       <c r="F8">
-        <v>33600000</v>
+        <v>18750000</v>
       </c>
       <c r="G8">
-        <v>2240000</v>
+        <v>1500000</v>
       </c>
       <c r="H8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I8">
-        <v>11500</v>
+        <v>8900</v>
       </c>
       <c r="J8">
-        <v>13200</v>
+        <v>11000</v>
       </c>
       <c r="K8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L8">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="M8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="N8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O8">
-        <v>26.78571428571428</v>
+        <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="R8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="S8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="T8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D9" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E9" t="s">
         <v>23</v>
       </c>
       <c r="F9">
-        <v>22120000</v>
+        <v>33600000</v>
       </c>
       <c r="G9">
-        <v>1580000</v>
+        <v>2240000</v>
       </c>
       <c r="H9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I9">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="J9">
-        <v>12000</v>
+        <v>13200</v>
       </c>
       <c r="K9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L9">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="N9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>26.78571428571428</v>
       </c>
       <c r="P9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="R9" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="S9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="T9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" t="s">
         <v>73</v>
-      </c>
-      <c r="B10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" t="s">
-        <v>71</v>
       </c>
       <c r="E10" t="s">
         <v>24</v>
       </c>
       <c r="F10">
-        <v>34500000</v>
+        <v>22120000</v>
       </c>
       <c r="G10">
-        <v>1500000</v>
+        <v>1580000</v>
       </c>
       <c r="H10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I10">
-        <v>20000</v>
+        <v>10500</v>
       </c>
       <c r="J10">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="K10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L10">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="M10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="N10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="R10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="S10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="T10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E11" t="s">
         <v>25</v>
       </c>
       <c r="F11">
-        <v>26400000</v>
+        <v>34500000</v>
       </c>
       <c r="G11">
-        <v>1100000</v>
+        <v>1500000</v>
       </c>
       <c r="H11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I11">
         <v>20000</v>
       </c>
       <c r="J11">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="K11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L11">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="M11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="N11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O11">
-        <v>18.18181818181818</v>
+        <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="R11" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="S11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="T11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="E12" t="s">
         <v>26</v>
       </c>
       <c r="F12">
-        <v>9000000</v>
+        <v>26400000</v>
       </c>
       <c r="G12">
-        <v>4500000</v>
+        <v>1100000</v>
       </c>
       <c r="H12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I12">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="J12">
-        <v>2000</v>
+        <v>24000</v>
       </c>
       <c r="K12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L12">
-        <v>2000</v>
+        <v>24000</v>
       </c>
       <c r="M12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="N12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="P12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="R12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="S12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="T12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E13" t="s">
         <v>27</v>
       </c>
       <c r="F13">
-        <v>9500000</v>
+        <v>9000000</v>
       </c>
       <c r="G13">
-        <v>4750000</v>
+        <v>4500000</v>
       </c>
       <c r="H13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I13">
         <v>2000</v>
@@ -2915,60 +2977,60 @@
         <v>2000</v>
       </c>
       <c r="K13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L13">
         <v>2000</v>
       </c>
       <c r="M13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="N13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="R13" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="S13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="T13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D14" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
         <v>28</v>
       </c>
       <c r="F14">
-        <v>13000000</v>
+        <v>9500000</v>
       </c>
       <c r="G14">
-        <v>6500000</v>
+        <v>4750000</v>
       </c>
       <c r="H14" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I14">
         <v>2000</v>
@@ -2977,60 +3039,60 @@
         <v>2000</v>
       </c>
       <c r="K14" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L14">
         <v>2000</v>
       </c>
       <c r="M14" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="N14" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q14" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="R14" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="S14" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="T14" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E15" t="s">
         <v>29</v>
       </c>
       <c r="F15">
-        <v>10000000</v>
+        <v>13000000</v>
       </c>
       <c r="G15">
-        <v>5000000</v>
+        <v>6500000</v>
       </c>
       <c r="H15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I15">
         <v>2000</v>
@@ -3039,60 +3101,60 @@
         <v>2000</v>
       </c>
       <c r="K15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L15">
         <v>2000</v>
       </c>
       <c r="M15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="N15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="R15" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="S15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="T15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E16" t="s">
         <v>30</v>
       </c>
       <c r="F16">
-        <v>8000000</v>
+        <v>10000000</v>
       </c>
       <c r="G16">
-        <v>4000000</v>
+        <v>5000000</v>
       </c>
       <c r="H16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I16">
         <v>2000</v>
@@ -3101,60 +3163,60 @@
         <v>2000</v>
       </c>
       <c r="K16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L16">
         <v>2000</v>
       </c>
       <c r="M16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="N16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="R16" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="S16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="T16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F17">
-        <v>13000000</v>
+        <v>8000000</v>
       </c>
       <c r="G17">
-        <v>6500000</v>
+        <v>4000000</v>
       </c>
       <c r="H17" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I17">
         <v>2000</v>
@@ -3163,34 +3225,96 @@
         <v>2000</v>
       </c>
       <c r="K17" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L17">
         <v>2000</v>
       </c>
       <c r="M17" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="N17" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q17" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="R17" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="S17" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="T17" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18">
+        <v>13000000</v>
+      </c>
+      <c r="G18">
+        <v>6500000</v>
+      </c>
+      <c r="H18" t="s">
+        <v>68</v>
+      </c>
+      <c r="I18">
+        <v>2000</v>
+      </c>
+      <c r="J18">
+        <v>2000</v>
+      </c>
+      <c r="K18" t="s">
+        <v>68</v>
+      </c>
+      <c r="L18">
+        <v>2000</v>
+      </c>
+      <c r="M18" t="s">
+        <v>68</v>
+      </c>
+      <c r="N18" t="s">
+        <v>68</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>68</v>
+      </c>
+      <c r="R18" t="s">
+        <v>120</v>
+      </c>
+      <c r="S18" t="s">
+        <v>68</v>
+      </c>
+      <c r="T18" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -3200,7 +3324,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3208,16 +3332,16 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -3229,10 +3353,10 @@
         <v>0</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>12</v>
@@ -3241,30 +3365,30 @@
         <v>6</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H2">
         <v>42120</v>
@@ -3284,101 +3408,101 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
         <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="F3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3">
-        <v>18750</v>
+        <v>42120</v>
       </c>
       <c r="I3">
-        <v>1500000</v>
+        <v>16200000</v>
       </c>
       <c r="J3">
-        <v>12500</v>
+        <v>26000</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="E4" t="s">
-        <v>121</v>
+        <v>56</v>
       </c>
       <c r="F4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H4">
-        <v>42120</v>
+        <v>18750</v>
       </c>
       <c r="I4">
-        <v>16200000</v>
+        <v>1500000</v>
       </c>
       <c r="J4">
-        <v>26000</v>
+        <v>12500</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E5" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H5">
         <v>42120</v>
@@ -3398,25 +3522,25 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H6">
         <v>13000</v>
@@ -3436,25 +3560,25 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H7">
         <v>13000</v>
@@ -3474,34 +3598,34 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F8" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H8">
-        <v>34500</v>
+        <v>52000</v>
       </c>
       <c r="I8">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="J8">
-        <v>23000</v>
+        <v>26000</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -3512,34 +3636,34 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" t="s">
         <v>19</v>
       </c>
-      <c r="G9" t="s">
-        <v>17</v>
-      </c>
       <c r="H9">
-        <v>52000</v>
+        <v>44265.9</v>
       </c>
       <c r="I9">
-        <v>2000000</v>
+        <v>4137000</v>
       </c>
       <c r="J9">
-        <v>26000</v>
+        <v>10700</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -3550,101 +3674,101 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="F10" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H10">
-        <v>44265.9</v>
+        <v>126360</v>
       </c>
       <c r="I10">
-        <v>4137000</v>
+        <v>16200000</v>
       </c>
       <c r="J10">
-        <v>10700</v>
+        <v>26000</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="F11" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G11" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H11">
-        <v>126360</v>
+        <v>34500</v>
       </c>
       <c r="I11">
-        <v>16200000</v>
+        <v>1500000</v>
       </c>
       <c r="J11">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H12">
         <v>33600</v>
@@ -3664,25 +3788,25 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" t="s">
         <v>28</v>
       </c>
-      <c r="C13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>27</v>
-      </c>
-      <c r="G13" t="s">
-        <v>26</v>
       </c>
       <c r="H13">
         <v>9000</v>
@@ -3702,101 +3826,101 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D14" t="s">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="E14" t="s">
-        <v>121</v>
+        <v>59</v>
       </c>
       <c r="F14" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G14" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H14">
-        <v>12636</v>
+        <v>26400</v>
       </c>
       <c r="I14">
-        <v>16200000</v>
+        <v>1100000</v>
       </c>
       <c r="J14">
-        <v>26000</v>
+        <v>24000</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="E15" t="s">
-        <v>56</v>
+        <v>124</v>
       </c>
       <c r="F15" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="G15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H15">
-        <v>26400</v>
+        <v>12636</v>
       </c>
       <c r="I15">
-        <v>1100000</v>
+        <v>16200000</v>
       </c>
       <c r="J15">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F16" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H16">
         <v>36000</v>
@@ -3816,25 +3940,25 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E17" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H17">
         <v>4212</v>
@@ -3854,101 +3978,101 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E18" t="s">
-        <v>61</v>
+        <v>125</v>
       </c>
       <c r="F18" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H18">
-        <v>10000</v>
+        <v>15484</v>
       </c>
       <c r="I18">
-        <v>5000000</v>
+        <v>1580000</v>
       </c>
       <c r="J18">
-        <v>2000</v>
+        <v>14000</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E19" t="s">
-        <v>122</v>
+        <v>63</v>
       </c>
       <c r="F19" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="G19" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H19">
-        <v>15484</v>
+        <v>10000</v>
       </c>
       <c r="I19">
-        <v>1580000</v>
+        <v>5000000</v>
       </c>
       <c r="J19">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20" t="s">
         <v>73</v>
       </c>
-      <c r="C20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" t="s">
-        <v>122</v>
-      </c>
-      <c r="F20" t="s">
-        <v>71</v>
-      </c>
       <c r="G20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H20">
         <v>6636</v>
@@ -3968,25 +4092,25 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D21" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E21" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F21" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H21">
         <v>12636</v>
@@ -4006,25 +4130,25 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D22" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E22" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F22" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H22">
         <v>12636</v>
@@ -4047,104 +4171,104 @@
         <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D23" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="E23" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="F23" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="G23" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H23">
-        <v>126360</v>
+        <v>5390</v>
       </c>
       <c r="I23">
-        <v>16200000</v>
+        <v>770000</v>
       </c>
       <c r="J23">
-        <v>26000</v>
+        <v>7000</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D24" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="E24" t="s">
-        <v>51</v>
+        <v>124</v>
       </c>
       <c r="F24" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G24" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H24">
-        <v>8000</v>
+        <v>126360</v>
       </c>
       <c r="I24">
-        <v>4000000</v>
+        <v>16200000</v>
       </c>
       <c r="J24">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B25" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C25" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D25" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E25" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F25" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="G25" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H25">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="I25">
-        <v>4750000</v>
+        <v>4000000</v>
       </c>
       <c r="J25">
         <v>2000</v>
@@ -4158,31 +4282,31 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D26" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="E26" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="F26" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G26" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H26">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="I26">
-        <v>4000000</v>
+        <v>4750000</v>
       </c>
       <c r="J26">
         <v>2000</v>
@@ -4191,6 +4315,44 @@
         <v>0</v>
       </c>
       <c r="L26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27">
+        <v>8000</v>
+      </c>
+      <c r="I27">
+        <v>4000000</v>
+      </c>
+      <c r="J27">
+        <v>2000</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
         <v>100</v>
       </c>
     </row>

--- a/datasets/corporate-finance-data.xlsx
+++ b/datasets/corporate-finance-data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="119">
   <si>
     <t>상장일</t>
   </si>
@@ -111,9 +111,6 @@
     <t>2023-09-01</t>
   </si>
   <si>
-    <t>2023-08-30</t>
-  </si>
-  <si>
     <t>에스엘에스바이오</t>
   </si>
   <si>
@@ -159,12 +156,6 @@
     <t>유안타제11호스팩</t>
   </si>
   <si>
-    <t>한국제12호스팩</t>
-  </si>
-  <si>
-    <t>대신밸런스제15호스팩</t>
-  </si>
-  <si>
     <t>코스닥</t>
   </si>
   <si>
@@ -255,9 +246,6 @@
     <t>2023-08-22</t>
   </si>
   <si>
-    <t>2023-08-21</t>
-  </si>
-  <si>
     <t>2023-10-11</t>
   </si>
   <si>
@@ -273,9 +261,6 @@
     <t>2023-08-25</t>
   </si>
   <si>
-    <t>2023-08-24</t>
-  </si>
-  <si>
     <t>회사명</t>
   </si>
   <si>
@@ -373,12 +358,6 @@
   </si>
   <si>
     <t>296.2 : 1</t>
-  </si>
-  <si>
-    <t>872.19 : 1</t>
-  </si>
-  <si>
-    <t>548.99 : 1</t>
   </si>
   <si>
     <t>인수기관</t>
@@ -751,7 +730,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -815,37 +794,37 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D2">
         <v>53.9</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F2">
         <v>53.9</v>
       </c>
       <c r="G2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M2">
         <v>7000</v>
@@ -868,37 +847,37 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D3">
         <v>520</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F3">
         <v>520</v>
       </c>
       <c r="G3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M3">
         <v>26000</v>
@@ -921,37 +900,37 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D4">
         <v>442.659</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F4">
         <v>442.659</v>
       </c>
       <c r="G4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M4">
         <v>10700</v>
@@ -963,7 +942,7 @@
         <v>21</v>
       </c>
       <c r="P4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="Q4">
         <v>3102750</v>
@@ -974,37 +953,37 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D5">
         <v>80</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F5">
         <v>80</v>
       </c>
       <c r="G5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M5">
         <v>2000</v>
@@ -1027,37 +1006,37 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D6">
         <v>4212</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F6">
         <v>1263.6</v>
       </c>
       <c r="G6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M6">
         <v>26000</v>
@@ -1066,10 +1045,10 @@
         <v>30</v>
       </c>
       <c r="O6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="P6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q6">
         <v>87871545</v>
@@ -1080,37 +1059,37 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D7">
         <v>4212</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F7">
         <v>1263.6</v>
       </c>
       <c r="G7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M7">
         <v>26000</v>
@@ -1119,10 +1098,10 @@
         <v>30</v>
       </c>
       <c r="O7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="P7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q7">
         <v>87871545</v>
@@ -1133,37 +1112,37 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D8">
         <v>4212</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F8">
         <v>421.2</v>
       </c>
       <c r="G8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" t="s">
+        <v>65</v>
+      </c>
+      <c r="J8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K8" t="s">
         <v>68</v>
       </c>
-      <c r="H8" t="s">
-        <v>68</v>
-      </c>
-      <c r="I8" t="s">
-        <v>68</v>
-      </c>
-      <c r="J8" t="s">
-        <v>68</v>
-      </c>
-      <c r="K8" t="s">
-        <v>71</v>
-      </c>
       <c r="L8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M8">
         <v>26000</v>
@@ -1172,10 +1151,10 @@
         <v>10</v>
       </c>
       <c r="O8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="P8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q8">
         <v>87871545</v>
@@ -1186,37 +1165,37 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D9">
         <v>4212</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F9">
         <v>421.2</v>
       </c>
       <c r="G9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K9" t="s">
         <v>68</v>
       </c>
-      <c r="H9" t="s">
-        <v>68</v>
-      </c>
-      <c r="I9" t="s">
-        <v>68</v>
-      </c>
-      <c r="J9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K9" t="s">
-        <v>71</v>
-      </c>
       <c r="L9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M9">
         <v>26000</v>
@@ -1225,10 +1204,10 @@
         <v>10</v>
       </c>
       <c r="O9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="P9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q9">
         <v>87871545</v>
@@ -1239,37 +1218,37 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D10">
         <v>4212</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F10">
         <v>421.2</v>
       </c>
       <c r="G10" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" t="s">
+        <v>65</v>
+      </c>
+      <c r="J10" t="s">
+        <v>65</v>
+      </c>
+      <c r="K10" t="s">
         <v>68</v>
       </c>
-      <c r="H10" t="s">
-        <v>68</v>
-      </c>
-      <c r="I10" t="s">
-        <v>68</v>
-      </c>
-      <c r="J10" t="s">
-        <v>68</v>
-      </c>
-      <c r="K10" t="s">
-        <v>71</v>
-      </c>
       <c r="L10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M10">
         <v>26000</v>
@@ -1278,10 +1257,10 @@
         <v>10</v>
       </c>
       <c r="O10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="P10" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q10">
         <v>87871545</v>
@@ -1292,37 +1271,37 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D11">
         <v>4212</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F11">
         <v>126.36</v>
       </c>
       <c r="G11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M11">
         <v>26000</v>
@@ -1331,10 +1310,10 @@
         <v>3</v>
       </c>
       <c r="O11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="P11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q11">
         <v>87871545</v>
@@ -1345,37 +1324,37 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D12">
         <v>4212</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F12">
         <v>126.36</v>
       </c>
       <c r="G12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M12">
         <v>26000</v>
@@ -1384,10 +1363,10 @@
         <v>3</v>
       </c>
       <c r="O12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="P12" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q12">
         <v>87871545</v>
@@ -1398,37 +1377,37 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D13">
         <v>4212</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F13">
         <v>126.36</v>
       </c>
       <c r="G13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M13">
         <v>26000</v>
@@ -1437,10 +1416,10 @@
         <v>3</v>
       </c>
       <c r="O13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="P13" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q13">
         <v>87871545</v>
@@ -1451,37 +1430,37 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D14">
         <v>4212</v>
       </c>
       <c r="E14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F14">
         <v>42.12</v>
       </c>
       <c r="G14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M14">
         <v>26000</v>
@@ -1490,10 +1469,10 @@
         <v>1</v>
       </c>
       <c r="O14" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="P14" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q14">
         <v>87871545</v>
@@ -1504,37 +1483,37 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D15">
         <v>360</v>
       </c>
       <c r="E15" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F15">
         <v>360</v>
       </c>
       <c r="G15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K15" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M15">
         <v>2000</v>
@@ -1543,10 +1522,10 @@
         <v>100</v>
       </c>
       <c r="O15" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P15" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="Q15">
         <v>13500000</v>
@@ -1557,37 +1536,37 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D16">
         <v>187.5</v>
       </c>
       <c r="E16" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F16">
         <v>187.5</v>
       </c>
       <c r="G16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M16">
         <v>12500</v>
@@ -1596,10 +1575,10 @@
         <v>100</v>
       </c>
       <c r="O16" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P16" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="Q16">
         <v>1020000</v>
@@ -1610,37 +1589,37 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D17">
         <v>336</v>
       </c>
       <c r="E17" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F17">
         <v>336</v>
       </c>
       <c r="G17" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H17" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I17" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J17" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L17" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M17">
         <v>15000</v>
@@ -1649,10 +1628,10 @@
         <v>100</v>
       </c>
       <c r="O17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P17" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="Q17">
         <v>1619200</v>
@@ -1663,37 +1642,37 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D18">
         <v>221.2</v>
       </c>
       <c r="E18" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F18">
         <v>154.84</v>
       </c>
       <c r="G18" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H18" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I18" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J18" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K18" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L18" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M18">
         <v>14000</v>
@@ -1702,10 +1681,10 @@
         <v>70</v>
       </c>
       <c r="O18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P18" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="Q18">
         <v>2370000</v>
@@ -1716,37 +1695,37 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D19">
         <v>221.2</v>
       </c>
       <c r="E19" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F19">
         <v>66.36</v>
       </c>
       <c r="G19" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H19" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I19" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J19" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K19" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L19" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M19">
         <v>14000</v>
@@ -1755,10 +1734,10 @@
         <v>30</v>
       </c>
       <c r="O19" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P19" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="Q19">
         <v>2370000</v>
@@ -1769,37 +1748,37 @@
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D20">
         <v>345</v>
       </c>
       <c r="E20" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F20">
         <v>345</v>
       </c>
       <c r="G20" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H20" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I20" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J20" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K20" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L20" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M20">
         <v>23000</v>
@@ -1808,10 +1787,10 @@
         <v>100</v>
       </c>
       <c r="O20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="Q20">
         <v>1125000</v>
@@ -1822,37 +1801,37 @@
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D21">
         <v>264</v>
       </c>
       <c r="E21" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F21">
         <v>264</v>
       </c>
       <c r="G21" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H21" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I21" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J21" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K21" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L21" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M21">
         <v>24000</v>
@@ -1864,7 +1843,7 @@
         <v>27</v>
       </c>
       <c r="P21" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="Q21">
         <v>825000</v>
@@ -1875,37 +1854,37 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D22">
         <v>90</v>
       </c>
       <c r="E22" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F22">
         <v>90</v>
       </c>
       <c r="G22" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H22" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I22" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J22" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K22" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L22" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M22">
         <v>2000</v>
@@ -1928,37 +1907,37 @@
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D23">
         <v>95</v>
       </c>
       <c r="E23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F23">
         <v>95</v>
       </c>
       <c r="G23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K23" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M23">
         <v>2000</v>
@@ -1967,7 +1946,7 @@
         <v>100</v>
       </c>
       <c r="O23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="P23" t="s">
         <v>30</v>
@@ -1981,37 +1960,37 @@
         <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D24">
         <v>130</v>
       </c>
       <c r="E24" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F24">
         <v>130</v>
       </c>
       <c r="G24" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H24" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I24" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J24" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L24" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M24">
         <v>2000</v>
@@ -2020,10 +1999,10 @@
         <v>100</v>
       </c>
       <c r="O24" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="P24" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="Q24">
         <v>4875000</v>
@@ -2034,37 +2013,37 @@
         <v>30</v>
       </c>
       <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" t="s">
         <v>46</v>
-      </c>
-      <c r="C25" t="s">
-        <v>49</v>
       </c>
       <c r="D25">
         <v>100</v>
       </c>
       <c r="E25" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F25">
         <v>100</v>
       </c>
       <c r="G25" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H25" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I25" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J25" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K25" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L25" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M25">
         <v>2000</v>
@@ -2073,119 +2052,13 @@
         <v>100</v>
       </c>
       <c r="O25" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="P25" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="Q25">
         <v>3750000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="A26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26">
-        <v>80</v>
-      </c>
-      <c r="E26" t="s">
-        <v>54</v>
-      </c>
-      <c r="F26">
-        <v>80</v>
-      </c>
-      <c r="G26" t="s">
-        <v>68</v>
-      </c>
-      <c r="H26" t="s">
-        <v>68</v>
-      </c>
-      <c r="I26" t="s">
-        <v>68</v>
-      </c>
-      <c r="J26" t="s">
-        <v>68</v>
-      </c>
-      <c r="K26" t="s">
-        <v>69</v>
-      </c>
-      <c r="L26" t="s">
-        <v>68</v>
-      </c>
-      <c r="M26">
-        <v>2000</v>
-      </c>
-      <c r="N26">
-        <v>100</v>
-      </c>
-      <c r="O26" t="s">
-        <v>79</v>
-      </c>
-      <c r="P26" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q26">
-        <v>3000000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="A27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27">
-        <v>130</v>
-      </c>
-      <c r="E27" t="s">
-        <v>67</v>
-      </c>
-      <c r="F27">
-        <v>130</v>
-      </c>
-      <c r="G27" t="s">
-        <v>68</v>
-      </c>
-      <c r="H27" t="s">
-        <v>68</v>
-      </c>
-      <c r="I27" t="s">
-        <v>68</v>
-      </c>
-      <c r="J27" t="s">
-        <v>68</v>
-      </c>
-      <c r="K27" t="s">
-        <v>69</v>
-      </c>
-      <c r="L27" t="s">
-        <v>68</v>
-      </c>
-      <c r="M27">
-        <v>2000</v>
-      </c>
-      <c r="N27">
-        <v>100</v>
-      </c>
-      <c r="O27" t="s">
-        <v>79</v>
-      </c>
-      <c r="P27" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q27">
-        <v>4875000</v>
       </c>
     </row>
   </sheetData>
@@ -2195,7 +2068,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2206,10 +2079,10 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>15</v>
@@ -2218,49 +2091,49 @@
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -2268,10 +2141,10 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -2286,7 +2159,7 @@
         <v>770000</v>
       </c>
       <c r="H2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I2">
         <v>8200</v>
@@ -2295,34 +2168,34 @@
         <v>9400</v>
       </c>
       <c r="K2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L2">
         <v>7000</v>
       </c>
       <c r="M2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="Q2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="S2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="T2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -2330,10 +2203,10 @@
         <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -2348,7 +2221,7 @@
         <v>2000000</v>
       </c>
       <c r="H3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I3">
         <v>22000</v>
@@ -2357,34 +2230,34 @@
         <v>25000</v>
       </c>
       <c r="K3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L3">
         <v>26000</v>
       </c>
       <c r="M3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="Q3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="S3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="T3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -2392,13 +2265,13 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E4" t="s">
         <v>19</v>
@@ -2410,7 +2283,7 @@
         <v>4137000</v>
       </c>
       <c r="H4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I4">
         <v>8800</v>
@@ -2419,34 +2292,34 @@
         <v>10700</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L4">
         <v>10700</v>
       </c>
       <c r="M4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="O4">
         <v>30.21513173797438</v>
       </c>
       <c r="P4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="Q4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="S4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="T4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -2454,10 +2327,10 @@
         <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -2472,7 +2345,7 @@
         <v>4000000</v>
       </c>
       <c r="H5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I5">
         <v>2000</v>
@@ -2481,48 +2354,48 @@
         <v>2000</v>
       </c>
       <c r="K5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L5">
         <v>2000</v>
       </c>
       <c r="M5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="Q5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="S5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="T5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E6" t="s">
         <v>21</v>
@@ -2534,7 +2407,7 @@
         <v>16200000</v>
       </c>
       <c r="H6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I6">
         <v>21000</v>
@@ -2543,48 +2416,48 @@
         <v>26000</v>
       </c>
       <c r="K6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L6">
         <v>26000</v>
       </c>
       <c r="M6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="Q6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R6" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="S6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="T6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E7" t="s">
         <v>22</v>
@@ -2596,7 +2469,7 @@
         <v>18000000</v>
       </c>
       <c r="H7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I7">
         <v>2000</v>
@@ -2605,48 +2478,48 @@
         <v>2000</v>
       </c>
       <c r="K7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L7">
         <v>2000</v>
       </c>
       <c r="M7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="Q7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="S7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="T7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E8" t="s">
         <v>22</v>
@@ -2658,7 +2531,7 @@
         <v>1500000</v>
       </c>
       <c r="H8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I8">
         <v>8900</v>
@@ -2667,48 +2540,48 @@
         <v>11000</v>
       </c>
       <c r="K8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L8">
         <v>12500</v>
       </c>
       <c r="M8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="Q8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R8" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="S8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="T8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E9" t="s">
         <v>23</v>
@@ -2720,7 +2593,7 @@
         <v>2240000</v>
       </c>
       <c r="H9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I9">
         <v>11500</v>
@@ -2729,48 +2602,48 @@
         <v>13200</v>
       </c>
       <c r="K9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L9">
         <v>15000</v>
       </c>
       <c r="M9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="O9">
         <v>26.78571428571428</v>
       </c>
       <c r="P9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="Q9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R9" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="S9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="T9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E10" t="s">
         <v>24</v>
@@ -2782,7 +2655,7 @@
         <v>1580000</v>
       </c>
       <c r="H10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I10">
         <v>10500</v>
@@ -2791,48 +2664,48 @@
         <v>12000</v>
       </c>
       <c r="K10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L10">
         <v>14000</v>
       </c>
       <c r="M10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="Q10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R10" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="S10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="T10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E11" t="s">
         <v>25</v>
@@ -2844,7 +2717,7 @@
         <v>1500000</v>
       </c>
       <c r="H11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I11">
         <v>20000</v>
@@ -2853,34 +2726,34 @@
         <v>23000</v>
       </c>
       <c r="K11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L11">
         <v>23000</v>
       </c>
       <c r="M11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="Q11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R11" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="S11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="T11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -2888,13 +2761,13 @@
         <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E12" t="s">
         <v>26</v>
@@ -2906,7 +2779,7 @@
         <v>1100000</v>
       </c>
       <c r="H12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I12">
         <v>20000</v>
@@ -2915,34 +2788,34 @@
         <v>24000</v>
       </c>
       <c r="K12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L12">
         <v>24000</v>
       </c>
       <c r="M12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="O12">
         <v>18.18181818181818</v>
       </c>
       <c r="P12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="Q12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R12" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="S12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="T12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -2950,10 +2823,10 @@
         <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D13" t="s">
         <v>28</v>
@@ -2968,7 +2841,7 @@
         <v>4500000</v>
       </c>
       <c r="H13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I13">
         <v>2000</v>
@@ -2977,45 +2850,45 @@
         <v>2000</v>
       </c>
       <c r="K13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L13">
         <v>2000</v>
       </c>
       <c r="M13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="Q13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R13" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="S13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="T13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D14" t="s">
         <v>30</v>
@@ -3030,7 +2903,7 @@
         <v>4750000</v>
       </c>
       <c r="H14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I14">
         <v>2000</v>
@@ -3039,48 +2912,48 @@
         <v>2000</v>
       </c>
       <c r="K14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L14">
         <v>2000</v>
       </c>
       <c r="M14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="Q14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R14" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="S14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="T14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D15" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E15" t="s">
         <v>29</v>
@@ -3092,7 +2965,7 @@
         <v>6500000</v>
       </c>
       <c r="H15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I15">
         <v>2000</v>
@@ -3101,48 +2974,48 @@
         <v>2000</v>
       </c>
       <c r="K15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L15">
         <v>2000</v>
       </c>
       <c r="M15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="Q15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R15" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="S15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="T15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D16" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E16" t="s">
         <v>30</v>
@@ -3154,7 +3027,7 @@
         <v>5000000</v>
       </c>
       <c r="H16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I16">
         <v>2000</v>
@@ -3163,158 +3036,34 @@
         <v>2000</v>
       </c>
       <c r="K16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L16">
         <v>2000</v>
       </c>
       <c r="M16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="Q16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R16" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="S16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="T16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>79</v>
-      </c>
-      <c r="B17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" t="s">
-        <v>85</v>
-      </c>
-      <c r="E17" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17">
-        <v>8000000</v>
-      </c>
-      <c r="G17">
-        <v>4000000</v>
-      </c>
-      <c r="H17" t="s">
-        <v>68</v>
-      </c>
-      <c r="I17">
-        <v>2000</v>
-      </c>
-      <c r="J17">
-        <v>2000</v>
-      </c>
-      <c r="K17" t="s">
-        <v>68</v>
-      </c>
-      <c r="L17">
-        <v>2000</v>
-      </c>
-      <c r="M17" t="s">
-        <v>68</v>
-      </c>
-      <c r="N17" t="s">
-        <v>68</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>68</v>
-      </c>
-      <c r="R17" t="s">
-        <v>119</v>
-      </c>
-      <c r="S17" t="s">
-        <v>68</v>
-      </c>
-      <c r="T17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>79</v>
-      </c>
-      <c r="B18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" t="s">
-        <v>85</v>
-      </c>
-      <c r="E18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18">
-        <v>13000000</v>
-      </c>
-      <c r="G18">
-        <v>6500000</v>
-      </c>
-      <c r="H18" t="s">
-        <v>68</v>
-      </c>
-      <c r="I18">
-        <v>2000</v>
-      </c>
-      <c r="J18">
-        <v>2000</v>
-      </c>
-      <c r="K18" t="s">
-        <v>68</v>
-      </c>
-      <c r="L18">
-        <v>2000</v>
-      </c>
-      <c r="M18" t="s">
-        <v>68</v>
-      </c>
-      <c r="N18" t="s">
-        <v>68</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>68</v>
-      </c>
-      <c r="R18" t="s">
-        <v>120</v>
-      </c>
-      <c r="S18" t="s">
-        <v>68</v>
-      </c>
-      <c r="T18" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -3324,7 +3073,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3332,16 +3081,16 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -3353,10 +3102,10 @@
         <v>0</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>12</v>
@@ -3365,27 +3114,27 @@
         <v>6</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -3408,22 +3157,22 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E3" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
@@ -3446,22 +3195,22 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s">
         <v>22</v>
@@ -3484,22 +3233,22 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E5" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s">
         <v>21</v>
@@ -3522,25 +3271,25 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" t="s">
         <v>79</v>
       </c>
-      <c r="C6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F6" t="s">
-        <v>85</v>
-      </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H6">
         <v>13000</v>
@@ -3560,34 +3309,34 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H7">
-        <v>13000</v>
+        <v>34500</v>
       </c>
       <c r="I7">
-        <v>6500000</v>
+        <v>1500000</v>
       </c>
       <c r="J7">
-        <v>2000</v>
+        <v>23000</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -3598,19 +3347,19 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F8" t="s">
         <v>20</v>
@@ -3636,22 +3385,22 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G9" t="s">
         <v>19</v>
@@ -3674,22 +3423,22 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E10" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F10" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s">
         <v>21</v>
@@ -3712,34 +3461,34 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F11" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H11">
-        <v>34500</v>
+        <v>33600</v>
       </c>
       <c r="I11">
-        <v>1500000</v>
+        <v>2240000</v>
       </c>
       <c r="J11">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -3753,10 +3502,10 @@
         <v>62</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
         <v>62</v>
@@ -3765,19 +3514,19 @@
         <v>62</v>
       </c>
       <c r="F12" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="G12" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H12">
-        <v>33600</v>
+        <v>9000</v>
       </c>
       <c r="I12">
-        <v>2240000</v>
+        <v>4500000</v>
       </c>
       <c r="J12">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -3788,34 +3537,34 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E13" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F13" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="G13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H13">
-        <v>9000</v>
+        <v>26400</v>
       </c>
       <c r="I13">
-        <v>4500000</v>
+        <v>1100000</v>
       </c>
       <c r="J13">
-        <v>2000</v>
+        <v>24000</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -3826,116 +3575,116 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="E14" t="s">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="F14" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G14" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H14">
-        <v>26400</v>
+        <v>12636</v>
       </c>
       <c r="I14">
-        <v>1100000</v>
+        <v>16200000</v>
       </c>
       <c r="J14">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C15" t="s">
         <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="E15" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="F15" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H15">
-        <v>12636</v>
+        <v>36000</v>
       </c>
       <c r="I15">
-        <v>16200000</v>
+        <v>18000000</v>
       </c>
       <c r="J15">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D16" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="E16" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="F16" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H16">
-        <v>36000</v>
+        <v>4212</v>
       </c>
       <c r="I16">
-        <v>18000000</v>
+        <v>16200000</v>
       </c>
       <c r="J16">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -3943,209 +3692,209 @@
         <v>60</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D17" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="E17" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F17" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="G17" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H17">
-        <v>4212</v>
+        <v>15484</v>
       </c>
       <c r="I17">
-        <v>16200000</v>
+        <v>1580000</v>
       </c>
       <c r="J17">
-        <v>26000</v>
+        <v>14000</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B18" t="s">
         <v>75</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D18" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E18" t="s">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="F18" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G18" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H18">
-        <v>15484</v>
+        <v>10000</v>
       </c>
       <c r="I18">
-        <v>1580000</v>
+        <v>5000000</v>
       </c>
       <c r="J18">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E19" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="F19" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="G19" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H19">
-        <v>10000</v>
+        <v>6636</v>
       </c>
       <c r="I19">
-        <v>5000000</v>
+        <v>1580000</v>
       </c>
       <c r="J19">
-        <v>2000</v>
+        <v>14000</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D20" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="E20" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F20" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H20">
-        <v>6636</v>
+        <v>12636</v>
       </c>
       <c r="I20">
-        <v>1580000</v>
+        <v>16200000</v>
       </c>
       <c r="J20">
-        <v>14000</v>
+        <v>26000</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="E21" t="s">
-        <v>124</v>
+        <v>48</v>
       </c>
       <c r="F21" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="G21" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H21">
-        <v>12636</v>
+        <v>5390</v>
       </c>
       <c r="I21">
-        <v>16200000</v>
+        <v>770000</v>
       </c>
       <c r="J21">
-        <v>26000</v>
+        <v>7000</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D22" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E22" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F22" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G22" t="s">
         <v>21</v>
@@ -4171,98 +3920,98 @@
         <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D23" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="E23" t="s">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="F23" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="G23" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H23">
-        <v>5390</v>
+        <v>126360</v>
       </c>
       <c r="I23">
-        <v>770000</v>
+        <v>16200000</v>
       </c>
       <c r="J23">
-        <v>7000</v>
+        <v>26000</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B24" t="s">
         <v>73</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D24" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="E24" t="s">
-        <v>124</v>
+        <v>63</v>
       </c>
       <c r="F24" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="G24" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H24">
-        <v>126360</v>
+        <v>9500</v>
       </c>
       <c r="I24">
-        <v>16200000</v>
+        <v>4750000</v>
       </c>
       <c r="J24">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B25" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D25" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E25" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F25" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="G25" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H25">
         <v>8000</v>
@@ -4277,82 +4026,6 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" t="s">
-        <v>66</v>
-      </c>
-      <c r="B26" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" t="s">
-        <v>66</v>
-      </c>
-      <c r="E26" t="s">
-        <v>66</v>
-      </c>
-      <c r="F26" t="s">
-        <v>30</v>
-      </c>
-      <c r="G26" t="s">
-        <v>28</v>
-      </c>
-      <c r="H26">
-        <v>9500</v>
-      </c>
-      <c r="I26">
-        <v>4750000</v>
-      </c>
-      <c r="J26">
-        <v>2000</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" t="s">
-        <v>53</v>
-      </c>
-      <c r="E27" t="s">
-        <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" t="s">
-        <v>20</v>
-      </c>
-      <c r="H27">
-        <v>8000</v>
-      </c>
-      <c r="I27">
-        <v>4000000</v>
-      </c>
-      <c r="J27">
-        <v>2000</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
         <v>100</v>
       </c>
     </row>

--- a/datasets/corporate-finance-data.xlsx
+++ b/datasets/corporate-finance-data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="115">
   <si>
     <t>상장일</t>
   </si>
@@ -108,159 +108,150 @@
     <t>2023-09-04</t>
   </si>
   <si>
+    <t>에스엘에스바이오</t>
+  </si>
+  <si>
+    <t>신성에스티</t>
+  </si>
+  <si>
+    <t>퓨릿</t>
+  </si>
+  <si>
+    <t>에이치엠씨제6호스팩</t>
+  </si>
+  <si>
+    <t>두산로보틱스</t>
+  </si>
+  <si>
+    <t>신한제11호스팩</t>
+  </si>
+  <si>
+    <t>한싹</t>
+  </si>
+  <si>
+    <t>레뷰코퍼레이션</t>
+  </si>
+  <si>
+    <t>아이엠티</t>
+  </si>
+  <si>
+    <t>밀리의서재</t>
+  </si>
+  <si>
+    <t>인스웨이브시스템즈</t>
+  </si>
+  <si>
+    <t>상상인제4호스팩</t>
+  </si>
+  <si>
+    <t>한화플러스제4호스팩</t>
+  </si>
+  <si>
+    <t>대신밸런스제16호스팩</t>
+  </si>
+  <si>
+    <t>코스닥</t>
+  </si>
+  <si>
+    <t>코스피</t>
+  </si>
+  <si>
+    <t>하나</t>
+  </si>
+  <si>
+    <t>미래</t>
+  </si>
+  <si>
+    <t>현대차</t>
+  </si>
+  <si>
+    <t>한국</t>
+  </si>
+  <si>
+    <t>NH</t>
+  </si>
+  <si>
+    <t>KB</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>키움</t>
+  </si>
+  <si>
+    <t>신영</t>
+  </si>
+  <si>
+    <t>유비에스</t>
+  </si>
+  <si>
+    <t>신한</t>
+  </si>
+  <si>
+    <t>삼성</t>
+  </si>
+  <si>
+    <t>유안타</t>
+  </si>
+  <si>
+    <t>유진</t>
+  </si>
+  <si>
+    <t>상상인</t>
+  </si>
+  <si>
+    <t>한화</t>
+  </si>
+  <si>
+    <t>대신</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>대표</t>
+  </si>
+  <si>
+    <t>공동대표</t>
+  </si>
+  <si>
+    <t>공동</t>
+  </si>
+  <si>
+    <t>인수</t>
+  </si>
+  <si>
+    <t>2023-09-21</t>
+  </si>
+  <si>
+    <t>2023-09-19</t>
+  </si>
+  <si>
+    <t>2023-09-18</t>
+  </si>
+  <si>
+    <t>2023-08-29</t>
+  </si>
+  <si>
+    <t>2023-08-23</t>
+  </si>
+  <si>
+    <t>2023-10-11</t>
+  </si>
+  <si>
+    <t>2023-09-26</t>
+  </si>
+  <si>
+    <t>2023-09-22</t>
+  </si>
+  <si>
     <t>2023-09-01</t>
   </si>
   <si>
-    <t>에스엘에스바이오</t>
-  </si>
-  <si>
-    <t>신성에스티</t>
-  </si>
-  <si>
-    <t>퓨릿</t>
-  </si>
-  <si>
-    <t>에이치엠씨제6호스팩</t>
-  </si>
-  <si>
-    <t>두산로보틱스</t>
-  </si>
-  <si>
-    <t>신한제11호스팩</t>
-  </si>
-  <si>
-    <t>한싹</t>
-  </si>
-  <si>
-    <t>레뷰코퍼레이션</t>
-  </si>
-  <si>
-    <t>아이엠티</t>
-  </si>
-  <si>
-    <t>밀리의서재</t>
-  </si>
-  <si>
-    <t>인스웨이브시스템즈</t>
-  </si>
-  <si>
-    <t>상상인제4호스팩</t>
-  </si>
-  <si>
-    <t>한화플러스제4호스팩</t>
-  </si>
-  <si>
-    <t>대신밸런스제16호스팩</t>
-  </si>
-  <si>
-    <t>유안타제11호스팩</t>
-  </si>
-  <si>
-    <t>코스닥</t>
-  </si>
-  <si>
-    <t>코스피</t>
-  </si>
-  <si>
-    <t>하나</t>
-  </si>
-  <si>
-    <t>미래</t>
-  </si>
-  <si>
-    <t>현대차</t>
-  </si>
-  <si>
-    <t>한국</t>
-  </si>
-  <si>
-    <t>NH</t>
-  </si>
-  <si>
-    <t>KB</t>
-  </si>
-  <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t>키움</t>
-  </si>
-  <si>
-    <t>신영</t>
-  </si>
-  <si>
-    <t>유비에스</t>
-  </si>
-  <si>
-    <t>신한</t>
-  </si>
-  <si>
-    <t>삼성</t>
-  </si>
-  <si>
-    <t>유안타</t>
-  </si>
-  <si>
-    <t>유진</t>
-  </si>
-  <si>
-    <t>상상인</t>
-  </si>
-  <si>
-    <t>한화</t>
-  </si>
-  <si>
-    <t>대신</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>대표</t>
-  </si>
-  <si>
-    <t>공동대표</t>
-  </si>
-  <si>
-    <t>공동</t>
-  </si>
-  <si>
-    <t>인수</t>
-  </si>
-  <si>
-    <t>2023-09-21</t>
-  </si>
-  <si>
-    <t>2023-09-19</t>
-  </si>
-  <si>
-    <t>2023-09-18</t>
-  </si>
-  <si>
-    <t>2023-08-29</t>
-  </si>
-  <si>
-    <t>2023-08-23</t>
-  </si>
-  <si>
-    <t>2023-08-22</t>
-  </si>
-  <si>
-    <t>2023-10-11</t>
-  </si>
-  <si>
-    <t>2023-09-26</t>
-  </si>
-  <si>
-    <t>2023-09-22</t>
-  </si>
-  <si>
     <t>2023-08-28</t>
   </si>
   <si>
-    <t>2023-08-25</t>
-  </si>
-  <si>
     <t>회사명</t>
   </si>
   <si>
@@ -355,9 +346,6 @@
   </si>
   <si>
     <t>527.68 : 1</t>
-  </si>
-  <si>
-    <t>296.2 : 1</t>
   </si>
   <si>
     <t>인수기관</t>
@@ -730,7 +718,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -794,37 +782,37 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2">
         <v>53.9</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F2">
         <v>53.9</v>
       </c>
       <c r="G2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M2">
         <v>7000</v>
@@ -847,37 +835,37 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D3">
         <v>520</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F3">
         <v>520</v>
       </c>
       <c r="G3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M3">
         <v>26000</v>
@@ -900,37 +888,37 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D4">
         <v>442.659</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F4">
         <v>442.659</v>
       </c>
       <c r="G4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M4">
         <v>10700</v>
@@ -942,7 +930,7 @@
         <v>21</v>
       </c>
       <c r="P4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q4">
         <v>3102750</v>
@@ -953,37 +941,37 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D5">
         <v>80</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F5">
         <v>80</v>
       </c>
       <c r="G5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M5">
         <v>2000</v>
@@ -1006,37 +994,37 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D6">
         <v>4212</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F6">
         <v>1263.6</v>
       </c>
       <c r="G6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K6" t="s">
         <v>65</v>
       </c>
-      <c r="H6" t="s">
-        <v>65</v>
-      </c>
-      <c r="I6" t="s">
-        <v>65</v>
-      </c>
-      <c r="J6" t="s">
-        <v>65</v>
-      </c>
-      <c r="K6" t="s">
-        <v>67</v>
-      </c>
       <c r="L6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M6">
         <v>26000</v>
@@ -1045,10 +1033,10 @@
         <v>30</v>
       </c>
       <c r="O6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="Q6">
         <v>87871545</v>
@@ -1059,37 +1047,37 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D7">
         <v>4212</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F7">
         <v>1263.6</v>
       </c>
       <c r="G7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" t="s">
+        <v>63</v>
+      </c>
+      <c r="J7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K7" t="s">
         <v>65</v>
       </c>
-      <c r="H7" t="s">
-        <v>65</v>
-      </c>
-      <c r="I7" t="s">
-        <v>65</v>
-      </c>
-      <c r="J7" t="s">
-        <v>65</v>
-      </c>
-      <c r="K7" t="s">
-        <v>67</v>
-      </c>
       <c r="L7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M7">
         <v>26000</v>
@@ -1098,10 +1086,10 @@
         <v>30</v>
       </c>
       <c r="O7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="Q7">
         <v>87871545</v>
@@ -1112,37 +1100,37 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D8">
         <v>4212</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F8">
         <v>421.2</v>
       </c>
       <c r="G8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M8">
         <v>26000</v>
@@ -1151,10 +1139,10 @@
         <v>10</v>
       </c>
       <c r="O8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="Q8">
         <v>87871545</v>
@@ -1165,37 +1153,37 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D9">
         <v>4212</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F9">
         <v>421.2</v>
       </c>
       <c r="G9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M9">
         <v>26000</v>
@@ -1204,10 +1192,10 @@
         <v>10</v>
       </c>
       <c r="O9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="Q9">
         <v>87871545</v>
@@ -1218,37 +1206,37 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D10">
         <v>4212</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F10">
         <v>421.2</v>
       </c>
       <c r="G10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M10">
         <v>26000</v>
@@ -1257,10 +1245,10 @@
         <v>10</v>
       </c>
       <c r="O10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="Q10">
         <v>87871545</v>
@@ -1271,37 +1259,37 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D11">
         <v>4212</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F11">
         <v>126.36</v>
       </c>
       <c r="G11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M11">
         <v>26000</v>
@@ -1310,10 +1298,10 @@
         <v>3</v>
       </c>
       <c r="O11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="Q11">
         <v>87871545</v>
@@ -1324,37 +1312,37 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D12">
         <v>4212</v>
       </c>
       <c r="E12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F12">
         <v>126.36</v>
       </c>
       <c r="G12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M12">
         <v>26000</v>
@@ -1363,10 +1351,10 @@
         <v>3</v>
       </c>
       <c r="O12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="Q12">
         <v>87871545</v>
@@ -1377,37 +1365,37 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D13">
         <v>4212</v>
       </c>
       <c r="E13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F13">
         <v>126.36</v>
       </c>
       <c r="G13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M13">
         <v>26000</v>
@@ -1416,10 +1404,10 @@
         <v>3</v>
       </c>
       <c r="O13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P13" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="Q13">
         <v>87871545</v>
@@ -1430,37 +1418,37 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D14">
         <v>4212</v>
       </c>
       <c r="E14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F14">
         <v>42.12</v>
       </c>
       <c r="G14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M14">
         <v>26000</v>
@@ -1469,10 +1457,10 @@
         <v>1</v>
       </c>
       <c r="O14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="Q14">
         <v>87871545</v>
@@ -1483,37 +1471,37 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D15">
         <v>360</v>
       </c>
       <c r="E15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F15">
         <v>360</v>
       </c>
       <c r="G15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M15">
         <v>2000</v>
@@ -1522,10 +1510,10 @@
         <v>100</v>
       </c>
       <c r="O15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="P15" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="Q15">
         <v>13500000</v>
@@ -1536,37 +1524,37 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D16">
         <v>187.5</v>
       </c>
       <c r="E16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F16">
         <v>187.5</v>
       </c>
       <c r="G16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M16">
         <v>12500</v>
@@ -1575,10 +1563,10 @@
         <v>100</v>
       </c>
       <c r="O16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="P16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="Q16">
         <v>1020000</v>
@@ -1589,37 +1577,37 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D17">
         <v>336</v>
       </c>
       <c r="E17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F17">
         <v>336</v>
       </c>
       <c r="G17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M17">
         <v>15000</v>
@@ -1628,10 +1616,10 @@
         <v>100</v>
       </c>
       <c r="O17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="P17" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="Q17">
         <v>1619200</v>
@@ -1642,37 +1630,37 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D18">
         <v>221.2</v>
       </c>
       <c r="E18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F18">
         <v>154.84</v>
       </c>
       <c r="G18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M18">
         <v>14000</v>
@@ -1681,10 +1669,10 @@
         <v>70</v>
       </c>
       <c r="O18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="P18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Q18">
         <v>2370000</v>
@@ -1695,37 +1683,37 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D19">
         <v>221.2</v>
       </c>
       <c r="E19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F19">
         <v>66.36</v>
       </c>
       <c r="G19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M19">
         <v>14000</v>
@@ -1734,10 +1722,10 @@
         <v>30</v>
       </c>
       <c r="O19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="P19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Q19">
         <v>2370000</v>
@@ -1748,37 +1736,37 @@
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D20">
         <v>345</v>
       </c>
       <c r="E20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F20">
         <v>345</v>
       </c>
       <c r="G20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M20">
         <v>23000</v>
@@ -1787,10 +1775,10 @@
         <v>100</v>
       </c>
       <c r="O20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="P20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Q20">
         <v>1125000</v>
@@ -1801,37 +1789,37 @@
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D21">
         <v>264</v>
       </c>
       <c r="E21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F21">
         <v>264</v>
       </c>
       <c r="G21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M21">
         <v>24000</v>
@@ -1843,7 +1831,7 @@
         <v>27</v>
       </c>
       <c r="P21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="Q21">
         <v>825000</v>
@@ -1854,37 +1842,37 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D22">
         <v>90</v>
       </c>
       <c r="E22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F22">
         <v>90</v>
       </c>
       <c r="G22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K22" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M22">
         <v>2000</v>
@@ -1907,37 +1895,37 @@
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D23">
         <v>95</v>
       </c>
       <c r="E23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F23">
         <v>95</v>
       </c>
       <c r="G23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K23" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M23">
         <v>2000</v>
@@ -1946,10 +1934,10 @@
         <v>100</v>
       </c>
       <c r="O23" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="P23" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="Q23">
         <v>3562500</v>
@@ -1960,37 +1948,37 @@
         <v>29</v>
       </c>
       <c r="B24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" t="s">
         <v>44</v>
-      </c>
-      <c r="C24" t="s">
-        <v>46</v>
       </c>
       <c r="D24">
         <v>130</v>
       </c>
       <c r="E24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F24">
         <v>130</v>
       </c>
       <c r="G24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M24">
         <v>2000</v>
@@ -1999,66 +1987,13 @@
         <v>100</v>
       </c>
       <c r="O24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="Q24">
         <v>4875000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25">
-        <v>100</v>
-      </c>
-      <c r="E25" t="s">
-        <v>60</v>
-      </c>
-      <c r="F25">
-        <v>100</v>
-      </c>
-      <c r="G25" t="s">
-        <v>65</v>
-      </c>
-      <c r="H25" t="s">
-        <v>65</v>
-      </c>
-      <c r="I25" t="s">
-        <v>65</v>
-      </c>
-      <c r="J25" t="s">
-        <v>65</v>
-      </c>
-      <c r="K25" t="s">
-        <v>66</v>
-      </c>
-      <c r="L25" t="s">
-        <v>65</v>
-      </c>
-      <c r="M25">
-        <v>2000</v>
-      </c>
-      <c r="N25">
-        <v>100</v>
-      </c>
-      <c r="O25" t="s">
-        <v>75</v>
-      </c>
-      <c r="P25" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q25">
-        <v>3750000</v>
       </c>
     </row>
   </sheetData>
@@ -2068,7 +2003,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2079,10 +2014,10 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>15</v>
@@ -2091,49 +2026,49 @@
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -2141,10 +2076,10 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -2159,7 +2094,7 @@
         <v>770000</v>
       </c>
       <c r="H2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I2">
         <v>8200</v>
@@ -2168,34 +2103,34 @@
         <v>9400</v>
       </c>
       <c r="K2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L2">
         <v>7000</v>
       </c>
       <c r="M2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Q2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="S2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="T2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -2203,10 +2138,10 @@
         <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -2221,7 +2156,7 @@
         <v>2000000</v>
       </c>
       <c r="H3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I3">
         <v>22000</v>
@@ -2230,34 +2165,34 @@
         <v>25000</v>
       </c>
       <c r="K3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L3">
         <v>26000</v>
       </c>
       <c r="M3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Q3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="S3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="T3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -2265,13 +2200,13 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E4" t="s">
         <v>19</v>
@@ -2283,7 +2218,7 @@
         <v>4137000</v>
       </c>
       <c r="H4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I4">
         <v>8800</v>
@@ -2292,34 +2227,34 @@
         <v>10700</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L4">
         <v>10700</v>
       </c>
       <c r="M4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O4">
         <v>30.21513173797438</v>
       </c>
       <c r="P4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Q4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="S4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="T4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -2327,10 +2262,10 @@
         <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -2345,7 +2280,7 @@
         <v>4000000</v>
       </c>
       <c r="H5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I5">
         <v>2000</v>
@@ -2354,48 +2289,48 @@
         <v>2000</v>
       </c>
       <c r="K5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L5">
         <v>2000</v>
       </c>
       <c r="M5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Q5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="S5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="T5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E6" t="s">
         <v>21</v>
@@ -2407,7 +2342,7 @@
         <v>16200000</v>
       </c>
       <c r="H6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I6">
         <v>21000</v>
@@ -2416,48 +2351,48 @@
         <v>26000</v>
       </c>
       <c r="K6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L6">
         <v>26000</v>
       </c>
       <c r="M6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Q6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="S6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="T6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E7" t="s">
         <v>22</v>
@@ -2469,7 +2404,7 @@
         <v>18000000</v>
       </c>
       <c r="H7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I7">
         <v>2000</v>
@@ -2478,48 +2413,48 @@
         <v>2000</v>
       </c>
       <c r="K7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L7">
         <v>2000</v>
       </c>
       <c r="M7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Q7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="S7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="T7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E8" t="s">
         <v>22</v>
@@ -2531,7 +2466,7 @@
         <v>1500000</v>
       </c>
       <c r="H8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I8">
         <v>8900</v>
@@ -2540,48 +2475,48 @@
         <v>11000</v>
       </c>
       <c r="K8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L8">
         <v>12500</v>
       </c>
       <c r="M8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Q8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="S8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="T8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E9" t="s">
         <v>23</v>
@@ -2593,7 +2528,7 @@
         <v>2240000</v>
       </c>
       <c r="H9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I9">
         <v>11500</v>
@@ -2602,48 +2537,48 @@
         <v>13200</v>
       </c>
       <c r="K9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L9">
         <v>15000</v>
       </c>
       <c r="M9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O9">
         <v>26.78571428571428</v>
       </c>
       <c r="P9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Q9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="S9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="T9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E10" t="s">
         <v>24</v>
@@ -2655,7 +2590,7 @@
         <v>1580000</v>
       </c>
       <c r="H10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I10">
         <v>10500</v>
@@ -2664,48 +2599,48 @@
         <v>12000</v>
       </c>
       <c r="K10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L10">
         <v>14000</v>
       </c>
       <c r="M10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Q10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="S10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="T10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E11" t="s">
         <v>25</v>
@@ -2717,7 +2652,7 @@
         <v>1500000</v>
       </c>
       <c r="H11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I11">
         <v>20000</v>
@@ -2726,34 +2661,34 @@
         <v>23000</v>
       </c>
       <c r="K11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L11">
         <v>23000</v>
       </c>
       <c r="M11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Q11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="S11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="T11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -2761,13 +2696,13 @@
         <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E12" t="s">
         <v>26</v>
@@ -2779,7 +2714,7 @@
         <v>1100000</v>
       </c>
       <c r="H12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I12">
         <v>20000</v>
@@ -2788,34 +2723,34 @@
         <v>24000</v>
       </c>
       <c r="K12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L12">
         <v>24000</v>
       </c>
       <c r="M12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O12">
         <v>18.18181818181818</v>
       </c>
       <c r="P12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Q12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R12" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="S12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="T12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -2823,10 +2758,10 @@
         <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D13" t="s">
         <v>28</v>
@@ -2841,7 +2776,7 @@
         <v>4500000</v>
       </c>
       <c r="H13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I13">
         <v>2000</v>
@@ -2850,48 +2785,48 @@
         <v>2000</v>
       </c>
       <c r="K13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L13">
         <v>2000</v>
       </c>
       <c r="M13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Q13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R13" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="S13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="T13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="E14" t="s">
         <v>28</v>
@@ -2903,7 +2838,7 @@
         <v>4750000</v>
       </c>
       <c r="H14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I14">
         <v>2000</v>
@@ -2912,48 +2847,48 @@
         <v>2000</v>
       </c>
       <c r="K14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L14">
         <v>2000</v>
       </c>
       <c r="M14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Q14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R14" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="S14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="T14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E15" t="s">
         <v>29</v>
@@ -2965,7 +2900,7 @@
         <v>6500000</v>
       </c>
       <c r="H15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I15">
         <v>2000</v>
@@ -2974,96 +2909,34 @@
         <v>2000</v>
       </c>
       <c r="K15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L15">
         <v>2000</v>
       </c>
       <c r="M15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Q15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R15" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="S15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="T15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>75</v>
-      </c>
-      <c r="B16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16">
-        <v>10000000</v>
-      </c>
-      <c r="G16">
-        <v>5000000</v>
-      </c>
-      <c r="H16" t="s">
-        <v>65</v>
-      </c>
-      <c r="I16">
-        <v>2000</v>
-      </c>
-      <c r="J16">
-        <v>2000</v>
-      </c>
-      <c r="K16" t="s">
-        <v>65</v>
-      </c>
-      <c r="L16">
-        <v>2000</v>
-      </c>
-      <c r="M16" t="s">
-        <v>65</v>
-      </c>
-      <c r="N16" t="s">
-        <v>65</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>65</v>
-      </c>
-      <c r="R16" t="s">
-        <v>113</v>
-      </c>
-      <c r="S16" t="s">
-        <v>65</v>
-      </c>
-      <c r="T16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -3073,7 +2946,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3081,16 +2954,16 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -3102,10 +2975,10 @@
         <v>0</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>12</v>
@@ -3114,27 +2987,27 @@
         <v>6</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -3157,98 +3030,98 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>98</v>
+        <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>117</v>
+        <v>51</v>
       </c>
       <c r="F3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H3">
-        <v>42120</v>
+        <v>18750</v>
       </c>
       <c r="I3">
-        <v>16200000</v>
+        <v>1500000</v>
       </c>
       <c r="J3">
-        <v>26000</v>
+        <v>12500</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="F4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H4">
-        <v>18750</v>
+        <v>42120</v>
       </c>
       <c r="I4">
-        <v>1500000</v>
+        <v>16200000</v>
       </c>
       <c r="J4">
-        <v>12500</v>
+        <v>26000</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
         <v>21</v>
@@ -3271,22 +3144,22 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s">
         <v>29</v>
@@ -3309,72 +3182,72 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="F7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H7">
-        <v>34500</v>
+        <v>126360</v>
       </c>
       <c r="I7">
-        <v>1500000</v>
+        <v>16200000</v>
       </c>
       <c r="J7">
-        <v>23000</v>
+        <v>26000</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
         <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H8">
-        <v>52000</v>
+        <v>44265.9</v>
       </c>
       <c r="I8">
-        <v>2000000</v>
+        <v>4137000</v>
       </c>
       <c r="J8">
-        <v>26000</v>
+        <v>10700</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -3385,34 +3258,34 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F9" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="G9" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H9">
-        <v>44265.9</v>
+        <v>34500</v>
       </c>
       <c r="I9">
-        <v>4137000</v>
+        <v>1500000</v>
       </c>
       <c r="J9">
-        <v>10700</v>
+        <v>23000</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -3423,31 +3296,31 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="E10" t="s">
-        <v>117</v>
+        <v>47</v>
       </c>
       <c r="F10" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H10">
-        <v>126360</v>
+        <v>52000</v>
       </c>
       <c r="I10">
-        <v>16200000</v>
+        <v>2000000</v>
       </c>
       <c r="J10">
         <v>26000</v>
@@ -3456,27 +3329,27 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G11" t="s">
         <v>23</v>
@@ -3499,19 +3372,19 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F12" t="s">
         <v>28</v>
@@ -3537,98 +3410,98 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="E13" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="F13" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G13" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H13">
-        <v>26400</v>
+        <v>12636</v>
       </c>
       <c r="I13">
-        <v>1100000</v>
+        <v>16200000</v>
       </c>
       <c r="J13">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>117</v>
+        <v>54</v>
       </c>
       <c r="F14" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="G14" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H14">
-        <v>12636</v>
+        <v>26400</v>
       </c>
       <c r="I14">
-        <v>16200000</v>
+        <v>1100000</v>
       </c>
       <c r="J14">
-        <v>26000</v>
+        <v>24000</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F15" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G15" t="s">
         <v>22</v>
@@ -3651,22 +3524,22 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E16" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F16" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G16" t="s">
         <v>21</v>
@@ -3689,22 +3562,22 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G17" t="s">
         <v>24</v>
@@ -3727,180 +3600,180 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E18" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="F18" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="G18" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H18">
-        <v>10000</v>
+        <v>6636</v>
       </c>
       <c r="I18">
-        <v>5000000</v>
+        <v>1580000</v>
       </c>
       <c r="J18">
-        <v>2000</v>
+        <v>14000</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D19" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="E19" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F19" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G19" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H19">
-        <v>6636</v>
+        <v>12636</v>
       </c>
       <c r="I19">
-        <v>1580000</v>
+        <v>16200000</v>
       </c>
       <c r="J19">
-        <v>14000</v>
+        <v>26000</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="E20" t="s">
-        <v>117</v>
+        <v>46</v>
       </c>
       <c r="F20" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="G20" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H20">
-        <v>12636</v>
+        <v>5390</v>
       </c>
       <c r="I20">
-        <v>16200000</v>
+        <v>770000</v>
       </c>
       <c r="J20">
-        <v>26000</v>
+        <v>7000</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D21" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="E21" t="s">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="F21" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="G21" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H21">
-        <v>5390</v>
+        <v>12636</v>
       </c>
       <c r="I21">
-        <v>770000</v>
+        <v>16200000</v>
       </c>
       <c r="J21">
-        <v>7000</v>
+        <v>26000</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D22" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E22" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F22" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G22" t="s">
         <v>21</v>
       </c>
       <c r="H22">
-        <v>12636</v>
+        <v>126360</v>
       </c>
       <c r="I22">
         <v>16200000</v>
@@ -3912,74 +3785,74 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D23" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="E23" t="s">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="F23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G23" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H23">
-        <v>126360</v>
+        <v>9500</v>
       </c>
       <c r="I23">
-        <v>16200000</v>
+        <v>4750000</v>
       </c>
       <c r="J23">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="E24" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G24" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H24">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="I24">
-        <v>4750000</v>
+        <v>4000000</v>
       </c>
       <c r="J24">
         <v>2000</v>
@@ -3988,44 +3861,6 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" t="s">
-        <v>50</v>
-      </c>
-      <c r="E25" t="s">
-        <v>50</v>
-      </c>
-      <c r="F25" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" t="s">
-        <v>20</v>
-      </c>
-      <c r="H25">
-        <v>8000</v>
-      </c>
-      <c r="I25">
-        <v>4000000</v>
-      </c>
-      <c r="J25">
-        <v>2000</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
         <v>100</v>
       </c>
     </row>

--- a/datasets/corporate-finance-data.xlsx
+++ b/datasets/corporate-finance-data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="122">
   <si>
     <t>상장일</t>
   </si>
@@ -69,6 +69,18 @@
     <t>총기관배정수량</t>
   </si>
   <si>
+    <t>2023-11-03</t>
+  </si>
+  <si>
+    <t>2023-11-02</t>
+  </si>
+  <si>
+    <t>2023-10-27</t>
+  </si>
+  <si>
+    <t>2023-10-26</t>
+  </si>
+  <si>
     <t>2023-10-20</t>
   </si>
   <si>
@@ -102,156 +114,156 @@
     <t>2023-09-14</t>
   </si>
   <si>
+    <t>KB제27호스팩</t>
+  </si>
+  <si>
+    <t>유진테크놀로지</t>
+  </si>
+  <si>
+    <t>유투바이오</t>
+  </si>
+  <si>
+    <t>퀄리타스반도체</t>
+  </si>
+  <si>
+    <t>워트</t>
+  </si>
+  <si>
+    <t>에스엘에스바이오</t>
+  </si>
+  <si>
+    <t>신성에스티</t>
+  </si>
+  <si>
+    <t>퓨릿</t>
+  </si>
+  <si>
+    <t>에이치엠씨제6호스팩</t>
+  </si>
+  <si>
+    <t>두산로보틱스</t>
+  </si>
+  <si>
+    <t>신한제11호스팩</t>
+  </si>
+  <si>
+    <t>한싹</t>
+  </si>
+  <si>
+    <t>레뷰코퍼레이션</t>
+  </si>
+  <si>
+    <t>아이엠티</t>
+  </si>
+  <si>
+    <t>밀리의서재</t>
+  </si>
+  <si>
+    <t>인스웨이브시스템즈</t>
+  </si>
+  <si>
+    <t>상상인제4호스팩</t>
+  </si>
+  <si>
+    <t>코스닥</t>
+  </si>
+  <si>
+    <t>코스피</t>
+  </si>
+  <si>
+    <t>KB</t>
+  </si>
+  <si>
+    <t>NH</t>
+  </si>
+  <si>
+    <t>신한</t>
+  </si>
+  <si>
+    <t>한국</t>
+  </si>
+  <si>
+    <t>키움</t>
+  </si>
+  <si>
+    <t>하나</t>
+  </si>
+  <si>
+    <t>미래</t>
+  </si>
+  <si>
+    <t>현대차</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>신영</t>
+  </si>
+  <si>
+    <t>유비에스</t>
+  </si>
+  <si>
+    <t>삼성</t>
+  </si>
+  <si>
+    <t>유안타</t>
+  </si>
+  <si>
+    <t>유진</t>
+  </si>
+  <si>
+    <t>상상인</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>대표</t>
+  </si>
+  <si>
+    <t>공동대표</t>
+  </si>
+  <si>
+    <t>공동</t>
+  </si>
+  <si>
+    <t>인수</t>
+  </si>
+  <si>
+    <t>2023-10-24</t>
+  </si>
+  <si>
+    <t>2023-10-23</t>
+  </si>
+  <si>
+    <t>2023-10-16</t>
+  </si>
+  <si>
+    <t>2023-09-21</t>
+  </si>
+  <si>
+    <t>2023-09-19</t>
+  </si>
+  <si>
+    <t>2023-09-18</t>
+  </si>
+  <si>
+    <t>2023-09-04</t>
+  </si>
+  <si>
+    <t>2023-10-11</t>
+  </si>
+  <si>
+    <t>2023-09-26</t>
+  </si>
+  <si>
+    <t>2023-09-22</t>
+  </si>
+  <si>
     <t>2023-09-07</t>
   </si>
   <si>
-    <t>2023-09-04</t>
-  </si>
-  <si>
-    <t>에스엘에스바이오</t>
-  </si>
-  <si>
-    <t>신성에스티</t>
-  </si>
-  <si>
-    <t>퓨릿</t>
-  </si>
-  <si>
-    <t>에이치엠씨제6호스팩</t>
-  </si>
-  <si>
-    <t>두산로보틱스</t>
-  </si>
-  <si>
-    <t>신한제11호스팩</t>
-  </si>
-  <si>
-    <t>한싹</t>
-  </si>
-  <si>
-    <t>레뷰코퍼레이션</t>
-  </si>
-  <si>
-    <t>아이엠티</t>
-  </si>
-  <si>
-    <t>밀리의서재</t>
-  </si>
-  <si>
-    <t>인스웨이브시스템즈</t>
-  </si>
-  <si>
-    <t>상상인제4호스팩</t>
-  </si>
-  <si>
-    <t>한화플러스제4호스팩</t>
-  </si>
-  <si>
-    <t>대신밸런스제16호스팩</t>
-  </si>
-  <si>
-    <t>코스닥</t>
-  </si>
-  <si>
-    <t>코스피</t>
-  </si>
-  <si>
-    <t>하나</t>
-  </si>
-  <si>
-    <t>미래</t>
-  </si>
-  <si>
-    <t>현대차</t>
-  </si>
-  <si>
-    <t>한국</t>
-  </si>
-  <si>
-    <t>NH</t>
-  </si>
-  <si>
-    <t>KB</t>
-  </si>
-  <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t>키움</t>
-  </si>
-  <si>
-    <t>신영</t>
-  </si>
-  <si>
-    <t>유비에스</t>
-  </si>
-  <si>
-    <t>신한</t>
-  </si>
-  <si>
-    <t>삼성</t>
-  </si>
-  <si>
-    <t>유안타</t>
-  </si>
-  <si>
-    <t>유진</t>
-  </si>
-  <si>
-    <t>상상인</t>
-  </si>
-  <si>
-    <t>한화</t>
-  </si>
-  <si>
-    <t>대신</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>대표</t>
-  </si>
-  <si>
-    <t>공동대표</t>
-  </si>
-  <si>
-    <t>공동</t>
-  </si>
-  <si>
-    <t>인수</t>
-  </si>
-  <si>
-    <t>2023-09-21</t>
-  </si>
-  <si>
-    <t>2023-09-19</t>
-  </si>
-  <si>
-    <t>2023-09-18</t>
-  </si>
-  <si>
-    <t>2023-08-29</t>
-  </si>
-  <si>
-    <t>2023-08-23</t>
-  </si>
-  <si>
-    <t>2023-10-11</t>
-  </si>
-  <si>
-    <t>2023-09-26</t>
-  </si>
-  <si>
-    <t>2023-09-22</t>
-  </si>
-  <si>
-    <t>2023-09-01</t>
-  </si>
-  <si>
-    <t>2023-08-28</t>
-  </si>
-  <si>
     <t>회사명</t>
   </si>
   <si>
@@ -306,6 +318,21 @@
     <t>한국, 미래</t>
   </si>
   <si>
+    <t>8.1 : 1</t>
+  </si>
+  <si>
+    <t>1506.58 : 1</t>
+  </si>
+  <si>
+    <t>1286.85 : 1</t>
+  </si>
+  <si>
+    <t>1632.34 : 1</t>
+  </si>
+  <si>
+    <t>1781.78 : 1</t>
+  </si>
+  <si>
     <t>345.96 : 1</t>
   </si>
   <si>
@@ -340,12 +367,6 @@
   </si>
   <si>
     <t>1010.2 : 1</t>
-  </si>
-  <si>
-    <t>753.02 : 1</t>
-  </si>
-  <si>
-    <t>527.68 : 1</t>
   </si>
   <si>
     <t>인수기관</t>
@@ -718,7 +739,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -782,52 +803,52 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D2">
-        <v>53.9</v>
+        <v>250</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F2">
-        <v>53.9</v>
+        <v>250</v>
       </c>
       <c r="G2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M2">
-        <v>7000</v>
+        <v>2000</v>
       </c>
       <c r="N2">
         <v>100</v>
       </c>
       <c r="O2" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="P2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q2">
-        <v>577500</v>
+        <v>9375000</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -835,211 +856,211 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D3">
-        <v>520</v>
+        <v>178.41194</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F3">
-        <v>520</v>
+        <v>178.41194</v>
       </c>
       <c r="G3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M3">
-        <v>26000</v>
+        <v>17000</v>
       </c>
       <c r="N3">
         <v>100</v>
       </c>
       <c r="O3" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="P3" t="s">
         <v>20</v>
       </c>
       <c r="Q3">
-        <v>1300000</v>
+        <v>787111</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D4">
-        <v>442.659</v>
+        <v>49.66368</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F4">
-        <v>442.659</v>
+        <v>49.66368</v>
       </c>
       <c r="G4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M4">
-        <v>10700</v>
+        <v>4400</v>
       </c>
       <c r="N4">
         <v>100</v>
       </c>
       <c r="O4" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="P4" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="Q4">
-        <v>3102750</v>
+        <v>846540</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D5">
-        <v>80</v>
+        <v>306</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F5">
-        <v>80</v>
+        <v>306</v>
       </c>
       <c r="G5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M5">
-        <v>2000</v>
+        <v>17000</v>
       </c>
       <c r="N5">
         <v>100</v>
       </c>
       <c r="O5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="P5" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="Q5">
-        <v>3000000</v>
+        <v>1119600</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D6">
-        <v>4212</v>
+        <v>260</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F6">
-        <v>1263.6</v>
+        <v>260</v>
       </c>
       <c r="G6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M6">
-        <v>26000</v>
+        <v>6500</v>
       </c>
       <c r="N6">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="O6" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="P6" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="Q6">
-        <v>87871545</v>
+        <v>2880000</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1047,261 +1068,261 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D7">
-        <v>4212</v>
+        <v>53.9</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="F7">
-        <v>1263.6</v>
+        <v>53.9</v>
       </c>
       <c r="G7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M7">
-        <v>26000</v>
+        <v>7000</v>
       </c>
       <c r="N7">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="O7" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="P7" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="Q7">
-        <v>87871545</v>
+        <v>577500</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D8">
-        <v>4212</v>
+        <v>520</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F8">
-        <v>421.2</v>
+        <v>520</v>
       </c>
       <c r="G8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M8">
         <v>26000</v>
       </c>
       <c r="N8">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O8" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="P8" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="Q8">
-        <v>87871545</v>
+        <v>1300000</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D9">
-        <v>4212</v>
+        <v>442.659</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F9">
-        <v>421.2</v>
+        <v>442.659</v>
       </c>
       <c r="G9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M9">
-        <v>26000</v>
+        <v>10700</v>
       </c>
       <c r="N9">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O9" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="P9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Q9">
-        <v>87871545</v>
+        <v>3102750</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D10">
-        <v>4212</v>
+        <v>80</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F10">
-        <v>421.2</v>
+        <v>80</v>
       </c>
       <c r="G10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M10">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="N10">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O10" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="P10" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="Q10">
-        <v>87871545</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D11">
         <v>4212</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F11">
-        <v>126.36</v>
+        <v>1263.6</v>
       </c>
       <c r="G11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M11">
         <v>26000</v>
       </c>
       <c r="N11">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="O11" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="P11" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="Q11">
         <v>87871545</v>
@@ -1309,52 +1330,52 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D12">
         <v>4212</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F12">
-        <v>126.36</v>
+        <v>1263.6</v>
       </c>
       <c r="G12" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H12" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I12" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J12" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L12" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M12">
         <v>26000</v>
       </c>
       <c r="N12">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="O12" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="P12" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="Q12">
         <v>87871545</v>
@@ -1362,52 +1383,52 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D13">
         <v>4212</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F13">
-        <v>126.36</v>
+        <v>421.2</v>
       </c>
       <c r="G13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K13" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M13">
         <v>26000</v>
       </c>
       <c r="N13">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="O13" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="P13" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="Q13">
         <v>87871545</v>
@@ -1415,52 +1436,52 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D14">
         <v>4212</v>
       </c>
       <c r="E14" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F14">
-        <v>42.12</v>
+        <v>421.2</v>
       </c>
       <c r="G14" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H14" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I14" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J14" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L14" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M14">
         <v>26000</v>
       </c>
       <c r="N14">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="O14" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="P14" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="Q14">
         <v>87871545</v>
@@ -1468,320 +1489,320 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D15">
-        <v>360</v>
+        <v>4212</v>
       </c>
       <c r="E15" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F15">
-        <v>360</v>
+        <v>421.2</v>
       </c>
       <c r="G15" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H15" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I15" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J15" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K15" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="L15" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M15">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="N15">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="O15" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="P15" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="Q15">
-        <v>13500000</v>
+        <v>87871545</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D16">
-        <v>187.5</v>
+        <v>4212</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F16">
-        <v>187.5</v>
+        <v>126.36</v>
       </c>
       <c r="G16" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H16" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I16" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J16" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K16" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="L16" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M16">
-        <v>12500</v>
+        <v>26000</v>
       </c>
       <c r="N16">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="O16" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="P16" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="Q16">
-        <v>1020000</v>
+        <v>87871545</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D17">
-        <v>336</v>
+        <v>4212</v>
       </c>
       <c r="E17" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F17">
-        <v>336</v>
+        <v>126.36</v>
       </c>
       <c r="G17" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H17" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I17" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J17" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K17" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="L17" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M17">
-        <v>15000</v>
+        <v>26000</v>
       </c>
       <c r="N17">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="O17" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="P17" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="Q17">
-        <v>1619200</v>
+        <v>87871545</v>
       </c>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D18">
-        <v>221.2</v>
+        <v>4212</v>
       </c>
       <c r="E18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F18">
-        <v>154.84</v>
+        <v>126.36</v>
       </c>
       <c r="G18" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H18" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I18" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J18" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K18" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="L18" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M18">
-        <v>14000</v>
+        <v>26000</v>
       </c>
       <c r="N18">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="O18" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P18" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="Q18">
-        <v>2370000</v>
+        <v>87871545</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D19">
-        <v>221.2</v>
+        <v>4212</v>
       </c>
       <c r="E19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F19">
-        <v>66.36</v>
+        <v>42.12</v>
       </c>
       <c r="G19" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H19" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I19" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J19" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K19" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L19" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M19">
-        <v>14000</v>
+        <v>26000</v>
       </c>
       <c r="N19">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="O19" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P19" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="Q19">
-        <v>2370000</v>
+        <v>87871545</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D20">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="E20" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F20">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="G20" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H20" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I20" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J20" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K20" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L20" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M20">
-        <v>23000</v>
+        <v>2000</v>
       </c>
       <c r="N20">
         <v>100</v>
       </c>
       <c r="O20" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="P20" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="Q20">
-        <v>1125000</v>
+        <v>13500000</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1789,52 +1810,52 @@
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D21">
-        <v>264</v>
+        <v>187.5</v>
       </c>
       <c r="E21" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F21">
-        <v>264</v>
+        <v>187.5</v>
       </c>
       <c r="G21" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H21" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I21" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J21" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K21" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L21" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M21">
-        <v>24000</v>
+        <v>12500</v>
       </c>
       <c r="N21">
         <v>100</v>
       </c>
       <c r="O21" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="P21" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="Q21">
-        <v>825000</v>
+        <v>1020000</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1842,52 +1863,52 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D22">
-        <v>90</v>
+        <v>336</v>
       </c>
       <c r="E22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F22">
-        <v>90</v>
+        <v>336</v>
       </c>
       <c r="G22" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H22" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I22" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J22" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K22" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L22" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M22">
-        <v>2000</v>
+        <v>15000</v>
       </c>
       <c r="N22">
         <v>100</v>
       </c>
       <c r="O22" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="P22" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="Q22">
-        <v>3375000</v>
+        <v>1619200</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1895,105 +1916,264 @@
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C23" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D23">
-        <v>95</v>
+        <v>221.2</v>
       </c>
       <c r="E23" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F23">
-        <v>95</v>
+        <v>154.84</v>
       </c>
       <c r="G23" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H23" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I23" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J23" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K23" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L23" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M23">
-        <v>2000</v>
+        <v>14000</v>
       </c>
       <c r="N23">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="O23" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="P23" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Q23">
-        <v>3562500</v>
+        <v>2370000</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24">
+        <v>221.2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24">
+        <v>66.36</v>
+      </c>
+      <c r="G24" t="s">
+        <v>66</v>
+      </c>
+      <c r="H24" t="s">
+        <v>66</v>
+      </c>
+      <c r="I24" t="s">
+        <v>66</v>
+      </c>
+      <c r="J24" t="s">
+        <v>66</v>
+      </c>
+      <c r="K24" t="s">
+        <v>70</v>
+      </c>
+      <c r="L24" t="s">
+        <v>66</v>
+      </c>
+      <c r="M24">
+        <v>14000</v>
+      </c>
+      <c r="N24">
+        <v>30</v>
+      </c>
+      <c r="O24" t="s">
+        <v>76</v>
+      </c>
+      <c r="P24" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q24">
+        <v>2370000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" t="s">
         <v>29</v>
       </c>
-      <c r="B24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24">
-        <v>130</v>
-      </c>
-      <c r="E24" t="s">
-        <v>62</v>
-      </c>
-      <c r="F24">
-        <v>130</v>
-      </c>
-      <c r="G24" t="s">
-        <v>63</v>
-      </c>
-      <c r="H24" t="s">
-        <v>63</v>
-      </c>
-      <c r="I24" t="s">
-        <v>63</v>
-      </c>
-      <c r="J24" t="s">
-        <v>63</v>
-      </c>
-      <c r="K24" t="s">
-        <v>64</v>
-      </c>
-      <c r="L24" t="s">
-        <v>63</v>
-      </c>
-      <c r="M24">
+      <c r="B25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25">
+        <v>345</v>
+      </c>
+      <c r="E25" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25">
+        <v>345</v>
+      </c>
+      <c r="G25" t="s">
+        <v>66</v>
+      </c>
+      <c r="H25" t="s">
+        <v>66</v>
+      </c>
+      <c r="I25" t="s">
+        <v>66</v>
+      </c>
+      <c r="J25" t="s">
+        <v>66</v>
+      </c>
+      <c r="K25" t="s">
+        <v>67</v>
+      </c>
+      <c r="L25" t="s">
+        <v>66</v>
+      </c>
+      <c r="M25">
+        <v>23000</v>
+      </c>
+      <c r="N25">
+        <v>100</v>
+      </c>
+      <c r="O25" t="s">
+        <v>76</v>
+      </c>
+      <c r="P25" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q25">
+        <v>1125000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26">
+        <v>264</v>
+      </c>
+      <c r="E26" t="s">
+        <v>60</v>
+      </c>
+      <c r="F26">
+        <v>264</v>
+      </c>
+      <c r="G26" t="s">
+        <v>66</v>
+      </c>
+      <c r="H26" t="s">
+        <v>66</v>
+      </c>
+      <c r="I26" t="s">
+        <v>66</v>
+      </c>
+      <c r="J26" t="s">
+        <v>66</v>
+      </c>
+      <c r="K26" t="s">
+        <v>67</v>
+      </c>
+      <c r="L26" t="s">
+        <v>66</v>
+      </c>
+      <c r="M26">
+        <v>24000</v>
+      </c>
+      <c r="N26">
+        <v>100</v>
+      </c>
+      <c r="O26" t="s">
+        <v>31</v>
+      </c>
+      <c r="P26" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q26">
+        <v>825000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27">
+        <v>90</v>
+      </c>
+      <c r="E27" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27">
+        <v>90</v>
+      </c>
+      <c r="G27" t="s">
+        <v>66</v>
+      </c>
+      <c r="H27" t="s">
+        <v>66</v>
+      </c>
+      <c r="I27" t="s">
+        <v>66</v>
+      </c>
+      <c r="J27" t="s">
+        <v>66</v>
+      </c>
+      <c r="K27" t="s">
+        <v>67</v>
+      </c>
+      <c r="L27" t="s">
+        <v>66</v>
+      </c>
+      <c r="M27">
         <v>2000</v>
       </c>
-      <c r="N24">
+      <c r="N27">
         <v>100</v>
       </c>
-      <c r="O24" t="s">
-        <v>72</v>
-      </c>
-      <c r="P24" t="s">
+      <c r="O27" t="s">
         <v>77</v>
       </c>
-      <c r="Q24">
-        <v>4875000</v>
+      <c r="P27" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q27">
+        <v>3375000</v>
       </c>
     </row>
   </sheetData>
@@ -2003,7 +2183,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T15"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2014,10 +2194,10 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>15</v>
@@ -2026,122 +2206,122 @@
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>5390000</v>
+        <v>25000000</v>
       </c>
       <c r="G2">
-        <v>770000</v>
+        <v>12500000</v>
       </c>
       <c r="H2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I2">
-        <v>8200</v>
+        <v>2000</v>
       </c>
       <c r="J2">
-        <v>9400</v>
+        <v>2000</v>
       </c>
       <c r="K2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L2">
-        <v>7000</v>
+        <v>2000</v>
       </c>
       <c r="M2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="N2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="Q2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="R2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="S2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="T2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -2150,793 +2330,979 @@
         <v>18</v>
       </c>
       <c r="F3">
-        <v>52000000</v>
+        <v>17841194</v>
       </c>
       <c r="G3">
-        <v>2000000</v>
+        <v>1049482</v>
       </c>
       <c r="H3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I3">
-        <v>22000</v>
+        <v>12800</v>
       </c>
       <c r="J3">
-        <v>25000</v>
+        <v>14500</v>
       </c>
       <c r="K3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L3">
-        <v>26000</v>
+        <v>17000</v>
       </c>
       <c r="M3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="N3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>9.999980942979489</v>
       </c>
       <c r="P3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="Q3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="R3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="S3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="T3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4">
-        <v>44265900</v>
+        <v>4966368</v>
       </c>
       <c r="G4">
-        <v>4137000</v>
+        <v>1128720</v>
       </c>
       <c r="H4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I4">
-        <v>8800</v>
+        <v>3300</v>
       </c>
       <c r="J4">
-        <v>10700</v>
+        <v>3900</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L4">
-        <v>10700</v>
+        <v>4400</v>
       </c>
       <c r="M4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="N4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O4">
-        <v>30.21513173797438</v>
+        <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="Q4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="R4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="S4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="T4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F5">
-        <v>8000000</v>
+        <v>30600000</v>
       </c>
       <c r="G5">
-        <v>4000000</v>
+        <v>1800000</v>
       </c>
       <c r="H5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I5">
-        <v>2000</v>
+        <v>13000</v>
       </c>
       <c r="J5">
-        <v>2000</v>
+        <v>15000</v>
       </c>
       <c r="K5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L5">
-        <v>2000</v>
+        <v>17000</v>
       </c>
       <c r="M5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="N5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="Q5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="R5" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="S5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="T5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F6">
-        <v>421200000</v>
+        <v>26000000</v>
       </c>
       <c r="G6">
-        <v>16200000</v>
+        <v>4000000</v>
       </c>
       <c r="H6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I6">
-        <v>21000</v>
+        <v>5000</v>
       </c>
       <c r="J6">
-        <v>26000</v>
+        <v>5600</v>
       </c>
       <c r="K6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L6">
-        <v>26000</v>
+        <v>6500</v>
       </c>
       <c r="M6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="N6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="Q6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="R6" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="S6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="T6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
         <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F7">
-        <v>36000000</v>
+        <v>5390000</v>
       </c>
       <c r="G7">
-        <v>18000000</v>
+        <v>770000</v>
       </c>
       <c r="H7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I7">
-        <v>2000</v>
+        <v>8200</v>
       </c>
       <c r="J7">
-        <v>2000</v>
+        <v>9400</v>
       </c>
       <c r="K7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L7">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="M7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="N7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="Q7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="R7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="S7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="T7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D8" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
         <v>22</v>
       </c>
       <c r="F8">
-        <v>18750000</v>
+        <v>52000000</v>
       </c>
       <c r="G8">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="H8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I8">
-        <v>8900</v>
+        <v>22000</v>
       </c>
       <c r="J8">
-        <v>11000</v>
+        <v>25000</v>
       </c>
       <c r="K8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L8">
-        <v>12500</v>
+        <v>26000</v>
       </c>
       <c r="M8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="N8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="Q8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="R8" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="S8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="T8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
         <v>57</v>
       </c>
       <c r="D9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E9" t="s">
         <v>23</v>
       </c>
       <c r="F9">
-        <v>33600000</v>
+        <v>44265900</v>
       </c>
       <c r="G9">
-        <v>2240000</v>
+        <v>4137000</v>
       </c>
       <c r="H9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I9">
-        <v>11500</v>
+        <v>8800</v>
       </c>
       <c r="J9">
-        <v>13200</v>
+        <v>10700</v>
       </c>
       <c r="K9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L9">
-        <v>15000</v>
+        <v>10700</v>
       </c>
       <c r="M9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="N9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O9">
-        <v>26.78571428571428</v>
+        <v>30.21513173797438</v>
       </c>
       <c r="P9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="Q9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="R9" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="S9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="T9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
         <v>58</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
         <v>24</v>
       </c>
       <c r="F10">
-        <v>22120000</v>
+        <v>8000000</v>
       </c>
       <c r="G10">
-        <v>1580000</v>
+        <v>4000000</v>
       </c>
       <c r="H10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I10">
-        <v>10500</v>
+        <v>2000</v>
       </c>
       <c r="J10">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="K10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L10">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="M10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="N10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="Q10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="R10" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="S10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="T10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="D11" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="E11" t="s">
         <v>25</v>
       </c>
       <c r="F11">
-        <v>34500000</v>
+        <v>421200000</v>
       </c>
       <c r="G11">
-        <v>1500000</v>
+        <v>16200000</v>
       </c>
       <c r="H11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I11">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="J11">
-        <v>23000</v>
+        <v>26000</v>
       </c>
       <c r="K11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L11">
-        <v>23000</v>
+        <v>26000</v>
       </c>
       <c r="M11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="N11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="Q11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="R11" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="S11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="T11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E12" t="s">
         <v>26</v>
       </c>
       <c r="F12">
-        <v>26400000</v>
+        <v>36000000</v>
       </c>
       <c r="G12">
-        <v>1100000</v>
+        <v>18000000</v>
       </c>
       <c r="H12" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I12">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="J12">
-        <v>24000</v>
+        <v>2000</v>
       </c>
       <c r="K12" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L12">
-        <v>24000</v>
+        <v>2000</v>
       </c>
       <c r="M12" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="N12" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O12">
-        <v>18.18181818181818</v>
+        <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="Q12" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="R12" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="S12" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="T12" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F13">
-        <v>9000000</v>
+        <v>18750000</v>
       </c>
       <c r="G13">
-        <v>4500000</v>
+        <v>1500000</v>
       </c>
       <c r="H13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I13">
-        <v>2000</v>
+        <v>8900</v>
       </c>
       <c r="J13">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="K13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L13">
-        <v>2000</v>
+        <v>12500</v>
       </c>
       <c r="M13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="N13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="Q13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="R13" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="S13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="T13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D14" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F14">
-        <v>9500000</v>
+        <v>33600000</v>
       </c>
       <c r="G14">
-        <v>4750000</v>
+        <v>2240000</v>
       </c>
       <c r="H14" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I14">
-        <v>2000</v>
+        <v>11500</v>
       </c>
       <c r="J14">
-        <v>2000</v>
+        <v>13200</v>
       </c>
       <c r="K14" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L14">
-        <v>2000</v>
+        <v>15000</v>
       </c>
       <c r="M14" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="N14" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>26.78571428571428</v>
       </c>
       <c r="P14" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="Q14" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="R14" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="S14" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="T14" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D15" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F15">
-        <v>13000000</v>
+        <v>22120000</v>
       </c>
       <c r="G15">
-        <v>6500000</v>
+        <v>1580000</v>
       </c>
       <c r="H15" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I15">
-        <v>2000</v>
+        <v>10500</v>
       </c>
       <c r="J15">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="K15" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L15">
-        <v>2000</v>
+        <v>14000</v>
       </c>
       <c r="M15" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="N15" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="Q15" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="R15" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="S15" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="T15" t="s">
-        <v>63</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16">
+        <v>34500000</v>
+      </c>
+      <c r="G16">
+        <v>1500000</v>
+      </c>
+      <c r="H16" t="s">
+        <v>66</v>
+      </c>
+      <c r="I16">
+        <v>20000</v>
+      </c>
+      <c r="J16">
+        <v>23000</v>
+      </c>
+      <c r="K16" t="s">
+        <v>66</v>
+      </c>
+      <c r="L16">
+        <v>23000</v>
+      </c>
+      <c r="M16" t="s">
+        <v>66</v>
+      </c>
+      <c r="N16" t="s">
+        <v>66</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>66</v>
+      </c>
+      <c r="R16" t="s">
+        <v>114</v>
+      </c>
+      <c r="S16" t="s">
+        <v>66</v>
+      </c>
+      <c r="T16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17">
+        <v>26400000</v>
+      </c>
+      <c r="G17">
+        <v>1100000</v>
+      </c>
+      <c r="H17" t="s">
+        <v>66</v>
+      </c>
+      <c r="I17">
+        <v>20000</v>
+      </c>
+      <c r="J17">
+        <v>24000</v>
+      </c>
+      <c r="K17" t="s">
+        <v>66</v>
+      </c>
+      <c r="L17">
+        <v>24000</v>
+      </c>
+      <c r="M17" t="s">
+        <v>66</v>
+      </c>
+      <c r="N17" t="s">
+        <v>66</v>
+      </c>
+      <c r="O17">
+        <v>18.18181818181818</v>
+      </c>
+      <c r="P17" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>66</v>
+      </c>
+      <c r="R17" t="s">
+        <v>115</v>
+      </c>
+      <c r="S17" t="s">
+        <v>66</v>
+      </c>
+      <c r="T17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18">
+        <v>9000000</v>
+      </c>
+      <c r="G18">
+        <v>4500000</v>
+      </c>
+      <c r="H18" t="s">
+        <v>66</v>
+      </c>
+      <c r="I18">
+        <v>2000</v>
+      </c>
+      <c r="J18">
+        <v>2000</v>
+      </c>
+      <c r="K18" t="s">
+        <v>66</v>
+      </c>
+      <c r="L18">
+        <v>2000</v>
+      </c>
+      <c r="M18" t="s">
+        <v>66</v>
+      </c>
+      <c r="N18" t="s">
+        <v>66</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>66</v>
+      </c>
+      <c r="R18" t="s">
+        <v>116</v>
+      </c>
+      <c r="S18" t="s">
+        <v>66</v>
+      </c>
+      <c r="T18" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2946,7 +3312,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2954,16 +3320,16 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -2975,10 +3341,10 @@
         <v>0</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>12</v>
@@ -2987,30 +3353,30 @@
         <v>6</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="F2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H2">
         <v>42120</v>
@@ -3033,10 +3399,10 @@
         <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
         <v>51</v>
@@ -3045,19 +3411,19 @@
         <v>51</v>
       </c>
       <c r="F3" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H3">
-        <v>18750</v>
+        <v>25000</v>
       </c>
       <c r="I3">
-        <v>1500000</v>
+        <v>12500000</v>
       </c>
       <c r="J3">
-        <v>12500</v>
+        <v>2000</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -3071,60 +3437,60 @@
         <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="F4" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H4">
-        <v>42120</v>
+        <v>18750</v>
       </c>
       <c r="I4">
-        <v>16200000</v>
+        <v>1500000</v>
       </c>
       <c r="J4">
-        <v>26000</v>
+        <v>12500</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E5" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H5">
         <v>42120</v>
@@ -3144,110 +3510,110 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="E6" t="s">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H6">
-        <v>13000</v>
+        <v>42120</v>
       </c>
       <c r="I6">
-        <v>6500000</v>
+        <v>16200000</v>
       </c>
       <c r="J6">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="F7" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H7">
-        <v>126360</v>
+        <v>17841.194</v>
       </c>
       <c r="I7">
-        <v>16200000</v>
+        <v>1049482</v>
       </c>
       <c r="J7">
-        <v>26000</v>
+        <v>17000</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="F8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G8" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H8">
-        <v>44265.9</v>
+        <v>34500</v>
       </c>
       <c r="I8">
-        <v>4137000</v>
+        <v>1500000</v>
       </c>
       <c r="J8">
-        <v>10700</v>
+        <v>23000</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -3258,34 +3624,34 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="F9" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H9">
-        <v>34500</v>
+        <v>52000</v>
       </c>
       <c r="I9">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="J9">
-        <v>23000</v>
+        <v>26000</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -3296,34 +3662,34 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H10">
-        <v>52000</v>
+        <v>44265.9</v>
       </c>
       <c r="I10">
-        <v>2000000</v>
+        <v>4137000</v>
       </c>
       <c r="J10">
-        <v>26000</v>
+        <v>10700</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -3337,69 +3703,69 @@
         <v>57</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="E11" t="s">
-        <v>57</v>
+        <v>120</v>
       </c>
       <c r="F11" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H11">
-        <v>33600</v>
+        <v>126360</v>
       </c>
       <c r="I11">
-        <v>2240000</v>
+        <v>16200000</v>
       </c>
       <c r="J11">
-        <v>15000</v>
+        <v>26000</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F12" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="G12" t="s">
         <v>27</v>
       </c>
       <c r="H12">
-        <v>9000</v>
+        <v>33600</v>
       </c>
       <c r="I12">
-        <v>4500000</v>
+        <v>2240000</v>
       </c>
       <c r="J12">
-        <v>2000</v>
+        <v>15000</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -3410,63 +3776,63 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="E13" t="s">
-        <v>113</v>
+        <v>65</v>
       </c>
       <c r="F13" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G13" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="H13">
-        <v>12636</v>
+        <v>9000</v>
       </c>
       <c r="I13">
-        <v>16200000</v>
+        <v>4500000</v>
       </c>
       <c r="J13">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E14" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F14" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G14" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H14">
         <v>26400</v>
@@ -3486,294 +3852,294 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="E15" t="s">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="F15" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H15">
-        <v>36000</v>
+        <v>12636</v>
       </c>
       <c r="I15">
-        <v>18000000</v>
+        <v>16200000</v>
       </c>
       <c r="J15">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C16" t="s">
         <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="E16" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="F16" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="G16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H16">
-        <v>4212</v>
+        <v>4966.368</v>
       </c>
       <c r="I16">
-        <v>16200000</v>
+        <v>1128720</v>
       </c>
       <c r="J16">
-        <v>26000</v>
+        <v>4400</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E17" t="s">
-        <v>114</v>
+        <v>53</v>
       </c>
       <c r="F17" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="G17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H17">
-        <v>15484</v>
+        <v>36000</v>
       </c>
       <c r="I17">
-        <v>1580000</v>
+        <v>18000000</v>
       </c>
       <c r="J17">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="E18" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F18" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H18">
-        <v>6636</v>
+        <v>4212</v>
       </c>
       <c r="I18">
-        <v>1580000</v>
+        <v>16200000</v>
       </c>
       <c r="J18">
-        <v>14000</v>
+        <v>26000</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D19" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="E19" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="F19" t="s">
         <v>74</v>
       </c>
       <c r="G19" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H19">
-        <v>12636</v>
+        <v>15484</v>
       </c>
       <c r="I19">
-        <v>16200000</v>
+        <v>1580000</v>
       </c>
       <c r="J19">
-        <v>26000</v>
+        <v>14000</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>3</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="E20" t="s">
-        <v>46</v>
+        <v>121</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="G20" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="H20">
-        <v>5390</v>
+        <v>6636</v>
       </c>
       <c r="I20">
-        <v>770000</v>
+        <v>1580000</v>
       </c>
       <c r="J20">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D21" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="E21" t="s">
-        <v>113</v>
+        <v>55</v>
       </c>
       <c r="F21" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="G21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H21">
-        <v>12636</v>
+        <v>26000</v>
       </c>
       <c r="I21">
-        <v>16200000</v>
+        <v>4000000</v>
       </c>
       <c r="J21">
-        <v>26000</v>
+        <v>6500</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D22" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E22" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="F22" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G22" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H22">
-        <v>126360</v>
+        <v>12636</v>
       </c>
       <c r="I22">
         <v>16200000</v>
@@ -3785,39 +4151,39 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D23" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E23" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F23" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="G23" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H23">
-        <v>9500</v>
+        <v>5390</v>
       </c>
       <c r="I23">
-        <v>4750000</v>
+        <v>770000</v>
       </c>
       <c r="J23">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -3828,39 +4194,153 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="E24" t="s">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="F24" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="G24" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H24">
-        <v>8000</v>
+        <v>12636</v>
       </c>
       <c r="I24">
-        <v>4000000</v>
+        <v>16200000</v>
       </c>
       <c r="J24">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" t="s">
+        <v>72</v>
+      </c>
+      <c r="G25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25">
+        <v>30600</v>
+      </c>
+      <c r="I25">
+        <v>1800000</v>
+      </c>
+      <c r="J25">
+        <v>17000</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26" t="s">
+        <v>120</v>
+      </c>
+      <c r="F26" t="s">
+        <v>79</v>
+      </c>
+      <c r="G26" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26">
+        <v>126360</v>
+      </c>
+      <c r="I26">
+        <v>16200000</v>
+      </c>
+      <c r="J26">
+        <v>26000</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27">
+        <v>8000</v>
+      </c>
+      <c r="I27">
+        <v>4000000</v>
+      </c>
+      <c r="J27">
+        <v>2000</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
         <v>100</v>
       </c>
     </row>

--- a/datasets/corporate-finance-data.xlsx
+++ b/datasets/corporate-finance-data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="117">
   <si>
     <t>상장일</t>
   </si>
@@ -111,147 +111,138 @@
     <t>2023-09-25</t>
   </si>
   <si>
+    <t>KB제27호스팩</t>
+  </si>
+  <si>
+    <t>유진테크놀로지</t>
+  </si>
+  <si>
+    <t>유투바이오</t>
+  </si>
+  <si>
+    <t>퀄리타스반도체</t>
+  </si>
+  <si>
+    <t>워트</t>
+  </si>
+  <si>
+    <t>에스엘에스바이오</t>
+  </si>
+  <si>
+    <t>신성에스티</t>
+  </si>
+  <si>
+    <t>퓨릿</t>
+  </si>
+  <si>
+    <t>에이치엠씨제6호스팩</t>
+  </si>
+  <si>
+    <t>두산로보틱스</t>
+  </si>
+  <si>
+    <t>신한제11호스팩</t>
+  </si>
+  <si>
+    <t>한싹</t>
+  </si>
+  <si>
+    <t>레뷰코퍼레이션</t>
+  </si>
+  <si>
+    <t>아이엠티</t>
+  </si>
+  <si>
+    <t>밀리의서재</t>
+  </si>
+  <si>
+    <t>인스웨이브시스템즈</t>
+  </si>
+  <si>
+    <t>코스닥</t>
+  </si>
+  <si>
+    <t>코스피</t>
+  </si>
+  <si>
+    <t>KB</t>
+  </si>
+  <si>
+    <t>NH</t>
+  </si>
+  <si>
+    <t>신한</t>
+  </si>
+  <si>
+    <t>한국</t>
+  </si>
+  <si>
+    <t>키움</t>
+  </si>
+  <si>
+    <t>하나</t>
+  </si>
+  <si>
+    <t>미래</t>
+  </si>
+  <si>
+    <t>현대차</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>신영</t>
+  </si>
+  <si>
+    <t>유비에스</t>
+  </si>
+  <si>
+    <t>삼성</t>
+  </si>
+  <si>
+    <t>유안타</t>
+  </si>
+  <si>
+    <t>유진</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>대표</t>
+  </si>
+  <si>
+    <t>공동대표</t>
+  </si>
+  <si>
+    <t>공동</t>
+  </si>
+  <si>
+    <t>인수</t>
+  </si>
+  <si>
+    <t>2023-10-24</t>
+  </si>
+  <si>
+    <t>2023-10-23</t>
+  </si>
+  <si>
+    <t>2023-10-16</t>
+  </si>
+  <si>
+    <t>2023-09-21</t>
+  </si>
+  <si>
+    <t>2023-09-19</t>
+  </si>
+  <si>
+    <t>2023-09-18</t>
+  </si>
+  <si>
     <t>2023-09-14</t>
   </si>
   <si>
-    <t>KB제27호스팩</t>
-  </si>
-  <si>
-    <t>유진테크놀로지</t>
-  </si>
-  <si>
-    <t>유투바이오</t>
-  </si>
-  <si>
-    <t>퀄리타스반도체</t>
-  </si>
-  <si>
-    <t>워트</t>
-  </si>
-  <si>
-    <t>에스엘에스바이오</t>
-  </si>
-  <si>
-    <t>신성에스티</t>
-  </si>
-  <si>
-    <t>퓨릿</t>
-  </si>
-  <si>
-    <t>에이치엠씨제6호스팩</t>
-  </si>
-  <si>
-    <t>두산로보틱스</t>
-  </si>
-  <si>
-    <t>신한제11호스팩</t>
-  </si>
-  <si>
-    <t>한싹</t>
-  </si>
-  <si>
-    <t>레뷰코퍼레이션</t>
-  </si>
-  <si>
-    <t>아이엠티</t>
-  </si>
-  <si>
-    <t>밀리의서재</t>
-  </si>
-  <si>
-    <t>인스웨이브시스템즈</t>
-  </si>
-  <si>
-    <t>상상인제4호스팩</t>
-  </si>
-  <si>
-    <t>코스닥</t>
-  </si>
-  <si>
-    <t>코스피</t>
-  </si>
-  <si>
-    <t>KB</t>
-  </si>
-  <si>
-    <t>NH</t>
-  </si>
-  <si>
-    <t>신한</t>
-  </si>
-  <si>
-    <t>한국</t>
-  </si>
-  <si>
-    <t>키움</t>
-  </si>
-  <si>
-    <t>하나</t>
-  </si>
-  <si>
-    <t>미래</t>
-  </si>
-  <si>
-    <t>현대차</t>
-  </si>
-  <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t>신영</t>
-  </si>
-  <si>
-    <t>유비에스</t>
-  </si>
-  <si>
-    <t>삼성</t>
-  </si>
-  <si>
-    <t>유안타</t>
-  </si>
-  <si>
-    <t>유진</t>
-  </si>
-  <si>
-    <t>상상인</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>대표</t>
-  </si>
-  <si>
-    <t>공동대표</t>
-  </si>
-  <si>
-    <t>공동</t>
-  </si>
-  <si>
-    <t>인수</t>
-  </si>
-  <si>
-    <t>2023-10-24</t>
-  </si>
-  <si>
-    <t>2023-10-23</t>
-  </si>
-  <si>
-    <t>2023-10-16</t>
-  </si>
-  <si>
-    <t>2023-09-21</t>
-  </si>
-  <si>
-    <t>2023-09-19</t>
-  </si>
-  <si>
-    <t>2023-09-18</t>
-  </si>
-  <si>
-    <t>2023-09-04</t>
-  </si>
-  <si>
     <t>2023-10-11</t>
   </si>
   <si>
@@ -261,9 +252,6 @@
     <t>2023-09-22</t>
   </si>
   <si>
-    <t>2023-09-07</t>
-  </si>
-  <si>
     <t>회사명</t>
   </si>
   <si>
@@ -364,9 +352,6 @@
   </si>
   <si>
     <t>619 : 1</t>
-  </si>
-  <si>
-    <t>1010.2 : 1</t>
   </si>
   <si>
     <t>인수기관</t>
@@ -739,7 +724,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -803,37 +788,37 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2">
         <v>250</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F2">
         <v>250</v>
       </c>
       <c r="G2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M2">
         <v>2000</v>
@@ -842,7 +827,7 @@
         <v>100</v>
       </c>
       <c r="O2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="P2" t="s">
         <v>19</v>
@@ -856,37 +841,37 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D3">
         <v>178.41194</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F3">
         <v>178.41194</v>
       </c>
       <c r="G3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M3">
         <v>17000</v>
@@ -895,7 +880,7 @@
         <v>100</v>
       </c>
       <c r="O3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="P3" t="s">
         <v>20</v>
@@ -909,37 +894,37 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D4">
         <v>49.66368</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F4">
         <v>49.66368</v>
       </c>
       <c r="G4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M4">
         <v>4400</v>
@@ -948,7 +933,7 @@
         <v>100</v>
       </c>
       <c r="O4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="P4" t="s">
         <v>20</v>
@@ -962,37 +947,37 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D5">
         <v>306</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F5">
         <v>306</v>
       </c>
       <c r="G5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M5">
         <v>17000</v>
@@ -1004,7 +989,7 @@
         <v>23</v>
       </c>
       <c r="P5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="Q5">
         <v>1119600</v>
@@ -1015,37 +1000,37 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D6">
         <v>260</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F6">
         <v>260</v>
       </c>
       <c r="G6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M6">
         <v>6500</v>
@@ -1054,7 +1039,7 @@
         <v>100</v>
       </c>
       <c r="O6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="P6" t="s">
         <v>22</v>
@@ -1068,37 +1053,37 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D7">
         <v>53.9</v>
       </c>
       <c r="E7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F7">
         <v>53.9</v>
       </c>
       <c r="G7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M7">
         <v>7000</v>
@@ -1121,37 +1106,37 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D8">
         <v>520</v>
       </c>
       <c r="E8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F8">
         <v>520</v>
       </c>
       <c r="G8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M8">
         <v>26000</v>
@@ -1174,37 +1159,37 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D9">
         <v>442.659</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F9">
         <v>442.659</v>
       </c>
       <c r="G9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M9">
         <v>10700</v>
@@ -1216,7 +1201,7 @@
         <v>25</v>
       </c>
       <c r="P9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="Q9">
         <v>3102750</v>
@@ -1227,37 +1212,37 @@
         <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D10">
         <v>80</v>
       </c>
       <c r="E10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F10">
         <v>80</v>
       </c>
       <c r="G10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M10">
         <v>2000</v>
@@ -1280,37 +1265,37 @@
         <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D11">
         <v>4212</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F11">
         <v>1263.6</v>
       </c>
       <c r="G11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M11">
         <v>26000</v>
@@ -1319,10 +1304,10 @@
         <v>30</v>
       </c>
       <c r="O11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="Q11">
         <v>87871545</v>
@@ -1333,37 +1318,37 @@
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D12">
         <v>4212</v>
       </c>
       <c r="E12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F12">
         <v>1263.6</v>
       </c>
       <c r="G12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M12">
         <v>26000</v>
@@ -1372,10 +1357,10 @@
         <v>30</v>
       </c>
       <c r="O12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P12" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="Q12">
         <v>87871545</v>
@@ -1386,37 +1371,37 @@
         <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D13">
         <v>4212</v>
       </c>
       <c r="E13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F13">
         <v>421.2</v>
       </c>
       <c r="G13" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" t="s">
+        <v>63</v>
+      </c>
+      <c r="I13" t="s">
+        <v>63</v>
+      </c>
+      <c r="J13" t="s">
+        <v>63</v>
+      </c>
+      <c r="K13" t="s">
         <v>66</v>
       </c>
-      <c r="H13" t="s">
-        <v>66</v>
-      </c>
-      <c r="I13" t="s">
-        <v>66</v>
-      </c>
-      <c r="J13" t="s">
-        <v>66</v>
-      </c>
-      <c r="K13" t="s">
-        <v>69</v>
-      </c>
       <c r="L13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M13">
         <v>26000</v>
@@ -1425,10 +1410,10 @@
         <v>10</v>
       </c>
       <c r="O13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="Q13">
         <v>87871545</v>
@@ -1439,37 +1424,37 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D14">
         <v>4212</v>
       </c>
       <c r="E14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F14">
         <v>421.2</v>
       </c>
       <c r="G14" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" t="s">
+        <v>63</v>
+      </c>
+      <c r="I14" t="s">
+        <v>63</v>
+      </c>
+      <c r="J14" t="s">
+        <v>63</v>
+      </c>
+      <c r="K14" t="s">
         <v>66</v>
       </c>
-      <c r="H14" t="s">
-        <v>66</v>
-      </c>
-      <c r="I14" t="s">
-        <v>66</v>
-      </c>
-      <c r="J14" t="s">
-        <v>66</v>
-      </c>
-      <c r="K14" t="s">
-        <v>69</v>
-      </c>
       <c r="L14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M14">
         <v>26000</v>
@@ -1478,10 +1463,10 @@
         <v>10</v>
       </c>
       <c r="O14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="Q14">
         <v>87871545</v>
@@ -1492,37 +1477,37 @@
         <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D15">
         <v>4212</v>
       </c>
       <c r="E15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F15">
         <v>421.2</v>
       </c>
       <c r="G15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" t="s">
+        <v>63</v>
+      </c>
+      <c r="I15" t="s">
+        <v>63</v>
+      </c>
+      <c r="J15" t="s">
+        <v>63</v>
+      </c>
+      <c r="K15" t="s">
         <v>66</v>
       </c>
-      <c r="H15" t="s">
-        <v>66</v>
-      </c>
-      <c r="I15" t="s">
-        <v>66</v>
-      </c>
-      <c r="J15" t="s">
-        <v>66</v>
-      </c>
-      <c r="K15" t="s">
-        <v>69</v>
-      </c>
       <c r="L15" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M15">
         <v>26000</v>
@@ -1531,10 +1516,10 @@
         <v>10</v>
       </c>
       <c r="O15" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P15" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="Q15">
         <v>87871545</v>
@@ -1545,37 +1530,37 @@
         <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D16">
         <v>4212</v>
       </c>
       <c r="E16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F16">
         <v>126.36</v>
       </c>
       <c r="G16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M16">
         <v>26000</v>
@@ -1584,10 +1569,10 @@
         <v>3</v>
       </c>
       <c r="O16" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="Q16">
         <v>87871545</v>
@@ -1598,37 +1583,37 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D17">
         <v>4212</v>
       </c>
       <c r="E17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F17">
         <v>126.36</v>
       </c>
       <c r="G17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M17">
         <v>26000</v>
@@ -1637,10 +1622,10 @@
         <v>3</v>
       </c>
       <c r="O17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P17" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="Q17">
         <v>87871545</v>
@@ -1651,37 +1636,37 @@
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D18">
         <v>4212</v>
       </c>
       <c r="E18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F18">
         <v>126.36</v>
       </c>
       <c r="G18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K18" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M18">
         <v>26000</v>
@@ -1690,10 +1675,10 @@
         <v>3</v>
       </c>
       <c r="O18" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P18" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="Q18">
         <v>87871545</v>
@@ -1704,37 +1689,37 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D19">
         <v>4212</v>
       </c>
       <c r="E19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F19">
         <v>42.12</v>
       </c>
       <c r="G19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K19" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M19">
         <v>26000</v>
@@ -1743,10 +1728,10 @@
         <v>1</v>
       </c>
       <c r="O19" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P19" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="Q19">
         <v>87871545</v>
@@ -1757,37 +1742,37 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D20">
         <v>360</v>
       </c>
       <c r="E20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F20">
         <v>360</v>
       </c>
       <c r="G20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K20" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M20">
         <v>2000</v>
@@ -1796,10 +1781,10 @@
         <v>100</v>
       </c>
       <c r="O20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="Q20">
         <v>13500000</v>
@@ -1810,37 +1795,37 @@
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D21">
         <v>187.5</v>
       </c>
       <c r="E21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F21">
         <v>187.5</v>
       </c>
       <c r="G21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K21" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M21">
         <v>12500</v>
@@ -1849,10 +1834,10 @@
         <v>100</v>
       </c>
       <c r="O21" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P21" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="Q21">
         <v>1020000</v>
@@ -1863,37 +1848,37 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D22">
         <v>336</v>
       </c>
       <c r="E22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F22">
         <v>336</v>
       </c>
       <c r="G22" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H22" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I22" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J22" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K22" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L22" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M22">
         <v>15000</v>
@@ -1902,10 +1887,10 @@
         <v>100</v>
       </c>
       <c r="O22" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P22" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="Q22">
         <v>1619200</v>
@@ -1916,37 +1901,37 @@
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D23">
         <v>221.2</v>
       </c>
       <c r="E23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F23">
         <v>154.84</v>
       </c>
       <c r="G23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K23" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M23">
         <v>14000</v>
@@ -1955,10 +1940,10 @@
         <v>70</v>
       </c>
       <c r="O23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="P23" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="Q23">
         <v>2370000</v>
@@ -1969,37 +1954,37 @@
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D24">
         <v>221.2</v>
       </c>
       <c r="E24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F24">
         <v>66.36</v>
       </c>
       <c r="G24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K24" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M24">
         <v>14000</v>
@@ -2008,10 +1993,10 @@
         <v>30</v>
       </c>
       <c r="O24" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="P24" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="Q24">
         <v>2370000</v>
@@ -2022,37 +2007,37 @@
         <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D25">
         <v>345</v>
       </c>
       <c r="E25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F25">
         <v>345</v>
       </c>
       <c r="G25" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H25" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I25" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J25" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K25" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L25" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M25">
         <v>23000</v>
@@ -2061,10 +2046,10 @@
         <v>100</v>
       </c>
       <c r="O25" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="P25" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="Q25">
         <v>1125000</v>
@@ -2075,37 +2060,37 @@
         <v>30</v>
       </c>
       <c r="B26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" t="s">
         <v>47</v>
-      </c>
-      <c r="C26" t="s">
-        <v>49</v>
       </c>
       <c r="D26">
         <v>264</v>
       </c>
       <c r="E26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F26">
         <v>264</v>
       </c>
       <c r="G26" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H26" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I26" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J26" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K26" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L26" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M26">
         <v>24000</v>
@@ -2114,66 +2099,13 @@
         <v>100</v>
       </c>
       <c r="O26" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="P26" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Q26">
         <v>825000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="A27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27">
-        <v>90</v>
-      </c>
-      <c r="E27" t="s">
-        <v>65</v>
-      </c>
-      <c r="F27">
-        <v>90</v>
-      </c>
-      <c r="G27" t="s">
-        <v>66</v>
-      </c>
-      <c r="H27" t="s">
-        <v>66</v>
-      </c>
-      <c r="I27" t="s">
-        <v>66</v>
-      </c>
-      <c r="J27" t="s">
-        <v>66</v>
-      </c>
-      <c r="K27" t="s">
-        <v>67</v>
-      </c>
-      <c r="L27" t="s">
-        <v>66</v>
-      </c>
-      <c r="M27">
-        <v>2000</v>
-      </c>
-      <c r="N27">
-        <v>100</v>
-      </c>
-      <c r="O27" t="s">
-        <v>77</v>
-      </c>
-      <c r="P27" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q27">
-        <v>3375000</v>
       </c>
     </row>
   </sheetData>
@@ -2183,7 +2115,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2194,10 +2126,10 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>15</v>
@@ -2206,60 +2138,60 @@
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
@@ -2274,7 +2206,7 @@
         <v>12500000</v>
       </c>
       <c r="H2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I2">
         <v>2000</v>
@@ -2283,45 +2215,45 @@
         <v>2000</v>
       </c>
       <c r="K2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L2">
         <v>2000</v>
       </c>
       <c r="M2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="N2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Q2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="S2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="T2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -2336,7 +2268,7 @@
         <v>1049482</v>
       </c>
       <c r="H3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I3">
         <v>12800</v>
@@ -2345,45 +2277,45 @@
         <v>14500</v>
       </c>
       <c r="K3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L3">
         <v>17000</v>
       </c>
       <c r="M3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="N3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O3">
         <v>9.999980942979489</v>
       </c>
       <c r="P3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Q3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="S3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="T3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -2398,7 +2330,7 @@
         <v>1128720</v>
       </c>
       <c r="H4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I4">
         <v>3300</v>
@@ -2407,34 +2339,34 @@
         <v>3900</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L4">
         <v>4400</v>
       </c>
       <c r="M4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Q4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="S4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="T4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -2442,13 +2374,13 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E5" t="s">
         <v>19</v>
@@ -2460,7 +2392,7 @@
         <v>1800000</v>
       </c>
       <c r="H5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I5">
         <v>13000</v>
@@ -2469,45 +2401,45 @@
         <v>15000</v>
       </c>
       <c r="K5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L5">
         <v>17000</v>
       </c>
       <c r="M5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="N5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Q5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="S5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="T5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
@@ -2522,7 +2454,7 @@
         <v>4000000</v>
       </c>
       <c r="H6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I6">
         <v>5000</v>
@@ -2531,34 +2463,34 @@
         <v>5600</v>
       </c>
       <c r="K6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L6">
         <v>6500</v>
       </c>
       <c r="M6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="N6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Q6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="S6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="T6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -2566,10 +2498,10 @@
         <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
         <v>24</v>
@@ -2584,7 +2516,7 @@
         <v>770000</v>
       </c>
       <c r="H7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I7">
         <v>8200</v>
@@ -2593,34 +2525,34 @@
         <v>9400</v>
       </c>
       <c r="K7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L7">
         <v>7000</v>
       </c>
       <c r="M7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="N7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Q7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="S7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="T7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -2628,10 +2560,10 @@
         <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
         <v>24</v>
@@ -2646,7 +2578,7 @@
         <v>2000000</v>
       </c>
       <c r="H8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I8">
         <v>22000</v>
@@ -2655,34 +2587,34 @@
         <v>25000</v>
       </c>
       <c r="K8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L8">
         <v>26000</v>
       </c>
       <c r="M8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="N8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Q8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="S8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="T8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -2690,13 +2622,13 @@
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E9" t="s">
         <v>23</v>
@@ -2708,7 +2640,7 @@
         <v>4137000</v>
       </c>
       <c r="H9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I9">
         <v>8800</v>
@@ -2717,34 +2649,34 @@
         <v>10700</v>
       </c>
       <c r="K9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L9">
         <v>10700</v>
       </c>
       <c r="M9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="N9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O9">
         <v>30.21513173797438</v>
       </c>
       <c r="P9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Q9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R9" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="S9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="T9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -2752,10 +2684,10 @@
         <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
@@ -2770,7 +2702,7 @@
         <v>4000000</v>
       </c>
       <c r="H10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I10">
         <v>2000</v>
@@ -2779,48 +2711,48 @@
         <v>2000</v>
       </c>
       <c r="K10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L10">
         <v>2000</v>
       </c>
       <c r="M10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="N10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Q10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R10" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="S10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="T10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E11" t="s">
         <v>25</v>
@@ -2832,7 +2764,7 @@
         <v>16200000</v>
       </c>
       <c r="H11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I11">
         <v>21000</v>
@@ -2841,48 +2773,48 @@
         <v>26000</v>
       </c>
       <c r="K11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L11">
         <v>26000</v>
       </c>
       <c r="M11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="N11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Q11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R11" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="S11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="T11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E12" t="s">
         <v>26</v>
@@ -2894,7 +2826,7 @@
         <v>18000000</v>
       </c>
       <c r="H12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I12">
         <v>2000</v>
@@ -2903,48 +2835,48 @@
         <v>2000</v>
       </c>
       <c r="K12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L12">
         <v>2000</v>
       </c>
       <c r="M12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="N12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Q12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R12" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="S12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="T12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E13" t="s">
         <v>26</v>
@@ -2956,7 +2888,7 @@
         <v>1500000</v>
       </c>
       <c r="H13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I13">
         <v>8900</v>
@@ -2965,48 +2897,48 @@
         <v>11000</v>
       </c>
       <c r="K13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L13">
         <v>12500</v>
       </c>
       <c r="M13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="N13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Q13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R13" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="S13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="T13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D14" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E14" t="s">
         <v>27</v>
@@ -3018,7 +2950,7 @@
         <v>2240000</v>
       </c>
       <c r="H14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I14">
         <v>11500</v>
@@ -3027,48 +2959,48 @@
         <v>13200</v>
       </c>
       <c r="K14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L14">
         <v>15000</v>
       </c>
       <c r="M14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="N14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O14">
         <v>26.78571428571428</v>
       </c>
       <c r="P14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Q14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="S14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="T14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E15" t="s">
         <v>28</v>
@@ -3080,7 +3012,7 @@
         <v>1580000</v>
       </c>
       <c r="H15" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I15">
         <v>10500</v>
@@ -3089,48 +3021,48 @@
         <v>12000</v>
       </c>
       <c r="K15" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L15">
         <v>14000</v>
       </c>
       <c r="M15" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="N15" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Q15" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R15" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="S15" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="T15" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E16" t="s">
         <v>29</v>
@@ -3142,7 +3074,7 @@
         <v>1500000</v>
       </c>
       <c r="H16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I16">
         <v>20000</v>
@@ -3151,48 +3083,48 @@
         <v>23000</v>
       </c>
       <c r="K16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L16">
         <v>23000</v>
       </c>
       <c r="M16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="N16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Q16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="S16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="T16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D17" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E17" t="s">
         <v>30</v>
@@ -3204,7 +3136,7 @@
         <v>1100000</v>
       </c>
       <c r="H17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I17">
         <v>20000</v>
@@ -3213,96 +3145,34 @@
         <v>24000</v>
       </c>
       <c r="K17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L17">
         <v>24000</v>
       </c>
       <c r="M17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="N17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O17">
         <v>18.18181818181818</v>
       </c>
       <c r="P17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Q17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R17" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="S17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="T17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>77</v>
-      </c>
-      <c r="B18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" t="s">
-        <v>81</v>
-      </c>
-      <c r="E18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18">
-        <v>9000000</v>
-      </c>
-      <c r="G18">
-        <v>4500000</v>
-      </c>
-      <c r="H18" t="s">
-        <v>66</v>
-      </c>
-      <c r="I18">
-        <v>2000</v>
-      </c>
-      <c r="J18">
-        <v>2000</v>
-      </c>
-      <c r="K18" t="s">
-        <v>66</v>
-      </c>
-      <c r="L18">
-        <v>2000</v>
-      </c>
-      <c r="M18" t="s">
-        <v>66</v>
-      </c>
-      <c r="N18" t="s">
-        <v>66</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>66</v>
-      </c>
-      <c r="R18" t="s">
-        <v>116</v>
-      </c>
-      <c r="S18" t="s">
-        <v>66</v>
-      </c>
-      <c r="T18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -3312,7 +3182,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3320,16 +3190,16 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -3341,10 +3211,10 @@
         <v>0</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>12</v>
@@ -3353,27 +3223,27 @@
         <v>6</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G2" t="s">
         <v>25</v>
@@ -3396,19 +3266,19 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F3" t="s">
         <v>19</v>
@@ -3434,22 +3304,22 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s">
         <v>26</v>
@@ -3472,22 +3342,22 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E5" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s">
         <v>25</v>
@@ -3510,22 +3380,22 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E6" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s">
         <v>25</v>
@@ -3548,19 +3418,19 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F7" t="s">
         <v>20</v>
@@ -3586,34 +3456,34 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F8" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H8">
-        <v>34500</v>
+        <v>52000</v>
       </c>
       <c r="I8">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="J8">
-        <v>23000</v>
+        <v>26000</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -3624,34 +3494,34 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
         <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="G9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H9">
-        <v>52000</v>
+        <v>44265.9</v>
       </c>
       <c r="I9">
-        <v>2000000</v>
+        <v>4137000</v>
       </c>
       <c r="J9">
-        <v>26000</v>
+        <v>10700</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -3662,98 +3532,98 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" t="s">
         <v>25</v>
       </c>
-      <c r="C10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" t="s">
-        <v>78</v>
-      </c>
-      <c r="G10" t="s">
-        <v>23</v>
-      </c>
       <c r="H10">
-        <v>44265.9</v>
+        <v>126360</v>
       </c>
       <c r="I10">
-        <v>4137000</v>
+        <v>16200000</v>
       </c>
       <c r="J10">
-        <v>10700</v>
+        <v>26000</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="E11" t="s">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="F11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="G11" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H11">
-        <v>126360</v>
+        <v>34500</v>
       </c>
       <c r="I11">
-        <v>16200000</v>
+        <v>1500000</v>
       </c>
       <c r="J11">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s">
         <v>27</v>
@@ -3776,34 +3646,34 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E13" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F13" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H13">
-        <v>9000</v>
+        <v>26400</v>
       </c>
       <c r="I13">
-        <v>4500000</v>
+        <v>1100000</v>
       </c>
       <c r="J13">
-        <v>2000</v>
+        <v>24000</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -3814,110 +3684,110 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="E14" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="F14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H14">
-        <v>26400</v>
+        <v>12636</v>
       </c>
       <c r="I14">
-        <v>1100000</v>
+        <v>16200000</v>
       </c>
       <c r="J14">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="E15" t="s">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="F15" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="G15" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H15">
-        <v>12636</v>
+        <v>4966.368</v>
       </c>
       <c r="I15">
-        <v>16200000</v>
+        <v>1128720</v>
       </c>
       <c r="J15">
-        <v>26000</v>
+        <v>4400</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
         <v>72</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="G16" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H16">
-        <v>4966.368</v>
+        <v>36000</v>
       </c>
       <c r="I16">
-        <v>1128720</v>
+        <v>18000000</v>
       </c>
       <c r="J16">
-        <v>4400</v>
+        <v>2000</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -3928,40 +3798,40 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="E17" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="F17" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H17">
-        <v>36000</v>
+        <v>4212</v>
       </c>
       <c r="I17">
-        <v>18000000</v>
+        <v>16200000</v>
       </c>
       <c r="J17">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -3969,63 +3839,63 @@
         <v>61</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="E18" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F18" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="G18" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H18">
-        <v>4212</v>
+        <v>15484</v>
       </c>
       <c r="I18">
-        <v>16200000</v>
+        <v>1580000</v>
       </c>
       <c r="J18">
-        <v>26000</v>
+        <v>14000</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E19" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F19" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G19" t="s">
         <v>28</v>
       </c>
       <c r="H19">
-        <v>15484</v>
+        <v>6636</v>
       </c>
       <c r="I19">
         <v>1580000</v>
@@ -4037,310 +3907,272 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>70</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D20" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E20" t="s">
-        <v>121</v>
+        <v>53</v>
       </c>
       <c r="F20" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="G20" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H20">
-        <v>6636</v>
+        <v>26000</v>
       </c>
       <c r="I20">
-        <v>1580000</v>
+        <v>4000000</v>
       </c>
       <c r="J20">
-        <v>14000</v>
+        <v>6500</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="E21" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="F21" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="G21" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H21">
+        <v>12636</v>
+      </c>
+      <c r="I21">
+        <v>16200000</v>
+      </c>
+      <c r="J21">
         <v>26000</v>
-      </c>
-      <c r="I21">
-        <v>4000000</v>
-      </c>
-      <c r="J21">
-        <v>6500</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B22" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D22" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="E22" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="F22" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="G22" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H22">
-        <v>12636</v>
+        <v>5390</v>
       </c>
       <c r="I22">
-        <v>16200000</v>
+        <v>770000</v>
       </c>
       <c r="J22">
-        <v>26000</v>
+        <v>7000</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="E23" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="F23" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="G23" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H23">
-        <v>5390</v>
+        <v>12636</v>
       </c>
       <c r="I23">
-        <v>770000</v>
+        <v>16200000</v>
       </c>
       <c r="J23">
-        <v>7000</v>
+        <v>26000</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D24" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="E24" t="s">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="F24" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G24" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H24">
-        <v>12636</v>
+        <v>30600</v>
       </c>
       <c r="I24">
-        <v>16200000</v>
+        <v>1800000</v>
       </c>
       <c r="J24">
-        <v>26000</v>
+        <v>17000</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D25" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="E25" t="s">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="F25" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G25" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H25">
-        <v>30600</v>
+        <v>126360</v>
       </c>
       <c r="I25">
-        <v>1800000</v>
+        <v>16200000</v>
       </c>
       <c r="J25">
-        <v>17000</v>
+        <v>26000</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D26" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="E26" t="s">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="F26" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="G26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H26">
-        <v>126360</v>
+        <v>8000</v>
       </c>
       <c r="I26">
-        <v>16200000</v>
+        <v>4000000</v>
       </c>
       <c r="J26">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27" t="s">
-        <v>58</v>
-      </c>
-      <c r="F27" t="s">
-        <v>26</v>
-      </c>
-      <c r="G27" t="s">
-        <v>24</v>
-      </c>
-      <c r="H27">
-        <v>8000</v>
-      </c>
-      <c r="I27">
-        <v>4000000</v>
-      </c>
-      <c r="J27">
-        <v>2000</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
         <v>100</v>
       </c>
     </row>

--- a/datasets/corporate-finance-data.xlsx
+++ b/datasets/corporate-finance-data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="121">
   <si>
     <t>상장일</t>
   </si>
@@ -69,6 +69,9 @@
     <t>총기관배정수량</t>
   </si>
   <si>
+    <t>2023-11-07</t>
+  </si>
+  <si>
     <t>2023-11-03</t>
   </si>
   <si>
@@ -111,6 +114,9 @@
     <t>2023-09-25</t>
   </si>
   <si>
+    <t>쏘닉스</t>
+  </si>
+  <si>
     <t>KB제27호스팩</t>
   </si>
   <si>
@@ -243,6 +249,9 @@
     <t>2023-09-14</t>
   </si>
   <si>
+    <t>2023-10-31</t>
+  </si>
+  <si>
     <t>2023-10-11</t>
   </si>
   <si>
@@ -304,6 +313,9 @@
   </si>
   <si>
     <t>한국, 미래</t>
+  </si>
+  <si>
+    <t>773.94 : 1</t>
   </si>
   <si>
     <t>8.1 : 1</t>
@@ -724,7 +736,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -788,52 +800,52 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D2">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F2">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="G2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M2">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="N2">
         <v>100</v>
       </c>
       <c r="O2" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="P2" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="Q2">
-        <v>9375000</v>
+        <v>2600000</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -841,105 +853,105 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D3">
-        <v>178.41194</v>
+        <v>250</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F3">
-        <v>178.41194</v>
+        <v>250</v>
       </c>
       <c r="G3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M3">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="N3">
         <v>100</v>
       </c>
       <c r="O3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P3" t="s">
         <v>20</v>
       </c>
       <c r="Q3">
-        <v>787111</v>
+        <v>9375000</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D4">
-        <v>49.66368</v>
+        <v>178.41194</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F4">
-        <v>49.66368</v>
+        <v>178.41194</v>
       </c>
       <c r="G4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M4">
-        <v>4400</v>
+        <v>17000</v>
       </c>
       <c r="N4">
         <v>100</v>
       </c>
       <c r="O4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q4">
-        <v>846540</v>
+        <v>787111</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -947,52 +959,52 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D5">
-        <v>306</v>
+        <v>49.66368</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F5">
-        <v>306</v>
+        <v>49.66368</v>
       </c>
       <c r="G5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M5">
-        <v>17000</v>
+        <v>4400</v>
       </c>
       <c r="N5">
         <v>100</v>
       </c>
       <c r="O5" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="P5" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="Q5">
-        <v>1119600</v>
+        <v>846540</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1000,52 +1012,52 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D6">
-        <v>260</v>
+        <v>306</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F6">
-        <v>260</v>
+        <v>306</v>
       </c>
       <c r="G6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M6">
-        <v>6500</v>
+        <v>17000</v>
       </c>
       <c r="N6">
         <v>100</v>
       </c>
       <c r="O6" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="P6" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="Q6">
-        <v>2880000</v>
+        <v>1119600</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1053,52 +1065,52 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D7">
-        <v>53.9</v>
+        <v>260</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F7">
-        <v>53.9</v>
+        <v>260</v>
       </c>
       <c r="G7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M7">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="N7">
         <v>100</v>
       </c>
       <c r="O7" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="P7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q7">
-        <v>577500</v>
+        <v>2880000</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1106,52 +1118,52 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D8">
-        <v>520</v>
+        <v>53.9</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F8">
-        <v>520</v>
+        <v>53.9</v>
       </c>
       <c r="G8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M8">
-        <v>26000</v>
+        <v>7000</v>
       </c>
       <c r="N8">
         <v>100</v>
       </c>
       <c r="O8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q8">
-        <v>1300000</v>
+        <v>577500</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1159,52 +1171,52 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D9">
-        <v>442.659</v>
+        <v>520</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F9">
-        <v>442.659</v>
+        <v>520</v>
       </c>
       <c r="G9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M9">
-        <v>10700</v>
+        <v>26000</v>
       </c>
       <c r="N9">
         <v>100</v>
       </c>
       <c r="O9" t="s">
+        <v>29</v>
+      </c>
+      <c r="P9" t="s">
         <v>25</v>
       </c>
-      <c r="P9" t="s">
-        <v>75</v>
-      </c>
       <c r="Q9">
-        <v>3102750</v>
+        <v>1300000</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1212,52 +1224,52 @@
         <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D10">
-        <v>80</v>
+        <v>442.659</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F10">
-        <v>80</v>
+        <v>442.659</v>
       </c>
       <c r="G10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M10">
-        <v>2000</v>
+        <v>10700</v>
       </c>
       <c r="N10">
         <v>100</v>
       </c>
       <c r="O10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P10" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="Q10">
-        <v>3000000</v>
+        <v>3102750</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1265,90 +1277,90 @@
         <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D11">
-        <v>4212</v>
+        <v>80</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F11">
-        <v>1263.6</v>
+        <v>80</v>
       </c>
       <c r="G11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="N11">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="O11" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="P11" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="Q11">
-        <v>87871545</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D12">
         <v>4212</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F12">
         <v>1263.6</v>
       </c>
       <c r="G12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M12">
         <v>26000</v>
@@ -1357,10 +1369,10 @@
         <v>30</v>
       </c>
       <c r="O12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P12" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Q12">
         <v>87871545</v>
@@ -1368,52 +1380,52 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D13">
         <v>4212</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F13">
-        <v>421.2</v>
+        <v>1263.6</v>
       </c>
       <c r="G13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M13">
         <v>26000</v>
       </c>
       <c r="N13">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="O13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P13" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Q13">
         <v>87871545</v>
@@ -1421,40 +1433,40 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D14">
         <v>4212</v>
       </c>
       <c r="E14" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F14">
         <v>421.2</v>
       </c>
       <c r="G14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K14" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M14">
         <v>26000</v>
@@ -1463,10 +1475,10 @@
         <v>10</v>
       </c>
       <c r="O14" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P14" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Q14">
         <v>87871545</v>
@@ -1474,40 +1486,40 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D15">
         <v>4212</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F15">
         <v>421.2</v>
       </c>
       <c r="G15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M15">
         <v>26000</v>
@@ -1516,10 +1528,10 @@
         <v>10</v>
       </c>
       <c r="O15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P15" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Q15">
         <v>87871545</v>
@@ -1527,52 +1539,52 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D16">
         <v>4212</v>
       </c>
       <c r="E16" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F16">
-        <v>126.36</v>
+        <v>421.2</v>
       </c>
       <c r="G16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M16">
         <v>26000</v>
       </c>
       <c r="N16">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="O16" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P16" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Q16">
         <v>87871545</v>
@@ -1580,40 +1592,40 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D17">
         <v>4212</v>
       </c>
       <c r="E17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F17">
         <v>126.36</v>
       </c>
       <c r="G17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K17" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M17">
         <v>26000</v>
@@ -1622,10 +1634,10 @@
         <v>3</v>
       </c>
       <c r="O17" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P17" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Q17">
         <v>87871545</v>
@@ -1633,40 +1645,40 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D18">
         <v>4212</v>
       </c>
       <c r="E18" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F18">
         <v>126.36</v>
       </c>
       <c r="G18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K18" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M18">
         <v>26000</v>
@@ -1675,10 +1687,10 @@
         <v>3</v>
       </c>
       <c r="O18" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P18" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Q18">
         <v>87871545</v>
@@ -1686,52 +1698,52 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D19">
         <v>4212</v>
       </c>
       <c r="E19" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F19">
-        <v>42.12</v>
+        <v>126.36</v>
       </c>
       <c r="G19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K19" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M19">
         <v>26000</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O19" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P19" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Q19">
         <v>87871545</v>
@@ -1742,105 +1754,105 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D20">
-        <v>360</v>
+        <v>4212</v>
       </c>
       <c r="E20" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="F20">
-        <v>360</v>
+        <v>42.12</v>
       </c>
       <c r="G20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K20" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="L20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M20">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="N20">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="O20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P20" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q20">
-        <v>13500000</v>
+        <v>87871545</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D21">
-        <v>187.5</v>
+        <v>360</v>
       </c>
       <c r="E21" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F21">
-        <v>187.5</v>
+        <v>360</v>
       </c>
       <c r="G21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K21" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M21">
-        <v>12500</v>
+        <v>2000</v>
       </c>
       <c r="N21">
         <v>100</v>
       </c>
       <c r="O21" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P21" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Q21">
-        <v>1020000</v>
+        <v>13500000</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1848,52 +1860,52 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D22">
-        <v>336</v>
+        <v>187.5</v>
       </c>
       <c r="E22" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="F22">
-        <v>336</v>
+        <v>187.5</v>
       </c>
       <c r="G22" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H22" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I22" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J22" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K22" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L22" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M22">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="N22">
         <v>100</v>
       </c>
       <c r="O22" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P22" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Q22">
-        <v>1619200</v>
+        <v>1020000</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1901,102 +1913,102 @@
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D23">
-        <v>221.2</v>
+        <v>336</v>
       </c>
       <c r="E23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F23">
-        <v>154.84</v>
+        <v>336</v>
       </c>
       <c r="G23" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H23" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I23" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J23" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K23" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L23" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M23">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N23">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="O23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P23" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="Q23">
-        <v>2370000</v>
+        <v>1619200</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D24">
         <v>221.2</v>
       </c>
       <c r="E24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F24">
-        <v>66.36</v>
+        <v>154.84</v>
       </c>
       <c r="G24" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H24" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I24" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J24" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L24" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M24">
         <v>14000</v>
       </c>
       <c r="N24">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="O24" t="s">
+        <v>75</v>
+      </c>
+      <c r="P24" t="s">
         <v>73</v>
-      </c>
-      <c r="P24" t="s">
-        <v>71</v>
       </c>
       <c r="Q24">
         <v>2370000</v>
@@ -2007,52 +2019,52 @@
         <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D25">
-        <v>345</v>
+        <v>221.2</v>
       </c>
       <c r="E25" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F25">
-        <v>345</v>
+        <v>66.36</v>
       </c>
       <c r="G25" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H25" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I25" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J25" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K25" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="L25" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M25">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="N25">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="O25" t="s">
+        <v>75</v>
+      </c>
+      <c r="P25" t="s">
         <v>73</v>
       </c>
-      <c r="P25" t="s">
-        <v>71</v>
-      </c>
       <c r="Q25">
-        <v>1125000</v>
+        <v>2370000</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2060,51 +2072,104 @@
         <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D26">
-        <v>264</v>
+        <v>345</v>
       </c>
       <c r="E26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F26">
-        <v>264</v>
+        <v>345</v>
       </c>
       <c r="G26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K26" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M26">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="N26">
         <v>100</v>
       </c>
       <c r="O26" t="s">
+        <v>75</v>
+      </c>
+      <c r="P26" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q26">
+        <v>1125000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27">
+        <v>264</v>
+      </c>
+      <c r="E27" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27">
+        <v>264</v>
+      </c>
+      <c r="G27" t="s">
+        <v>65</v>
+      </c>
+      <c r="H27" t="s">
+        <v>65</v>
+      </c>
+      <c r="I27" t="s">
+        <v>65</v>
+      </c>
+      <c r="J27" t="s">
+        <v>65</v>
+      </c>
+      <c r="K27" t="s">
+        <v>66</v>
+      </c>
+      <c r="L27" t="s">
+        <v>65</v>
+      </c>
+      <c r="M27">
+        <v>24000</v>
+      </c>
+      <c r="N27">
+        <v>100</v>
+      </c>
+      <c r="O27" t="s">
+        <v>76</v>
+      </c>
+      <c r="P27" t="s">
         <v>74</v>
       </c>
-      <c r="P26" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q26">
+      <c r="Q27">
         <v>825000</v>
       </c>
     </row>
@@ -2115,7 +2180,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2126,10 +2191,10 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>15</v>
@@ -2138,122 +2203,122 @@
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>25000000</v>
+        <v>27000000</v>
       </c>
       <c r="G2">
-        <v>12500000</v>
+        <v>3600000</v>
       </c>
       <c r="H2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I2">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="J2">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="K2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L2">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="M2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="R2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="S2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="T2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -2262,917 +2327,979 @@
         <v>18</v>
       </c>
       <c r="F3">
-        <v>17841194</v>
+        <v>25000000</v>
       </c>
       <c r="G3">
-        <v>1049482</v>
+        <v>12500000</v>
       </c>
       <c r="H3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I3">
-        <v>12800</v>
+        <v>2000</v>
       </c>
       <c r="J3">
-        <v>14500</v>
+        <v>2000</v>
       </c>
       <c r="K3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L3">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="M3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O3">
-        <v>9.999980942979489</v>
+        <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="R3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="S3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="T3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4">
-        <v>4966368</v>
+        <v>17841194</v>
       </c>
       <c r="G4">
-        <v>1128720</v>
+        <v>1049482</v>
       </c>
       <c r="H4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I4">
-        <v>3300</v>
+        <v>12800</v>
       </c>
       <c r="J4">
-        <v>3900</v>
+        <v>14500</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L4">
-        <v>4400</v>
+        <v>17000</v>
       </c>
       <c r="M4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>9.999980942979489</v>
       </c>
       <c r="P4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="R4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="S4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="T4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
         <v>19</v>
       </c>
       <c r="F5">
-        <v>30600000</v>
+        <v>4966368</v>
       </c>
       <c r="G5">
-        <v>1800000</v>
+        <v>1128720</v>
       </c>
       <c r="H5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I5">
-        <v>13000</v>
+        <v>3300</v>
       </c>
       <c r="J5">
-        <v>15000</v>
+        <v>3900</v>
       </c>
       <c r="K5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L5">
-        <v>17000</v>
+        <v>4400</v>
       </c>
       <c r="M5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="R5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="S5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="T5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="E6" t="s">
         <v>20</v>
       </c>
       <c r="F6">
-        <v>26000000</v>
+        <v>30600000</v>
       </c>
       <c r="G6">
-        <v>4000000</v>
+        <v>1800000</v>
       </c>
       <c r="H6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I6">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="J6">
-        <v>5600</v>
+        <v>15000</v>
       </c>
       <c r="K6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L6">
-        <v>6500</v>
+        <v>17000</v>
       </c>
       <c r="M6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="R6" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="S6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="T6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
         <v>21</v>
       </c>
       <c r="F7">
-        <v>5390000</v>
+        <v>26000000</v>
       </c>
       <c r="G7">
-        <v>770000</v>
+        <v>4000000</v>
       </c>
       <c r="H7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I7">
-        <v>8200</v>
+        <v>5000</v>
       </c>
       <c r="J7">
-        <v>9400</v>
+        <v>5600</v>
       </c>
       <c r="K7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L7">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="M7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="R7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="S7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="T7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
         <v>22</v>
       </c>
       <c r="F8">
-        <v>52000000</v>
+        <v>5390000</v>
       </c>
       <c r="G8">
-        <v>2000000</v>
+        <v>770000</v>
       </c>
       <c r="H8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I8">
-        <v>22000</v>
+        <v>8200</v>
       </c>
       <c r="J8">
-        <v>25000</v>
+        <v>9400</v>
       </c>
       <c r="K8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L8">
-        <v>26000</v>
+        <v>7000</v>
       </c>
       <c r="M8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="R8" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="S8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="T8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="B9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" t="s">
-        <v>75</v>
       </c>
       <c r="E9" t="s">
         <v>23</v>
       </c>
       <c r="F9">
-        <v>44265900</v>
+        <v>52000000</v>
       </c>
       <c r="G9">
-        <v>4137000</v>
+        <v>2000000</v>
       </c>
       <c r="H9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I9">
-        <v>8800</v>
+        <v>22000</v>
       </c>
       <c r="J9">
-        <v>10700</v>
+        <v>25000</v>
       </c>
       <c r="K9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L9">
-        <v>10700</v>
+        <v>26000</v>
       </c>
       <c r="M9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O9">
-        <v>30.21513173797438</v>
+        <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="R9" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="S9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="T9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="E10" t="s">
         <v>24</v>
       </c>
       <c r="F10">
-        <v>8000000</v>
+        <v>44265900</v>
       </c>
       <c r="G10">
-        <v>4000000</v>
+        <v>4137000</v>
       </c>
       <c r="H10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I10">
-        <v>2000</v>
+        <v>8800</v>
       </c>
       <c r="J10">
-        <v>2000</v>
+        <v>10700</v>
       </c>
       <c r="K10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L10">
-        <v>2000</v>
+        <v>10700</v>
       </c>
       <c r="M10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>30.21513173797438</v>
       </c>
       <c r="P10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="R10" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="S10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="T10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s">
         <v>25</v>
       </c>
       <c r="F11">
-        <v>421200000</v>
+        <v>8000000</v>
       </c>
       <c r="G11">
-        <v>16200000</v>
+        <v>4000000</v>
       </c>
       <c r="H11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I11">
-        <v>21000</v>
+        <v>2000</v>
       </c>
       <c r="J11">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="K11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L11">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="M11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="R11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="S11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="T11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="D12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E12" t="s">
         <v>26</v>
       </c>
       <c r="F12">
-        <v>36000000</v>
+        <v>421200000</v>
       </c>
       <c r="G12">
-        <v>18000000</v>
+        <v>16200000</v>
       </c>
       <c r="H12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I12">
-        <v>2000</v>
+        <v>21000</v>
       </c>
       <c r="J12">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="K12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L12">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="M12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="R12" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="S12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="T12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F13">
-        <v>18750000</v>
+        <v>36000000</v>
       </c>
       <c r="G13">
-        <v>1500000</v>
+        <v>18000000</v>
       </c>
       <c r="H13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I13">
-        <v>8900</v>
+        <v>2000</v>
       </c>
       <c r="J13">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="K13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L13">
-        <v>12500</v>
+        <v>2000</v>
       </c>
       <c r="M13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="R13" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="S13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="T13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E14" t="s">
         <v>27</v>
       </c>
       <c r="F14">
-        <v>33600000</v>
+        <v>18750000</v>
       </c>
       <c r="G14">
-        <v>2240000</v>
+        <v>1500000</v>
       </c>
       <c r="H14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I14">
-        <v>11500</v>
+        <v>8900</v>
       </c>
       <c r="J14">
-        <v>13200</v>
+        <v>11000</v>
       </c>
       <c r="K14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L14">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="M14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O14">
-        <v>26.78571428571428</v>
+        <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="R14" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="S14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="T14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D15" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E15" t="s">
         <v>28</v>
       </c>
       <c r="F15">
-        <v>22120000</v>
+        <v>33600000</v>
       </c>
       <c r="G15">
-        <v>1580000</v>
+        <v>2240000</v>
       </c>
       <c r="H15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I15">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="J15">
-        <v>12000</v>
+        <v>13200</v>
       </c>
       <c r="K15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L15">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>26.78571428571428</v>
       </c>
       <c r="P15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="R15" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="S15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="T15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" t="s">
         <v>73</v>
-      </c>
-      <c r="B16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" t="s">
-        <v>71</v>
       </c>
       <c r="E16" t="s">
         <v>29</v>
       </c>
       <c r="F16">
-        <v>34500000</v>
+        <v>22120000</v>
       </c>
       <c r="G16">
-        <v>1500000</v>
+        <v>1580000</v>
       </c>
       <c r="H16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I16">
-        <v>20000</v>
+        <v>10500</v>
       </c>
       <c r="J16">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="K16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L16">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="M16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="R16" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="S16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="T16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E17" t="s">
         <v>30</v>
       </c>
       <c r="F17">
-        <v>26400000</v>
+        <v>34500000</v>
       </c>
       <c r="G17">
-        <v>1100000</v>
+        <v>1500000</v>
       </c>
       <c r="H17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I17">
         <v>20000</v>
       </c>
       <c r="J17">
+        <v>23000</v>
+      </c>
+      <c r="K17" t="s">
+        <v>65</v>
+      </c>
+      <c r="L17">
+        <v>23000</v>
+      </c>
+      <c r="M17" t="s">
+        <v>65</v>
+      </c>
+      <c r="N17" t="s">
+        <v>65</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>65</v>
+      </c>
+      <c r="R17" t="s">
+        <v>114</v>
+      </c>
+      <c r="S17" t="s">
+        <v>65</v>
+      </c>
+      <c r="T17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18">
+        <v>26400000</v>
+      </c>
+      <c r="G18">
+        <v>1100000</v>
+      </c>
+      <c r="H18" t="s">
+        <v>65</v>
+      </c>
+      <c r="I18">
+        <v>20000</v>
+      </c>
+      <c r="J18">
         <v>24000</v>
       </c>
-      <c r="K17" t="s">
-        <v>63</v>
-      </c>
-      <c r="L17">
+      <c r="K18" t="s">
+        <v>65</v>
+      </c>
+      <c r="L18">
         <v>24000</v>
       </c>
-      <c r="M17" t="s">
-        <v>63</v>
-      </c>
-      <c r="N17" t="s">
-        <v>63</v>
-      </c>
-      <c r="O17">
+      <c r="M18" t="s">
+        <v>65</v>
+      </c>
+      <c r="N18" t="s">
+        <v>65</v>
+      </c>
+      <c r="O18">
         <v>18.18181818181818</v>
       </c>
-      <c r="P17" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>63</v>
-      </c>
-      <c r="R17" t="s">
-        <v>111</v>
-      </c>
-      <c r="S17" t="s">
-        <v>63</v>
-      </c>
-      <c r="T17" t="s">
-        <v>63</v>
+      <c r="P18" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>65</v>
+      </c>
+      <c r="R18" t="s">
+        <v>115</v>
+      </c>
+      <c r="S18" t="s">
+        <v>65</v>
+      </c>
+      <c r="T18" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -3182,7 +3309,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3190,16 +3317,16 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -3211,10 +3338,10 @@
         <v>0</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>12</v>
@@ -3223,30 +3350,30 @@
         <v>6</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H2">
         <v>42120</v>
@@ -3266,34 +3393,34 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s">
         <v>17</v>
       </c>
       <c r="H3">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="I3">
-        <v>12500000</v>
+        <v>3600000</v>
       </c>
       <c r="J3">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -3304,34 +3431,34 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F4" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H4">
-        <v>18750</v>
+        <v>25000</v>
       </c>
       <c r="I4">
-        <v>1500000</v>
+        <v>12500000</v>
       </c>
       <c r="J4">
-        <v>12500</v>
+        <v>2000</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -3342,63 +3469,63 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>115</v>
+        <v>51</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H5">
-        <v>42120</v>
+        <v>18750</v>
       </c>
       <c r="I5">
-        <v>16200000</v>
+        <v>1500000</v>
       </c>
       <c r="J5">
-        <v>26000</v>
+        <v>12500</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E6" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H6">
         <v>42120</v>
@@ -3418,72 +3545,72 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H7">
-        <v>17841.194</v>
+        <v>42120</v>
       </c>
       <c r="I7">
-        <v>1049482</v>
+        <v>16200000</v>
       </c>
       <c r="J7">
-        <v>17000</v>
+        <v>26000</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H8">
-        <v>52000</v>
+        <v>17841.194</v>
       </c>
       <c r="I8">
-        <v>2000000</v>
+        <v>1049482</v>
       </c>
       <c r="J8">
-        <v>26000</v>
+        <v>17000</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -3494,34 +3621,34 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" t="s">
         <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" t="s">
-        <v>75</v>
       </c>
       <c r="G9" t="s">
         <v>23</v>
       </c>
       <c r="H9">
-        <v>44265.9</v>
+        <v>52000</v>
       </c>
       <c r="I9">
-        <v>4137000</v>
+        <v>2000000</v>
       </c>
       <c r="J9">
-        <v>10700</v>
+        <v>26000</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -3532,110 +3659,110 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
         <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="F10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H10">
-        <v>126360</v>
+        <v>44265.9</v>
       </c>
       <c r="I10">
-        <v>16200000</v>
+        <v>4137000</v>
       </c>
       <c r="J10">
-        <v>26000</v>
+        <v>10700</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
         <v>73</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
+        <v>119</v>
       </c>
       <c r="F11" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H11">
-        <v>34500</v>
+        <v>126360</v>
       </c>
       <c r="I11">
-        <v>1500000</v>
+        <v>16200000</v>
       </c>
       <c r="J11">
-        <v>23000</v>
+        <v>26000</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F12" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G12" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H12">
-        <v>33600</v>
+        <v>34500</v>
       </c>
       <c r="I12">
-        <v>2240000</v>
+        <v>1500000</v>
       </c>
       <c r="J12">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -3646,34 +3773,34 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
         <v>74</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F13" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H13">
-        <v>26400</v>
+        <v>33600</v>
       </c>
       <c r="I13">
-        <v>1100000</v>
+        <v>2240000</v>
       </c>
       <c r="J13">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -3684,110 +3811,110 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="E14" t="s">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="F14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G14" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H14">
-        <v>12636</v>
+        <v>26400</v>
       </c>
       <c r="I14">
-        <v>16200000</v>
+        <v>1100000</v>
       </c>
       <c r="J14">
-        <v>26000</v>
+        <v>24000</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="E15" t="s">
-        <v>51</v>
+        <v>119</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H15">
-        <v>4966.368</v>
+        <v>12636</v>
       </c>
       <c r="I15">
-        <v>1128720</v>
+        <v>16200000</v>
       </c>
       <c r="J15">
-        <v>4400</v>
+        <v>26000</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F16" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="G16" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H16">
-        <v>36000</v>
+        <v>4966.368</v>
       </c>
       <c r="I16">
-        <v>18000000</v>
+        <v>1128720</v>
       </c>
       <c r="J16">
-        <v>2000</v>
+        <v>4400</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -3798,40 +3925,40 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="E17" t="s">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="F17" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H17">
-        <v>4212</v>
+        <v>36000</v>
       </c>
       <c r="I17">
-        <v>16200000</v>
+        <v>18000000</v>
       </c>
       <c r="J17">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -3842,60 +3969,60 @@
         <v>73</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D18" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="E18" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F18" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H18">
-        <v>15484</v>
+        <v>4212</v>
       </c>
       <c r="I18">
-        <v>1580000</v>
+        <v>16200000</v>
       </c>
       <c r="J18">
-        <v>14000</v>
+        <v>26000</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>70</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" t="s">
+        <v>120</v>
+      </c>
+      <c r="F19" t="s">
         <v>73</v>
       </c>
-      <c r="C19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" t="s">
-        <v>116</v>
-      </c>
-      <c r="F19" t="s">
-        <v>71</v>
-      </c>
       <c r="G19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H19">
-        <v>6636</v>
+        <v>15484</v>
       </c>
       <c r="I19">
         <v>1580000</v>
@@ -3907,68 +4034,68 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E20" t="s">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="F20" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="G20" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="H20">
-        <v>26000</v>
+        <v>6636</v>
       </c>
       <c r="I20">
-        <v>4000000</v>
+        <v>1580000</v>
       </c>
       <c r="J20">
-        <v>6500</v>
+        <v>14000</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D21" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E21" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F21" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H21">
         <v>12636</v>
@@ -3988,34 +4115,34 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G22" t="s">
         <v>21</v>
       </c>
       <c r="H22">
-        <v>5390</v>
+        <v>26000</v>
       </c>
       <c r="I22">
-        <v>770000</v>
+        <v>4000000</v>
       </c>
       <c r="J22">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -4026,25 +4153,25 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D23" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E23" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F23" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H23">
         <v>12636</v>
@@ -4064,34 +4191,34 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D24" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E24" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F24" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="G24" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H24">
-        <v>30600</v>
+        <v>5390</v>
       </c>
       <c r="I24">
-        <v>1800000</v>
+        <v>770000</v>
       </c>
       <c r="J24">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -4102,77 +4229,115 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" t="s">
         <v>71</v>
       </c>
-      <c r="C25" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" t="s">
-        <v>95</v>
-      </c>
-      <c r="E25" t="s">
-        <v>115</v>
-      </c>
-      <c r="F25" t="s">
-        <v>76</v>
-      </c>
       <c r="G25" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H25">
-        <v>126360</v>
+        <v>30600</v>
       </c>
       <c r="I25">
-        <v>16200000</v>
+        <v>1800000</v>
       </c>
       <c r="J25">
-        <v>26000</v>
+        <v>17000</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D26" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="E26" t="s">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="F26" t="s">
+        <v>79</v>
+      </c>
+      <c r="G26" t="s">
         <v>26</v>
       </c>
-      <c r="G26" t="s">
-        <v>24</v>
-      </c>
       <c r="H26">
-        <v>8000</v>
+        <v>126360</v>
       </c>
       <c r="I26">
-        <v>4000000</v>
+        <v>16200000</v>
       </c>
       <c r="J26">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27">
+        <v>8000</v>
+      </c>
+      <c r="I27">
+        <v>4000000</v>
+      </c>
+      <c r="J27">
+        <v>2000</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
         <v>100</v>
       </c>
     </row>

--- a/datasets/corporate-finance-data.xlsx
+++ b/datasets/corporate-finance-data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="134">
   <si>
     <t>상장일</t>
   </si>
@@ -69,6 +69,12 @@
     <t>총기관배정수량</t>
   </si>
   <si>
+    <t>2023-11-09</t>
+  </si>
+  <si>
+    <t>2023-11-10</t>
+  </si>
+  <si>
     <t>2023-11-07</t>
   </si>
   <si>
@@ -114,6 +120,18 @@
     <t>2023-09-25</t>
   </si>
   <si>
+    <t>큐로셀</t>
+  </si>
+  <si>
+    <t>메가터치</t>
+  </si>
+  <si>
+    <t>컨텍</t>
+  </si>
+  <si>
+    <t>비아이매트릭스</t>
+  </si>
+  <si>
     <t>쏘닉스</t>
   </si>
   <si>
@@ -171,12 +189,24 @@
     <t>코스피</t>
   </si>
   <si>
+    <t>미래</t>
+  </si>
+  <si>
+    <t>삼성</t>
+  </si>
+  <si>
+    <t>NH</t>
+  </si>
+  <si>
+    <t>대신</t>
+  </si>
+  <si>
+    <t>IBK</t>
+  </si>
+  <si>
     <t>KB</t>
   </si>
   <si>
-    <t>NH</t>
-  </si>
-  <si>
     <t>신한</t>
   </si>
   <si>
@@ -189,9 +219,6 @@
     <t>하나</t>
   </si>
   <si>
-    <t>미래</t>
-  </si>
-  <si>
     <t>현대차</t>
   </si>
   <si>
@@ -204,9 +231,6 @@
     <t>유비에스</t>
   </si>
   <si>
-    <t>삼성</t>
-  </si>
-  <si>
     <t>유안타</t>
   </si>
   <si>
@@ -216,18 +240,21 @@
     <t>-</t>
   </si>
   <si>
+    <t>공동대표</t>
+  </si>
+  <si>
     <t>대표</t>
   </si>
   <si>
-    <t>공동대표</t>
-  </si>
-  <si>
     <t>공동</t>
   </si>
   <si>
     <t>인수</t>
   </si>
   <si>
+    <t>2023-10-31</t>
+  </si>
+  <si>
     <t>2023-10-24</t>
   </si>
   <si>
@@ -249,9 +276,6 @@
     <t>2023-09-14</t>
   </si>
   <si>
-    <t>2023-10-31</t>
-  </si>
-  <si>
     <t>2023-10-11</t>
   </si>
   <si>
@@ -312,7 +336,22 @@
     <t>수수료율</t>
   </si>
   <si>
+    <t>미래, 삼성</t>
+  </si>
+  <si>
     <t>한국, 미래</t>
+  </si>
+  <si>
+    <t>169.95 : 1</t>
+  </si>
+  <si>
+    <t>630.752 : 1</t>
+  </si>
+  <si>
+    <t>9.09 : 1</t>
+  </si>
+  <si>
+    <t>805.12 : 1</t>
   </si>
   <si>
     <t>773.94 : 1</t>
@@ -736,7 +775,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -800,688 +839,688 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D2">
-        <v>270</v>
+        <v>320</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F2">
-        <v>270</v>
+        <v>160</v>
       </c>
       <c r="G2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="H2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="J2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="K2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="L2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="M2">
-        <v>7500</v>
+        <v>20000</v>
       </c>
       <c r="N2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O2" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="P2" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="Q2">
-        <v>2600000</v>
+        <v>2254770</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D3">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F3">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="G3" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="H3" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I3" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="J3" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="K3" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="L3" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="M3">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="N3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O3" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="P3" t="s">
         <v>20</v>
       </c>
       <c r="Q3">
-        <v>9375000</v>
+        <v>2254770</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D4">
-        <v>178.41194</v>
+        <v>249.6</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F4">
-        <v>178.41194</v>
+        <v>249.6</v>
       </c>
       <c r="G4" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="H4" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="M4">
-        <v>17000</v>
+        <v>4800</v>
       </c>
       <c r="N4">
         <v>100</v>
       </c>
       <c r="O4" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="P4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q4">
-        <v>787111</v>
+        <v>3900000</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D5">
-        <v>49.66368</v>
+        <v>463.5</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F5">
-        <v>49.66368</v>
+        <v>463.5</v>
       </c>
       <c r="G5" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I5" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="M5">
-        <v>4400</v>
+        <v>22500</v>
       </c>
       <c r="N5">
         <v>100</v>
       </c>
       <c r="O5" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="P5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q5">
-        <v>846540</v>
+        <v>1545000</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D6">
-        <v>306</v>
+        <v>156</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F6">
-        <v>306</v>
+        <v>156</v>
       </c>
       <c r="G6" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="H6" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I6" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="J6" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="K6" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="L6" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="M6">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="N6">
         <v>100</v>
       </c>
       <c r="O6" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="P6" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="Q6">
-        <v>1119600</v>
+        <v>840000</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D7">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F7">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="G7" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="H7" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I7" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="J7" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="K7" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="L7" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="M7">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="N7">
         <v>100</v>
       </c>
       <c r="O7" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="P7" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="Q7">
-        <v>2880000</v>
+        <v>2600000</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D8">
-        <v>53.9</v>
+        <v>250</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F8">
-        <v>53.9</v>
+        <v>250</v>
       </c>
       <c r="G8" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="H8" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I8" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="J8" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="K8" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="L8" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="M8">
-        <v>7000</v>
+        <v>2000</v>
       </c>
       <c r="N8">
         <v>100</v>
       </c>
       <c r="O8" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="P8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Q8">
-        <v>577500</v>
+        <v>9375000</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D9">
-        <v>520</v>
+        <v>178.41194</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F9">
-        <v>520</v>
+        <v>178.41194</v>
       </c>
       <c r="G9" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="H9" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I9" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="J9" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="K9" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="L9" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="M9">
-        <v>26000</v>
+        <v>17000</v>
       </c>
       <c r="N9">
         <v>100</v>
       </c>
       <c r="O9" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="P9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q9">
-        <v>1300000</v>
+        <v>787111</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D10">
-        <v>442.659</v>
+        <v>49.66368</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F10">
-        <v>442.659</v>
+        <v>49.66368</v>
       </c>
       <c r="G10" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="H10" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I10" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="J10" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="K10" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="L10" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="M10">
-        <v>10700</v>
+        <v>4400</v>
       </c>
       <c r="N10">
         <v>100</v>
       </c>
       <c r="O10" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="P10" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="Q10">
-        <v>3102750</v>
+        <v>846540</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D11">
-        <v>80</v>
+        <v>306</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F11">
-        <v>80</v>
+        <v>306</v>
       </c>
       <c r="G11" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="H11" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I11" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="J11" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="K11" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="L11" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="M11">
-        <v>2000</v>
+        <v>17000</v>
       </c>
       <c r="N11">
         <v>100</v>
       </c>
       <c r="O11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="P11" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="Q11">
-        <v>3000000</v>
+        <v>1119600</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D12">
-        <v>4212</v>
+        <v>260</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="F12">
-        <v>1263.6</v>
+        <v>260</v>
       </c>
       <c r="G12" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="H12" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I12" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="J12" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="K12" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="L12" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="M12">
-        <v>26000</v>
+        <v>6500</v>
       </c>
       <c r="N12">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="O12" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="Q12">
-        <v>87871545</v>
+        <v>2880000</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D13">
-        <v>4212</v>
+        <v>53.9</v>
       </c>
       <c r="E13" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="F13">
-        <v>1263.6</v>
+        <v>53.9</v>
       </c>
       <c r="G13" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="H13" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I13" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="J13" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="K13" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="L13" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="M13">
-        <v>26000</v>
+        <v>7000</v>
       </c>
       <c r="N13">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="O13" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="P13" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="Q13">
-        <v>87871545</v>
+        <v>577500</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D14">
-        <v>4212</v>
+        <v>520</v>
       </c>
       <c r="E14" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F14">
-        <v>421.2</v>
+        <v>520</v>
       </c>
       <c r="G14" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="H14" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I14" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="J14" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="K14" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="L14" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="M14">
         <v>26000</v>
       </c>
       <c r="N14">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O14" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="P14" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="Q14">
-        <v>87871545</v>
+        <v>1300000</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1489,155 +1528,155 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D15">
-        <v>4212</v>
+        <v>442.659</v>
       </c>
       <c r="E15" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F15">
-        <v>421.2</v>
+        <v>442.659</v>
       </c>
       <c r="G15" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="H15" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I15" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="J15" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="K15" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="L15" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="M15">
-        <v>26000</v>
+        <v>10700</v>
       </c>
       <c r="N15">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O15" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="P15" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="Q15">
-        <v>87871545</v>
+        <v>3102750</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D16">
-        <v>4212</v>
+        <v>80</v>
       </c>
       <c r="E16" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F16">
-        <v>421.2</v>
+        <v>80</v>
       </c>
       <c r="G16" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="H16" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I16" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="J16" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="K16" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="L16" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="M16">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="N16">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O16" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="P16" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="Q16">
-        <v>87871545</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D17">
         <v>4212</v>
       </c>
       <c r="E17" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F17">
-        <v>126.36</v>
+        <v>1263.6</v>
       </c>
       <c r="G17" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="H17" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I17" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="J17" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="K17" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L17" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="M17">
         <v>26000</v>
       </c>
       <c r="N17">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="O17" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="P17" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="Q17">
         <v>87871545</v>
@@ -1645,52 +1684,52 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D18">
         <v>4212</v>
       </c>
       <c r="E18" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F18">
-        <v>126.36</v>
+        <v>1263.6</v>
       </c>
       <c r="G18" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="H18" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I18" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="J18" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="K18" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L18" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="M18">
         <v>26000</v>
       </c>
       <c r="N18">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="O18" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="P18" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="Q18">
         <v>87871545</v>
@@ -1698,52 +1737,52 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D19">
         <v>4212</v>
       </c>
       <c r="E19" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F19">
-        <v>126.36</v>
+        <v>421.2</v>
       </c>
       <c r="G19" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="H19" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I19" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="J19" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="K19" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="L19" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="M19">
         <v>26000</v>
       </c>
       <c r="N19">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="O19" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="P19" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="Q19">
         <v>87871545</v>
@@ -1751,52 +1790,52 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D20">
         <v>4212</v>
       </c>
       <c r="E20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F20">
-        <v>42.12</v>
+        <v>421.2</v>
       </c>
       <c r="G20" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="H20" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I20" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="J20" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="K20" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="L20" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="M20">
         <v>26000</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="O20" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="P20" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="Q20">
         <v>87871545</v>
@@ -1804,108 +1843,108 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D21">
-        <v>360</v>
+        <v>4212</v>
       </c>
       <c r="E21" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="F21">
-        <v>360</v>
+        <v>421.2</v>
       </c>
       <c r="G21" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="H21" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I21" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="J21" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="K21" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="L21" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="M21">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="N21">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="O21" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="P21" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="Q21">
-        <v>13500000</v>
+        <v>87871545</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D22">
-        <v>187.5</v>
+        <v>4212</v>
       </c>
       <c r="E22" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="F22">
-        <v>187.5</v>
+        <v>126.36</v>
       </c>
       <c r="G22" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="H22" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I22" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="J22" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="K22" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="L22" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="M22">
-        <v>12500</v>
+        <v>26000</v>
       </c>
       <c r="N22">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="O22" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="P22" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="Q22">
-        <v>1020000</v>
+        <v>87871545</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1913,263 +1952,528 @@
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D23">
-        <v>336</v>
+        <v>4212</v>
       </c>
       <c r="E23" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F23">
-        <v>336</v>
+        <v>126.36</v>
       </c>
       <c r="G23" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="H23" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I23" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="J23" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="K23" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="L23" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="M23">
-        <v>15000</v>
+        <v>26000</v>
       </c>
       <c r="N23">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="O23" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="P23" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="Q23">
-        <v>1619200</v>
+        <v>87871545</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D24">
-        <v>221.2</v>
+        <v>4212</v>
       </c>
       <c r="E24" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F24">
-        <v>154.84</v>
+        <v>126.36</v>
       </c>
       <c r="G24" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="H24" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I24" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="J24" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="K24" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="L24" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="M24">
-        <v>14000</v>
+        <v>26000</v>
       </c>
       <c r="N24">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="O24" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="P24" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="Q24">
-        <v>2370000</v>
+        <v>87871545</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D25">
-        <v>221.2</v>
+        <v>4212</v>
       </c>
       <c r="E25" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="F25">
-        <v>66.36</v>
+        <v>42.12</v>
       </c>
       <c r="G25" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="H25" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I25" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="J25" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="K25" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="L25" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="M25">
-        <v>14000</v>
+        <v>26000</v>
       </c>
       <c r="N25">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="O25" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="P25" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="Q25">
-        <v>2370000</v>
+        <v>87871545</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D26">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="E26" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F26">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="G26" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="H26" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I26" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="J26" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="K26" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="L26" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="M26">
-        <v>23000</v>
+        <v>2000</v>
       </c>
       <c r="N26">
         <v>100</v>
       </c>
       <c r="O26" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="P26" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="Q26">
-        <v>1125000</v>
+        <v>13500000</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C27" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D27">
-        <v>264</v>
+        <v>187.5</v>
       </c>
       <c r="E27" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F27">
-        <v>264</v>
+        <v>187.5</v>
       </c>
       <c r="G27" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="H27" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I27" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="J27" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="K27" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="L27" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="M27">
-        <v>24000</v>
+        <v>12500</v>
       </c>
       <c r="N27">
         <v>100</v>
       </c>
       <c r="O27" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="P27" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="Q27">
+        <v>1020000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28">
+        <v>336</v>
+      </c>
+      <c r="E28" t="s">
+        <v>58</v>
+      </c>
+      <c r="F28">
+        <v>336</v>
+      </c>
+      <c r="G28" t="s">
+        <v>73</v>
+      </c>
+      <c r="H28" t="s">
+        <v>73</v>
+      </c>
+      <c r="I28" t="s">
+        <v>73</v>
+      </c>
+      <c r="J28" t="s">
+        <v>73</v>
+      </c>
+      <c r="K28" t="s">
+        <v>75</v>
+      </c>
+      <c r="L28" t="s">
+        <v>73</v>
+      </c>
+      <c r="M28">
+        <v>15000</v>
+      </c>
+      <c r="N28">
+        <v>100</v>
+      </c>
+      <c r="O28" t="s">
+        <v>83</v>
+      </c>
+      <c r="P28" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q28">
+        <v>1619200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29">
+        <v>221.2</v>
+      </c>
+      <c r="E29" t="s">
+        <v>71</v>
+      </c>
+      <c r="F29">
+        <v>154.84</v>
+      </c>
+      <c r="G29" t="s">
+        <v>73</v>
+      </c>
+      <c r="H29" t="s">
+        <v>73</v>
+      </c>
+      <c r="I29" t="s">
+        <v>73</v>
+      </c>
+      <c r="J29" t="s">
+        <v>73</v>
+      </c>
+      <c r="K29" t="s">
+        <v>75</v>
+      </c>
+      <c r="L29" t="s">
+        <v>73</v>
+      </c>
+      <c r="M29">
+        <v>14000</v>
+      </c>
+      <c r="N29">
+        <v>70</v>
+      </c>
+      <c r="O29" t="s">
+        <v>84</v>
+      </c>
+      <c r="P29" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q29">
+        <v>2370000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30">
+        <v>221.2</v>
+      </c>
+      <c r="E30" t="s">
+        <v>72</v>
+      </c>
+      <c r="F30">
+        <v>66.36</v>
+      </c>
+      <c r="G30" t="s">
+        <v>73</v>
+      </c>
+      <c r="H30" t="s">
+        <v>73</v>
+      </c>
+      <c r="I30" t="s">
+        <v>73</v>
+      </c>
+      <c r="J30" t="s">
+        <v>73</v>
+      </c>
+      <c r="K30" t="s">
+        <v>77</v>
+      </c>
+      <c r="L30" t="s">
+        <v>73</v>
+      </c>
+      <c r="M30">
+        <v>14000</v>
+      </c>
+      <c r="N30">
+        <v>30</v>
+      </c>
+      <c r="O30" t="s">
+        <v>84</v>
+      </c>
+      <c r="P30" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q30">
+        <v>2370000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31">
+        <v>345</v>
+      </c>
+      <c r="E31" t="s">
+        <v>57</v>
+      </c>
+      <c r="F31">
+        <v>345</v>
+      </c>
+      <c r="G31" t="s">
+        <v>73</v>
+      </c>
+      <c r="H31" t="s">
+        <v>73</v>
+      </c>
+      <c r="I31" t="s">
+        <v>73</v>
+      </c>
+      <c r="J31" t="s">
+        <v>73</v>
+      </c>
+      <c r="K31" t="s">
+        <v>75</v>
+      </c>
+      <c r="L31" t="s">
+        <v>73</v>
+      </c>
+      <c r="M31">
+        <v>23000</v>
+      </c>
+      <c r="N31">
+        <v>100</v>
+      </c>
+      <c r="O31" t="s">
+        <v>84</v>
+      </c>
+      <c r="P31" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q31">
+        <v>1125000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32">
+        <v>264</v>
+      </c>
+      <c r="E32" t="s">
+        <v>69</v>
+      </c>
+      <c r="F32">
+        <v>264</v>
+      </c>
+      <c r="G32" t="s">
+        <v>73</v>
+      </c>
+      <c r="H32" t="s">
+        <v>73</v>
+      </c>
+      <c r="I32" t="s">
+        <v>73</v>
+      </c>
+      <c r="J32" t="s">
+        <v>73</v>
+      </c>
+      <c r="K32" t="s">
+        <v>75</v>
+      </c>
+      <c r="L32" t="s">
+        <v>73</v>
+      </c>
+      <c r="M32">
+        <v>24000</v>
+      </c>
+      <c r="N32">
+        <v>100</v>
+      </c>
+      <c r="O32" t="s">
+        <v>85</v>
+      </c>
+      <c r="P32" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q32">
         <v>825000</v>
       </c>
     </row>
@@ -2180,7 +2484,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2191,10 +2495,10 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>15</v>
@@ -2203,122 +2507,122 @@
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>27000000</v>
+        <v>32000000</v>
       </c>
       <c r="G2">
-        <v>3600000</v>
+        <v>1600000</v>
       </c>
       <c r="H2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I2">
-        <v>5000</v>
+        <v>29800</v>
       </c>
       <c r="J2">
-        <v>7000</v>
+        <v>33500</v>
       </c>
       <c r="K2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="L2">
-        <v>7500</v>
+        <v>20000</v>
       </c>
       <c r="M2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="N2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="Q2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="R2" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="S2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="T2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -2327,421 +2631,421 @@
         <v>18</v>
       </c>
       <c r="F3">
-        <v>25000000</v>
+        <v>24960000</v>
       </c>
       <c r="G3">
-        <v>12500000</v>
+        <v>5200000</v>
       </c>
       <c r="H3" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I3">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="J3">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="K3" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="L3">
-        <v>2000</v>
+        <v>4800</v>
       </c>
       <c r="M3" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="N3" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="Q3" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="R3" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="S3" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="T3" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F4">
-        <v>17841194</v>
+        <v>46350000</v>
       </c>
       <c r="G4">
-        <v>1049482</v>
+        <v>2060000</v>
       </c>
       <c r="H4" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I4">
-        <v>12800</v>
+        <v>20300</v>
       </c>
       <c r="J4">
-        <v>14500</v>
+        <v>22500</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="L4">
-        <v>17000</v>
+        <v>22500</v>
       </c>
       <c r="M4" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="N4" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="O4">
-        <v>9.999980942979489</v>
+        <v>2.912621359223301</v>
       </c>
       <c r="P4" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="Q4" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="R4" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="S4" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="T4" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F5">
-        <v>4966368</v>
+        <v>15600000</v>
       </c>
       <c r="G5">
-        <v>1128720</v>
+        <v>1200000</v>
       </c>
       <c r="H5" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I5">
-        <v>3300</v>
+        <v>9100</v>
       </c>
       <c r="J5">
-        <v>3900</v>
+        <v>11000</v>
       </c>
       <c r="K5" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="L5">
-        <v>4400</v>
+        <v>13000</v>
       </c>
       <c r="M5" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="N5" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="Q5" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="R5" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="S5" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="T5" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6">
-        <v>30600000</v>
+        <v>27000000</v>
       </c>
       <c r="G6">
-        <v>1800000</v>
+        <v>3600000</v>
       </c>
       <c r="H6" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I6">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="J6">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="K6" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="L6">
-        <v>17000</v>
+        <v>7500</v>
       </c>
       <c r="M6" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="N6" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="Q6" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="R6" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="S6" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="T6" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7">
-        <v>26000000</v>
+        <v>25000000</v>
       </c>
       <c r="G7">
-        <v>4000000</v>
+        <v>12500000</v>
       </c>
       <c r="H7" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I7">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="J7">
-        <v>5600</v>
+        <v>2000</v>
       </c>
       <c r="K7" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="L7">
-        <v>6500</v>
+        <v>2000</v>
       </c>
       <c r="M7" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="N7" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="Q7" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="R7" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="S7" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="T7" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F8">
-        <v>5390000</v>
+        <v>17841194</v>
       </c>
       <c r="G8">
-        <v>770000</v>
+        <v>1049482</v>
       </c>
       <c r="H8" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I8">
-        <v>8200</v>
+        <v>12800</v>
       </c>
       <c r="J8">
-        <v>9400</v>
+        <v>14500</v>
       </c>
       <c r="K8" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="L8">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="M8" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="N8" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>9.999980942979489</v>
       </c>
       <c r="P8" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="Q8" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="R8" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="S8" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="T8" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F9">
-        <v>52000000</v>
+        <v>4966368</v>
       </c>
       <c r="G9">
-        <v>2000000</v>
+        <v>1128720</v>
       </c>
       <c r="H9" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I9">
-        <v>22000</v>
+        <v>3300</v>
       </c>
       <c r="J9">
-        <v>25000</v>
+        <v>3900</v>
       </c>
       <c r="K9" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="L9">
-        <v>26000</v>
+        <v>4400</v>
       </c>
       <c r="M9" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="N9" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="Q9" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="R9" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="S9" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="T9" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -2749,557 +3053,805 @@
         <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F10">
-        <v>44265900</v>
+        <v>30600000</v>
       </c>
       <c r="G10">
-        <v>4137000</v>
+        <v>1800000</v>
       </c>
       <c r="H10" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I10">
-        <v>8800</v>
+        <v>13000</v>
       </c>
       <c r="J10">
-        <v>10700</v>
+        <v>15000</v>
       </c>
       <c r="K10" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="L10">
-        <v>10700</v>
+        <v>17000</v>
       </c>
       <c r="M10" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="N10" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="O10">
-        <v>30.21513173797438</v>
+        <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="Q10" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="R10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="S10" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="T10" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F11">
-        <v>8000000</v>
+        <v>26000000</v>
       </c>
       <c r="G11">
         <v>4000000</v>
       </c>
       <c r="H11" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I11">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="J11">
-        <v>2000</v>
+        <v>5600</v>
       </c>
       <c r="K11" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="L11">
-        <v>2000</v>
+        <v>6500</v>
       </c>
       <c r="M11" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="N11" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="Q11" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="R11" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="S11" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="T11" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="D12" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F12">
-        <v>421200000</v>
+        <v>5390000</v>
       </c>
       <c r="G12">
-        <v>16200000</v>
+        <v>770000</v>
       </c>
       <c r="H12" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I12">
-        <v>21000</v>
+        <v>8200</v>
       </c>
       <c r="J12">
-        <v>26000</v>
+        <v>9400</v>
       </c>
       <c r="K12" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="L12">
-        <v>26000</v>
+        <v>7000</v>
       </c>
       <c r="M12" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="N12" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="Q12" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="R12" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="S12" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="T12" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F13">
-        <v>36000000</v>
+        <v>52000000</v>
       </c>
       <c r="G13">
-        <v>18000000</v>
+        <v>2000000</v>
       </c>
       <c r="H13" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I13">
-        <v>2000</v>
+        <v>22000</v>
       </c>
       <c r="J13">
-        <v>2000</v>
+        <v>25000</v>
       </c>
       <c r="K13" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="L13">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="M13" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="N13" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="Q13" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="R13" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="S13" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="T13" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D14" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F14">
-        <v>18750000</v>
+        <v>44265900</v>
       </c>
       <c r="G14">
-        <v>1500000</v>
+        <v>4137000</v>
       </c>
       <c r="H14" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I14">
-        <v>8900</v>
+        <v>8800</v>
       </c>
       <c r="J14">
-        <v>11000</v>
+        <v>10700</v>
       </c>
       <c r="K14" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="L14">
-        <v>12500</v>
+        <v>10700</v>
       </c>
       <c r="M14" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="N14" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>30.21513173797438</v>
       </c>
       <c r="P14" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="Q14" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="R14" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="S14" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="T14" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D15" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="E15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F15">
-        <v>33600000</v>
+        <v>8000000</v>
       </c>
       <c r="G15">
-        <v>2240000</v>
+        <v>4000000</v>
       </c>
       <c r="H15" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I15">
-        <v>11500</v>
+        <v>2000</v>
       </c>
       <c r="J15">
-        <v>13200</v>
+        <v>2000</v>
       </c>
       <c r="K15" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="L15">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="M15" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="N15" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="O15">
-        <v>26.78571428571428</v>
+        <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="Q15" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="R15" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="S15" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="T15" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="D16" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="E16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F16">
-        <v>22120000</v>
+        <v>421200000</v>
       </c>
       <c r="G16">
-        <v>1580000</v>
+        <v>16200000</v>
       </c>
       <c r="H16" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I16">
-        <v>10500</v>
+        <v>21000</v>
       </c>
       <c r="J16">
-        <v>12000</v>
+        <v>26000</v>
       </c>
       <c r="K16" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="L16">
-        <v>14000</v>
+        <v>26000</v>
       </c>
       <c r="M16" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="N16" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="Q16" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="R16" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="S16" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="T16" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D17" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="E17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F17">
-        <v>34500000</v>
+        <v>36000000</v>
       </c>
       <c r="G17">
-        <v>1500000</v>
+        <v>18000000</v>
       </c>
       <c r="H17" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I17">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="J17">
-        <v>23000</v>
+        <v>2000</v>
       </c>
       <c r="K17" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="L17">
-        <v>23000</v>
+        <v>2000</v>
       </c>
       <c r="M17" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="N17" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="Q17" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="R17" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="S17" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="T17" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D18" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="E18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18">
+        <v>18750000</v>
+      </c>
+      <c r="G18">
+        <v>1500000</v>
+      </c>
+      <c r="H18" t="s">
+        <v>73</v>
+      </c>
+      <c r="I18">
+        <v>8900</v>
+      </c>
+      <c r="J18">
+        <v>11000</v>
+      </c>
+      <c r="K18" t="s">
+        <v>73</v>
+      </c>
+      <c r="L18">
+        <v>12500</v>
+      </c>
+      <c r="M18" t="s">
+        <v>73</v>
+      </c>
+      <c r="N18" t="s">
+        <v>73</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>73</v>
+      </c>
+      <c r="R18" t="s">
+        <v>124</v>
+      </c>
+      <c r="S18" t="s">
+        <v>73</v>
+      </c>
+      <c r="T18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19">
+        <v>33600000</v>
+      </c>
+      <c r="G19">
+        <v>2240000</v>
+      </c>
+      <c r="H19" t="s">
+        <v>73</v>
+      </c>
+      <c r="I19">
+        <v>11500</v>
+      </c>
+      <c r="J19">
+        <v>13200</v>
+      </c>
+      <c r="K19" t="s">
+        <v>73</v>
+      </c>
+      <c r="L19">
+        <v>15000</v>
+      </c>
+      <c r="M19" t="s">
+        <v>73</v>
+      </c>
+      <c r="N19" t="s">
+        <v>73</v>
+      </c>
+      <c r="O19">
+        <v>26.78571428571428</v>
+      </c>
+      <c r="P19" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>73</v>
+      </c>
+      <c r="R19" t="s">
+        <v>125</v>
+      </c>
+      <c r="S19" t="s">
+        <v>73</v>
+      </c>
+      <c r="T19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" t="s">
         <v>31</v>
       </c>
-      <c r="F18">
+      <c r="F20">
+        <v>22120000</v>
+      </c>
+      <c r="G20">
+        <v>1580000</v>
+      </c>
+      <c r="H20" t="s">
+        <v>73</v>
+      </c>
+      <c r="I20">
+        <v>10500</v>
+      </c>
+      <c r="J20">
+        <v>12000</v>
+      </c>
+      <c r="K20" t="s">
+        <v>73</v>
+      </c>
+      <c r="L20">
+        <v>14000</v>
+      </c>
+      <c r="M20" t="s">
+        <v>73</v>
+      </c>
+      <c r="N20" t="s">
+        <v>73</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>73</v>
+      </c>
+      <c r="R20" t="s">
+        <v>126</v>
+      </c>
+      <c r="S20" t="s">
+        <v>73</v>
+      </c>
+      <c r="T20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21">
+        <v>34500000</v>
+      </c>
+      <c r="G21">
+        <v>1500000</v>
+      </c>
+      <c r="H21" t="s">
+        <v>73</v>
+      </c>
+      <c r="I21">
+        <v>20000</v>
+      </c>
+      <c r="J21">
+        <v>23000</v>
+      </c>
+      <c r="K21" t="s">
+        <v>73</v>
+      </c>
+      <c r="L21">
+        <v>23000</v>
+      </c>
+      <c r="M21" t="s">
+        <v>73</v>
+      </c>
+      <c r="N21" t="s">
+        <v>73</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>73</v>
+      </c>
+      <c r="R21" t="s">
+        <v>127</v>
+      </c>
+      <c r="S21" t="s">
+        <v>73</v>
+      </c>
+      <c r="T21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22">
         <v>26400000</v>
       </c>
-      <c r="G18">
+      <c r="G22">
         <v>1100000</v>
       </c>
-      <c r="H18" t="s">
-        <v>65</v>
-      </c>
-      <c r="I18">
+      <c r="H22" t="s">
+        <v>73</v>
+      </c>
+      <c r="I22">
         <v>20000</v>
       </c>
-      <c r="J18">
+      <c r="J22">
         <v>24000</v>
       </c>
-      <c r="K18" t="s">
-        <v>65</v>
-      </c>
-      <c r="L18">
+      <c r="K22" t="s">
+        <v>73</v>
+      </c>
+      <c r="L22">
         <v>24000</v>
       </c>
-      <c r="M18" t="s">
-        <v>65</v>
-      </c>
-      <c r="N18" t="s">
-        <v>65</v>
-      </c>
-      <c r="O18">
+      <c r="M22" t="s">
+        <v>73</v>
+      </c>
+      <c r="N22" t="s">
+        <v>73</v>
+      </c>
+      <c r="O22">
         <v>18.18181818181818</v>
       </c>
-      <c r="P18" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>65</v>
-      </c>
-      <c r="R18" t="s">
-        <v>115</v>
-      </c>
-      <c r="S18" t="s">
-        <v>65</v>
-      </c>
-      <c r="T18" t="s">
-        <v>65</v>
+      <c r="P22" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>73</v>
+      </c>
+      <c r="R22" t="s">
+        <v>128</v>
+      </c>
+      <c r="S22" t="s">
+        <v>73</v>
+      </c>
+      <c r="T22" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -3309,7 +3861,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3317,16 +3869,16 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -3338,10 +3890,10 @@
         <v>0</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>12</v>
@@ -3350,30 +3902,30 @@
         <v>6</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E2" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="F2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H2">
         <v>42120</v>
@@ -3393,34 +3945,34 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="F3" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
         <v>17</v>
       </c>
       <c r="H3">
-        <v>27000</v>
+        <v>15600</v>
       </c>
       <c r="I3">
-        <v>3600000</v>
+        <v>1200000</v>
       </c>
       <c r="J3">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -3431,34 +3983,34 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H4">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="I4">
-        <v>12500000</v>
+        <v>3600000</v>
       </c>
       <c r="J4">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -3469,34 +4021,34 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="E5" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F5" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="H5">
-        <v>18750</v>
+        <v>25000</v>
       </c>
       <c r="I5">
-        <v>1500000</v>
+        <v>12500000</v>
       </c>
       <c r="J5">
-        <v>12500</v>
+        <v>2000</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -3507,25 +4059,25 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E6" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="F6" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H6">
         <v>42120</v>
@@ -3545,110 +4097,110 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H7">
-        <v>42120</v>
+        <v>18750</v>
       </c>
       <c r="I7">
-        <v>16200000</v>
+        <v>1500000</v>
       </c>
       <c r="J7">
-        <v>26000</v>
+        <v>12500</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>132</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="G8" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H8">
-        <v>17841.194</v>
+        <v>42120</v>
       </c>
       <c r="I8">
-        <v>1049482</v>
+        <v>16200000</v>
       </c>
       <c r="J8">
-        <v>17000</v>
+        <v>26000</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H9">
-        <v>52000</v>
+        <v>24960</v>
       </c>
       <c r="I9">
-        <v>2000000</v>
+        <v>5200000</v>
       </c>
       <c r="J9">
-        <v>26000</v>
+        <v>4800</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -3659,34 +4211,34 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="C10" t="s">
         <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F10" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H10">
-        <v>44265.9</v>
+        <v>17841.194</v>
       </c>
       <c r="I10">
-        <v>4137000</v>
+        <v>1049482</v>
       </c>
       <c r="J10">
-        <v>10700</v>
+        <v>17000</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -3697,40 +4249,40 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>119</v>
+        <v>60</v>
       </c>
       <c r="F11" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H11">
-        <v>126360</v>
+        <v>46350</v>
       </c>
       <c r="I11">
-        <v>16200000</v>
+        <v>2060000</v>
       </c>
       <c r="J11">
-        <v>26000</v>
+        <v>22500</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -3738,10 +4290,10 @@
         <v>57</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
         <v>57</v>
@@ -3750,10 +4302,10 @@
         <v>57</v>
       </c>
       <c r="F12" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H12">
         <v>34500</v>
@@ -3773,34 +4325,34 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F13" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H13">
-        <v>33600</v>
+        <v>44265.9</v>
       </c>
       <c r="I13">
-        <v>2240000</v>
+        <v>4137000</v>
       </c>
       <c r="J13">
-        <v>15000</v>
+        <v>10700</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -3811,66 +4363,66 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="E14" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="F14" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="H14">
-        <v>26400</v>
+        <v>16000</v>
       </c>
       <c r="I14">
-        <v>1100000</v>
+        <v>1600000</v>
       </c>
       <c r="J14">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E15" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="F15" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H15">
-        <v>12636</v>
+        <v>126360</v>
       </c>
       <c r="I15">
         <v>16200000</v>
@@ -3882,39 +4434,39 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E16" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F16" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H16">
-        <v>4966.368</v>
+        <v>52000</v>
       </c>
       <c r="I16">
-        <v>1128720</v>
+        <v>2000000</v>
       </c>
       <c r="J16">
-        <v>4400</v>
+        <v>26000</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -3925,209 +4477,209 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B17" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="E17" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="F17" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G17" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="H17">
-        <v>36000</v>
+        <v>16000</v>
       </c>
       <c r="I17">
-        <v>18000000</v>
+        <v>1600000</v>
       </c>
       <c r="J17">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D18" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="E18" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="F18" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G18" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H18">
-        <v>4212</v>
+        <v>33600</v>
       </c>
       <c r="I18">
-        <v>16200000</v>
+        <v>2240000</v>
       </c>
       <c r="J18">
-        <v>26000</v>
+        <v>15000</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B19" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D19" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="E19" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="F19" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="G19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H19">
-        <v>15484</v>
+        <v>12636</v>
       </c>
       <c r="I19">
-        <v>1580000</v>
+        <v>16200000</v>
       </c>
       <c r="J19">
-        <v>14000</v>
+        <v>26000</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>70</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D20" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E20" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="F20" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="G20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H20">
-        <v>6636</v>
+        <v>26400</v>
       </c>
       <c r="I20">
-        <v>1580000</v>
+        <v>1100000</v>
       </c>
       <c r="J20">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D21" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="E21" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="F21" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G21" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H21">
-        <v>12636</v>
+        <v>36000</v>
       </c>
       <c r="I21">
-        <v>16200000</v>
+        <v>18000000</v>
       </c>
       <c r="J21">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C22" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E22" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F22" t="s">
         <v>23</v>
@@ -4136,13 +4688,13 @@
         <v>21</v>
       </c>
       <c r="H22">
-        <v>26000</v>
+        <v>4966.368</v>
       </c>
       <c r="I22">
-        <v>4000000</v>
+        <v>1128720</v>
       </c>
       <c r="J22">
-        <v>6500</v>
+        <v>4400</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -4153,28 +4705,28 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D23" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E23" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="F23" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G23" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H23">
-        <v>12636</v>
+        <v>4212</v>
       </c>
       <c r="I23">
         <v>16200000</v>
@@ -4186,109 +4738,109 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D24" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="E24" t="s">
-        <v>56</v>
+        <v>133</v>
       </c>
       <c r="F24" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="G24" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H24">
-        <v>5390</v>
+        <v>15484</v>
       </c>
       <c r="I24">
-        <v>770000</v>
+        <v>1580000</v>
       </c>
       <c r="J24">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D25" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="E25" t="s">
-        <v>54</v>
+        <v>133</v>
       </c>
       <c r="F25" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="G25" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="H25">
-        <v>30600</v>
+        <v>6636</v>
       </c>
       <c r="I25">
-        <v>1800000</v>
+        <v>1580000</v>
       </c>
       <c r="J25">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D26" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E26" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="F26" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G26" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H26">
-        <v>126360</v>
+        <v>12636</v>
       </c>
       <c r="I26">
         <v>16200000</v>
@@ -4300,44 +4852,234 @@
         <v>0</v>
       </c>
       <c r="L26">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D27" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E27" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="F27" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G27" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H27">
-        <v>8000</v>
+        <v>26000</v>
       </c>
       <c r="I27">
         <v>4000000</v>
       </c>
       <c r="J27">
-        <v>2000</v>
+        <v>6500</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28">
+        <v>5390</v>
+      </c>
+      <c r="I28">
+        <v>770000</v>
+      </c>
+      <c r="J28">
+        <v>7000</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" t="s">
+        <v>107</v>
+      </c>
+      <c r="E29" t="s">
+        <v>132</v>
+      </c>
+      <c r="F29" t="s">
+        <v>87</v>
+      </c>
+      <c r="G29" t="s">
+        <v>28</v>
+      </c>
+      <c r="H29">
+        <v>12636</v>
+      </c>
+      <c r="I29">
+        <v>16200000</v>
+      </c>
+      <c r="J29">
+        <v>26000</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" t="s">
+        <v>64</v>
+      </c>
+      <c r="F30" t="s">
+        <v>80</v>
+      </c>
+      <c r="G30" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30">
+        <v>30600</v>
+      </c>
+      <c r="I30">
+        <v>1800000</v>
+      </c>
+      <c r="J30">
+        <v>17000</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" t="s">
+        <v>107</v>
+      </c>
+      <c r="E31" t="s">
+        <v>132</v>
+      </c>
+      <c r="F31" t="s">
+        <v>87</v>
+      </c>
+      <c r="G31" t="s">
+        <v>28</v>
+      </c>
+      <c r="H31">
+        <v>126360</v>
+      </c>
+      <c r="I31">
+        <v>16200000</v>
+      </c>
+      <c r="J31">
+        <v>26000</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" t="s">
+        <v>67</v>
+      </c>
+      <c r="F32" t="s">
+        <v>29</v>
+      </c>
+      <c r="G32" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32">
+        <v>8000</v>
+      </c>
+      <c r="I32">
+        <v>4000000</v>
+      </c>
+      <c r="J32">
+        <v>2000</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
         <v>100</v>
       </c>
     </row>

--- a/datasets/corporate-finance-data.xlsx
+++ b/datasets/corporate-finance-data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="144">
   <si>
     <t>상장일</t>
   </si>
@@ -72,6 +72,12 @@
     <t>2023-11-09</t>
   </si>
   <si>
+    <t>2023-11-13</t>
+  </si>
+  <si>
+    <t>2023-11-14</t>
+  </si>
+  <si>
     <t>2023-11-10</t>
   </si>
   <si>
@@ -123,6 +129,15 @@
     <t>큐로셀</t>
   </si>
   <si>
+    <t>에이직랜드</t>
+  </si>
+  <si>
+    <t>한국제13호스팩</t>
+  </si>
+  <si>
+    <t>에스와이스틸텍</t>
+  </si>
+  <si>
     <t>메가터치</t>
   </si>
   <si>
@@ -195,6 +210,12 @@
     <t>삼성</t>
   </si>
   <si>
+    <t>한국</t>
+  </si>
+  <si>
+    <t>KB</t>
+  </si>
+  <si>
     <t>NH</t>
   </si>
   <si>
@@ -204,15 +225,9 @@
     <t>IBK</t>
   </si>
   <si>
-    <t>KB</t>
-  </si>
-  <si>
     <t>신한</t>
   </si>
   <si>
-    <t>한국</t>
-  </si>
-  <si>
     <t>키움</t>
   </si>
   <si>
@@ -255,6 +270,9 @@
     <t>2023-10-31</t>
   </si>
   <si>
+    <t>2023-11-01</t>
+  </si>
+  <si>
     <t>2023-10-24</t>
   </si>
   <si>
@@ -276,6 +294,9 @@
     <t>2023-09-14</t>
   </si>
   <si>
+    <t>2023-11-06</t>
+  </si>
+  <si>
     <t>2023-10-11</t>
   </si>
   <si>
@@ -343,6 +364,15 @@
   </si>
   <si>
     <t>169.95 : 1</t>
+  </si>
+  <si>
+    <t>759.88 : 1</t>
+  </si>
+  <si>
+    <t>139.07 : 1</t>
+  </si>
+  <si>
+    <t>1001.234 : 1</t>
   </si>
   <si>
     <t>630.752 : 1</t>
@@ -775,7 +805,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -839,37 +869,37 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D2">
         <v>320</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F2">
         <v>160</v>
       </c>
       <c r="G2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M2">
         <v>20000</v>
@@ -878,10 +908,10 @@
         <v>50</v>
       </c>
       <c r="O2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q2">
         <v>2254770</v>
@@ -892,37 +922,37 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D3">
         <v>320</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F3">
         <v>160</v>
       </c>
       <c r="G3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="L3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M3">
         <v>20000</v>
@@ -931,10 +961,10 @@
         <v>50</v>
       </c>
       <c r="O3" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q3">
         <v>2254770</v>
@@ -945,317 +975,317 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D4">
-        <v>249.6</v>
+        <v>659.0825</v>
       </c>
       <c r="E4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F4">
-        <v>249.6</v>
+        <v>659.0825</v>
       </c>
       <c r="G4" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H4" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I4" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J4" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L4" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M4">
-        <v>4800</v>
+        <v>25000</v>
       </c>
       <c r="N4">
         <v>100</v>
       </c>
       <c r="O4" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="P4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q4">
-        <v>3900000</v>
+        <v>1827247</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D5">
-        <v>463.5</v>
+        <v>80</v>
       </c>
       <c r="E5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F5">
-        <v>463.5</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H5" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J5" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K5" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L5" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M5">
-        <v>22500</v>
+        <v>2000</v>
       </c>
       <c r="N5">
         <v>100</v>
       </c>
       <c r="O5" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="Q5">
-        <v>1545000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D6">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="E6" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F6">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="G6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M6">
-        <v>13000</v>
+        <v>1800</v>
       </c>
       <c r="N6">
         <v>100</v>
       </c>
       <c r="O6" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="Q6">
-        <v>840000</v>
+        <v>4550000</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D7">
-        <v>270</v>
+        <v>249.6</v>
       </c>
       <c r="E7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F7">
-        <v>270</v>
+        <v>249.6</v>
       </c>
       <c r="G7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K7" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M7">
-        <v>7500</v>
+        <v>4800</v>
       </c>
       <c r="N7">
         <v>100</v>
       </c>
       <c r="O7" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="P7" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="Q7">
-        <v>2600000</v>
+        <v>3900000</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D8">
-        <v>250</v>
+        <v>463.5</v>
       </c>
       <c r="E8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F8">
-        <v>250</v>
+        <v>463.5</v>
       </c>
       <c r="G8" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H8" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I8" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J8" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K8" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L8" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M8">
-        <v>2000</v>
+        <v>22500</v>
       </c>
       <c r="N8">
         <v>100</v>
       </c>
       <c r="O8" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P8" t="s">
         <v>22</v>
       </c>
       <c r="Q8">
-        <v>9375000</v>
+        <v>1545000</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D9">
-        <v>178.41194</v>
+        <v>156</v>
       </c>
       <c r="E9" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F9">
-        <v>178.41194</v>
+        <v>156</v>
       </c>
       <c r="G9" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H9" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I9" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J9" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K9" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L9" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M9">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="N9">
         <v>100</v>
       </c>
       <c r="O9" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="P9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q9">
-        <v>787111</v>
+        <v>840000</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1263,52 +1293,52 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D10">
-        <v>49.66368</v>
+        <v>270</v>
       </c>
       <c r="E10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F10">
-        <v>49.66368</v>
+        <v>270</v>
       </c>
       <c r="G10" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H10" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I10" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J10" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K10" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L10" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M10">
-        <v>4400</v>
+        <v>7500</v>
       </c>
       <c r="N10">
         <v>100</v>
       </c>
       <c r="O10" t="s">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="P10" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="Q10">
-        <v>846540</v>
+        <v>2600000</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1316,52 +1346,52 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D11">
-        <v>306</v>
+        <v>250</v>
       </c>
       <c r="E11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F11">
-        <v>306</v>
+        <v>250</v>
       </c>
       <c r="G11" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H11" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I11" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J11" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K11" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L11" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M11">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="N11">
         <v>100</v>
       </c>
       <c r="O11" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="P11" t="s">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="Q11">
-        <v>1119600</v>
+        <v>9375000</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1369,252 +1399,252 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D12">
-        <v>260</v>
+        <v>178.41194</v>
       </c>
       <c r="E12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F12">
-        <v>260</v>
+        <v>178.41194</v>
       </c>
       <c r="G12" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H12" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I12" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J12" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K12" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L12" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M12">
-        <v>6500</v>
+        <v>17000</v>
       </c>
       <c r="N12">
         <v>100</v>
       </c>
       <c r="O12" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="P12" t="s">
         <v>25</v>
       </c>
       <c r="Q12">
-        <v>2880000</v>
+        <v>787111</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D13">
-        <v>53.9</v>
+        <v>49.66368</v>
       </c>
       <c r="E13" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F13">
-        <v>53.9</v>
+        <v>49.66368</v>
       </c>
       <c r="G13" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H13" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I13" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J13" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K13" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L13" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M13">
-        <v>7000</v>
+        <v>4400</v>
       </c>
       <c r="N13">
         <v>100</v>
       </c>
       <c r="O13" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="P13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q13">
-        <v>577500</v>
+        <v>846540</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D14">
-        <v>520</v>
+        <v>306</v>
       </c>
       <c r="E14" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F14">
-        <v>520</v>
+        <v>306</v>
       </c>
       <c r="G14" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H14" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I14" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J14" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K14" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L14" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M14">
-        <v>26000</v>
+        <v>17000</v>
       </c>
       <c r="N14">
         <v>100</v>
       </c>
       <c r="O14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="P14" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="Q14">
-        <v>1300000</v>
+        <v>1119600</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D15">
-        <v>442.659</v>
+        <v>260</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="F15">
-        <v>442.659</v>
+        <v>260</v>
       </c>
       <c r="G15" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H15" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I15" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J15" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K15" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L15" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M15">
-        <v>10700</v>
+        <v>6500</v>
       </c>
       <c r="N15">
         <v>100</v>
       </c>
       <c r="O15" t="s">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="Q15">
-        <v>3102750</v>
+        <v>2880000</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D16">
+        <v>53.9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16">
+        <v>53.9</v>
+      </c>
+      <c r="G16" t="s">
+        <v>78</v>
+      </c>
+      <c r="H16" t="s">
+        <v>78</v>
+      </c>
+      <c r="I16" t="s">
+        <v>78</v>
+      </c>
+      <c r="J16" t="s">
+        <v>78</v>
+      </c>
+      <c r="K16" t="s">
         <v>80</v>
       </c>
-      <c r="E16" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16">
-        <v>80</v>
-      </c>
-      <c r="G16" t="s">
-        <v>73</v>
-      </c>
-      <c r="H16" t="s">
-        <v>73</v>
-      </c>
-      <c r="I16" t="s">
-        <v>73</v>
-      </c>
-      <c r="J16" t="s">
-        <v>73</v>
-      </c>
-      <c r="K16" t="s">
-        <v>75</v>
-      </c>
       <c r="L16" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M16">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="N16">
         <v>100</v>
@@ -1626,60 +1656,60 @@
         <v>29</v>
       </c>
       <c r="Q16">
-        <v>3000000</v>
+        <v>577500</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D17">
-        <v>4212</v>
+        <v>520</v>
       </c>
       <c r="E17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F17">
-        <v>1263.6</v>
+        <v>520</v>
       </c>
       <c r="G17" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H17" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I17" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J17" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K17" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="L17" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M17">
         <v>26000</v>
       </c>
       <c r="N17">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="O17" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="P17" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="Q17">
-        <v>87871545</v>
+        <v>1300000</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1687,155 +1717,155 @@
         <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D18">
-        <v>4212</v>
+        <v>442.659</v>
       </c>
       <c r="E18" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F18">
-        <v>1263.6</v>
+        <v>442.659</v>
       </c>
       <c r="G18" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H18" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I18" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J18" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K18" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="L18" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M18">
-        <v>26000</v>
+        <v>10700</v>
       </c>
       <c r="N18">
+        <v>100</v>
+      </c>
+      <c r="O18" t="s">
         <v>30</v>
       </c>
-      <c r="O18" t="s">
-        <v>82</v>
-      </c>
       <c r="P18" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="Q18">
-        <v>87871545</v>
+        <v>3102750</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D19">
-        <v>4212</v>
+        <v>80</v>
       </c>
       <c r="E19" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="F19">
-        <v>421.2</v>
+        <v>80</v>
       </c>
       <c r="G19" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H19" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I19" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J19" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K19" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L19" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M19">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="N19">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O19" t="s">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="P19" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="Q19">
-        <v>87871545</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D20">
         <v>4212</v>
       </c>
       <c r="E20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F20">
-        <v>421.2</v>
+        <v>1263.6</v>
       </c>
       <c r="G20" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H20" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I20" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J20" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K20" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L20" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M20">
         <v>26000</v>
       </c>
       <c r="N20">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="O20" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="P20" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="Q20">
         <v>87871545</v>
@@ -1843,52 +1873,52 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D21">
         <v>4212</v>
       </c>
       <c r="E21" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F21">
-        <v>421.2</v>
+        <v>1263.6</v>
       </c>
       <c r="G21" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H21" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I21" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J21" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K21" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L21" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M21">
         <v>26000</v>
       </c>
       <c r="N21">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="O21" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="P21" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="Q21">
         <v>87871545</v>
@@ -1896,52 +1926,52 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D22">
         <v>4212</v>
       </c>
       <c r="E22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F22">
-        <v>126.36</v>
+        <v>421.2</v>
       </c>
       <c r="G22" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H22" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I22" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J22" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K22" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="L22" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M22">
         <v>26000</v>
       </c>
       <c r="N22">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="O22" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="P22" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="Q22">
         <v>87871545</v>
@@ -1949,52 +1979,52 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D23">
         <v>4212</v>
       </c>
       <c r="E23" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F23">
-        <v>126.36</v>
+        <v>421.2</v>
       </c>
       <c r="G23" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H23" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I23" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J23" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K23" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="L23" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M23">
         <v>26000</v>
       </c>
       <c r="N23">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="O23" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="P23" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="Q23">
         <v>87871545</v>
@@ -2002,52 +2032,52 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D24">
         <v>4212</v>
       </c>
       <c r="E24" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F24">
-        <v>126.36</v>
+        <v>421.2</v>
       </c>
       <c r="G24" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H24" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I24" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J24" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K24" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="L24" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M24">
         <v>26000</v>
       </c>
       <c r="N24">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="O24" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="P24" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="Q24">
         <v>87871545</v>
@@ -2055,13 +2085,13 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D25">
         <v>4212</v>
@@ -2070,37 +2100,37 @@
         <v>70</v>
       </c>
       <c r="F25">
-        <v>42.12</v>
+        <v>126.36</v>
       </c>
       <c r="G25" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H25" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I25" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J25" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K25" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="L25" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M25">
         <v>26000</v>
       </c>
       <c r="N25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O25" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="P25" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="Q25">
         <v>87871545</v>
@@ -2108,108 +2138,108 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D26">
-        <v>360</v>
+        <v>4212</v>
       </c>
       <c r="E26" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="F26">
-        <v>360</v>
+        <v>126.36</v>
       </c>
       <c r="G26" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H26" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I26" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J26" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K26" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L26" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M26">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="N26">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="O26" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="P26" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="Q26">
-        <v>13500000</v>
+        <v>87871545</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D27">
-        <v>187.5</v>
+        <v>4212</v>
       </c>
       <c r="E27" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="F27">
-        <v>187.5</v>
+        <v>126.36</v>
       </c>
       <c r="G27" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H27" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I27" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J27" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K27" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L27" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M27">
-        <v>12500</v>
+        <v>26000</v>
       </c>
       <c r="N27">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="O27" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="P27" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="Q27">
-        <v>1020000</v>
+        <v>87871545</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2217,52 +2247,52 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D28">
-        <v>336</v>
+        <v>4212</v>
       </c>
       <c r="E28" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="F28">
-        <v>336</v>
+        <v>42.12</v>
       </c>
       <c r="G28" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H28" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I28" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J28" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K28" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L28" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M28">
-        <v>15000</v>
+        <v>26000</v>
       </c>
       <c r="N28">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="O28" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="P28" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="Q28">
-        <v>1619200</v>
+        <v>87871545</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2270,52 +2300,52 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C29" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D29">
-        <v>221.2</v>
+        <v>360</v>
       </c>
       <c r="E29" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F29">
-        <v>154.84</v>
+        <v>360</v>
       </c>
       <c r="G29" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H29" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I29" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J29" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K29" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L29" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M29">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="N29">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="O29" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="P29" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="Q29">
-        <v>2370000</v>
+        <v>13500000</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2323,52 +2353,52 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C30" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D30">
-        <v>221.2</v>
+        <v>187.5</v>
       </c>
       <c r="E30" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F30">
-        <v>66.36</v>
+        <v>187.5</v>
       </c>
       <c r="G30" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H30" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I30" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J30" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K30" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L30" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M30">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="N30">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="O30" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="P30" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="Q30">
-        <v>2370000</v>
+        <v>1020000</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2376,52 +2406,52 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C31" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D31">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="E31" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F31">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="G31" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H31" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I31" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J31" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K31" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L31" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M31">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="N31">
         <v>100</v>
       </c>
       <c r="O31" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="P31" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="Q31">
-        <v>1125000</v>
+        <v>1619200</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2429,51 +2459,210 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C32" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D32">
+        <v>221.2</v>
+      </c>
+      <c r="E32" t="s">
+        <v>76</v>
+      </c>
+      <c r="F32">
+        <v>154.84</v>
+      </c>
+      <c r="G32" t="s">
+        <v>78</v>
+      </c>
+      <c r="H32" t="s">
+        <v>78</v>
+      </c>
+      <c r="I32" t="s">
+        <v>78</v>
+      </c>
+      <c r="J32" t="s">
+        <v>78</v>
+      </c>
+      <c r="K32" t="s">
+        <v>80</v>
+      </c>
+      <c r="L32" t="s">
+        <v>78</v>
+      </c>
+      <c r="M32">
+        <v>14000</v>
+      </c>
+      <c r="N32">
+        <v>70</v>
+      </c>
+      <c r="O32" t="s">
+        <v>90</v>
+      </c>
+      <c r="P32" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q32">
+        <v>2370000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33">
+        <v>221.2</v>
+      </c>
+      <c r="E33" t="s">
+        <v>77</v>
+      </c>
+      <c r="F33">
+        <v>66.36</v>
+      </c>
+      <c r="G33" t="s">
+        <v>78</v>
+      </c>
+      <c r="H33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I33" t="s">
+        <v>78</v>
+      </c>
+      <c r="J33" t="s">
+        <v>78</v>
+      </c>
+      <c r="K33" t="s">
+        <v>82</v>
+      </c>
+      <c r="L33" t="s">
+        <v>78</v>
+      </c>
+      <c r="M33">
+        <v>14000</v>
+      </c>
+      <c r="N33">
+        <v>30</v>
+      </c>
+      <c r="O33" t="s">
+        <v>90</v>
+      </c>
+      <c r="P33" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q33">
+        <v>2370000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34">
+        <v>345</v>
+      </c>
+      <c r="E34" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34">
+        <v>345</v>
+      </c>
+      <c r="G34" t="s">
+        <v>78</v>
+      </c>
+      <c r="H34" t="s">
+        <v>78</v>
+      </c>
+      <c r="I34" t="s">
+        <v>78</v>
+      </c>
+      <c r="J34" t="s">
+        <v>78</v>
+      </c>
+      <c r="K34" t="s">
+        <v>80</v>
+      </c>
+      <c r="L34" t="s">
+        <v>78</v>
+      </c>
+      <c r="M34">
+        <v>23000</v>
+      </c>
+      <c r="N34">
+        <v>100</v>
+      </c>
+      <c r="O34" t="s">
+        <v>90</v>
+      </c>
+      <c r="P34" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q34">
+        <v>1125000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35">
         <v>264</v>
       </c>
-      <c r="E32" t="s">
-        <v>69</v>
-      </c>
-      <c r="F32">
+      <c r="E35" t="s">
+        <v>74</v>
+      </c>
+      <c r="F35">
         <v>264</v>
       </c>
-      <c r="G32" t="s">
-        <v>73</v>
-      </c>
-      <c r="H32" t="s">
-        <v>73</v>
-      </c>
-      <c r="I32" t="s">
-        <v>73</v>
-      </c>
-      <c r="J32" t="s">
-        <v>73</v>
-      </c>
-      <c r="K32" t="s">
-        <v>75</v>
-      </c>
-      <c r="L32" t="s">
-        <v>73</v>
-      </c>
-      <c r="M32">
+      <c r="G35" t="s">
+        <v>78</v>
+      </c>
+      <c r="H35" t="s">
+        <v>78</v>
+      </c>
+      <c r="I35" t="s">
+        <v>78</v>
+      </c>
+      <c r="J35" t="s">
+        <v>78</v>
+      </c>
+      <c r="K35" t="s">
+        <v>80</v>
+      </c>
+      <c r="L35" t="s">
+        <v>78</v>
+      </c>
+      <c r="M35">
         <v>24000</v>
       </c>
-      <c r="N32">
+      <c r="N35">
         <v>100</v>
       </c>
-      <c r="O32" t="s">
-        <v>85</v>
-      </c>
-      <c r="P32" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q32">
+      <c r="O35" t="s">
+        <v>91</v>
+      </c>
+      <c r="P35" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q35">
         <v>825000</v>
       </c>
     </row>
@@ -2484,7 +2673,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T22"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2495,10 +2684,10 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>15</v>
@@ -2507,63 +2696,63 @@
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
@@ -2575,7 +2764,7 @@
         <v>1600000</v>
       </c>
       <c r="H2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I2">
         <v>29800</v>
@@ -2584,541 +2773,541 @@
         <v>33500</v>
       </c>
       <c r="K2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L2">
         <v>20000</v>
       </c>
       <c r="M2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="N2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="Q2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="R2" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="S2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="T2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
       </c>
       <c r="F3">
-        <v>24960000</v>
+        <v>65908250</v>
       </c>
       <c r="G3">
-        <v>5200000</v>
+        <v>2636330</v>
       </c>
       <c r="H3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I3">
-        <v>3500</v>
+        <v>19100</v>
       </c>
       <c r="J3">
-        <v>4000</v>
+        <v>21400</v>
       </c>
       <c r="K3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L3">
-        <v>4800</v>
+        <v>25000</v>
       </c>
       <c r="M3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="N3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="Q3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="R3" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="S3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="T3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4">
-        <v>46350000</v>
+        <v>8000000</v>
       </c>
       <c r="G4">
-        <v>2060000</v>
+        <v>4000000</v>
       </c>
       <c r="H4" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I4">
-        <v>20300</v>
+        <v>2000</v>
       </c>
       <c r="J4">
-        <v>22500</v>
+        <v>2000</v>
       </c>
       <c r="K4" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L4">
-        <v>22500</v>
+        <v>2000</v>
       </c>
       <c r="M4" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="N4" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="O4">
-        <v>2.912621359223301</v>
+        <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="Q4" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="R4" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="S4" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="T4" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F5">
-        <v>15600000</v>
+        <v>12600000</v>
       </c>
       <c r="G5">
-        <v>1200000</v>
+        <v>7000000</v>
       </c>
       <c r="H5" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I5">
-        <v>9100</v>
+        <v>1200</v>
       </c>
       <c r="J5">
-        <v>11000</v>
+        <v>1500</v>
       </c>
       <c r="K5" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L5">
-        <v>13000</v>
+        <v>1800</v>
       </c>
       <c r="M5" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="N5" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="Q5" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="R5" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="S5" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="T5" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6">
-        <v>27000000</v>
+        <v>24960000</v>
       </c>
       <c r="G6">
-        <v>3600000</v>
+        <v>5200000</v>
       </c>
       <c r="H6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I6">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="J6">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="K6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L6">
-        <v>7500</v>
+        <v>4800</v>
       </c>
       <c r="M6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="N6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="Q6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="R6" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="S6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="T6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F7">
-        <v>25000000</v>
+        <v>46350000</v>
       </c>
       <c r="G7">
-        <v>12500000</v>
+        <v>2060000</v>
       </c>
       <c r="H7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I7">
-        <v>2000</v>
+        <v>20300</v>
       </c>
       <c r="J7">
-        <v>2000</v>
+        <v>22500</v>
       </c>
       <c r="K7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L7">
-        <v>2000</v>
+        <v>22500</v>
       </c>
       <c r="M7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="N7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>2.912621359223301</v>
       </c>
       <c r="P7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="Q7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="R7" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="S7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="T7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F8">
-        <v>17841194</v>
+        <v>15600000</v>
       </c>
       <c r="G8">
-        <v>1049482</v>
+        <v>1200000</v>
       </c>
       <c r="H8" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I8">
-        <v>12800</v>
+        <v>9100</v>
       </c>
       <c r="J8">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="K8" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L8">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M8" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="N8" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="O8">
-        <v>9.999980942979489</v>
+        <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="Q8" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="R8" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="S8" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="T8" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="E9" t="s">
         <v>21</v>
       </c>
       <c r="F9">
-        <v>4966368</v>
+        <v>27000000</v>
       </c>
       <c r="G9">
-        <v>1128720</v>
+        <v>3600000</v>
       </c>
       <c r="H9" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I9">
-        <v>3300</v>
+        <v>5000</v>
       </c>
       <c r="J9">
-        <v>3900</v>
+        <v>7000</v>
       </c>
       <c r="K9" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L9">
-        <v>4400</v>
+        <v>7500</v>
       </c>
       <c r="M9" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="N9" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="Q9" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="R9" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="S9" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="T9" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D10" t="s">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
         <v>22</v>
       </c>
       <c r="F10">
-        <v>30600000</v>
+        <v>25000000</v>
       </c>
       <c r="G10">
-        <v>1800000</v>
+        <v>12500000</v>
       </c>
       <c r="H10" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I10">
-        <v>13000</v>
+        <v>2000</v>
       </c>
       <c r="J10">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="K10" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L10">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="M10" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="N10" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="Q10" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="R10" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="S10" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="T10" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D11" t="s">
         <v>25</v>
@@ -3127,235 +3316,235 @@
         <v>23</v>
       </c>
       <c r="F11">
-        <v>26000000</v>
+        <v>17841194</v>
       </c>
       <c r="G11">
-        <v>4000000</v>
+        <v>1049482</v>
       </c>
       <c r="H11" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I11">
-        <v>5000</v>
+        <v>12800</v>
       </c>
       <c r="J11">
-        <v>5600</v>
+        <v>14500</v>
       </c>
       <c r="K11" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L11">
-        <v>6500</v>
+        <v>17000</v>
       </c>
       <c r="M11" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="N11" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>9.999980942979489</v>
       </c>
       <c r="P11" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="Q11" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="R11" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="S11" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="T11" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F12">
-        <v>5390000</v>
+        <v>4966368</v>
       </c>
       <c r="G12">
-        <v>770000</v>
+        <v>1128720</v>
       </c>
       <c r="H12" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I12">
-        <v>8200</v>
+        <v>3300</v>
       </c>
       <c r="J12">
-        <v>9400</v>
+        <v>3900</v>
       </c>
       <c r="K12" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L12">
-        <v>7000</v>
+        <v>4400</v>
       </c>
       <c r="M12" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="N12" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="Q12" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="R12" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="S12" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="T12" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F13">
-        <v>52000000</v>
+        <v>30600000</v>
       </c>
       <c r="G13">
-        <v>2000000</v>
+        <v>1800000</v>
       </c>
       <c r="H13" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I13">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="J13">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="K13" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L13">
-        <v>26000</v>
+        <v>17000</v>
       </c>
       <c r="M13" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="N13" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="Q13" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="R13" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="S13" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="T13" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="D14" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F14">
-        <v>44265900</v>
+        <v>26000000</v>
       </c>
       <c r="G14">
-        <v>4137000</v>
+        <v>4000000</v>
       </c>
       <c r="H14" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I14">
-        <v>8800</v>
+        <v>5000</v>
       </c>
       <c r="J14">
-        <v>10700</v>
+        <v>5600</v>
       </c>
       <c r="K14" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L14">
-        <v>10700</v>
+        <v>6500</v>
       </c>
       <c r="M14" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="N14" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="O14">
-        <v>30.21513173797438</v>
+        <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="Q14" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="R14" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="S14" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="T14" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -3363,495 +3552,681 @@
         <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D15" t="s">
         <v>29</v>
       </c>
       <c r="E15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F15">
-        <v>8000000</v>
+        <v>5390000</v>
       </c>
       <c r="G15">
-        <v>4000000</v>
+        <v>770000</v>
       </c>
       <c r="H15" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I15">
-        <v>2000</v>
+        <v>8200</v>
       </c>
       <c r="J15">
-        <v>2000</v>
+        <v>9400</v>
       </c>
       <c r="K15" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L15">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="M15" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="N15" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="Q15" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="R15" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="S15" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="T15" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="D16" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="E16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F16">
-        <v>421200000</v>
+        <v>52000000</v>
       </c>
       <c r="G16">
-        <v>16200000</v>
+        <v>2000000</v>
       </c>
       <c r="H16" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I16">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="J16">
-        <v>26000</v>
+        <v>25000</v>
       </c>
       <c r="K16" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L16">
         <v>26000</v>
       </c>
       <c r="M16" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="N16" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="Q16" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="R16" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="S16" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="T16" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D17" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F17">
-        <v>36000000</v>
+        <v>44265900</v>
       </c>
       <c r="G17">
-        <v>18000000</v>
+        <v>4137000</v>
       </c>
       <c r="H17" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I17">
-        <v>2000</v>
+        <v>8800</v>
       </c>
       <c r="J17">
-        <v>2000</v>
+        <v>10700</v>
       </c>
       <c r="K17" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L17">
-        <v>2000</v>
+        <v>10700</v>
       </c>
       <c r="M17" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="N17" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>30.21513173797438</v>
       </c>
       <c r="P17" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="Q17" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="R17" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="S17" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="T17" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="D18" t="s">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="E18" t="s">
         <v>29</v>
       </c>
       <c r="F18">
-        <v>18750000</v>
+        <v>8000000</v>
       </c>
       <c r="G18">
-        <v>1500000</v>
+        <v>4000000</v>
       </c>
       <c r="H18" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I18">
-        <v>8900</v>
+        <v>2000</v>
       </c>
       <c r="J18">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="K18" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L18">
-        <v>12500</v>
+        <v>2000</v>
       </c>
       <c r="M18" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="N18" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="Q18" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="R18" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="S18" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="T18" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>114</v>
       </c>
       <c r="D19" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E19" t="s">
         <v>30</v>
       </c>
       <c r="F19">
-        <v>33600000</v>
+        <v>421200000</v>
       </c>
       <c r="G19">
-        <v>2240000</v>
+        <v>16200000</v>
       </c>
       <c r="H19" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I19">
-        <v>11500</v>
+        <v>21000</v>
       </c>
       <c r="J19">
-        <v>13200</v>
+        <v>26000</v>
       </c>
       <c r="K19" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L19">
-        <v>15000</v>
+        <v>26000</v>
       </c>
       <c r="M19" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="N19" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="O19">
-        <v>26.78571428571428</v>
+        <v>0</v>
       </c>
       <c r="P19" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="Q19" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="R19" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="S19" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="T19" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D20" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="E20" t="s">
         <v>31</v>
       </c>
       <c r="F20">
-        <v>22120000</v>
+        <v>36000000</v>
       </c>
       <c r="G20">
-        <v>1580000</v>
+        <v>18000000</v>
       </c>
       <c r="H20" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I20">
-        <v>10500</v>
+        <v>2000</v>
       </c>
       <c r="J20">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="K20" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L20">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="M20" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="N20" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="Q20" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="R20" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="S20" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="T20" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D21" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="E21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F21">
-        <v>34500000</v>
+        <v>18750000</v>
       </c>
       <c r="G21">
         <v>1500000</v>
       </c>
       <c r="H21" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I21">
-        <v>20000</v>
+        <v>8900</v>
       </c>
       <c r="J21">
-        <v>23000</v>
+        <v>11000</v>
       </c>
       <c r="K21" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L21">
-        <v>23000</v>
+        <v>12500</v>
       </c>
       <c r="M21" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="N21" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="Q21" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="R21" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="S21" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="T21" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D22" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="E22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22">
+        <v>33600000</v>
+      </c>
+      <c r="G22">
+        <v>2240000</v>
+      </c>
+      <c r="H22" t="s">
+        <v>78</v>
+      </c>
+      <c r="I22">
+        <v>11500</v>
+      </c>
+      <c r="J22">
+        <v>13200</v>
+      </c>
+      <c r="K22" t="s">
+        <v>78</v>
+      </c>
+      <c r="L22">
+        <v>15000</v>
+      </c>
+      <c r="M22" t="s">
+        <v>78</v>
+      </c>
+      <c r="N22" t="s">
+        <v>78</v>
+      </c>
+      <c r="O22">
+        <v>26.78571428571428</v>
+      </c>
+      <c r="P22" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>78</v>
+      </c>
+      <c r="R22" t="s">
+        <v>135</v>
+      </c>
+      <c r="S22" t="s">
+        <v>78</v>
+      </c>
+      <c r="T22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" t="s">
         <v>33</v>
       </c>
-      <c r="F22">
+      <c r="F23">
+        <v>22120000</v>
+      </c>
+      <c r="G23">
+        <v>1580000</v>
+      </c>
+      <c r="H23" t="s">
+        <v>78</v>
+      </c>
+      <c r="I23">
+        <v>10500</v>
+      </c>
+      <c r="J23">
+        <v>12000</v>
+      </c>
+      <c r="K23" t="s">
+        <v>78</v>
+      </c>
+      <c r="L23">
+        <v>14000</v>
+      </c>
+      <c r="M23" t="s">
+        <v>78</v>
+      </c>
+      <c r="N23" t="s">
+        <v>78</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>78</v>
+      </c>
+      <c r="R23" t="s">
+        <v>136</v>
+      </c>
+      <c r="S23" t="s">
+        <v>78</v>
+      </c>
+      <c r="T23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24">
+        <v>34500000</v>
+      </c>
+      <c r="G24">
+        <v>1500000</v>
+      </c>
+      <c r="H24" t="s">
+        <v>78</v>
+      </c>
+      <c r="I24">
+        <v>20000</v>
+      </c>
+      <c r="J24">
+        <v>23000</v>
+      </c>
+      <c r="K24" t="s">
+        <v>78</v>
+      </c>
+      <c r="L24">
+        <v>23000</v>
+      </c>
+      <c r="M24" t="s">
+        <v>78</v>
+      </c>
+      <c r="N24" t="s">
+        <v>78</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>78</v>
+      </c>
+      <c r="R24" t="s">
+        <v>137</v>
+      </c>
+      <c r="S24" t="s">
+        <v>78</v>
+      </c>
+      <c r="T24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25">
         <v>26400000</v>
       </c>
-      <c r="G22">
+      <c r="G25">
         <v>1100000</v>
       </c>
-      <c r="H22" t="s">
-        <v>73</v>
-      </c>
-      <c r="I22">
+      <c r="H25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I25">
         <v>20000</v>
       </c>
-      <c r="J22">
+      <c r="J25">
         <v>24000</v>
       </c>
-      <c r="K22" t="s">
-        <v>73</v>
-      </c>
-      <c r="L22">
+      <c r="K25" t="s">
+        <v>78</v>
+      </c>
+      <c r="L25">
         <v>24000</v>
       </c>
-      <c r="M22" t="s">
-        <v>73</v>
-      </c>
-      <c r="N22" t="s">
-        <v>73</v>
-      </c>
-      <c r="O22">
+      <c r="M25" t="s">
+        <v>78</v>
+      </c>
+      <c r="N25" t="s">
+        <v>78</v>
+      </c>
+      <c r="O25">
         <v>18.18181818181818</v>
       </c>
-      <c r="P22" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>73</v>
-      </c>
-      <c r="R22" t="s">
-        <v>128</v>
-      </c>
-      <c r="S22" t="s">
-        <v>73</v>
-      </c>
-      <c r="T22" t="s">
-        <v>73</v>
+      <c r="P25" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>78</v>
+      </c>
+      <c r="R25" t="s">
+        <v>138</v>
+      </c>
+      <c r="S25" t="s">
+        <v>78</v>
+      </c>
+      <c r="T25" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -3861,7 +4236,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3869,16 +4244,16 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -3890,10 +4265,10 @@
         <v>0</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>12</v>
@@ -3902,30 +4277,30 @@
         <v>6</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E2" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="F2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H2">
         <v>42120</v>
@@ -3945,22 +4320,22 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
         <v>17</v>
@@ -3983,34 +4358,34 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F4" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="H4">
-        <v>27000</v>
+        <v>18750</v>
       </c>
       <c r="I4">
-        <v>3600000</v>
+        <v>1500000</v>
       </c>
       <c r="J4">
-        <v>7500</v>
+        <v>12500</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -4021,110 +4396,110 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>114</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H5">
-        <v>25000</v>
+        <v>42120</v>
       </c>
       <c r="I5">
-        <v>12500000</v>
+        <v>16200000</v>
       </c>
       <c r="J5">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="E6" t="s">
-        <v>132</v>
+        <v>65</v>
       </c>
       <c r="F6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H6">
-        <v>42120</v>
+        <v>12600</v>
       </c>
       <c r="I6">
-        <v>16200000</v>
+        <v>7000000</v>
       </c>
       <c r="J6">
-        <v>26000</v>
+        <v>1800</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" t="s">
         <v>83</v>
       </c>
-      <c r="C7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" t="s">
-        <v>88</v>
-      </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H7">
-        <v>18750</v>
+        <v>27000</v>
       </c>
       <c r="I7">
-        <v>1500000</v>
+        <v>3600000</v>
       </c>
       <c r="J7">
-        <v>12500</v>
+        <v>7500</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -4135,63 +4510,63 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>132</v>
+        <v>65</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H8">
-        <v>42120</v>
+        <v>25000</v>
       </c>
       <c r="I8">
-        <v>16200000</v>
+        <v>12500000</v>
       </c>
       <c r="J8">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="E9" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
         <v>20</v>
-      </c>
-      <c r="G9" t="s">
-        <v>18</v>
       </c>
       <c r="H9">
         <v>24960</v>
@@ -4211,25 +4586,25 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="F10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s">
         <v>23</v>
-      </c>
-      <c r="G10" t="s">
-        <v>21</v>
       </c>
       <c r="H10">
         <v>17841.194</v>
@@ -4249,72 +4624,72 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="E11" t="s">
-        <v>60</v>
+        <v>142</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="G11" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="H11">
-        <v>46350</v>
+        <v>42120</v>
       </c>
       <c r="I11">
-        <v>2060000</v>
+        <v>16200000</v>
       </c>
       <c r="J11">
-        <v>22500</v>
+        <v>26000</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="E12" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="F12" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="H12">
-        <v>34500</v>
+        <v>46350</v>
       </c>
       <c r="I12">
-        <v>1500000</v>
+        <v>2060000</v>
       </c>
       <c r="J12">
-        <v>23000</v>
+        <v>22500</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -4325,139 +4700,139 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="E13" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="F13" t="s">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="G13" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H13">
-        <v>44265.9</v>
+        <v>16000</v>
       </c>
       <c r="I13">
-        <v>4137000</v>
+        <v>1600000</v>
       </c>
       <c r="J13">
-        <v>10700</v>
+        <v>20000</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E14" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="G14" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="H14">
-        <v>16000</v>
+        <v>126360</v>
       </c>
       <c r="I14">
-        <v>1600000</v>
+        <v>16200000</v>
       </c>
       <c r="J14">
-        <v>20000</v>
+        <v>26000</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="D15" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="E15" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="F15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G15" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H15">
-        <v>126360</v>
+        <v>34500</v>
       </c>
       <c r="I15">
-        <v>16200000</v>
+        <v>1500000</v>
       </c>
       <c r="J15">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" t="s">
         <v>27</v>
-      </c>
-      <c r="G16" t="s">
-        <v>25</v>
       </c>
       <c r="H16">
         <v>52000</v>
@@ -4477,63 +4852,63 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="D17" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="E17" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="F17" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="G17" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="H17">
-        <v>16000</v>
+        <v>44265.9</v>
       </c>
       <c r="I17">
-        <v>1600000</v>
+        <v>4137000</v>
       </c>
       <c r="J17">
-        <v>20000</v>
+        <v>10700</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B18" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E18" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F18" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G18" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H18">
         <v>33600</v>
@@ -4553,72 +4928,72 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E19" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="F19" t="s">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="G19" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="H19">
-        <v>12636</v>
+        <v>16000</v>
       </c>
       <c r="I19">
-        <v>16200000</v>
+        <v>1600000</v>
       </c>
       <c r="J19">
-        <v>26000</v>
+        <v>20000</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>3</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="D20" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E20" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F20" t="s">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="G20" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="H20">
-        <v>26400</v>
+        <v>65908.25</v>
       </c>
       <c r="I20">
-        <v>1100000</v>
+        <v>2636330</v>
       </c>
       <c r="J20">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -4629,72 +5004,72 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="E21" t="s">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="F21" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="G21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H21">
-        <v>36000</v>
+        <v>12636</v>
       </c>
       <c r="I21">
-        <v>18000000</v>
+        <v>16200000</v>
       </c>
       <c r="J21">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="B22" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="D22" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E22" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="F22" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="G22" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="H22">
-        <v>4966.368</v>
+        <v>26400</v>
       </c>
       <c r="I22">
-        <v>1128720</v>
+        <v>1100000</v>
       </c>
       <c r="J22">
-        <v>4400</v>
+        <v>24000</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -4705,300 +5080,300 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D23" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="E23" t="s">
-        <v>132</v>
+        <v>69</v>
       </c>
       <c r="F23" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="G23" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H23">
-        <v>4212</v>
+        <v>36000</v>
       </c>
       <c r="I23">
-        <v>16200000</v>
+        <v>18000000</v>
       </c>
       <c r="J23">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B24" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E24" t="s">
-        <v>133</v>
+        <v>69</v>
       </c>
       <c r="F24" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H24">
-        <v>15484</v>
+        <v>4966.368</v>
       </c>
       <c r="I24">
-        <v>1580000</v>
+        <v>1128720</v>
       </c>
       <c r="J24">
-        <v>14000</v>
+        <v>4400</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B25" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D25" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="E25" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="F25" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="G25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H25">
-        <v>6636</v>
+        <v>4212</v>
       </c>
       <c r="I25">
-        <v>1580000</v>
+        <v>16200000</v>
       </c>
       <c r="J25">
-        <v>14000</v>
+        <v>26000</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="B26" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C26" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D26" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="E26" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="F26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G26" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H26">
-        <v>12636</v>
+        <v>15484</v>
       </c>
       <c r="I26">
-        <v>16200000</v>
+        <v>1580000</v>
       </c>
       <c r="J26">
-        <v>26000</v>
+        <v>14000</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26">
-        <v>3</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="B27" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C27" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="D27" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="E27" t="s">
-        <v>65</v>
+        <v>143</v>
       </c>
       <c r="F27" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="G27" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="H27">
-        <v>26000</v>
+        <v>6636</v>
       </c>
       <c r="I27">
-        <v>4000000</v>
+        <v>1580000</v>
       </c>
       <c r="J27">
-        <v>6500</v>
+        <v>14000</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="C28" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D28" t="s">
-        <v>66</v>
+        <v>114</v>
       </c>
       <c r="E28" t="s">
-        <v>66</v>
+        <v>142</v>
       </c>
       <c r="F28" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="G28" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H28">
-        <v>5390</v>
+        <v>12636</v>
       </c>
       <c r="I28">
-        <v>770000</v>
+        <v>16200000</v>
       </c>
       <c r="J28">
-        <v>7000</v>
+        <v>26000</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B29" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C29" t="s">
         <v>48</v>
       </c>
       <c r="D29" t="s">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="E29" t="s">
-        <v>132</v>
+        <v>70</v>
       </c>
       <c r="F29" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="G29" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H29">
-        <v>12636</v>
+        <v>26000</v>
       </c>
       <c r="I29">
-        <v>16200000</v>
+        <v>4000000</v>
       </c>
       <c r="J29">
-        <v>26000</v>
+        <v>6500</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" t="s">
+        <v>71</v>
+      </c>
+      <c r="F30" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30" t="s">
         <v>26</v>
       </c>
-      <c r="C30" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E30" t="s">
-        <v>64</v>
-      </c>
-      <c r="F30" t="s">
-        <v>80</v>
-      </c>
-      <c r="G30" t="s">
-        <v>22</v>
-      </c>
       <c r="H30">
-        <v>30600</v>
+        <v>5390</v>
       </c>
       <c r="I30">
-        <v>1800000</v>
+        <v>770000</v>
       </c>
       <c r="J30">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -5009,28 +5384,28 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B31" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C31" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D31" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E31" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="F31" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="G31" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H31">
-        <v>126360</v>
+        <v>12636</v>
       </c>
       <c r="I31">
         <v>16200000</v>
@@ -5042,30 +5417,30 @@
         <v>0</v>
       </c>
       <c r="L31">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="C32" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D32" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E32" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F32" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="G32" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H32">
         <v>8000</v>
@@ -5080,6 +5455,120 @@
         <v>0</v>
       </c>
       <c r="L32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
+        <v>86</v>
+      </c>
+      <c r="G33" t="s">
+        <v>24</v>
+      </c>
+      <c r="H33">
+        <v>30600</v>
+      </c>
+      <c r="I33">
+        <v>1800000</v>
+      </c>
+      <c r="J33">
+        <v>17000</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" t="s">
+        <v>114</v>
+      </c>
+      <c r="E34" t="s">
+        <v>142</v>
+      </c>
+      <c r="F34" t="s">
+        <v>94</v>
+      </c>
+      <c r="G34" t="s">
+        <v>30</v>
+      </c>
+      <c r="H34">
+        <v>126360</v>
+      </c>
+      <c r="I34">
+        <v>16200000</v>
+      </c>
+      <c r="J34">
+        <v>26000</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" t="s">
+        <v>72</v>
+      </c>
+      <c r="E35" t="s">
+        <v>72</v>
+      </c>
+      <c r="F35" t="s">
+        <v>31</v>
+      </c>
+      <c r="G35" t="s">
+        <v>29</v>
+      </c>
+      <c r="H35">
+        <v>8000</v>
+      </c>
+      <c r="I35">
+        <v>4000000</v>
+      </c>
+      <c r="J35">
+        <v>2000</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
         <v>100</v>
       </c>
     </row>

--- a/datasets/corporate-finance-data.xlsx
+++ b/datasets/corporate-finance-data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="147">
   <si>
     <t>상장일</t>
   </si>
@@ -69,6 +69,9 @@
     <t>총기관배정수량</t>
   </si>
   <si>
+    <t>2023-11-15</t>
+  </si>
+  <si>
     <t>2023-11-09</t>
   </si>
   <si>
@@ -126,6 +129,9 @@
     <t>2023-09-25</t>
   </si>
   <si>
+    <t>캡스톤파트너스</t>
+  </si>
+  <si>
     <t>큐로셀</t>
   </si>
   <si>
@@ -204,6 +210,9 @@
     <t>코스피</t>
   </si>
   <si>
+    <t>NH</t>
+  </si>
+  <si>
     <t>미래</t>
   </si>
   <si>
@@ -216,9 +225,6 @@
     <t>KB</t>
   </si>
   <si>
-    <t>NH</t>
-  </si>
-  <si>
     <t>대신</t>
   </si>
   <si>
@@ -255,18 +261,21 @@
     <t>-</t>
   </si>
   <si>
+    <t>대표</t>
+  </si>
+  <si>
     <t>공동대표</t>
   </si>
   <si>
-    <t>대표</t>
-  </si>
-  <si>
     <t>공동</t>
   </si>
   <si>
     <t>인수</t>
   </si>
   <si>
+    <t>2023-11-06</t>
+  </si>
+  <si>
     <t>2023-10-31</t>
   </si>
   <si>
@@ -294,9 +303,6 @@
     <t>2023-09-14</t>
   </si>
   <si>
-    <t>2023-11-06</t>
-  </si>
-  <si>
     <t>2023-10-11</t>
   </si>
   <si>
@@ -361,6 +367,9 @@
   </si>
   <si>
     <t>한국, 미래</t>
+  </si>
+  <si>
+    <t>1345.6 : 1</t>
   </si>
   <si>
     <t>169.95 : 1</t>
@@ -805,7 +814,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -869,90 +878,90 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D2">
-        <v>320</v>
+        <v>63.84</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F2">
-        <v>160</v>
+        <v>63.84</v>
       </c>
       <c r="G2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M2">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="N2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="O2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Q2">
-        <v>2254770</v>
+        <v>1197000</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D3">
         <v>320</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F3">
         <v>160</v>
       </c>
       <c r="G3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M3">
         <v>20000</v>
@@ -961,10 +970,10 @@
         <v>50</v>
       </c>
       <c r="O3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q3">
         <v>2254770</v>
@@ -975,105 +984,105 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D4">
-        <v>659.0825</v>
+        <v>320</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F4">
-        <v>659.0825</v>
+        <v>160</v>
       </c>
       <c r="G4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M4">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="N4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O4" t="s">
+        <v>86</v>
+      </c>
+      <c r="P4" t="s">
         <v>23</v>
       </c>
-      <c r="P4" t="s">
-        <v>21</v>
-      </c>
       <c r="Q4">
-        <v>1827247</v>
+        <v>2254770</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D5">
-        <v>80</v>
+        <v>659.0825</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F5">
-        <v>80</v>
+        <v>659.0825</v>
       </c>
       <c r="G5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M5">
-        <v>2000</v>
+        <v>25000</v>
       </c>
       <c r="N5">
         <v>100</v>
       </c>
       <c r="O5" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="P5" t="s">
-        <v>92</v>
+        <v>22</v>
       </c>
       <c r="Q5">
-        <v>3000000</v>
+        <v>1827247</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1081,52 +1090,52 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D6">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="E6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F6">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M6">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="N6">
         <v>100</v>
       </c>
       <c r="O6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="Q6">
-        <v>4550000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1134,211 +1143,211 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D7">
-        <v>249.6</v>
+        <v>126</v>
       </c>
       <c r="E7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F7">
-        <v>249.6</v>
+        <v>126</v>
       </c>
       <c r="G7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M7">
-        <v>4800</v>
+        <v>1800</v>
       </c>
       <c r="N7">
         <v>100</v>
       </c>
       <c r="O7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="Q7">
-        <v>3900000</v>
+        <v>4550000</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D8">
-        <v>463.5</v>
+        <v>249.6</v>
       </c>
       <c r="E8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F8">
-        <v>463.5</v>
+        <v>249.6</v>
       </c>
       <c r="G8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M8">
-        <v>22500</v>
+        <v>4800</v>
       </c>
       <c r="N8">
         <v>100</v>
       </c>
       <c r="O8" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q8">
-        <v>1545000</v>
+        <v>3900000</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D9">
-        <v>156</v>
+        <v>463.5</v>
       </c>
       <c r="E9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F9">
-        <v>156</v>
+        <v>463.5</v>
       </c>
       <c r="G9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M9">
-        <v>13000</v>
+        <v>22500</v>
       </c>
       <c r="N9">
         <v>100</v>
       </c>
       <c r="O9" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q9">
-        <v>840000</v>
+        <v>1545000</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D10">
-        <v>270</v>
+        <v>156</v>
       </c>
       <c r="E10" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F10">
-        <v>270</v>
+        <v>156</v>
       </c>
       <c r="G10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M10">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="N10">
         <v>100</v>
       </c>
       <c r="O10" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="Q10">
-        <v>2600000</v>
+        <v>840000</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1346,52 +1355,52 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D11">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="E11" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F11">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="G11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M11">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="N11">
         <v>100</v>
       </c>
       <c r="O11" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="P11" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="Q11">
-        <v>9375000</v>
+        <v>2600000</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1399,105 +1408,105 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D12">
-        <v>178.41194</v>
+        <v>250</v>
       </c>
       <c r="E12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F12">
-        <v>178.41194</v>
+        <v>250</v>
       </c>
       <c r="G12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M12">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="N12">
         <v>100</v>
       </c>
       <c r="O12" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P12" t="s">
         <v>25</v>
       </c>
       <c r="Q12">
-        <v>787111</v>
+        <v>9375000</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D13">
-        <v>49.66368</v>
+        <v>178.41194</v>
       </c>
       <c r="E13" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F13">
-        <v>49.66368</v>
+        <v>178.41194</v>
       </c>
       <c r="G13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M13">
-        <v>4400</v>
+        <v>17000</v>
       </c>
       <c r="N13">
         <v>100</v>
       </c>
       <c r="O13" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q13">
-        <v>846540</v>
+        <v>787111</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1505,52 +1514,52 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D14">
-        <v>306</v>
+        <v>49.66368</v>
       </c>
       <c r="E14" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F14">
-        <v>306</v>
+        <v>49.66368</v>
       </c>
       <c r="G14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M14">
-        <v>17000</v>
+        <v>4400</v>
       </c>
       <c r="N14">
         <v>100</v>
       </c>
       <c r="O14" t="s">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="P14" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="Q14">
-        <v>1119600</v>
+        <v>846540</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1558,52 +1567,52 @@
         <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D15">
-        <v>260</v>
+        <v>306</v>
       </c>
       <c r="E15" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F15">
-        <v>260</v>
+        <v>306</v>
       </c>
       <c r="G15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M15">
-        <v>6500</v>
+        <v>17000</v>
       </c>
       <c r="N15">
         <v>100</v>
       </c>
       <c r="O15" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="P15" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="Q15">
-        <v>2880000</v>
+        <v>1119600</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1611,52 +1620,52 @@
         <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D16">
-        <v>53.9</v>
+        <v>260</v>
       </c>
       <c r="E16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F16">
-        <v>53.9</v>
+        <v>260</v>
       </c>
       <c r="G16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M16">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="N16">
         <v>100</v>
       </c>
       <c r="O16" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="P16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q16">
-        <v>577500</v>
+        <v>2880000</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1664,52 +1673,52 @@
         <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D17">
-        <v>520</v>
+        <v>53.9</v>
       </c>
       <c r="E17" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="F17">
-        <v>520</v>
+        <v>53.9</v>
       </c>
       <c r="G17" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H17" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I17" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J17" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L17" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M17">
-        <v>26000</v>
+        <v>7000</v>
       </c>
       <c r="N17">
         <v>100</v>
       </c>
       <c r="O17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q17">
-        <v>1300000</v>
+        <v>577500</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1717,52 +1726,52 @@
         <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D18">
-        <v>442.659</v>
+        <v>520</v>
       </c>
       <c r="E18" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F18">
-        <v>442.659</v>
+        <v>520</v>
       </c>
       <c r="G18" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H18" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I18" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J18" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L18" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M18">
-        <v>10700</v>
+        <v>26000</v>
       </c>
       <c r="N18">
         <v>100</v>
       </c>
       <c r="O18" t="s">
+        <v>34</v>
+      </c>
+      <c r="P18" t="s">
         <v>30</v>
       </c>
-      <c r="P18" t="s">
-        <v>93</v>
-      </c>
       <c r="Q18">
-        <v>3102750</v>
+        <v>1300000</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1770,52 +1779,52 @@
         <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D19">
-        <v>80</v>
+        <v>442.659</v>
       </c>
       <c r="E19" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F19">
-        <v>80</v>
+        <v>442.659</v>
       </c>
       <c r="G19" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H19" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I19" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J19" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L19" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M19">
-        <v>2000</v>
+        <v>10700</v>
       </c>
       <c r="N19">
         <v>100</v>
       </c>
       <c r="O19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="P19" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="Q19">
-        <v>3000000</v>
+        <v>3102750</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1823,90 +1832,90 @@
         <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20">
-        <v>4212</v>
+        <v>80</v>
       </c>
       <c r="E20" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="F20">
-        <v>1263.6</v>
+        <v>80</v>
       </c>
       <c r="G20" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H20" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I20" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J20" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K20" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L20" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M20">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="N20">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="O20" t="s">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="P20" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="Q20">
-        <v>87871545</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D21">
         <v>4212</v>
       </c>
       <c r="E21" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F21">
         <v>1263.6</v>
       </c>
       <c r="G21" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H21" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I21" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J21" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K21" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L21" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M21">
         <v>26000</v>
@@ -1915,10 +1924,10 @@
         <v>30</v>
       </c>
       <c r="O21" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P21" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q21">
         <v>87871545</v>
@@ -1926,52 +1935,52 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D22">
         <v>4212</v>
       </c>
       <c r="E22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F22">
-        <v>421.2</v>
+        <v>1263.6</v>
       </c>
       <c r="G22" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H22" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I22" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J22" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L22" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M22">
         <v>26000</v>
       </c>
       <c r="N22">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="O22" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q22">
         <v>87871545</v>
@@ -1979,40 +1988,40 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D23">
         <v>4212</v>
       </c>
       <c r="E23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F23">
         <v>421.2</v>
       </c>
       <c r="G23" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H23" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I23" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J23" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K23" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L23" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M23">
         <v>26000</v>
@@ -2021,10 +2030,10 @@
         <v>10</v>
       </c>
       <c r="O23" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P23" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q23">
         <v>87871545</v>
@@ -2032,40 +2041,40 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D24">
         <v>4212</v>
       </c>
       <c r="E24" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F24">
         <v>421.2</v>
       </c>
       <c r="G24" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H24" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I24" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J24" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K24" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L24" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M24">
         <v>26000</v>
@@ -2074,10 +2083,10 @@
         <v>10</v>
       </c>
       <c r="O24" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P24" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q24">
         <v>87871545</v>
@@ -2085,52 +2094,52 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D25">
         <v>4212</v>
       </c>
       <c r="E25" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F25">
-        <v>126.36</v>
+        <v>421.2</v>
       </c>
       <c r="G25" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H25" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I25" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J25" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K25" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L25" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M25">
         <v>26000</v>
       </c>
       <c r="N25">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="O25" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P25" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q25">
         <v>87871545</v>
@@ -2138,40 +2147,40 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D26">
         <v>4212</v>
       </c>
       <c r="E26" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F26">
         <v>126.36</v>
       </c>
       <c r="G26" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H26" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I26" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J26" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K26" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L26" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M26">
         <v>26000</v>
@@ -2180,10 +2189,10 @@
         <v>3</v>
       </c>
       <c r="O26" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P26" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q26">
         <v>87871545</v>
@@ -2191,40 +2200,40 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C27" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D27">
         <v>4212</v>
       </c>
       <c r="E27" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F27">
         <v>126.36</v>
       </c>
       <c r="G27" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H27" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I27" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J27" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K27" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L27" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M27">
         <v>26000</v>
@@ -2233,10 +2242,10 @@
         <v>3</v>
       </c>
       <c r="O27" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P27" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q27">
         <v>87871545</v>
@@ -2244,52 +2253,52 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C28" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D28">
         <v>4212</v>
       </c>
       <c r="E28" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F28">
-        <v>42.12</v>
+        <v>126.36</v>
       </c>
       <c r="G28" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H28" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I28" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J28" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K28" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L28" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M28">
         <v>26000</v>
       </c>
       <c r="N28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O28" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P28" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q28">
         <v>87871545</v>
@@ -2300,105 +2309,105 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D29">
-        <v>360</v>
+        <v>4212</v>
       </c>
       <c r="E29" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="F29">
-        <v>360</v>
+        <v>42.12</v>
       </c>
       <c r="G29" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H29" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I29" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J29" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K29" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L29" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M29">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="N29">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="O29" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P29" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q29">
-        <v>13500000</v>
+        <v>87871545</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D30">
-        <v>187.5</v>
+        <v>360</v>
       </c>
       <c r="E30" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F30">
-        <v>187.5</v>
+        <v>360</v>
       </c>
       <c r="G30" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H30" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I30" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J30" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K30" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L30" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M30">
-        <v>12500</v>
+        <v>2000</v>
       </c>
       <c r="N30">
         <v>100</v>
       </c>
       <c r="O30" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="P30" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q30">
-        <v>1020000</v>
+        <v>13500000</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2406,52 +2415,52 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C31" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D31">
-        <v>336</v>
+        <v>187.5</v>
       </c>
       <c r="E31" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F31">
-        <v>336</v>
+        <v>187.5</v>
       </c>
       <c r="G31" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H31" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I31" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J31" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K31" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L31" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M31">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="N31">
         <v>100</v>
       </c>
       <c r="O31" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="P31" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q31">
-        <v>1619200</v>
+        <v>1020000</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2459,102 +2468,102 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C32" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D32">
-        <v>221.2</v>
+        <v>336</v>
       </c>
       <c r="E32" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F32">
-        <v>154.84</v>
+        <v>336</v>
       </c>
       <c r="G32" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H32" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I32" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J32" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L32" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M32">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N32">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="O32" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P32" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="Q32">
-        <v>2370000</v>
+        <v>1619200</v>
       </c>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C33" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D33">
         <v>221.2</v>
       </c>
       <c r="E33" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F33">
-        <v>66.36</v>
+        <v>154.84</v>
       </c>
       <c r="G33" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H33" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I33" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J33" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L33" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M33">
         <v>14000</v>
       </c>
       <c r="N33">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="O33" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="P33" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Q33">
         <v>2370000</v>
@@ -2565,52 +2574,52 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C34" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D34">
-        <v>345</v>
+        <v>221.2</v>
       </c>
       <c r="E34" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="F34">
-        <v>345</v>
+        <v>66.36</v>
       </c>
       <c r="G34" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H34" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I34" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J34" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K34" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L34" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M34">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="N34">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="O34" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="P34" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Q34">
-        <v>1125000</v>
+        <v>2370000</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2618,51 +2627,104 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C35" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D35">
-        <v>264</v>
+        <v>345</v>
       </c>
       <c r="E35" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="F35">
-        <v>264</v>
+        <v>345</v>
       </c>
       <c r="G35" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H35" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I35" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J35" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L35" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M35">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="N35">
         <v>100</v>
       </c>
       <c r="O35" t="s">
+        <v>93</v>
+      </c>
+      <c r="P35" t="s">
         <v>91</v>
       </c>
-      <c r="P35" t="s">
-        <v>89</v>
-      </c>
       <c r="Q35">
+        <v>1125000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36">
+        <v>264</v>
+      </c>
+      <c r="E36" t="s">
+        <v>76</v>
+      </c>
+      <c r="F36">
+        <v>264</v>
+      </c>
+      <c r="G36" t="s">
+        <v>80</v>
+      </c>
+      <c r="H36" t="s">
+        <v>80</v>
+      </c>
+      <c r="I36" t="s">
+        <v>80</v>
+      </c>
+      <c r="J36" t="s">
+        <v>80</v>
+      </c>
+      <c r="K36" t="s">
+        <v>81</v>
+      </c>
+      <c r="L36" t="s">
+        <v>80</v>
+      </c>
+      <c r="M36">
+        <v>24000</v>
+      </c>
+      <c r="N36">
+        <v>100</v>
+      </c>
+      <c r="O36" t="s">
+        <v>94</v>
+      </c>
+      <c r="P36" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q36">
         <v>825000</v>
       </c>
     </row>
@@ -2673,7 +2735,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2684,10 +2746,10 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>15</v>
@@ -2696,618 +2758,618 @@
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>32000000</v>
+        <v>6384000</v>
       </c>
       <c r="G2">
-        <v>1600000</v>
+        <v>1596000</v>
       </c>
       <c r="H2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I2">
-        <v>29800</v>
+        <v>3200</v>
       </c>
       <c r="J2">
-        <v>33500</v>
+        <v>3600</v>
       </c>
       <c r="K2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L2">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="M2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="N2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="S2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" t="s">
         <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
       </c>
       <c r="F3">
-        <v>65908250</v>
+        <v>32000000</v>
       </c>
       <c r="G3">
-        <v>2636330</v>
+        <v>1600000</v>
       </c>
       <c r="H3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I3">
-        <v>19100</v>
+        <v>29800</v>
       </c>
       <c r="J3">
-        <v>21400</v>
+        <v>33500</v>
       </c>
       <c r="K3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L3">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="N3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="S3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4">
-        <v>8000000</v>
+        <v>65908250</v>
       </c>
       <c r="G4">
-        <v>4000000</v>
+        <v>2636330</v>
       </c>
       <c r="H4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I4">
-        <v>2000</v>
+        <v>19100</v>
       </c>
       <c r="J4">
-        <v>2000</v>
+        <v>21400</v>
       </c>
       <c r="K4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L4">
-        <v>2000</v>
+        <v>25000</v>
       </c>
       <c r="M4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="N4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="S4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E5" t="s">
         <v>19</v>
       </c>
       <c r="F5">
-        <v>12600000</v>
+        <v>8000000</v>
       </c>
       <c r="G5">
-        <v>7000000</v>
+        <v>4000000</v>
       </c>
       <c r="H5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I5">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="J5">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="K5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L5">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="M5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="N5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="S5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="E6" t="s">
         <v>20</v>
       </c>
       <c r="F6">
-        <v>24960000</v>
+        <v>12600000</v>
       </c>
       <c r="G6">
-        <v>5200000</v>
+        <v>7000000</v>
       </c>
       <c r="H6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I6">
-        <v>3500</v>
+        <v>1200</v>
       </c>
       <c r="J6">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="K6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L6">
-        <v>4800</v>
+        <v>1800</v>
       </c>
       <c r="M6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="N6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="S6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F7">
-        <v>46350000</v>
+        <v>24960000</v>
       </c>
       <c r="G7">
-        <v>2060000</v>
+        <v>5200000</v>
       </c>
       <c r="H7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I7">
-        <v>20300</v>
+        <v>3500</v>
       </c>
       <c r="J7">
-        <v>22500</v>
+        <v>4000</v>
       </c>
       <c r="K7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L7">
-        <v>22500</v>
+        <v>4800</v>
       </c>
       <c r="M7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="N7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O7">
-        <v>2.912621359223301</v>
+        <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="S7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F8">
-        <v>15600000</v>
+        <v>46350000</v>
       </c>
       <c r="G8">
-        <v>1200000</v>
+        <v>2060000</v>
       </c>
       <c r="H8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I8">
-        <v>9100</v>
+        <v>20300</v>
       </c>
       <c r="J8">
-        <v>11000</v>
+        <v>22500</v>
       </c>
       <c r="K8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L8">
-        <v>13000</v>
+        <v>22500</v>
       </c>
       <c r="M8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="N8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>2.912621359223301</v>
       </c>
       <c r="P8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="S8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D9" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F9">
-        <v>27000000</v>
+        <v>15600000</v>
       </c>
       <c r="G9">
-        <v>3600000</v>
+        <v>1200000</v>
       </c>
       <c r="H9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I9">
-        <v>5000</v>
+        <v>9100</v>
       </c>
       <c r="J9">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="K9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L9">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="M9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="N9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R9" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="S9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="E10" t="s">
         <v>22</v>
       </c>
       <c r="F10">
-        <v>25000000</v>
+        <v>27000000</v>
       </c>
       <c r="G10">
-        <v>12500000</v>
+        <v>3600000</v>
       </c>
       <c r="H10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I10">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="J10">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="K10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L10">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="M10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="N10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R10" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="S10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D11" t="s">
         <v>25</v>
@@ -3316,917 +3378,979 @@
         <v>23</v>
       </c>
       <c r="F11">
-        <v>17841194</v>
+        <v>25000000</v>
       </c>
       <c r="G11">
-        <v>1049482</v>
+        <v>12500000</v>
       </c>
       <c r="H11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I11">
-        <v>12800</v>
+        <v>2000</v>
       </c>
       <c r="J11">
-        <v>14500</v>
+        <v>2000</v>
       </c>
       <c r="K11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L11">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="M11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="N11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O11">
-        <v>9.999980942979489</v>
+        <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R11" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="S11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F12">
-        <v>4966368</v>
+        <v>17841194</v>
       </c>
       <c r="G12">
-        <v>1128720</v>
+        <v>1049482</v>
       </c>
       <c r="H12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I12">
-        <v>3300</v>
+        <v>12800</v>
       </c>
       <c r="J12">
-        <v>3900</v>
+        <v>14500</v>
       </c>
       <c r="K12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L12">
-        <v>4400</v>
+        <v>17000</v>
       </c>
       <c r="M12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="N12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>9.999980942979489</v>
       </c>
       <c r="P12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R12" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="S12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D13" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="E13" t="s">
         <v>24</v>
       </c>
       <c r="F13">
-        <v>30600000</v>
+        <v>4966368</v>
       </c>
       <c r="G13">
-        <v>1800000</v>
+        <v>1128720</v>
       </c>
       <c r="H13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I13">
-        <v>13000</v>
+        <v>3300</v>
       </c>
       <c r="J13">
-        <v>15000</v>
+        <v>3900</v>
       </c>
       <c r="K13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L13">
-        <v>17000</v>
+        <v>4400</v>
       </c>
       <c r="M13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="N13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R13" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="S13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="E14" t="s">
         <v>25</v>
       </c>
       <c r="F14">
-        <v>26000000</v>
+        <v>30600000</v>
       </c>
       <c r="G14">
-        <v>4000000</v>
+        <v>1800000</v>
       </c>
       <c r="H14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I14">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="J14">
-        <v>5600</v>
+        <v>15000</v>
       </c>
       <c r="K14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L14">
-        <v>6500</v>
+        <v>17000</v>
       </c>
       <c r="M14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="N14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R14" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="S14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E15" t="s">
         <v>26</v>
       </c>
       <c r="F15">
-        <v>5390000</v>
+        <v>26000000</v>
       </c>
       <c r="G15">
-        <v>770000</v>
+        <v>4000000</v>
       </c>
       <c r="H15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I15">
-        <v>8200</v>
+        <v>5000</v>
       </c>
       <c r="J15">
-        <v>9400</v>
+        <v>5600</v>
       </c>
       <c r="K15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L15">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="M15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="N15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R15" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="S15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E16" t="s">
         <v>27</v>
       </c>
       <c r="F16">
-        <v>52000000</v>
+        <v>5390000</v>
       </c>
       <c r="G16">
-        <v>2000000</v>
+        <v>770000</v>
       </c>
       <c r="H16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I16">
-        <v>22000</v>
+        <v>8200</v>
       </c>
       <c r="J16">
-        <v>25000</v>
+        <v>9400</v>
       </c>
       <c r="K16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L16">
-        <v>26000</v>
+        <v>7000</v>
       </c>
       <c r="M16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="N16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R16" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="S16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" t="s">
         <v>30</v>
-      </c>
-      <c r="B17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" t="s">
-        <v>93</v>
       </c>
       <c r="E17" t="s">
         <v>28</v>
       </c>
       <c r="F17">
-        <v>44265900</v>
+        <v>52000000</v>
       </c>
       <c r="G17">
-        <v>4137000</v>
+        <v>2000000</v>
       </c>
       <c r="H17" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I17">
-        <v>8800</v>
+        <v>22000</v>
       </c>
       <c r="J17">
-        <v>10700</v>
+        <v>25000</v>
       </c>
       <c r="K17" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L17">
-        <v>10700</v>
+        <v>26000</v>
       </c>
       <c r="M17" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="N17" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O17">
-        <v>30.21513173797438</v>
+        <v>0</v>
       </c>
       <c r="P17" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q17" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R17" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="S17" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T17" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="E18" t="s">
         <v>29</v>
       </c>
       <c r="F18">
-        <v>8000000</v>
+        <v>44265900</v>
       </c>
       <c r="G18">
-        <v>4000000</v>
+        <v>4137000</v>
       </c>
       <c r="H18" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I18">
-        <v>2000</v>
+        <v>8800</v>
       </c>
       <c r="J18">
-        <v>2000</v>
+        <v>10700</v>
       </c>
       <c r="K18" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L18">
-        <v>2000</v>
+        <v>10700</v>
       </c>
       <c r="M18" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="N18" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>30.21513173797438</v>
       </c>
       <c r="P18" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q18" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R18" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="S18" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T18" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C19" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="D19" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="E19" t="s">
         <v>30</v>
       </c>
       <c r="F19">
-        <v>421200000</v>
+        <v>8000000</v>
       </c>
       <c r="G19">
-        <v>16200000</v>
+        <v>4000000</v>
       </c>
       <c r="H19" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I19">
-        <v>21000</v>
+        <v>2000</v>
       </c>
       <c r="J19">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="K19" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L19">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="M19" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="N19" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q19" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R19" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="S19" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T19" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="D20" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E20" t="s">
         <v>31</v>
       </c>
       <c r="F20">
-        <v>36000000</v>
+        <v>421200000</v>
       </c>
       <c r="G20">
-        <v>18000000</v>
+        <v>16200000</v>
       </c>
       <c r="H20" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I20">
-        <v>2000</v>
+        <v>21000</v>
       </c>
       <c r="J20">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="K20" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L20">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="M20" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="N20" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q20" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R20" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="S20" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T20" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D21" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F21">
-        <v>18750000</v>
+        <v>36000000</v>
       </c>
       <c r="G21">
-        <v>1500000</v>
+        <v>18000000</v>
       </c>
       <c r="H21" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I21">
-        <v>8900</v>
+        <v>2000</v>
       </c>
       <c r="J21">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="K21" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L21">
-        <v>12500</v>
+        <v>2000</v>
       </c>
       <c r="M21" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="N21" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q21" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R21" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="S21" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T21" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D22" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E22" t="s">
         <v>32</v>
       </c>
       <c r="F22">
-        <v>33600000</v>
+        <v>18750000</v>
       </c>
       <c r="G22">
-        <v>2240000</v>
+        <v>1500000</v>
       </c>
       <c r="H22" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I22">
-        <v>11500</v>
+        <v>8900</v>
       </c>
       <c r="J22">
-        <v>13200</v>
+        <v>11000</v>
       </c>
       <c r="K22" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L22">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="M22" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="N22" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O22">
-        <v>26.78571428571428</v>
+        <v>0</v>
       </c>
       <c r="P22" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q22" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R22" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="S22" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T22" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C23" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D23" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="E23" t="s">
         <v>33</v>
       </c>
       <c r="F23">
-        <v>22120000</v>
+        <v>33600000</v>
       </c>
       <c r="G23">
-        <v>1580000</v>
+        <v>2240000</v>
       </c>
       <c r="H23" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I23">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="J23">
-        <v>12000</v>
+        <v>13200</v>
       </c>
       <c r="K23" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L23">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M23" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="N23" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>26.78571428571428</v>
       </c>
       <c r="P23" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q23" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R23" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="S23" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T23" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="D24" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E24" t="s">
         <v>34</v>
       </c>
       <c r="F24">
-        <v>34500000</v>
+        <v>22120000</v>
       </c>
       <c r="G24">
-        <v>1500000</v>
+        <v>1580000</v>
       </c>
       <c r="H24" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I24">
-        <v>20000</v>
+        <v>10500</v>
       </c>
       <c r="J24">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="K24" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L24">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="M24" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="N24" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q24" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R24" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="S24" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T24" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" t="s">
         <v>91</v>
-      </c>
-      <c r="B25" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" t="s">
-        <v>89</v>
       </c>
       <c r="E25" t="s">
         <v>35</v>
       </c>
       <c r="F25">
-        <v>26400000</v>
+        <v>34500000</v>
       </c>
       <c r="G25">
-        <v>1100000</v>
+        <v>1500000</v>
       </c>
       <c r="H25" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I25">
         <v>20000</v>
       </c>
       <c r="J25">
+        <v>23000</v>
+      </c>
+      <c r="K25" t="s">
+        <v>80</v>
+      </c>
+      <c r="L25">
+        <v>23000</v>
+      </c>
+      <c r="M25" t="s">
+        <v>80</v>
+      </c>
+      <c r="N25" t="s">
+        <v>80</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>80</v>
+      </c>
+      <c r="R25" t="s">
+        <v>140</v>
+      </c>
+      <c r="S25" t="s">
+        <v>80</v>
+      </c>
+      <c r="T25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26">
+        <v>26400000</v>
+      </c>
+      <c r="G26">
+        <v>1100000</v>
+      </c>
+      <c r="H26" t="s">
+        <v>80</v>
+      </c>
+      <c r="I26">
+        <v>20000</v>
+      </c>
+      <c r="J26">
         <v>24000</v>
       </c>
-      <c r="K25" t="s">
-        <v>78</v>
-      </c>
-      <c r="L25">
+      <c r="K26" t="s">
+        <v>80</v>
+      </c>
+      <c r="L26">
         <v>24000</v>
       </c>
-      <c r="M25" t="s">
-        <v>78</v>
-      </c>
-      <c r="N25" t="s">
-        <v>78</v>
-      </c>
-      <c r="O25">
+      <c r="M26" t="s">
+        <v>80</v>
+      </c>
+      <c r="N26" t="s">
+        <v>80</v>
+      </c>
+      <c r="O26">
         <v>18.18181818181818</v>
       </c>
-      <c r="P25" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>78</v>
-      </c>
-      <c r="R25" t="s">
-        <v>138</v>
-      </c>
-      <c r="S25" t="s">
-        <v>78</v>
-      </c>
-      <c r="T25" t="s">
-        <v>78</v>
+      <c r="P26" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>80</v>
+      </c>
+      <c r="R26" t="s">
+        <v>141</v>
+      </c>
+      <c r="S26" t="s">
+        <v>80</v>
+      </c>
+      <c r="T26" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -4236,7 +4360,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4244,16 +4368,16 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -4265,10 +4389,10 @@
         <v>0</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>12</v>
@@ -4277,30 +4401,30 @@
         <v>6</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H2">
         <v>42120</v>
@@ -4320,25 +4444,25 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H3">
         <v>15600</v>
@@ -4358,25 +4482,25 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H4">
         <v>18750</v>
@@ -4396,25 +4520,25 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E5" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H5">
         <v>42120</v>
@@ -4434,25 +4558,25 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F6" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H6">
         <v>12600</v>
@@ -4472,25 +4596,25 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H7">
         <v>27000</v>
@@ -4510,25 +4634,25 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H8">
         <v>25000</v>
@@ -4548,34 +4672,34 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H9">
-        <v>24960</v>
+        <v>6384</v>
       </c>
       <c r="I9">
-        <v>5200000</v>
+        <v>1596000</v>
       </c>
       <c r="J9">
-        <v>4800</v>
+        <v>4000</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -4586,110 +4710,110 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="E10" t="s">
-        <v>66</v>
+        <v>145</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="G10" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H10">
-        <v>17841.194</v>
+        <v>42120</v>
       </c>
       <c r="I10">
-        <v>1049482</v>
+        <v>16200000</v>
       </c>
       <c r="J10">
-        <v>17000</v>
+        <v>26000</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>142</v>
+        <v>64</v>
       </c>
       <c r="F11" t="s">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H11">
-        <v>42120</v>
+        <v>24960</v>
       </c>
       <c r="I11">
-        <v>16200000</v>
+        <v>5200000</v>
       </c>
       <c r="J11">
-        <v>26000</v>
+        <v>4800</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F12" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G12" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H12">
-        <v>46350</v>
+        <v>17841.194</v>
       </c>
       <c r="I12">
-        <v>2060000</v>
+        <v>1049482</v>
       </c>
       <c r="J12">
-        <v>22500</v>
+        <v>17000</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -4700,63 +4824,63 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="E13" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H13">
-        <v>16000</v>
+        <v>46350</v>
       </c>
       <c r="I13">
-        <v>1600000</v>
+        <v>2060000</v>
       </c>
       <c r="J13">
-        <v>20000</v>
+        <v>22500</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E14" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F14" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H14">
         <v>126360</v>
@@ -4776,25 +4900,25 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B15" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F15" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H15">
         <v>34500</v>
@@ -4814,25 +4938,25 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E16" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H16">
         <v>52000</v>
@@ -4852,25 +4976,25 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E17" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F17" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H17">
         <v>44265.9</v>
@@ -4890,224 +5014,224 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D18" t="s">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="E18" t="s">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="F18" t="s">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="G18" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="H18">
-        <v>33600</v>
+        <v>16000</v>
       </c>
       <c r="I18">
-        <v>2240000</v>
+        <v>1600000</v>
       </c>
       <c r="J18">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B19" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="D19" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="E19" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="F19" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="G19" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="H19">
-        <v>16000</v>
+        <v>33600</v>
       </c>
       <c r="I19">
-        <v>1600000</v>
+        <v>2240000</v>
       </c>
       <c r="J19">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" t="s">
+        <v>115</v>
+      </c>
+      <c r="E20" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" t="s">
         <v>23</v>
-      </c>
-      <c r="C20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" t="s">
-        <v>63</v>
-      </c>
-      <c r="F20" t="s">
-        <v>21</v>
       </c>
       <c r="G20" t="s">
         <v>18</v>
       </c>
       <c r="H20">
-        <v>65908.25</v>
+        <v>16000</v>
       </c>
       <c r="I20">
-        <v>2636330</v>
+        <v>1600000</v>
       </c>
       <c r="J20">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B21" t="s">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D21" t="s">
-        <v>114</v>
+        <v>66</v>
       </c>
       <c r="E21" t="s">
-        <v>142</v>
+        <v>66</v>
       </c>
       <c r="F21" t="s">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="G21" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H21">
-        <v>12636</v>
+        <v>65908.25</v>
       </c>
       <c r="I21">
-        <v>16200000</v>
+        <v>2636330</v>
       </c>
       <c r="J21">
-        <v>26000</v>
+        <v>25000</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B22" t="s">
         <v>91</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D22" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="E22" t="s">
-        <v>74</v>
+        <v>145</v>
       </c>
       <c r="F22" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G22" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H22">
-        <v>26400</v>
+        <v>12636</v>
       </c>
       <c r="I22">
-        <v>1100000</v>
+        <v>16200000</v>
       </c>
       <c r="J22">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B23" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D23" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E23" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="F23" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G23" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H23">
-        <v>36000</v>
+        <v>26400</v>
       </c>
       <c r="I23">
-        <v>18000000</v>
+        <v>1100000</v>
       </c>
       <c r="J23">
-        <v>2000</v>
+        <v>24000</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -5118,25 +5242,25 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D24" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E24" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H24">
         <v>4966.368</v>
@@ -5156,104 +5280,104 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B25" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D25" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="E25" t="s">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="F25" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G25" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H25">
-        <v>4212</v>
+        <v>36000</v>
       </c>
       <c r="I25">
-        <v>16200000</v>
+        <v>18000000</v>
       </c>
       <c r="J25">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B26" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D26" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="E26" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F26" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H26">
-        <v>15484</v>
+        <v>4212</v>
       </c>
       <c r="I26">
-        <v>1580000</v>
+        <v>16200000</v>
       </c>
       <c r="J26">
-        <v>14000</v>
+        <v>26000</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26">
-        <v>70</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B27" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D27" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E27" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F27" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H27">
-        <v>6636</v>
+        <v>15484</v>
       </c>
       <c r="I27">
         <v>1580000</v>
@@ -5265,115 +5389,115 @@
         <v>0</v>
       </c>
       <c r="L27">
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="B28" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C28" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D28" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="E28" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F28" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G28" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H28">
-        <v>12636</v>
+        <v>6636</v>
       </c>
       <c r="I28">
-        <v>16200000</v>
+        <v>1580000</v>
       </c>
       <c r="J28">
-        <v>26000</v>
+        <v>14000</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B29" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C29" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D29" t="s">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c r="E29" t="s">
-        <v>70</v>
+        <v>145</v>
       </c>
       <c r="F29" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="G29" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H29">
+        <v>12636</v>
+      </c>
+      <c r="I29">
+        <v>16200000</v>
+      </c>
+      <c r="J29">
         <v>26000</v>
-      </c>
-      <c r="I29">
-        <v>4000000</v>
-      </c>
-      <c r="J29">
-        <v>6500</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="C30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D30" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E30" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G30" t="s">
         <v>26</v>
       </c>
       <c r="H30">
-        <v>5390</v>
+        <v>26000</v>
       </c>
       <c r="I30">
-        <v>770000</v>
+        <v>4000000</v>
       </c>
       <c r="J30">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -5384,177 +5508,177 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B31" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D31" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="E31" t="s">
-        <v>142</v>
+        <v>73</v>
       </c>
       <c r="F31" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="G31" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H31">
-        <v>12636</v>
+        <v>5390</v>
       </c>
       <c r="I31">
-        <v>16200000</v>
+        <v>770000</v>
       </c>
       <c r="J31">
-        <v>26000</v>
+        <v>7000</v>
       </c>
       <c r="K31">
         <v>0</v>
       </c>
       <c r="L31">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B32" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C32" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D32" t="s">
-        <v>64</v>
+        <v>116</v>
       </c>
       <c r="E32" t="s">
-        <v>64</v>
+        <v>145</v>
       </c>
       <c r="F32" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G32" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="H32">
-        <v>8000</v>
+        <v>12636</v>
       </c>
       <c r="I32">
-        <v>4000000</v>
+        <v>16200000</v>
       </c>
       <c r="J32">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="K32">
         <v>0</v>
       </c>
       <c r="L32">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B33" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="C33" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D33" t="s">
-        <v>64</v>
+        <v>116</v>
       </c>
       <c r="E33" t="s">
-        <v>64</v>
+        <v>145</v>
       </c>
       <c r="F33" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="G33" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H33">
-        <v>30600</v>
+        <v>126360</v>
       </c>
       <c r="I33">
-        <v>1800000</v>
+        <v>16200000</v>
       </c>
       <c r="J33">
-        <v>17000</v>
+        <v>26000</v>
       </c>
       <c r="K33">
         <v>0</v>
       </c>
       <c r="L33">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B34" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="C34" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D34" t="s">
-        <v>114</v>
+        <v>67</v>
       </c>
       <c r="E34" t="s">
-        <v>142</v>
+        <v>67</v>
       </c>
       <c r="F34" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G34" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H34">
-        <v>126360</v>
+        <v>30600</v>
       </c>
       <c r="I34">
-        <v>16200000</v>
+        <v>1800000</v>
       </c>
       <c r="J34">
-        <v>26000</v>
+        <v>17000</v>
       </c>
       <c r="K34">
         <v>0</v>
       </c>
       <c r="L34">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="C35" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D35" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E35" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F35" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="G35" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H35">
         <v>8000</v>
@@ -5569,6 +5693,44 @@
         <v>0</v>
       </c>
       <c r="L35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" t="s">
+        <v>74</v>
+      </c>
+      <c r="E36" t="s">
+        <v>74</v>
+      </c>
+      <c r="F36" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36" t="s">
+        <v>30</v>
+      </c>
+      <c r="H36">
+        <v>8000</v>
+      </c>
+      <c r="I36">
+        <v>4000000</v>
+      </c>
+      <c r="J36">
+        <v>2000</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
         <v>100</v>
       </c>
     </row>

--- a/datasets/corporate-finance-data.xlsx
+++ b/datasets/corporate-finance-data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="150">
   <si>
     <t>상장일</t>
   </si>
@@ -69,6 +69,9 @@
     <t>총기관배정수량</t>
   </si>
   <si>
+    <t>2023-11-17</t>
+  </si>
+  <si>
     <t>2023-11-15</t>
   </si>
   <si>
@@ -126,171 +129,177 @@
     <t>2023-09-27</t>
   </si>
   <si>
+    <t>에코프로머티</t>
+  </si>
+  <si>
+    <t>캡스톤파트너스</t>
+  </si>
+  <si>
+    <t>큐로셀</t>
+  </si>
+  <si>
+    <t>에이직랜드</t>
+  </si>
+  <si>
+    <t>한국제13호스팩</t>
+  </si>
+  <si>
+    <t>에스와이스틸텍</t>
+  </si>
+  <si>
+    <t>메가터치</t>
+  </si>
+  <si>
+    <t>컨텍</t>
+  </si>
+  <si>
+    <t>비아이매트릭스</t>
+  </si>
+  <si>
+    <t>쏘닉스</t>
+  </si>
+  <si>
+    <t>KB제27호스팩</t>
+  </si>
+  <si>
+    <t>유진테크놀로지</t>
+  </si>
+  <si>
+    <t>유투바이오</t>
+  </si>
+  <si>
+    <t>퀄리타스반도체</t>
+  </si>
+  <si>
+    <t>워트</t>
+  </si>
+  <si>
+    <t>에스엘에스바이오</t>
+  </si>
+  <si>
+    <t>신성에스티</t>
+  </si>
+  <si>
+    <t>퓨릿</t>
+  </si>
+  <si>
+    <t>에이치엠씨제6호스팩</t>
+  </si>
+  <si>
+    <t>두산로보틱스</t>
+  </si>
+  <si>
+    <t>신한제11호스팩</t>
+  </si>
+  <si>
+    <t>한싹</t>
+  </si>
+  <si>
+    <t>레뷰코퍼레이션</t>
+  </si>
+  <si>
+    <t>아이엠티</t>
+  </si>
+  <si>
+    <t>밀리의서재</t>
+  </si>
+  <si>
+    <t>코스피</t>
+  </si>
+  <si>
+    <t>코스닥</t>
+  </si>
+  <si>
+    <t>미래</t>
+  </si>
+  <si>
+    <t>NH</t>
+  </si>
+  <si>
+    <t>하이</t>
+  </si>
+  <si>
+    <t>삼성</t>
+  </si>
+  <si>
+    <t>한국</t>
+  </si>
+  <si>
+    <t>KB</t>
+  </si>
+  <si>
+    <t>대신</t>
+  </si>
+  <si>
+    <t>IBK</t>
+  </si>
+  <si>
+    <t>신한</t>
+  </si>
+  <si>
+    <t>키움</t>
+  </si>
+  <si>
+    <t>하나</t>
+  </si>
+  <si>
+    <t>현대차</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>신영</t>
+  </si>
+  <si>
+    <t>유비에스</t>
+  </si>
+  <si>
+    <t>유안타</t>
+  </si>
+  <si>
+    <t>유진</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>대표</t>
+  </si>
+  <si>
+    <t>공동</t>
+  </si>
+  <si>
+    <t>인수</t>
+  </si>
+  <si>
+    <t>공동대표</t>
+  </si>
+  <si>
+    <t>2023-11-08</t>
+  </si>
+  <si>
+    <t>2023-11-06</t>
+  </si>
+  <si>
+    <t>2023-10-31</t>
+  </si>
+  <si>
+    <t>2023-11-01</t>
+  </si>
+  <si>
+    <t>2023-10-24</t>
+  </si>
+  <si>
+    <t>2023-10-23</t>
+  </si>
+  <si>
+    <t>2023-10-16</t>
+  </si>
+  <si>
     <t>2023-09-25</t>
   </si>
   <si>
-    <t>캡스톤파트너스</t>
-  </si>
-  <si>
-    <t>큐로셀</t>
-  </si>
-  <si>
-    <t>에이직랜드</t>
-  </si>
-  <si>
-    <t>한국제13호스팩</t>
-  </si>
-  <si>
-    <t>에스와이스틸텍</t>
-  </si>
-  <si>
-    <t>메가터치</t>
-  </si>
-  <si>
-    <t>컨텍</t>
-  </si>
-  <si>
-    <t>비아이매트릭스</t>
-  </si>
-  <si>
-    <t>쏘닉스</t>
-  </si>
-  <si>
-    <t>KB제27호스팩</t>
-  </si>
-  <si>
-    <t>유진테크놀로지</t>
-  </si>
-  <si>
-    <t>유투바이오</t>
-  </si>
-  <si>
-    <t>퀄리타스반도체</t>
-  </si>
-  <si>
-    <t>워트</t>
-  </si>
-  <si>
-    <t>에스엘에스바이오</t>
-  </si>
-  <si>
-    <t>신성에스티</t>
-  </si>
-  <si>
-    <t>퓨릿</t>
-  </si>
-  <si>
-    <t>에이치엠씨제6호스팩</t>
-  </si>
-  <si>
-    <t>두산로보틱스</t>
-  </si>
-  <si>
-    <t>신한제11호스팩</t>
-  </si>
-  <si>
-    <t>한싹</t>
-  </si>
-  <si>
-    <t>레뷰코퍼레이션</t>
-  </si>
-  <si>
-    <t>아이엠티</t>
-  </si>
-  <si>
-    <t>밀리의서재</t>
-  </si>
-  <si>
-    <t>인스웨이브시스템즈</t>
-  </si>
-  <si>
-    <t>코스닥</t>
-  </si>
-  <si>
-    <t>코스피</t>
-  </si>
-  <si>
-    <t>NH</t>
-  </si>
-  <si>
-    <t>미래</t>
-  </si>
-  <si>
-    <t>삼성</t>
-  </si>
-  <si>
-    <t>한국</t>
-  </si>
-  <si>
-    <t>KB</t>
-  </si>
-  <si>
-    <t>대신</t>
-  </si>
-  <si>
-    <t>IBK</t>
-  </si>
-  <si>
-    <t>신한</t>
-  </si>
-  <si>
-    <t>키움</t>
-  </si>
-  <si>
-    <t>하나</t>
-  </si>
-  <si>
-    <t>현대차</t>
-  </si>
-  <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t>신영</t>
-  </si>
-  <si>
-    <t>유비에스</t>
-  </si>
-  <si>
-    <t>유안타</t>
-  </si>
-  <si>
-    <t>유진</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>대표</t>
-  </si>
-  <si>
-    <t>공동대표</t>
-  </si>
-  <si>
-    <t>공동</t>
-  </si>
-  <si>
-    <t>인수</t>
-  </si>
-  <si>
-    <t>2023-11-06</t>
-  </si>
-  <si>
-    <t>2023-10-31</t>
-  </si>
-  <si>
-    <t>2023-11-01</t>
-  </si>
-  <si>
-    <t>2023-10-24</t>
-  </si>
-  <si>
-    <t>2023-10-23</t>
-  </si>
-  <si>
-    <t>2023-10-16</t>
-  </si>
-  <si>
     <t>2023-09-21</t>
   </si>
   <si>
@@ -300,9 +309,6 @@
     <t>2023-09-18</t>
   </si>
   <si>
-    <t>2023-09-14</t>
-  </si>
-  <si>
     <t>2023-10-11</t>
   </si>
   <si>
@@ -369,6 +375,9 @@
     <t>한국, 미래</t>
   </si>
   <si>
+    <t>70.04 : 1</t>
+  </si>
+  <si>
     <t>1345.6 : 1</t>
   </si>
   <si>
@@ -441,9 +450,6 @@
     <t>449.56 : 1</t>
   </si>
   <si>
-    <t>619 : 1</t>
-  </si>
-  <si>
     <t>인수기관</t>
   </si>
   <si>
@@ -454,6 +460,9 @@
   </si>
   <si>
     <t>한국, 미래, NH, KB, CS, 키움, 신영, 하나, 유비에스리미티드(영업소)</t>
+  </si>
+  <si>
+    <t>미래, NH, 하이</t>
   </si>
   <si>
     <t>유안타, 유진</t>
@@ -814,7 +823,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -884,205 +893,205 @@
         <v>62</v>
       </c>
       <c r="D2">
-        <v>63.84</v>
+        <v>4192.2496</v>
       </c>
       <c r="E2" t="s">
         <v>64</v>
       </c>
       <c r="F2">
-        <v>63.84</v>
+        <v>2846.537406</v>
       </c>
       <c r="G2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M2">
-        <v>4000</v>
+        <v>36200</v>
       </c>
       <c r="N2">
-        <v>100</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="O2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Q2">
-        <v>1197000</v>
+        <v>19108320</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
         <v>62</v>
       </c>
       <c r="D3">
-        <v>320</v>
+        <v>4192.2496</v>
       </c>
       <c r="E3" t="s">
         <v>65</v>
       </c>
       <c r="F3">
-        <v>160</v>
+        <v>1219.944706</v>
       </c>
       <c r="G3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M3">
-        <v>20000</v>
+        <v>36200</v>
       </c>
       <c r="N3">
-        <v>50</v>
+        <v>29.1</v>
       </c>
       <c r="O3" t="s">
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Q3">
-        <v>2254770</v>
+        <v>19108320</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
         <v>62</v>
       </c>
       <c r="D4">
-        <v>320</v>
+        <v>4192.2496</v>
       </c>
       <c r="E4" t="s">
         <v>66</v>
       </c>
       <c r="F4">
-        <v>160</v>
+        <v>125.767488</v>
       </c>
       <c r="G4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M4">
-        <v>20000</v>
+        <v>36200</v>
       </c>
       <c r="N4">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="O4" t="s">
         <v>86</v>
       </c>
       <c r="P4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Q4">
-        <v>2254770</v>
+        <v>19108320</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D5">
-        <v>659.0825</v>
+        <v>63.84</v>
       </c>
       <c r="E5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F5">
-        <v>659.0825</v>
+        <v>63.84</v>
       </c>
       <c r="G5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M5">
-        <v>25000</v>
+        <v>4000</v>
       </c>
       <c r="N5">
         <v>100</v>
       </c>
       <c r="O5" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="P5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Q5">
-        <v>1827247</v>
+        <v>1197000</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1090,264 +1099,264 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D6">
-        <v>80</v>
+        <v>320</v>
       </c>
       <c r="E6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F6">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="G6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M6">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="N6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P6" t="s">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="Q6">
-        <v>3000000</v>
+        <v>2254770</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D7">
-        <v>126</v>
+        <v>320</v>
       </c>
       <c r="E7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F7">
-        <v>126</v>
+        <v>160</v>
       </c>
       <c r="G7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M7">
-        <v>1800</v>
+        <v>20000</v>
       </c>
       <c r="N7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="Q7">
-        <v>4550000</v>
+        <v>2254770</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D8">
-        <v>249.6</v>
+        <v>659.0825</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F8">
-        <v>249.6</v>
+        <v>659.0825</v>
       </c>
       <c r="G8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M8">
-        <v>4800</v>
+        <v>25000</v>
       </c>
       <c r="N8">
         <v>100</v>
       </c>
       <c r="O8" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="P8" t="s">
         <v>23</v>
       </c>
       <c r="Q8">
-        <v>3900000</v>
+        <v>1827247</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D9">
-        <v>463.5</v>
+        <v>80</v>
       </c>
       <c r="E9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F9">
-        <v>463.5</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M9">
-        <v>22500</v>
+        <v>2000</v>
       </c>
       <c r="N9">
         <v>100</v>
       </c>
       <c r="O9" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="Q9">
-        <v>1545000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D10">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="E10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F10">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="G10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M10">
-        <v>13000</v>
+        <v>1800</v>
       </c>
       <c r="N10">
         <v>100</v>
       </c>
       <c r="O10" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="Q10">
-        <v>840000</v>
+        <v>4550000</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1355,93 +1364,93 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D11">
-        <v>270</v>
+        <v>249.6</v>
       </c>
       <c r="E11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F11">
-        <v>270</v>
+        <v>249.6</v>
       </c>
       <c r="G11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M11">
-        <v>7500</v>
+        <v>4800</v>
       </c>
       <c r="N11">
         <v>100</v>
       </c>
       <c r="O11" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="Q11">
-        <v>2600000</v>
+        <v>3900000</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D12">
-        <v>250</v>
+        <v>463.5</v>
       </c>
       <c r="E12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F12">
-        <v>250</v>
+        <v>463.5</v>
       </c>
       <c r="G12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M12">
-        <v>2000</v>
+        <v>22500</v>
       </c>
       <c r="N12">
         <v>100</v>
@@ -1450,540 +1459,540 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q12">
-        <v>9375000</v>
+        <v>1545000</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D13">
-        <v>178.41194</v>
+        <v>156</v>
       </c>
       <c r="E13" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F13">
-        <v>178.41194</v>
+        <v>156</v>
       </c>
       <c r="G13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M13">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="N13">
         <v>100</v>
       </c>
       <c r="O13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q13">
-        <v>787111</v>
+        <v>840000</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D14">
-        <v>49.66368</v>
+        <v>270</v>
       </c>
       <c r="E14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F14">
-        <v>49.66368</v>
+        <v>270</v>
       </c>
       <c r="G14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M14">
-        <v>4400</v>
+        <v>7500</v>
       </c>
       <c r="N14">
         <v>100</v>
       </c>
       <c r="O14" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="P14" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="Q14">
-        <v>846540</v>
+        <v>2600000</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D15">
-        <v>306</v>
+        <v>250</v>
       </c>
       <c r="E15" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F15">
-        <v>306</v>
+        <v>250</v>
       </c>
       <c r="G15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M15">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="N15">
         <v>100</v>
       </c>
       <c r="O15" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="P15" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="Q15">
-        <v>1119600</v>
+        <v>9375000</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D16">
-        <v>260</v>
+        <v>178.41194</v>
       </c>
       <c r="E16" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F16">
-        <v>260</v>
+        <v>178.41194</v>
       </c>
       <c r="G16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M16">
-        <v>6500</v>
+        <v>17000</v>
       </c>
       <c r="N16">
         <v>100</v>
       </c>
       <c r="O16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q16">
-        <v>2880000</v>
+        <v>787111</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D17">
-        <v>53.9</v>
+        <v>49.66368</v>
       </c>
       <c r="E17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F17">
-        <v>53.9</v>
+        <v>49.66368</v>
       </c>
       <c r="G17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M17">
-        <v>7000</v>
+        <v>4400</v>
       </c>
       <c r="N17">
         <v>100</v>
       </c>
       <c r="O17" t="s">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="P17" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q17">
-        <v>577500</v>
+        <v>846540</v>
       </c>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D18">
-        <v>520</v>
+        <v>306</v>
       </c>
       <c r="E18" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F18">
-        <v>520</v>
+        <v>306</v>
       </c>
       <c r="G18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M18">
-        <v>26000</v>
+        <v>17000</v>
       </c>
       <c r="N18">
         <v>100</v>
       </c>
       <c r="O18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="P18" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="Q18">
-        <v>1300000</v>
+        <v>1119600</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D19">
-        <v>442.659</v>
+        <v>260</v>
       </c>
       <c r="E19" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="F19">
-        <v>442.659</v>
+        <v>260</v>
       </c>
       <c r="G19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M19">
-        <v>10700</v>
+        <v>6500</v>
       </c>
       <c r="N19">
         <v>100</v>
       </c>
       <c r="O19" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="P19" t="s">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="Q19">
-        <v>3102750</v>
+        <v>2880000</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20">
-        <v>80</v>
+        <v>53.9</v>
       </c>
       <c r="E20" t="s">
         <v>74</v>
       </c>
       <c r="F20">
-        <v>80</v>
+        <v>53.9</v>
       </c>
       <c r="G20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M20">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="N20">
         <v>100</v>
       </c>
       <c r="O20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q20">
-        <v>3000000</v>
+        <v>577500</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
         <v>63</v>
       </c>
       <c r="D21">
-        <v>4212</v>
+        <v>520</v>
       </c>
       <c r="E21" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F21">
-        <v>1263.6</v>
+        <v>520</v>
       </c>
       <c r="G21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K21" t="s">
         <v>82</v>
       </c>
       <c r="L21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M21">
         <v>26000</v>
       </c>
       <c r="N21">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="O21" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="P21" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="Q21">
-        <v>87871545</v>
+        <v>1300000</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C22" t="s">
         <v>63</v>
       </c>
       <c r="D22">
-        <v>4212</v>
+        <v>442.659</v>
       </c>
       <c r="E22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F22">
-        <v>1263.6</v>
+        <v>442.659</v>
       </c>
       <c r="G22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K22" t="s">
         <v>82</v>
       </c>
       <c r="L22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M22">
-        <v>26000</v>
+        <v>10700</v>
       </c>
       <c r="N22">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="O22" t="s">
-        <v>91</v>
+        <v>32</v>
       </c>
       <c r="P22" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q22">
-        <v>87871545</v>
+        <v>3102750</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1997,57 +2006,57 @@
         <v>63</v>
       </c>
       <c r="D23">
-        <v>4212</v>
+        <v>80</v>
       </c>
       <c r="E23" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="F23">
-        <v>421.2</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M23">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="N23">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O23" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="Q23">
-        <v>87871545</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D24">
         <v>4212</v>
@@ -2056,37 +2065,37 @@
         <v>68</v>
       </c>
       <c r="F24">
-        <v>421.2</v>
+        <v>1263.6</v>
       </c>
       <c r="G24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K24" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M24">
         <v>26000</v>
       </c>
       <c r="N24">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="O24" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="P24" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q24">
         <v>87871545</v>
@@ -2094,52 +2103,52 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D25">
         <v>4212</v>
       </c>
       <c r="E25" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="F25">
-        <v>421.2</v>
+        <v>1263.6</v>
       </c>
       <c r="G25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M25">
         <v>26000</v>
       </c>
       <c r="N25">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="O25" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="P25" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q25">
         <v>87871545</v>
@@ -2147,52 +2156,52 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D26">
         <v>4212</v>
       </c>
       <c r="E26" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F26">
-        <v>126.36</v>
+        <v>421.2</v>
       </c>
       <c r="G26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M26">
         <v>26000</v>
       </c>
       <c r="N26">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="O26" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="P26" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q26">
         <v>87871545</v>
@@ -2200,52 +2209,52 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D27">
         <v>4212</v>
       </c>
       <c r="E27" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F27">
-        <v>126.36</v>
+        <v>421.2</v>
       </c>
       <c r="G27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M27">
         <v>26000</v>
       </c>
       <c r="N27">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="O27" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="P27" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q27">
         <v>87871545</v>
@@ -2253,52 +2262,52 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D28">
         <v>4212</v>
       </c>
       <c r="E28" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F28">
-        <v>126.36</v>
+        <v>421.2</v>
       </c>
       <c r="G28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M28">
         <v>26000</v>
       </c>
       <c r="N28">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="O28" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="P28" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q28">
         <v>87871545</v>
@@ -2306,52 +2315,52 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D29">
         <v>4212</v>
       </c>
       <c r="E29" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F29">
-        <v>42.12</v>
+        <v>126.36</v>
       </c>
       <c r="G29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K29" t="s">
         <v>84</v>
       </c>
       <c r="L29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M29">
         <v>26000</v>
       </c>
       <c r="N29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O29" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="P29" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q29">
         <v>87871545</v>
@@ -2368,46 +2377,46 @@
         <v>62</v>
       </c>
       <c r="D30">
-        <v>360</v>
+        <v>4212</v>
       </c>
       <c r="E30" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F30">
-        <v>360</v>
+        <v>126.36</v>
       </c>
       <c r="G30" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H30" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I30" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J30" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K30" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="L30" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M30">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="N30">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="O30" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P30" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q30">
-        <v>13500000</v>
+        <v>87871545</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2415,317 +2424,423 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C31" t="s">
         <v>62</v>
       </c>
       <c r="D31">
-        <v>187.5</v>
+        <v>4212</v>
       </c>
       <c r="E31" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F31">
-        <v>187.5</v>
+        <v>126.36</v>
       </c>
       <c r="G31" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H31" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I31" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J31" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K31" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="L31" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M31">
-        <v>12500</v>
+        <v>26000</v>
       </c>
       <c r="N31">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="O31" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P31" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q31">
-        <v>1020000</v>
+        <v>87871545</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C32" t="s">
         <v>62</v>
       </c>
       <c r="D32">
-        <v>336</v>
+        <v>4212</v>
       </c>
       <c r="E32" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="F32">
-        <v>336</v>
+        <v>42.12</v>
       </c>
       <c r="G32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K32" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="L32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M32">
-        <v>15000</v>
+        <v>26000</v>
       </c>
       <c r="N32">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="O32" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P32" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q32">
-        <v>1619200</v>
+        <v>87871545</v>
       </c>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D33">
-        <v>221.2</v>
+        <v>360</v>
       </c>
       <c r="E33" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F33">
-        <v>154.84</v>
+        <v>360</v>
       </c>
       <c r="G33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K33" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M33">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="N33">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="O33" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P33" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="Q33">
-        <v>2370000</v>
+        <v>13500000</v>
       </c>
     </row>
     <row r="34" spans="1:17">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C34" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D34">
-        <v>221.2</v>
+        <v>187.5</v>
       </c>
       <c r="E34" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F34">
-        <v>66.36</v>
+        <v>187.5</v>
       </c>
       <c r="G34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K34" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M34">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="N34">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="O34" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P34" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="Q34">
-        <v>2370000</v>
+        <v>1020000</v>
       </c>
     </row>
     <row r="35" spans="1:17">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C35" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D35">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="E35" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F35">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="G35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K35" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M35">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="N35">
         <v>100</v>
       </c>
       <c r="O35" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P35" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="Q35">
-        <v>1125000</v>
+        <v>1619200</v>
       </c>
     </row>
     <row r="36" spans="1:17">
       <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36">
+        <v>221.2</v>
+      </c>
+      <c r="E36" t="s">
+        <v>79</v>
+      </c>
+      <c r="F36">
+        <v>154.84</v>
+      </c>
+      <c r="G36" t="s">
+        <v>81</v>
+      </c>
+      <c r="H36" t="s">
+        <v>81</v>
+      </c>
+      <c r="I36" t="s">
+        <v>81</v>
+      </c>
+      <c r="J36" t="s">
+        <v>81</v>
+      </c>
+      <c r="K36" t="s">
+        <v>82</v>
+      </c>
+      <c r="L36" t="s">
+        <v>81</v>
+      </c>
+      <c r="M36">
+        <v>14000</v>
+      </c>
+      <c r="N36">
+        <v>70</v>
+      </c>
+      <c r="O36" t="s">
+        <v>96</v>
+      </c>
+      <c r="P36" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q36">
+        <v>2370000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" t="s">
+        <v>63</v>
+      </c>
+      <c r="D37">
+        <v>221.2</v>
+      </c>
+      <c r="E37" t="s">
+        <v>80</v>
+      </c>
+      <c r="F37">
+        <v>66.36</v>
+      </c>
+      <c r="G37" t="s">
+        <v>81</v>
+      </c>
+      <c r="H37" t="s">
+        <v>81</v>
+      </c>
+      <c r="I37" t="s">
+        <v>81</v>
+      </c>
+      <c r="J37" t="s">
+        <v>81</v>
+      </c>
+      <c r="K37" t="s">
+        <v>84</v>
+      </c>
+      <c r="L37" t="s">
+        <v>81</v>
+      </c>
+      <c r="M37">
+        <v>14000</v>
+      </c>
+      <c r="N37">
+        <v>30</v>
+      </c>
+      <c r="O37" t="s">
+        <v>96</v>
+      </c>
+      <c r="P37" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q37">
+        <v>2370000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" t="s">
         <v>36</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B38" t="s">
         <v>61</v>
       </c>
-      <c r="C36" t="s">
-        <v>62</v>
-      </c>
-      <c r="D36">
-        <v>264</v>
-      </c>
-      <c r="E36" t="s">
-        <v>76</v>
-      </c>
-      <c r="F36">
-        <v>264</v>
-      </c>
-      <c r="G36" t="s">
-        <v>80</v>
-      </c>
-      <c r="H36" t="s">
-        <v>80</v>
-      </c>
-      <c r="I36" t="s">
-        <v>80</v>
-      </c>
-      <c r="J36" t="s">
-        <v>80</v>
-      </c>
-      <c r="K36" t="s">
-        <v>81</v>
-      </c>
-      <c r="L36" t="s">
-        <v>80</v>
-      </c>
-      <c r="M36">
-        <v>24000</v>
-      </c>
-      <c r="N36">
+      <c r="C38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38">
+        <v>345</v>
+      </c>
+      <c r="E38" t="s">
+        <v>64</v>
+      </c>
+      <c r="F38">
+        <v>345</v>
+      </c>
+      <c r="G38" t="s">
+        <v>81</v>
+      </c>
+      <c r="H38" t="s">
+        <v>81</v>
+      </c>
+      <c r="I38" t="s">
+        <v>81</v>
+      </c>
+      <c r="J38" t="s">
+        <v>81</v>
+      </c>
+      <c r="K38" t="s">
+        <v>82</v>
+      </c>
+      <c r="L38" t="s">
+        <v>81</v>
+      </c>
+      <c r="M38">
+        <v>23000</v>
+      </c>
+      <c r="N38">
         <v>100</v>
       </c>
-      <c r="O36" t="s">
+      <c r="O38" t="s">
+        <v>96</v>
+      </c>
+      <c r="P38" t="s">
         <v>94</v>
       </c>
-      <c r="P36" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q36">
-        <v>825000</v>
+      <c r="Q38">
+        <v>1125000</v>
       </c>
     </row>
   </sheetData>
@@ -2746,10 +2861,10 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>15</v>
@@ -2758,54 +2873,54 @@
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
         <v>37</v>
@@ -2814,184 +2929,184 @@
         <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>6384000</v>
+        <v>419224960</v>
       </c>
       <c r="G2">
-        <v>1596000</v>
+        <v>11580800</v>
       </c>
       <c r="H2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I2">
-        <v>3200</v>
+        <v>36200</v>
       </c>
       <c r="J2">
-        <v>3600</v>
+        <v>44000</v>
       </c>
       <c r="K2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L2">
-        <v>4000</v>
+        <v>36200</v>
       </c>
       <c r="M2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="S2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
         <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
       </c>
       <c r="F3">
-        <v>32000000</v>
+        <v>6384000</v>
       </c>
       <c r="G3">
-        <v>1600000</v>
+        <v>1596000</v>
       </c>
       <c r="H3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I3">
-        <v>29800</v>
+        <v>3200</v>
       </c>
       <c r="J3">
-        <v>33500</v>
+        <v>3600</v>
       </c>
       <c r="K3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L3">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="M3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="S3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
         <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>117</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
         <v>19</v>
       </c>
       <c r="F4">
-        <v>65908250</v>
+        <v>32000000</v>
       </c>
       <c r="G4">
-        <v>2636330</v>
+        <v>1600000</v>
       </c>
       <c r="H4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I4">
-        <v>19100</v>
+        <v>29800</v>
       </c>
       <c r="J4">
-        <v>21400</v>
+        <v>33500</v>
       </c>
       <c r="K4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L4">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="S4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
         <v>40</v>
@@ -3000,60 +3115,60 @@
         <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5">
-        <v>8000000</v>
+        <v>65908250</v>
       </c>
       <c r="G5">
-        <v>4000000</v>
+        <v>2636330</v>
       </c>
       <c r="H5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I5">
-        <v>2000</v>
+        <v>19100</v>
       </c>
       <c r="J5">
-        <v>2000</v>
+        <v>21400</v>
       </c>
       <c r="K5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L5">
-        <v>2000</v>
+        <v>25000</v>
       </c>
       <c r="M5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="S5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B6" t="s">
         <v>41</v>
@@ -3062,184 +3177,184 @@
         <v>68</v>
       </c>
       <c r="D6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E6" t="s">
         <v>20</v>
       </c>
       <c r="F6">
-        <v>12600000</v>
+        <v>8000000</v>
       </c>
       <c r="G6">
-        <v>7000000</v>
+        <v>4000000</v>
       </c>
       <c r="H6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I6">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="J6">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="K6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L6">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="M6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="S6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B7" t="s">
         <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="E7" t="s">
         <v>21</v>
       </c>
       <c r="F7">
-        <v>24960000</v>
+        <v>12600000</v>
       </c>
       <c r="G7">
-        <v>5200000</v>
+        <v>7000000</v>
       </c>
       <c r="H7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I7">
-        <v>3500</v>
+        <v>1200</v>
       </c>
       <c r="J7">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="K7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L7">
-        <v>4800</v>
+        <v>1800</v>
       </c>
       <c r="M7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="S7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s">
         <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F8">
-        <v>46350000</v>
+        <v>24960000</v>
       </c>
       <c r="G8">
-        <v>2060000</v>
+        <v>5200000</v>
       </c>
       <c r="H8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I8">
-        <v>20300</v>
+        <v>3500</v>
       </c>
       <c r="J8">
-        <v>22500</v>
+        <v>4000</v>
       </c>
       <c r="K8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L8">
-        <v>22500</v>
+        <v>4800</v>
       </c>
       <c r="M8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O8">
-        <v>2.912621359223301</v>
+        <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="S8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B9" t="s">
         <v>44</v>
@@ -3248,190 +3363,190 @@
         <v>70</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F9">
-        <v>15600000</v>
+        <v>46350000</v>
       </c>
       <c r="G9">
-        <v>1200000</v>
+        <v>2060000</v>
       </c>
       <c r="H9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I9">
-        <v>9100</v>
+        <v>20300</v>
       </c>
       <c r="J9">
-        <v>11000</v>
+        <v>22500</v>
       </c>
       <c r="K9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L9">
-        <v>13000</v>
+        <v>22500</v>
       </c>
       <c r="M9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>2.912621359223301</v>
       </c>
       <c r="P9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R9" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="S9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="B10" t="s">
         <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D10" t="s">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F10">
-        <v>27000000</v>
+        <v>15600000</v>
       </c>
       <c r="G10">
-        <v>3600000</v>
+        <v>1200000</v>
       </c>
       <c r="H10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I10">
-        <v>5000</v>
+        <v>9100</v>
       </c>
       <c r="J10">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="K10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L10">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="M10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R10" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="S10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
         <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="E11" t="s">
         <v>23</v>
       </c>
       <c r="F11">
-        <v>25000000</v>
+        <v>27000000</v>
       </c>
       <c r="G11">
-        <v>12500000</v>
+        <v>3600000</v>
       </c>
       <c r="H11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I11">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="J11">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="K11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L11">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="M11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R11" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="S11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B12" t="s">
         <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
@@ -3440,240 +3555,240 @@
         <v>24</v>
       </c>
       <c r="F12">
-        <v>17841194</v>
+        <v>25000000</v>
       </c>
       <c r="G12">
-        <v>1049482</v>
+        <v>12500000</v>
       </c>
       <c r="H12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I12">
-        <v>12800</v>
+        <v>2000</v>
       </c>
       <c r="J12">
-        <v>14500</v>
+        <v>2000</v>
       </c>
       <c r="K12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L12">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="M12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O12">
-        <v>9.999980942979489</v>
+        <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R12" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="S12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B13" t="s">
         <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F13">
-        <v>4966368</v>
+        <v>17841194</v>
       </c>
       <c r="G13">
-        <v>1128720</v>
+        <v>1049482</v>
       </c>
       <c r="H13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I13">
-        <v>3300</v>
+        <v>12800</v>
       </c>
       <c r="J13">
-        <v>3900</v>
+        <v>14500</v>
       </c>
       <c r="K13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L13">
-        <v>4400</v>
+        <v>17000</v>
       </c>
       <c r="M13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>9.999980942979489</v>
       </c>
       <c r="P13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R13" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="S13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="B14" t="s">
         <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D14" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="E14" t="s">
         <v>25</v>
       </c>
       <c r="F14">
-        <v>30600000</v>
+        <v>4966368</v>
       </c>
       <c r="G14">
-        <v>1800000</v>
+        <v>1128720</v>
       </c>
       <c r="H14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I14">
-        <v>13000</v>
+        <v>3300</v>
       </c>
       <c r="J14">
-        <v>15000</v>
+        <v>3900</v>
       </c>
       <c r="K14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L14">
-        <v>17000</v>
+        <v>4400</v>
       </c>
       <c r="M14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R14" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="S14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
         <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="E15" t="s">
         <v>26</v>
       </c>
       <c r="F15">
-        <v>26000000</v>
+        <v>30600000</v>
       </c>
       <c r="G15">
-        <v>4000000</v>
+        <v>1800000</v>
       </c>
       <c r="H15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I15">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="J15">
-        <v>5600</v>
+        <v>15000</v>
       </c>
       <c r="K15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L15">
-        <v>6500</v>
+        <v>17000</v>
       </c>
       <c r="M15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R15" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="S15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="B16" t="s">
         <v>51</v>
@@ -3682,675 +3797,675 @@
         <v>73</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E16" t="s">
         <v>27</v>
       </c>
       <c r="F16">
-        <v>5390000</v>
+        <v>26000000</v>
       </c>
       <c r="G16">
-        <v>770000</v>
+        <v>4000000</v>
       </c>
       <c r="H16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I16">
-        <v>8200</v>
+        <v>5000</v>
       </c>
       <c r="J16">
-        <v>9400</v>
+        <v>5600</v>
       </c>
       <c r="K16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L16">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="M16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R16" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="S16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
         <v>52</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E17" t="s">
         <v>28</v>
       </c>
       <c r="F17">
-        <v>52000000</v>
+        <v>5390000</v>
       </c>
       <c r="G17">
-        <v>2000000</v>
+        <v>770000</v>
       </c>
       <c r="H17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I17">
-        <v>22000</v>
+        <v>8200</v>
       </c>
       <c r="J17">
-        <v>25000</v>
+        <v>9400</v>
       </c>
       <c r="K17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L17">
-        <v>26000</v>
+        <v>7000</v>
       </c>
       <c r="M17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R17" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="S17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
         <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D18" t="s">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="E18" t="s">
         <v>29</v>
       </c>
       <c r="F18">
-        <v>44265900</v>
+        <v>52000000</v>
       </c>
       <c r="G18">
-        <v>4137000</v>
+        <v>2000000</v>
       </c>
       <c r="H18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I18">
-        <v>8800</v>
+        <v>22000</v>
       </c>
       <c r="J18">
-        <v>10700</v>
+        <v>25000</v>
       </c>
       <c r="K18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L18">
-        <v>10700</v>
+        <v>26000</v>
       </c>
       <c r="M18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O18">
-        <v>30.21513173797438</v>
+        <v>0</v>
       </c>
       <c r="P18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R18" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="S18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
         <v>54</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D19" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="E19" t="s">
         <v>30</v>
       </c>
       <c r="F19">
-        <v>8000000</v>
+        <v>44265900</v>
       </c>
       <c r="G19">
-        <v>4000000</v>
+        <v>4137000</v>
       </c>
       <c r="H19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I19">
-        <v>2000</v>
+        <v>8800</v>
       </c>
       <c r="J19">
-        <v>2000</v>
+        <v>10700</v>
       </c>
       <c r="K19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L19">
-        <v>2000</v>
+        <v>10700</v>
       </c>
       <c r="M19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>30.21513173797438</v>
       </c>
       <c r="P19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R19" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="S19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B20" t="s">
         <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="D20" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="E20" t="s">
         <v>31</v>
       </c>
       <c r="F20">
-        <v>421200000</v>
+        <v>8000000</v>
       </c>
       <c r="G20">
-        <v>16200000</v>
+        <v>4000000</v>
       </c>
       <c r="H20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I20">
-        <v>21000</v>
+        <v>2000</v>
       </c>
       <c r="J20">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="K20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L20">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="M20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R20" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="S20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B21" t="s">
         <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="D21" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E21" t="s">
         <v>32</v>
       </c>
       <c r="F21">
-        <v>36000000</v>
+        <v>421200000</v>
       </c>
       <c r="G21">
-        <v>18000000</v>
+        <v>16200000</v>
       </c>
       <c r="H21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I21">
-        <v>2000</v>
+        <v>21000</v>
       </c>
       <c r="J21">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="K21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L21">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="M21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R21" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="S21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B22" t="s">
         <v>57</v>
       </c>
       <c r="C22" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D22" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F22">
-        <v>18750000</v>
+        <v>36000000</v>
       </c>
       <c r="G22">
-        <v>1500000</v>
+        <v>18000000</v>
       </c>
       <c r="H22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I22">
-        <v>8900</v>
+        <v>2000</v>
       </c>
       <c r="J22">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="K22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L22">
-        <v>12500</v>
+        <v>2000</v>
       </c>
       <c r="M22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R22" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="S22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B23" t="s">
         <v>58</v>
       </c>
       <c r="C23" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D23" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E23" t="s">
         <v>33</v>
       </c>
       <c r="F23">
-        <v>33600000</v>
+        <v>18750000</v>
       </c>
       <c r="G23">
-        <v>2240000</v>
+        <v>1500000</v>
       </c>
       <c r="H23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I23">
-        <v>11500</v>
+        <v>8900</v>
       </c>
       <c r="J23">
-        <v>13200</v>
+        <v>11000</v>
       </c>
       <c r="K23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L23">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="M23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O23">
-        <v>26.78571428571428</v>
+        <v>0</v>
       </c>
       <c r="P23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R23" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="S23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B24" t="s">
         <v>59</v>
       </c>
       <c r="C24" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D24" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E24" t="s">
         <v>34</v>
       </c>
       <c r="F24">
-        <v>22120000</v>
+        <v>33600000</v>
       </c>
       <c r="G24">
-        <v>1580000</v>
+        <v>2240000</v>
       </c>
       <c r="H24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I24">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="J24">
-        <v>12000</v>
+        <v>13200</v>
       </c>
       <c r="K24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L24">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>26.78571428571428</v>
       </c>
       <c r="P24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R24" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="S24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B25" t="s">
         <v>60</v>
       </c>
       <c r="C25" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="D25" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E25" t="s">
         <v>35</v>
       </c>
       <c r="F25">
-        <v>34500000</v>
+        <v>22120000</v>
       </c>
       <c r="G25">
-        <v>1500000</v>
+        <v>1580000</v>
       </c>
       <c r="H25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I25">
-        <v>20000</v>
+        <v>10500</v>
       </c>
       <c r="J25">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="K25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L25">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="M25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R25" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="S25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:20">
       <c r="A26" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B26" t="s">
         <v>61</v>
       </c>
       <c r="C26" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="D26" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E26" t="s">
         <v>36</v>
       </c>
       <c r="F26">
-        <v>26400000</v>
+        <v>34500000</v>
       </c>
       <c r="G26">
-        <v>1100000</v>
+        <v>1500000</v>
       </c>
       <c r="H26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I26">
         <v>20000</v>
       </c>
       <c r="J26">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="K26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L26">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="M26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O26">
-        <v>18.18181818181818</v>
+        <v>0</v>
       </c>
       <c r="P26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R26" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="S26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -4360,7 +4475,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4368,16 +4483,16 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -4389,10 +4504,10 @@
         <v>0</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>12</v>
@@ -4401,30 +4516,30 @@
         <v>6</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H2">
         <v>42120</v>
@@ -4444,25 +4559,25 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H3">
         <v>15600</v>
@@ -4482,34 +4597,34 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F4" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="H4">
-        <v>18750</v>
+        <v>12600</v>
       </c>
       <c r="I4">
-        <v>1500000</v>
+        <v>7000000</v>
       </c>
       <c r="J4">
-        <v>12500</v>
+        <v>1800</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -4520,110 +4635,110 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>116</v>
+        <v>69</v>
       </c>
       <c r="E5" t="s">
-        <v>145</v>
+        <v>69</v>
       </c>
       <c r="F5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H5">
-        <v>42120</v>
+        <v>18750</v>
       </c>
       <c r="I5">
-        <v>16200000</v>
+        <v>1500000</v>
       </c>
       <c r="J5">
-        <v>26000</v>
+        <v>12500</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="E6" t="s">
-        <v>68</v>
+        <v>147</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="H6">
-        <v>12600</v>
+        <v>42120</v>
       </c>
       <c r="I6">
-        <v>7000000</v>
+        <v>16200000</v>
       </c>
       <c r="J6">
-        <v>1800</v>
+        <v>26000</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" t="s">
         <v>26</v>
       </c>
-      <c r="C7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F7" t="s">
-        <v>86</v>
-      </c>
       <c r="G7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H7">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="I7">
-        <v>3600000</v>
+        <v>12500000</v>
       </c>
       <c r="J7">
-        <v>7500</v>
+        <v>2000</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -4634,34 +4749,34 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
         <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="G8" t="s">
         <v>23</v>
       </c>
       <c r="H8">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="I8">
-        <v>12500000</v>
+        <v>3600000</v>
       </c>
       <c r="J8">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -4672,10 +4787,10 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C9" t="s">
         <v>37</v>
@@ -4684,127 +4799,127 @@
         <v>64</v>
       </c>
       <c r="E9" t="s">
-        <v>64</v>
+        <v>148</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G9" t="s">
         <v>17</v>
       </c>
       <c r="H9">
-        <v>6384</v>
+        <v>121994.4706</v>
       </c>
       <c r="I9">
-        <v>1596000</v>
+        <v>11580800</v>
       </c>
       <c r="J9">
-        <v>4000</v>
+        <v>36200</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>100</v>
+        <v>29.1</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>145</v>
+        <v>65</v>
       </c>
       <c r="F10" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="H10">
-        <v>42120</v>
+        <v>6384</v>
       </c>
       <c r="I10">
-        <v>16200000</v>
+        <v>1596000</v>
       </c>
       <c r="J10">
-        <v>26000</v>
+        <v>4000</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="E11" t="s">
-        <v>64</v>
+        <v>147</v>
       </c>
       <c r="F11" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="G11" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="H11">
-        <v>24960</v>
+        <v>42120</v>
       </c>
       <c r="I11">
-        <v>5200000</v>
+        <v>16200000</v>
       </c>
       <c r="J11">
-        <v>4800</v>
+        <v>26000</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H12">
         <v>17841.194</v>
@@ -4824,34 +4939,34 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C13" t="s">
         <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E13" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G13" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H13">
-        <v>46350</v>
+        <v>24960</v>
       </c>
       <c r="I13">
-        <v>2060000</v>
+        <v>5200000</v>
       </c>
       <c r="J13">
-        <v>22500</v>
+        <v>4800</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -4862,107 +4977,107 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>145</v>
+        <v>70</v>
       </c>
       <c r="F14" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="H14">
-        <v>126360</v>
+        <v>46350</v>
       </c>
       <c r="I14">
-        <v>16200000</v>
+        <v>2060000</v>
       </c>
       <c r="J14">
-        <v>26000</v>
+        <v>22500</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E15" t="s">
-        <v>65</v>
+        <v>148</v>
       </c>
       <c r="F15" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="H15">
-        <v>34500</v>
+        <v>284653.7406</v>
       </c>
       <c r="I15">
-        <v>1500000</v>
+        <v>11580800</v>
       </c>
       <c r="J15">
-        <v>23000</v>
+        <v>36200</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>100</v>
+        <v>67.90000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>118</v>
       </c>
       <c r="E16" t="s">
-        <v>65</v>
+        <v>147</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="G16" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H16">
-        <v>52000</v>
+        <v>126360</v>
       </c>
       <c r="I16">
-        <v>2000000</v>
+        <v>16200000</v>
       </c>
       <c r="J16">
         <v>26000</v>
@@ -4971,30 +5086,30 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F17" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H17">
         <v>44265.9</v>
@@ -5014,72 +5129,72 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="D18" t="s">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="E18" t="s">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="F18" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="H18">
-        <v>16000</v>
+        <v>52000</v>
       </c>
       <c r="I18">
-        <v>1600000</v>
+        <v>2000000</v>
       </c>
       <c r="J18">
-        <v>20000</v>
+        <v>26000</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B19" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F19" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G19" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H19">
-        <v>33600</v>
+        <v>34500</v>
       </c>
       <c r="I19">
-        <v>2240000</v>
+        <v>1500000</v>
       </c>
       <c r="J19">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -5090,25 +5205,25 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D20" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E20" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H20">
         <v>16000</v>
@@ -5128,34 +5243,34 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="D21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F21" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="G21" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="H21">
-        <v>65908.25</v>
+        <v>33600</v>
       </c>
       <c r="I21">
-        <v>2636330</v>
+        <v>2240000</v>
       </c>
       <c r="J21">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -5166,148 +5281,148 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B22" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="D22" t="s">
-        <v>116</v>
+        <v>67</v>
       </c>
       <c r="E22" t="s">
-        <v>145</v>
+        <v>67</v>
       </c>
       <c r="F22" t="s">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="G22" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H22">
-        <v>12636</v>
+        <v>65908.25</v>
       </c>
       <c r="I22">
-        <v>16200000</v>
+        <v>2636330</v>
       </c>
       <c r="J22">
-        <v>26000</v>
+        <v>25000</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B23" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="D23" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="E23" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="F23" t="s">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="G23" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="H23">
-        <v>26400</v>
+        <v>16000</v>
       </c>
       <c r="I23">
-        <v>1100000</v>
+        <v>1600000</v>
       </c>
       <c r="J23">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="E24" t="s">
-        <v>71</v>
+        <v>147</v>
       </c>
       <c r="F24" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="G24" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="H24">
-        <v>4966.368</v>
+        <v>12636</v>
       </c>
       <c r="I24">
-        <v>1128720</v>
+        <v>16200000</v>
       </c>
       <c r="J24">
-        <v>4400</v>
+        <v>26000</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D25" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E25" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F25" t="s">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="G25" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H25">
-        <v>36000</v>
+        <v>4966.368</v>
       </c>
       <c r="I25">
-        <v>18000000</v>
+        <v>1128720</v>
       </c>
       <c r="J25">
-        <v>2000</v>
+        <v>4400</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -5318,40 +5433,40 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B26" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D26" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="E26" t="s">
-        <v>145</v>
+        <v>72</v>
       </c>
       <c r="F26" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H26">
-        <v>4212</v>
+        <v>36000</v>
       </c>
       <c r="I26">
-        <v>16200000</v>
+        <v>18000000</v>
       </c>
       <c r="J26">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -5359,37 +5474,37 @@
         <v>78</v>
       </c>
       <c r="B27" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C27" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D27" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="E27" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F27" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H27">
-        <v>15484</v>
+        <v>4212</v>
       </c>
       <c r="I27">
-        <v>1580000</v>
+        <v>16200000</v>
       </c>
       <c r="J27">
-        <v>14000</v>
+        <v>26000</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27">
-        <v>70</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -5397,25 +5512,25 @@
         <v>79</v>
       </c>
       <c r="B28" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E28" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F28" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H28">
-        <v>6636</v>
+        <v>15484</v>
       </c>
       <c r="I28">
         <v>1580000</v>
@@ -5427,83 +5542,83 @@
         <v>0</v>
       </c>
       <c r="L28">
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B29" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C29" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D29" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="E29" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F29" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G29" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H29">
-        <v>12636</v>
+        <v>6636</v>
       </c>
       <c r="I29">
-        <v>16200000</v>
+        <v>1580000</v>
       </c>
       <c r="J29">
-        <v>26000</v>
+        <v>14000</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B30" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C30" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D30" t="s">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="E30" t="s">
-        <v>72</v>
+        <v>147</v>
       </c>
       <c r="F30" t="s">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="G30" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H30">
+        <v>12636</v>
+      </c>
+      <c r="I30">
+        <v>16200000</v>
+      </c>
+      <c r="J30">
         <v>26000</v>
       </c>
-      <c r="I30">
-        <v>4000000</v>
-      </c>
-      <c r="J30">
-        <v>6500</v>
-      </c>
       <c r="K30">
         <v>0</v>
       </c>
       <c r="L30">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -5511,7 +5626,7 @@
         <v>73</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="C31" t="s">
         <v>51</v>
@@ -5523,19 +5638,19 @@
         <v>73</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G31" t="s">
         <v>27</v>
       </c>
       <c r="H31">
-        <v>5390</v>
+        <v>26000</v>
       </c>
       <c r="I31">
-        <v>770000</v>
+        <v>4000000</v>
       </c>
       <c r="J31">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -5546,25 +5661,25 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B32" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D32" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E32" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F32" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H32">
         <v>12636</v>
@@ -5584,101 +5699,101 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B33" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D33" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="E33" t="s">
-        <v>145</v>
+        <v>74</v>
       </c>
       <c r="F33" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="G33" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H33">
-        <v>126360</v>
+        <v>5390</v>
       </c>
       <c r="I33">
-        <v>16200000</v>
+        <v>770000</v>
       </c>
       <c r="J33">
-        <v>26000</v>
+        <v>7000</v>
       </c>
       <c r="K33">
         <v>0</v>
       </c>
       <c r="L33">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B34" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="C34" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E34" t="s">
-        <v>67</v>
+        <v>148</v>
       </c>
       <c r="F34" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="G34" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H34">
-        <v>30600</v>
+        <v>12576.7488</v>
       </c>
       <c r="I34">
-        <v>1800000</v>
+        <v>11580800</v>
       </c>
       <c r="J34">
-        <v>17000</v>
+        <v>36200</v>
       </c>
       <c r="K34">
         <v>0</v>
       </c>
       <c r="L34">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B35" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" t="s">
+        <v>68</v>
+      </c>
+      <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>87</v>
       </c>
-      <c r="C35" t="s">
-        <v>40</v>
-      </c>
-      <c r="D35" t="s">
-        <v>67</v>
-      </c>
-      <c r="E35" t="s">
-        <v>67</v>
-      </c>
-      <c r="F35" t="s">
-        <v>85</v>
-      </c>
       <c r="G35" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H35">
         <v>8000</v>
@@ -5698,39 +5813,115 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="C36" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D36" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="E36" t="s">
-        <v>74</v>
+        <v>147</v>
       </c>
       <c r="F36" t="s">
+        <v>98</v>
+      </c>
+      <c r="G36" t="s">
         <v>32</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36">
+        <v>126360</v>
+      </c>
+      <c r="I36">
+        <v>16200000</v>
+      </c>
+      <c r="J36">
+        <v>26000</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
         <v>30</v>
       </c>
-      <c r="H36">
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" t="s">
+        <v>68</v>
+      </c>
+      <c r="E37" t="s">
+        <v>68</v>
+      </c>
+      <c r="F37" t="s">
+        <v>91</v>
+      </c>
+      <c r="G37" t="s">
+        <v>26</v>
+      </c>
+      <c r="H37">
+        <v>30600</v>
+      </c>
+      <c r="I37">
+        <v>1800000</v>
+      </c>
+      <c r="J37">
+        <v>17000</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38" t="s">
+        <v>75</v>
+      </c>
+      <c r="E38" t="s">
+        <v>75</v>
+      </c>
+      <c r="F38" t="s">
+        <v>33</v>
+      </c>
+      <c r="G38" t="s">
+        <v>31</v>
+      </c>
+      <c r="H38">
         <v>8000</v>
       </c>
-      <c r="I36">
+      <c r="I38">
         <v>4000000</v>
       </c>
-      <c r="J36">
+      <c r="J38">
         <v>2000</v>
       </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
         <v>100</v>
       </c>
     </row>

--- a/datasets/corporate-finance-data.xlsx
+++ b/datasets/corporate-finance-data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="144">
   <si>
     <t>상장일</t>
   </si>
@@ -69,6 +69,9 @@
     <t>총기관배정수량</t>
   </si>
   <si>
+    <t>2023-11-20</t>
+  </si>
+  <si>
     <t>2023-11-17</t>
   </si>
   <si>
@@ -123,180 +126,168 @@
     <t>2023-10-06</t>
   </si>
   <si>
+    <t>스톰테크</t>
+  </si>
+  <si>
+    <t>에코프로머티</t>
+  </si>
+  <si>
+    <t>캡스톤파트너스</t>
+  </si>
+  <si>
+    <t>큐로셀</t>
+  </si>
+  <si>
+    <t>에이직랜드</t>
+  </si>
+  <si>
+    <t>한국제13호스팩</t>
+  </si>
+  <si>
+    <t>에스와이스틸텍</t>
+  </si>
+  <si>
+    <t>메가터치</t>
+  </si>
+  <si>
+    <t>컨텍</t>
+  </si>
+  <si>
+    <t>비아이매트릭스</t>
+  </si>
+  <si>
+    <t>쏘닉스</t>
+  </si>
+  <si>
+    <t>KB제27호스팩</t>
+  </si>
+  <si>
+    <t>유진테크놀로지</t>
+  </si>
+  <si>
+    <t>유투바이오</t>
+  </si>
+  <si>
+    <t>퀄리타스반도체</t>
+  </si>
+  <si>
+    <t>워트</t>
+  </si>
+  <si>
+    <t>에스엘에스바이오</t>
+  </si>
+  <si>
+    <t>신성에스티</t>
+  </si>
+  <si>
+    <t>퓨릿</t>
+  </si>
+  <si>
+    <t>에이치엠씨제6호스팩</t>
+  </si>
+  <si>
+    <t>두산로보틱스</t>
+  </si>
+  <si>
+    <t>신한제11호스팩</t>
+  </si>
+  <si>
+    <t>한싹</t>
+  </si>
+  <si>
+    <t>레뷰코퍼레이션</t>
+  </si>
+  <si>
+    <t>코스닥</t>
+  </si>
+  <si>
+    <t>코스피</t>
+  </si>
+  <si>
+    <t>하이</t>
+  </si>
+  <si>
+    <t>미래</t>
+  </si>
+  <si>
+    <t>NH</t>
+  </si>
+  <si>
+    <t>삼성</t>
+  </si>
+  <si>
+    <t>한국</t>
+  </si>
+  <si>
+    <t>KB</t>
+  </si>
+  <si>
+    <t>대신</t>
+  </si>
+  <si>
+    <t>IBK</t>
+  </si>
+  <si>
+    <t>신한</t>
+  </si>
+  <si>
+    <t>키움</t>
+  </si>
+  <si>
+    <t>하나</t>
+  </si>
+  <si>
+    <t>현대차</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>신영</t>
+  </si>
+  <si>
+    <t>유비에스</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>대표</t>
+  </si>
+  <si>
+    <t>공동</t>
+  </si>
+  <si>
+    <t>인수</t>
+  </si>
+  <si>
+    <t>공동대표</t>
+  </si>
+  <si>
+    <t>2023-11-08</t>
+  </si>
+  <si>
+    <t>2023-11-06</t>
+  </si>
+  <si>
+    <t>2023-10-31</t>
+  </si>
+  <si>
+    <t>2023-11-01</t>
+  </si>
+  <si>
+    <t>2023-10-24</t>
+  </si>
+  <si>
+    <t>2023-10-23</t>
+  </si>
+  <si>
+    <t>2023-10-16</t>
+  </si>
+  <si>
     <t>2023-10-10</t>
   </si>
   <si>
-    <t>2023-09-27</t>
-  </si>
-  <si>
-    <t>에코프로머티</t>
-  </si>
-  <si>
-    <t>캡스톤파트너스</t>
-  </si>
-  <si>
-    <t>큐로셀</t>
-  </si>
-  <si>
-    <t>에이직랜드</t>
-  </si>
-  <si>
-    <t>한국제13호스팩</t>
-  </si>
-  <si>
-    <t>에스와이스틸텍</t>
-  </si>
-  <si>
-    <t>메가터치</t>
-  </si>
-  <si>
-    <t>컨텍</t>
-  </si>
-  <si>
-    <t>비아이매트릭스</t>
-  </si>
-  <si>
-    <t>쏘닉스</t>
-  </si>
-  <si>
-    <t>KB제27호스팩</t>
-  </si>
-  <si>
-    <t>유진테크놀로지</t>
-  </si>
-  <si>
-    <t>유투바이오</t>
-  </si>
-  <si>
-    <t>퀄리타스반도체</t>
-  </si>
-  <si>
-    <t>워트</t>
-  </si>
-  <si>
-    <t>에스엘에스바이오</t>
-  </si>
-  <si>
-    <t>신성에스티</t>
-  </si>
-  <si>
-    <t>퓨릿</t>
-  </si>
-  <si>
-    <t>에이치엠씨제6호스팩</t>
-  </si>
-  <si>
-    <t>두산로보틱스</t>
-  </si>
-  <si>
-    <t>신한제11호스팩</t>
-  </si>
-  <si>
-    <t>한싹</t>
-  </si>
-  <si>
-    <t>레뷰코퍼레이션</t>
-  </si>
-  <si>
-    <t>아이엠티</t>
-  </si>
-  <si>
-    <t>밀리의서재</t>
-  </si>
-  <si>
-    <t>코스피</t>
-  </si>
-  <si>
-    <t>코스닥</t>
-  </si>
-  <si>
-    <t>미래</t>
-  </si>
-  <si>
-    <t>NH</t>
-  </si>
-  <si>
-    <t>하이</t>
-  </si>
-  <si>
-    <t>삼성</t>
-  </si>
-  <si>
-    <t>한국</t>
-  </si>
-  <si>
-    <t>KB</t>
-  </si>
-  <si>
-    <t>대신</t>
-  </si>
-  <si>
-    <t>IBK</t>
-  </si>
-  <si>
-    <t>신한</t>
-  </si>
-  <si>
-    <t>키움</t>
-  </si>
-  <si>
-    <t>하나</t>
-  </si>
-  <si>
-    <t>현대차</t>
-  </si>
-  <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t>신영</t>
-  </si>
-  <si>
-    <t>유비에스</t>
-  </si>
-  <si>
-    <t>유안타</t>
-  </si>
-  <si>
-    <t>유진</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>대표</t>
-  </si>
-  <si>
-    <t>공동</t>
-  </si>
-  <si>
-    <t>인수</t>
-  </si>
-  <si>
-    <t>공동대표</t>
-  </si>
-  <si>
-    <t>2023-11-08</t>
-  </si>
-  <si>
-    <t>2023-11-06</t>
-  </si>
-  <si>
-    <t>2023-10-31</t>
-  </si>
-  <si>
-    <t>2023-11-01</t>
-  </si>
-  <si>
-    <t>2023-10-24</t>
-  </si>
-  <si>
-    <t>2023-10-23</t>
-  </si>
-  <si>
-    <t>2023-10-16</t>
-  </si>
-  <si>
     <t>2023-09-25</t>
   </si>
   <si>
@@ -306,9 +297,6 @@
     <t>2023-09-19</t>
   </si>
   <si>
-    <t>2023-09-18</t>
-  </si>
-  <si>
     <t>2023-10-11</t>
   </si>
   <si>
@@ -375,6 +363,9 @@
     <t>한국, 미래</t>
   </si>
   <si>
+    <t>499.64 : 1</t>
+  </si>
+  <si>
     <t>70.04 : 1</t>
   </si>
   <si>
@@ -444,12 +435,6 @@
     <t>657.8 : 1</t>
   </si>
   <si>
-    <t>495.59 : 1</t>
-  </si>
-  <si>
-    <t>449.56 : 1</t>
-  </si>
-  <si>
     <t>인수기관</t>
   </si>
   <si>
@@ -463,9 +448,6 @@
   </si>
   <si>
     <t>미래, NH, 하이</t>
-  </si>
-  <si>
-    <t>유안타, 유진</t>
   </si>
 </sst>
 </file>
@@ -823,7 +805,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -887,102 +869,102 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2">
+        <v>368.5</v>
+      </c>
+      <c r="E2" t="s">
         <v>62</v>
       </c>
-      <c r="D2">
-        <v>4192.2496</v>
-      </c>
-      <c r="E2" t="s">
-        <v>64</v>
-      </c>
       <c r="F2">
-        <v>2846.537406</v>
+        <v>368.5</v>
       </c>
       <c r="G2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="M2">
-        <v>36200</v>
+        <v>11000</v>
       </c>
       <c r="N2">
-        <v>67.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="O2" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="P2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q2">
-        <v>19108320</v>
+        <v>2374500</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3">
         <v>4192.2496</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F3">
-        <v>1219.944706</v>
+        <v>2846.537406</v>
       </c>
       <c r="G3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="L3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="M3">
         <v>36200</v>
       </c>
       <c r="N3">
-        <v>29.1</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="O3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q3">
         <v>19108320</v>
@@ -990,52 +972,52 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
         <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D4">
         <v>4192.2496</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F4">
-        <v>125.767488</v>
+        <v>1219.944706</v>
       </c>
       <c r="G4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="M4">
         <v>36200</v>
       </c>
       <c r="N4">
-        <v>3</v>
+        <v>29.1</v>
       </c>
       <c r="O4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q4">
         <v>19108320</v>
@@ -1046,52 +1028,52 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D5">
-        <v>63.84</v>
+        <v>4192.2496</v>
       </c>
       <c r="E5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F5">
-        <v>63.84</v>
+        <v>125.767488</v>
       </c>
       <c r="G5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s">
+        <v>80</v>
+      </c>
+      <c r="L5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5">
+        <v>36200</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5" t="s">
         <v>82</v>
       </c>
-      <c r="L5" t="s">
-        <v>81</v>
-      </c>
-      <c r="M5">
-        <v>4000</v>
-      </c>
-      <c r="N5">
-        <v>100</v>
-      </c>
-      <c r="O5" t="s">
-        <v>87</v>
-      </c>
       <c r="P5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q5">
-        <v>1197000</v>
+        <v>19108320</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1099,90 +1081,90 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D6">
-        <v>320</v>
+        <v>63.84</v>
       </c>
       <c r="E6" t="s">
         <v>64</v>
       </c>
       <c r="F6">
-        <v>160</v>
+        <v>63.84</v>
       </c>
       <c r="G6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="L6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="M6">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="N6">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="O6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="P6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="Q6">
-        <v>2254770</v>
+        <v>1197000</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D7">
         <v>320</v>
       </c>
       <c r="E7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F7">
         <v>160</v>
       </c>
       <c r="G7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K7" t="s">
         <v>81</v>
       </c>
-      <c r="H7" t="s">
-        <v>81</v>
-      </c>
-      <c r="I7" t="s">
-        <v>81</v>
-      </c>
-      <c r="J7" t="s">
-        <v>81</v>
-      </c>
-      <c r="K7" t="s">
-        <v>85</v>
-      </c>
       <c r="L7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="M7">
         <v>20000</v>
@@ -1191,10 +1173,10 @@
         <v>50</v>
       </c>
       <c r="O7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="P7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q7">
         <v>2254770</v>
@@ -1205,105 +1187,105 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D8">
-        <v>659.0825</v>
+        <v>320</v>
       </c>
       <c r="E8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F8">
-        <v>659.0825</v>
+        <v>160</v>
       </c>
       <c r="G8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K8" t="s">
         <v>81</v>
       </c>
-      <c r="H8" t="s">
-        <v>81</v>
-      </c>
-      <c r="I8" t="s">
-        <v>81</v>
-      </c>
-      <c r="J8" t="s">
-        <v>81</v>
-      </c>
-      <c r="K8" t="s">
-        <v>82</v>
-      </c>
       <c r="L8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="M8">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="N8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O8" t="s">
+        <v>84</v>
+      </c>
+      <c r="P8" t="s">
         <v>25</v>
       </c>
-      <c r="P8" t="s">
-        <v>23</v>
-      </c>
       <c r="Q8">
-        <v>1827247</v>
+        <v>2254770</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D9">
-        <v>80</v>
+        <v>659.0825</v>
       </c>
       <c r="E9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F9">
-        <v>80</v>
+        <v>659.0825</v>
       </c>
       <c r="G9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="M9">
-        <v>2000</v>
+        <v>25000</v>
       </c>
       <c r="N9">
         <v>100</v>
       </c>
       <c r="O9" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="P9" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="Q9">
-        <v>3000000</v>
+        <v>1827247</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1311,52 +1293,52 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D10">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="E10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F10">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="G10" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H10" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I10" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J10" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L10" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="M10">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="N10">
         <v>100</v>
       </c>
       <c r="O10" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="P10" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="Q10">
-        <v>4550000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1364,211 +1346,211 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D11">
-        <v>249.6</v>
+        <v>126</v>
       </c>
       <c r="E11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F11">
-        <v>249.6</v>
+        <v>126</v>
       </c>
       <c r="G11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="M11">
-        <v>4800</v>
+        <v>1800</v>
       </c>
       <c r="N11">
         <v>100</v>
       </c>
       <c r="O11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P11" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="Q11">
-        <v>3900000</v>
+        <v>4550000</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D12">
-        <v>463.5</v>
+        <v>249.6</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F12">
-        <v>463.5</v>
+        <v>249.6</v>
       </c>
       <c r="G12" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H12" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I12" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J12" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K12" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L12" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="M12">
-        <v>22500</v>
+        <v>4800</v>
       </c>
       <c r="N12">
         <v>100</v>
       </c>
       <c r="O12" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q12">
-        <v>1545000</v>
+        <v>3900000</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D13">
-        <v>156</v>
+        <v>463.5</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F13">
-        <v>156</v>
+        <v>463.5</v>
       </c>
       <c r="G13" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H13" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I13" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J13" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K13" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L13" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="M13">
-        <v>13000</v>
+        <v>22500</v>
       </c>
       <c r="N13">
         <v>100</v>
       </c>
       <c r="O13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="P13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q13">
-        <v>840000</v>
+        <v>1545000</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D14">
-        <v>270</v>
+        <v>156</v>
       </c>
       <c r="E14" t="s">
         <v>69</v>
       </c>
       <c r="F14">
-        <v>270</v>
+        <v>156</v>
       </c>
       <c r="G14" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H14" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I14" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J14" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K14" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L14" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="M14">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="N14">
         <v>100</v>
       </c>
       <c r="O14" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="P14" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="Q14">
-        <v>2600000</v>
+        <v>840000</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1576,52 +1558,52 @@
         <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D15">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="E15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F15">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="G15" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H15" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I15" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J15" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K15" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L15" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="M15">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="N15">
         <v>100</v>
       </c>
       <c r="O15" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="P15" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="Q15">
-        <v>9375000</v>
+        <v>2600000</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1629,105 +1611,105 @@
         <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D16">
-        <v>178.41194</v>
+        <v>250</v>
       </c>
       <c r="E16" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F16">
-        <v>178.41194</v>
+        <v>250</v>
       </c>
       <c r="G16" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H16" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I16" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J16" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K16" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L16" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="M16">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="N16">
         <v>100</v>
       </c>
       <c r="O16" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="P16" t="s">
         <v>27</v>
       </c>
       <c r="Q16">
-        <v>787111</v>
+        <v>9375000</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D17">
-        <v>49.66368</v>
+        <v>178.41194</v>
       </c>
       <c r="E17" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F17">
-        <v>49.66368</v>
+        <v>178.41194</v>
       </c>
       <c r="G17" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H17" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I17" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J17" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K17" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L17" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="M17">
-        <v>4400</v>
+        <v>17000</v>
       </c>
       <c r="N17">
         <v>100</v>
       </c>
       <c r="O17" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="P17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q17">
-        <v>846540</v>
+        <v>787111</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1735,52 +1717,52 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D18">
-        <v>306</v>
+        <v>49.66368</v>
       </c>
       <c r="E18" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F18">
-        <v>306</v>
+        <v>49.66368</v>
       </c>
       <c r="G18" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H18" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I18" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J18" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K18" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L18" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="M18">
-        <v>17000</v>
+        <v>4400</v>
       </c>
       <c r="N18">
         <v>100</v>
       </c>
       <c r="O18" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="P18" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="Q18">
-        <v>1119600</v>
+        <v>846540</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1788,52 +1770,52 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D19">
-        <v>260</v>
+        <v>306</v>
       </c>
       <c r="E19" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F19">
-        <v>260</v>
+        <v>306</v>
       </c>
       <c r="G19" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H19" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I19" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J19" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K19" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L19" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="M19">
-        <v>6500</v>
+        <v>17000</v>
       </c>
       <c r="N19">
         <v>100</v>
       </c>
       <c r="O19" t="s">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="P19" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="Q19">
-        <v>2880000</v>
+        <v>1119600</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1841,52 +1823,52 @@
         <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D20">
-        <v>53.9</v>
+        <v>260</v>
       </c>
       <c r="E20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F20">
-        <v>53.9</v>
+        <v>260</v>
       </c>
       <c r="G20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K20" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="M20">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="N20">
         <v>100</v>
       </c>
       <c r="O20" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="P20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q20">
-        <v>577500</v>
+        <v>2880000</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1894,52 +1876,52 @@
         <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D21">
-        <v>520</v>
+        <v>53.9</v>
       </c>
       <c r="E21" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="F21">
-        <v>520</v>
+        <v>53.9</v>
       </c>
       <c r="G21" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H21" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I21" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J21" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K21" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L21" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="M21">
-        <v>26000</v>
+        <v>7000</v>
       </c>
       <c r="N21">
         <v>100</v>
       </c>
       <c r="O21" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="P21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q21">
-        <v>1300000</v>
+        <v>577500</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1947,52 +1929,52 @@
         <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22">
+        <v>520</v>
+      </c>
+      <c r="E22" t="s">
         <v>63</v>
       </c>
-      <c r="D22">
-        <v>442.659</v>
-      </c>
-      <c r="E22" t="s">
-        <v>64</v>
-      </c>
       <c r="F22">
-        <v>442.659</v>
+        <v>520</v>
       </c>
       <c r="G22" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H22" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I22" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J22" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K22" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L22" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="M22">
-        <v>10700</v>
+        <v>26000</v>
       </c>
       <c r="N22">
         <v>100</v>
       </c>
       <c r="O22" t="s">
+        <v>89</v>
+      </c>
+      <c r="P22" t="s">
         <v>32</v>
       </c>
-      <c r="P22" t="s">
-        <v>97</v>
-      </c>
       <c r="Q22">
-        <v>3102750</v>
+        <v>1300000</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -2000,52 +1982,52 @@
         <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23">
+        <v>442.659</v>
+      </c>
+      <c r="E23" t="s">
         <v>63</v>
       </c>
-      <c r="D23">
-        <v>80</v>
-      </c>
-      <c r="E23" t="s">
-        <v>75</v>
-      </c>
       <c r="F23">
-        <v>80</v>
+        <v>442.659</v>
       </c>
       <c r="G23" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H23" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I23" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J23" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K23" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L23" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="M23">
-        <v>2000</v>
+        <v>10700</v>
       </c>
       <c r="N23">
         <v>100</v>
       </c>
       <c r="O23" t="s">
+        <v>33</v>
+      </c>
+      <c r="P23" t="s">
         <v>93</v>
       </c>
-      <c r="P23" t="s">
-        <v>33</v>
-      </c>
       <c r="Q23">
-        <v>3000000</v>
+        <v>3102750</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -2053,90 +2035,90 @@
         <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D24">
-        <v>4212</v>
+        <v>80</v>
       </c>
       <c r="E24" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F24">
-        <v>1263.6</v>
+        <v>80</v>
       </c>
       <c r="G24" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H24" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I24" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J24" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K24" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="L24" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="M24">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="N24">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="O24" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="P24" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="Q24">
-        <v>87871545</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
         <v>56</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D25">
         <v>4212</v>
       </c>
       <c r="E25" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F25">
         <v>1263.6</v>
       </c>
       <c r="G25" t="s">
+        <v>77</v>
+      </c>
+      <c r="H25" t="s">
+        <v>77</v>
+      </c>
+      <c r="I25" t="s">
+        <v>77</v>
+      </c>
+      <c r="J25" t="s">
+        <v>77</v>
+      </c>
+      <c r="K25" t="s">
         <v>81</v>
       </c>
-      <c r="H25" t="s">
-        <v>81</v>
-      </c>
-      <c r="I25" t="s">
-        <v>81</v>
-      </c>
-      <c r="J25" t="s">
-        <v>81</v>
-      </c>
-      <c r="K25" t="s">
-        <v>85</v>
-      </c>
       <c r="L25" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="M25">
         <v>26000</v>
@@ -2145,10 +2127,10 @@
         <v>30</v>
       </c>
       <c r="O25" t="s">
+        <v>91</v>
+      </c>
+      <c r="P25" t="s">
         <v>94</v>
-      </c>
-      <c r="P25" t="s">
-        <v>98</v>
       </c>
       <c r="Q25">
         <v>87871545</v>
@@ -2156,52 +2138,52 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B26" t="s">
         <v>56</v>
       </c>
       <c r="C26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D26">
         <v>4212</v>
       </c>
       <c r="E26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F26">
-        <v>421.2</v>
+        <v>1263.6</v>
       </c>
       <c r="G26" t="s">
+        <v>77</v>
+      </c>
+      <c r="H26" t="s">
+        <v>77</v>
+      </c>
+      <c r="I26" t="s">
+        <v>77</v>
+      </c>
+      <c r="J26" t="s">
+        <v>77</v>
+      </c>
+      <c r="K26" t="s">
         <v>81</v>
       </c>
-      <c r="H26" t="s">
-        <v>81</v>
-      </c>
-      <c r="I26" t="s">
-        <v>81</v>
-      </c>
-      <c r="J26" t="s">
-        <v>81</v>
-      </c>
-      <c r="K26" t="s">
-        <v>83</v>
-      </c>
       <c r="L26" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="M26">
         <v>26000</v>
       </c>
       <c r="N26">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="O26" t="s">
+        <v>91</v>
+      </c>
+      <c r="P26" t="s">
         <v>94</v>
-      </c>
-      <c r="P26" t="s">
-        <v>98</v>
       </c>
       <c r="Q26">
         <v>87871545</v>
@@ -2209,40 +2191,40 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
         <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D27">
         <v>4212</v>
       </c>
       <c r="E27" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F27">
         <v>421.2</v>
       </c>
       <c r="G27" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H27" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I27" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J27" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K27" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L27" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="M27">
         <v>26000</v>
@@ -2251,10 +2233,10 @@
         <v>10</v>
       </c>
       <c r="O27" t="s">
+        <v>91</v>
+      </c>
+      <c r="P27" t="s">
         <v>94</v>
-      </c>
-      <c r="P27" t="s">
-        <v>98</v>
       </c>
       <c r="Q27">
         <v>87871545</v>
@@ -2262,40 +2244,40 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28" t="s">
         <v>56</v>
       </c>
       <c r="C28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D28">
         <v>4212</v>
       </c>
       <c r="E28" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="F28">
         <v>421.2</v>
       </c>
       <c r="G28" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H28" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I28" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J28" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K28" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L28" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="M28">
         <v>26000</v>
@@ -2304,10 +2286,10 @@
         <v>10</v>
       </c>
       <c r="O28" t="s">
+        <v>91</v>
+      </c>
+      <c r="P28" t="s">
         <v>94</v>
-      </c>
-      <c r="P28" t="s">
-        <v>98</v>
       </c>
       <c r="Q28">
         <v>87871545</v>
@@ -2315,52 +2297,52 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B29" t="s">
         <v>56</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D29">
         <v>4212</v>
       </c>
       <c r="E29" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F29">
-        <v>126.36</v>
+        <v>421.2</v>
       </c>
       <c r="G29" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H29" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I29" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J29" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K29" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L29" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="M29">
         <v>26000</v>
       </c>
       <c r="N29">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="O29" t="s">
+        <v>91</v>
+      </c>
+      <c r="P29" t="s">
         <v>94</v>
-      </c>
-      <c r="P29" t="s">
-        <v>98</v>
       </c>
       <c r="Q29">
         <v>87871545</v>
@@ -2368,40 +2350,40 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30" t="s">
         <v>56</v>
       </c>
       <c r="C30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D30">
         <v>4212</v>
       </c>
       <c r="E30" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F30">
         <v>126.36</v>
       </c>
       <c r="G30" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H30" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I30" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J30" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K30" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="L30" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="M30">
         <v>26000</v>
@@ -2410,10 +2392,10 @@
         <v>3</v>
       </c>
       <c r="O30" t="s">
+        <v>91</v>
+      </c>
+      <c r="P30" t="s">
         <v>94</v>
-      </c>
-      <c r="P30" t="s">
-        <v>98</v>
       </c>
       <c r="Q30">
         <v>87871545</v>
@@ -2421,40 +2403,40 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D31">
         <v>4212</v>
       </c>
       <c r="E31" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F31">
         <v>126.36</v>
       </c>
       <c r="G31" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H31" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I31" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J31" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K31" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="L31" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="M31">
         <v>26000</v>
@@ -2463,10 +2445,10 @@
         <v>3</v>
       </c>
       <c r="O31" t="s">
+        <v>91</v>
+      </c>
+      <c r="P31" t="s">
         <v>94</v>
-      </c>
-      <c r="P31" t="s">
-        <v>98</v>
       </c>
       <c r="Q31">
         <v>87871545</v>
@@ -2474,52 +2456,52 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B32" t="s">
         <v>56</v>
       </c>
       <c r="C32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D32">
         <v>4212</v>
       </c>
       <c r="E32" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F32">
-        <v>42.12</v>
+        <v>126.36</v>
       </c>
       <c r="G32" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H32" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I32" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J32" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K32" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="L32" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="M32">
         <v>26000</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O32" t="s">
+        <v>91</v>
+      </c>
+      <c r="P32" t="s">
         <v>94</v>
-      </c>
-      <c r="P32" t="s">
-        <v>98</v>
       </c>
       <c r="Q32">
         <v>87871545</v>
@@ -2530,105 +2512,105 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C33" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D33">
-        <v>360</v>
+        <v>4212</v>
       </c>
       <c r="E33" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F33">
-        <v>360</v>
+        <v>42.12</v>
       </c>
       <c r="G33" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H33" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I33" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J33" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K33" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L33" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="M33">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="N33">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="O33" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="P33" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="Q33">
-        <v>13500000</v>
+        <v>87871545</v>
       </c>
     </row>
     <row r="34" spans="1:17">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C34" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D34">
-        <v>187.5</v>
+        <v>360</v>
       </c>
       <c r="E34" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F34">
-        <v>187.5</v>
+        <v>360</v>
       </c>
       <c r="G34" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H34" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I34" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J34" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K34" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L34" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="M34">
-        <v>12500</v>
+        <v>2000</v>
       </c>
       <c r="N34">
         <v>100</v>
       </c>
       <c r="O34" t="s">
+        <v>92</v>
+      </c>
+      <c r="P34" t="s">
         <v>95</v>
       </c>
-      <c r="P34" t="s">
-        <v>99</v>
-      </c>
       <c r="Q34">
-        <v>1020000</v>
+        <v>13500000</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2636,52 +2618,52 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C35" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D35">
-        <v>336</v>
+        <v>187.5</v>
       </c>
       <c r="E35" t="s">
         <v>67</v>
       </c>
       <c r="F35">
-        <v>336</v>
+        <v>187.5</v>
       </c>
       <c r="G35" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H35" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I35" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J35" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K35" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L35" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="M35">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="N35">
         <v>100</v>
       </c>
       <c r="O35" t="s">
+        <v>92</v>
+      </c>
+      <c r="P35" t="s">
         <v>95</v>
       </c>
-      <c r="P35" t="s">
-        <v>99</v>
-      </c>
       <c r="Q35">
-        <v>1619200</v>
+        <v>1020000</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2689,158 +2671,52 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" t="s">
         <v>60</v>
       </c>
-      <c r="C36" t="s">
-        <v>63</v>
-      </c>
       <c r="D36">
-        <v>221.2</v>
+        <v>336</v>
       </c>
       <c r="E36" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="F36">
-        <v>154.84</v>
+        <v>336</v>
       </c>
       <c r="G36" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H36" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I36" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J36" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K36" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L36" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="M36">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N36">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="O36" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="P36" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q36">
-        <v>2370000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="A37" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
-        <v>60</v>
-      </c>
-      <c r="C37" t="s">
-        <v>63</v>
-      </c>
-      <c r="D37">
-        <v>221.2</v>
-      </c>
-      <c r="E37" t="s">
-        <v>80</v>
-      </c>
-      <c r="F37">
-        <v>66.36</v>
-      </c>
-      <c r="G37" t="s">
-        <v>81</v>
-      </c>
-      <c r="H37" t="s">
-        <v>81</v>
-      </c>
-      <c r="I37" t="s">
-        <v>81</v>
-      </c>
-      <c r="J37" t="s">
-        <v>81</v>
-      </c>
-      <c r="K37" t="s">
-        <v>84</v>
-      </c>
-      <c r="L37" t="s">
-        <v>81</v>
-      </c>
-      <c r="M37">
-        <v>14000</v>
-      </c>
-      <c r="N37">
-        <v>30</v>
-      </c>
-      <c r="O37" t="s">
-        <v>96</v>
-      </c>
-      <c r="P37" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q37">
-        <v>2370000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="A38" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
-        <v>61</v>
-      </c>
-      <c r="C38" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38">
-        <v>345</v>
-      </c>
-      <c r="E38" t="s">
-        <v>64</v>
-      </c>
-      <c r="F38">
-        <v>345</v>
-      </c>
-      <c r="G38" t="s">
-        <v>81</v>
-      </c>
-      <c r="H38" t="s">
-        <v>81</v>
-      </c>
-      <c r="I38" t="s">
-        <v>81</v>
-      </c>
-      <c r="J38" t="s">
-        <v>81</v>
-      </c>
-      <c r="K38" t="s">
-        <v>82</v>
-      </c>
-      <c r="L38" t="s">
-        <v>81</v>
-      </c>
-      <c r="M38">
-        <v>23000</v>
-      </c>
-      <c r="N38">
-        <v>100</v>
-      </c>
-      <c r="O38" t="s">
-        <v>96</v>
-      </c>
-      <c r="P38" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q38">
-        <v>1125000</v>
+        <v>1619200</v>
       </c>
     </row>
   </sheetData>
@@ -2850,7 +2726,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2861,10 +2737,10 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>15</v>
@@ -2873,742 +2749,742 @@
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>419224960</v>
+        <v>36850000</v>
       </c>
       <c r="G2">
-        <v>11580800</v>
+        <v>3350000</v>
       </c>
       <c r="H2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I2">
-        <v>36200</v>
+        <v>8000</v>
       </c>
       <c r="J2">
-        <v>44000</v>
+        <v>9500</v>
       </c>
       <c r="K2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L2">
-        <v>36200</v>
+        <v>11000</v>
       </c>
       <c r="M2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="N2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="R2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="S2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="T2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
       </c>
       <c r="F3">
-        <v>6384000</v>
+        <v>419224960</v>
       </c>
       <c r="G3">
-        <v>1596000</v>
+        <v>11580800</v>
       </c>
       <c r="H3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I3">
-        <v>3200</v>
+        <v>36200</v>
       </c>
       <c r="J3">
-        <v>3600</v>
+        <v>44000</v>
       </c>
       <c r="K3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L3">
-        <v>4000</v>
+        <v>36200</v>
       </c>
       <c r="M3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="N3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="R3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="S3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="T3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>117</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
         <v>19</v>
       </c>
       <c r="F4">
-        <v>32000000</v>
+        <v>6384000</v>
       </c>
       <c r="G4">
-        <v>1600000</v>
+        <v>1596000</v>
       </c>
       <c r="H4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I4">
-        <v>29800</v>
+        <v>3200</v>
       </c>
       <c r="J4">
-        <v>33500</v>
+        <v>3600</v>
       </c>
       <c r="K4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L4">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="M4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="N4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="R4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="S4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="T4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" t="s">
         <v>25</v>
-      </c>
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
       </c>
       <c r="E5" t="s">
         <v>20</v>
       </c>
       <c r="F5">
-        <v>65908250</v>
+        <v>32000000</v>
       </c>
       <c r="G5">
-        <v>2636330</v>
+        <v>1600000</v>
       </c>
       <c r="H5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I5">
-        <v>19100</v>
+        <v>29800</v>
       </c>
       <c r="J5">
-        <v>21400</v>
+        <v>33500</v>
       </c>
       <c r="K5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L5">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="N5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="R5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="S5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="T5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F6">
-        <v>8000000</v>
+        <v>65908250</v>
       </c>
       <c r="G6">
-        <v>4000000</v>
+        <v>2636330</v>
       </c>
       <c r="H6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I6">
-        <v>2000</v>
+        <v>19100</v>
       </c>
       <c r="J6">
-        <v>2000</v>
+        <v>21400</v>
       </c>
       <c r="K6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L6">
-        <v>2000</v>
+        <v>25000</v>
       </c>
       <c r="M6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="N6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="R6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="S6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="T6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E7" t="s">
         <v>21</v>
       </c>
       <c r="F7">
-        <v>12600000</v>
+        <v>8000000</v>
       </c>
       <c r="G7">
-        <v>7000000</v>
+        <v>4000000</v>
       </c>
       <c r="H7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I7">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="J7">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="K7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L7">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="M7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="N7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="R7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="S7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="T7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="E8" t="s">
         <v>22</v>
       </c>
       <c r="F8">
-        <v>24960000</v>
+        <v>12600000</v>
       </c>
       <c r="G8">
-        <v>5200000</v>
+        <v>7000000</v>
       </c>
       <c r="H8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I8">
-        <v>3500</v>
+        <v>1200</v>
       </c>
       <c r="J8">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="K8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L8">
-        <v>4800</v>
+        <v>1800</v>
       </c>
       <c r="M8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="N8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="R8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="S8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="T8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F9">
-        <v>46350000</v>
+        <v>24960000</v>
       </c>
       <c r="G9">
-        <v>2060000</v>
+        <v>5200000</v>
       </c>
       <c r="H9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I9">
-        <v>20300</v>
+        <v>3500</v>
       </c>
       <c r="J9">
-        <v>22500</v>
+        <v>4000</v>
       </c>
       <c r="K9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L9">
-        <v>22500</v>
+        <v>4800</v>
       </c>
       <c r="M9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="N9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="O9">
-        <v>2.912621359223301</v>
+        <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="R9" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="S9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="T9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F10">
-        <v>15600000</v>
+        <v>46350000</v>
       </c>
       <c r="G10">
-        <v>1200000</v>
+        <v>2060000</v>
       </c>
       <c r="H10" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I10">
-        <v>9100</v>
+        <v>20300</v>
       </c>
       <c r="J10">
-        <v>11000</v>
+        <v>22500</v>
       </c>
       <c r="K10" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L10">
-        <v>13000</v>
+        <v>22500</v>
       </c>
       <c r="M10" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="N10" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>2.912621359223301</v>
       </c>
       <c r="P10" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q10" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="R10" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="S10" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="T10" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
         <v>69</v>
       </c>
       <c r="D11" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F11">
-        <v>27000000</v>
+        <v>15600000</v>
       </c>
       <c r="G11">
-        <v>3600000</v>
+        <v>1200000</v>
       </c>
       <c r="H11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I11">
-        <v>5000</v>
+        <v>9100</v>
       </c>
       <c r="J11">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="K11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L11">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="M11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="N11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="R11" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="S11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="T11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="E12" t="s">
         <v>24</v>
       </c>
       <c r="F12">
-        <v>25000000</v>
+        <v>27000000</v>
       </c>
       <c r="G12">
-        <v>12500000</v>
+        <v>3600000</v>
       </c>
       <c r="H12" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I12">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="J12">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="K12" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L12">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="M12" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="N12" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q12" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="R12" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="S12" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="T12" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -3617,855 +3493,793 @@
         <v>25</v>
       </c>
       <c r="F13">
-        <v>17841194</v>
+        <v>25000000</v>
       </c>
       <c r="G13">
-        <v>1049482</v>
+        <v>12500000</v>
       </c>
       <c r="H13" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I13">
-        <v>12800</v>
+        <v>2000</v>
       </c>
       <c r="J13">
-        <v>14500</v>
+        <v>2000</v>
       </c>
       <c r="K13" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L13">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="M13" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="N13" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="O13">
-        <v>9.999980942979489</v>
+        <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q13" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="R13" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="S13" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="T13" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F14">
-        <v>4966368</v>
+        <v>17841194</v>
       </c>
       <c r="G14">
-        <v>1128720</v>
+        <v>1049482</v>
       </c>
       <c r="H14" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I14">
-        <v>3300</v>
+        <v>12800</v>
       </c>
       <c r="J14">
-        <v>3900</v>
+        <v>14500</v>
       </c>
       <c r="K14" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L14">
-        <v>4400</v>
+        <v>17000</v>
       </c>
       <c r="M14" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="N14" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>9.999980942979489</v>
       </c>
       <c r="P14" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q14" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="R14" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="S14" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="T14" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D15" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="E15" t="s">
         <v>26</v>
       </c>
       <c r="F15">
-        <v>30600000</v>
+        <v>4966368</v>
       </c>
       <c r="G15">
-        <v>1800000</v>
+        <v>1128720</v>
       </c>
       <c r="H15" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I15">
-        <v>13000</v>
+        <v>3300</v>
       </c>
       <c r="J15">
-        <v>15000</v>
+        <v>3900</v>
       </c>
       <c r="K15" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L15">
-        <v>17000</v>
+        <v>4400</v>
       </c>
       <c r="M15" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="N15" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q15" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="R15" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="S15" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="T15" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="E16" t="s">
         <v>27</v>
       </c>
       <c r="F16">
-        <v>26000000</v>
+        <v>30600000</v>
       </c>
       <c r="G16">
-        <v>4000000</v>
+        <v>1800000</v>
       </c>
       <c r="H16" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I16">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="J16">
-        <v>5600</v>
+        <v>15000</v>
       </c>
       <c r="K16" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L16">
-        <v>6500</v>
+        <v>17000</v>
       </c>
       <c r="M16" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="N16" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q16" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="R16" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="S16" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="T16" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E17" t="s">
         <v>28</v>
       </c>
       <c r="F17">
-        <v>5390000</v>
+        <v>26000000</v>
       </c>
       <c r="G17">
-        <v>770000</v>
+        <v>4000000</v>
       </c>
       <c r="H17" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I17">
-        <v>8200</v>
+        <v>5000</v>
       </c>
       <c r="J17">
-        <v>9400</v>
+        <v>5600</v>
       </c>
       <c r="K17" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L17">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="M17" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="N17" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q17" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="R17" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="S17" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="T17" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E18" t="s">
         <v>29</v>
       </c>
       <c r="F18">
-        <v>52000000</v>
+        <v>5390000</v>
       </c>
       <c r="G18">
-        <v>2000000</v>
+        <v>770000</v>
       </c>
       <c r="H18" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I18">
-        <v>22000</v>
+        <v>8200</v>
       </c>
       <c r="J18">
-        <v>25000</v>
+        <v>9400</v>
       </c>
       <c r="K18" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L18">
-        <v>26000</v>
+        <v>7000</v>
       </c>
       <c r="M18" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="N18" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q18" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="R18" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="S18" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="T18" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" t="s">
         <v>32</v>
-      </c>
-      <c r="B19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" t="s">
-        <v>97</v>
       </c>
       <c r="E19" t="s">
         <v>30</v>
       </c>
       <c r="F19">
-        <v>44265900</v>
+        <v>52000000</v>
       </c>
       <c r="G19">
-        <v>4137000</v>
+        <v>2000000</v>
       </c>
       <c r="H19" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I19">
-        <v>8800</v>
+        <v>22000</v>
       </c>
       <c r="J19">
-        <v>10700</v>
+        <v>25000</v>
       </c>
       <c r="K19" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L19">
-        <v>10700</v>
+        <v>26000</v>
       </c>
       <c r="M19" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="N19" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="O19">
-        <v>30.21513173797438</v>
+        <v>0</v>
       </c>
       <c r="P19" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q19" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="R19" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="S19" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="T19" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" t="s">
         <v>93</v>
-      </c>
-      <c r="B20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" t="s">
-        <v>33</v>
       </c>
       <c r="E20" t="s">
         <v>31</v>
       </c>
       <c r="F20">
-        <v>8000000</v>
+        <v>44265900</v>
       </c>
       <c r="G20">
-        <v>4000000</v>
+        <v>4137000</v>
       </c>
       <c r="H20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I20">
-        <v>2000</v>
+        <v>8800</v>
       </c>
       <c r="J20">
-        <v>2000</v>
+        <v>10700</v>
       </c>
       <c r="K20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L20">
-        <v>2000</v>
+        <v>10700</v>
       </c>
       <c r="M20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="N20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>30.21513173797438</v>
       </c>
       <c r="P20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="R20" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="S20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="T20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="D21" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="E21" t="s">
         <v>32</v>
       </c>
       <c r="F21">
-        <v>421200000</v>
+        <v>8000000</v>
       </c>
       <c r="G21">
-        <v>16200000</v>
+        <v>4000000</v>
       </c>
       <c r="H21" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I21">
-        <v>21000</v>
+        <v>2000</v>
       </c>
       <c r="J21">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="K21" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L21">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="M21" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="N21" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q21" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="R21" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="S21" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="T21" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="D22" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E22" t="s">
         <v>33</v>
       </c>
       <c r="F22">
-        <v>36000000</v>
+        <v>421200000</v>
       </c>
       <c r="G22">
-        <v>18000000</v>
+        <v>16200000</v>
       </c>
       <c r="H22" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I22">
-        <v>2000</v>
+        <v>21000</v>
       </c>
       <c r="J22">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="K22" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L22">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="M22" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="N22" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q22" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="R22" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="S22" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="T22" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" t="s">
         <v>95</v>
       </c>
-      <c r="B23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" t="s">
-        <v>69</v>
-      </c>
-      <c r="D23" t="s">
-        <v>99</v>
-      </c>
       <c r="E23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F23">
-        <v>18750000</v>
+        <v>36000000</v>
       </c>
       <c r="G23">
-        <v>1500000</v>
+        <v>18000000</v>
       </c>
       <c r="H23" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I23">
-        <v>8900</v>
+        <v>2000</v>
       </c>
       <c r="J23">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="K23" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L23">
-        <v>12500</v>
+        <v>2000</v>
       </c>
       <c r="M23" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="N23" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q23" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="R23" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="S23" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="T23" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
         <v>67</v>
       </c>
       <c r="D24" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E24" t="s">
         <v>34</v>
       </c>
       <c r="F24">
-        <v>33600000</v>
+        <v>18750000</v>
       </c>
       <c r="G24">
-        <v>2240000</v>
+        <v>1500000</v>
       </c>
       <c r="H24" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I24">
-        <v>11500</v>
+        <v>8900</v>
       </c>
       <c r="J24">
-        <v>13200</v>
+        <v>11000</v>
       </c>
       <c r="K24" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L24">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="M24" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="N24" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="O24">
-        <v>26.78571428571428</v>
+        <v>0</v>
       </c>
       <c r="P24" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q24" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="R24" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="S24" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="T24" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C25" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E25" t="s">
         <v>35</v>
       </c>
       <c r="F25">
-        <v>22120000</v>
+        <v>33600000</v>
       </c>
       <c r="G25">
-        <v>1580000</v>
+        <v>2240000</v>
       </c>
       <c r="H25" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I25">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="J25">
-        <v>12000</v>
+        <v>13200</v>
       </c>
       <c r="K25" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L25">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M25" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="N25" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>26.78571428571428</v>
       </c>
       <c r="P25" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q25" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="R25" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="S25" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="T25" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>96</v>
-      </c>
-      <c r="B26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" t="s">
-        <v>94</v>
-      </c>
-      <c r="E26" t="s">
-        <v>36</v>
-      </c>
-      <c r="F26">
-        <v>34500000</v>
-      </c>
-      <c r="G26">
-        <v>1500000</v>
-      </c>
-      <c r="H26" t="s">
-        <v>81</v>
-      </c>
-      <c r="I26">
-        <v>20000</v>
-      </c>
-      <c r="J26">
-        <v>23000</v>
-      </c>
-      <c r="K26" t="s">
-        <v>81</v>
-      </c>
-      <c r="L26">
-        <v>23000</v>
-      </c>
-      <c r="M26" t="s">
-        <v>81</v>
-      </c>
-      <c r="N26" t="s">
-        <v>81</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>81</v>
-      </c>
-      <c r="R26" t="s">
-        <v>143</v>
-      </c>
-      <c r="S26" t="s">
-        <v>81</v>
-      </c>
-      <c r="T26" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -4475,7 +4289,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4483,16 +4297,16 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -4504,10 +4318,10 @@
         <v>0</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>12</v>
@@ -4516,30 +4330,30 @@
         <v>6</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s">
         <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H2">
         <v>42120</v>
@@ -4559,25 +4373,25 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
         <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H3">
         <v>15600</v>
@@ -4597,34 +4411,34 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F4" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H4">
-        <v>12600</v>
+        <v>25000</v>
       </c>
       <c r="I4">
-        <v>7000000</v>
+        <v>12500000</v>
       </c>
       <c r="J4">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -4635,34 +4449,34 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F5" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H5">
-        <v>18750</v>
+        <v>27000</v>
       </c>
       <c r="I5">
-        <v>1500000</v>
+        <v>3600000</v>
       </c>
       <c r="J5">
-        <v>12500</v>
+        <v>7500</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -4673,72 +4487,72 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B6" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>118</v>
+        <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>147</v>
+        <v>67</v>
       </c>
       <c r="F6" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="H6">
-        <v>42120</v>
+        <v>12600</v>
       </c>
       <c r="I6">
-        <v>16200000</v>
+        <v>7000000</v>
       </c>
       <c r="J6">
-        <v>26000</v>
+        <v>1800</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="H7">
-        <v>25000</v>
+        <v>18750</v>
       </c>
       <c r="I7">
-        <v>12500000</v>
+        <v>1500000</v>
       </c>
       <c r="J7">
-        <v>2000</v>
+        <v>12500</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -4749,101 +4563,101 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>142</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="G8" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="H8">
-        <v>27000</v>
+        <v>42120</v>
       </c>
       <c r="I8">
-        <v>3600000</v>
+        <v>16200000</v>
       </c>
       <c r="J8">
-        <v>7500</v>
+        <v>26000</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="E9" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="H9">
-        <v>121994.4706</v>
+        <v>42120</v>
       </c>
       <c r="I9">
-        <v>11580800</v>
+        <v>16200000</v>
       </c>
       <c r="J9">
-        <v>36200</v>
+        <v>26000</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>29.1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C10" t="s">
         <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
         <v>19</v>
-      </c>
-      <c r="G10" t="s">
-        <v>18</v>
       </c>
       <c r="H10">
         <v>6384</v>
@@ -4863,110 +4677,110 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>118</v>
+        <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>147</v>
+        <v>64</v>
       </c>
       <c r="F11" t="s">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="H11">
-        <v>42120</v>
+        <v>24960</v>
       </c>
       <c r="I11">
-        <v>16200000</v>
+        <v>5200000</v>
       </c>
       <c r="J11">
-        <v>26000</v>
+        <v>4800</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>65</v>
+        <v>143</v>
       </c>
       <c r="F12" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G12" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H12">
-        <v>17841.194</v>
+        <v>121994.4706</v>
       </c>
       <c r="I12">
-        <v>1049482</v>
+        <v>11580800</v>
       </c>
       <c r="J12">
-        <v>17000</v>
+        <v>36200</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>100</v>
+        <v>29.1</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F13" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G13" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H13">
-        <v>24960</v>
+        <v>17841.194</v>
       </c>
       <c r="I13">
-        <v>5200000</v>
+        <v>1049482</v>
       </c>
       <c r="J13">
-        <v>4800</v>
+        <v>17000</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -4977,25 +4791,25 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C14" t="s">
         <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H14">
         <v>46350</v>
@@ -5015,69 +4829,69 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="E15" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="G15" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="H15">
-        <v>284653.7406</v>
+        <v>126360</v>
       </c>
       <c r="I15">
-        <v>11580800</v>
+        <v>16200000</v>
       </c>
       <c r="J15">
-        <v>36200</v>
+        <v>26000</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>67.90000000000001</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B16" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
       <c r="E16" t="s">
-        <v>147</v>
+        <v>63</v>
       </c>
       <c r="F16" t="s">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H16">
-        <v>126360</v>
+        <v>52000</v>
       </c>
       <c r="I16">
-        <v>16200000</v>
+        <v>2000000</v>
       </c>
       <c r="J16">
         <v>26000</v>
@@ -5086,115 +4900,115 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E17" t="s">
-        <v>64</v>
+        <v>143</v>
       </c>
       <c r="F17" t="s">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="G17" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="H17">
-        <v>44265.9</v>
+        <v>284653.7406</v>
       </c>
       <c r="I17">
-        <v>4137000</v>
+        <v>11580800</v>
       </c>
       <c r="J17">
-        <v>10700</v>
+        <v>36200</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>100</v>
+        <v>67.90000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D18" t="s">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c r="E18" t="s">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G18" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="H18">
-        <v>52000</v>
+        <v>16000</v>
       </c>
       <c r="I18">
-        <v>2000000</v>
+        <v>1600000</v>
       </c>
       <c r="J18">
-        <v>26000</v>
+        <v>20000</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G19" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H19">
-        <v>34500</v>
+        <v>44265.9</v>
       </c>
       <c r="I19">
-        <v>1500000</v>
+        <v>4137000</v>
       </c>
       <c r="J19">
-        <v>23000</v>
+        <v>10700</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -5205,72 +5019,72 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B20" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="D20" t="s">
-        <v>117</v>
+        <v>65</v>
       </c>
       <c r="E20" t="s">
-        <v>117</v>
+        <v>65</v>
       </c>
       <c r="F20" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="G20" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="H20">
-        <v>16000</v>
+        <v>33600</v>
       </c>
       <c r="I20">
-        <v>1600000</v>
+        <v>2240000</v>
       </c>
       <c r="J20">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="D21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F21" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="G21" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="H21">
-        <v>33600</v>
+        <v>65908.25</v>
       </c>
       <c r="I21">
-        <v>2240000</v>
+        <v>2636330</v>
       </c>
       <c r="J21">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -5281,148 +5095,148 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" t="s">
+        <v>113</v>
+      </c>
+      <c r="E22" t="s">
+        <v>113</v>
+      </c>
+      <c r="F22" t="s">
         <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" t="s">
-        <v>67</v>
-      </c>
-      <c r="E22" t="s">
-        <v>67</v>
-      </c>
-      <c r="F22" t="s">
-        <v>23</v>
       </c>
       <c r="G22" t="s">
         <v>20</v>
       </c>
       <c r="H22">
-        <v>65908.25</v>
+        <v>16000</v>
       </c>
       <c r="I22">
-        <v>2636330</v>
+        <v>1600000</v>
       </c>
       <c r="J22">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B23" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C23" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="D23" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E23" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="F23" t="s">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="G23" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="H23">
-        <v>16000</v>
+        <v>12636</v>
       </c>
       <c r="I23">
-        <v>1600000</v>
+        <v>16200000</v>
       </c>
       <c r="J23">
-        <v>20000</v>
+        <v>26000</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B24" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D24" t="s">
-        <v>118</v>
+        <v>70</v>
       </c>
       <c r="E24" t="s">
-        <v>147</v>
+        <v>70</v>
       </c>
       <c r="F24" t="s">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="G24" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H24">
-        <v>12636</v>
+        <v>4966.368</v>
       </c>
       <c r="I24">
-        <v>16200000</v>
+        <v>1128720</v>
       </c>
       <c r="J24">
-        <v>26000</v>
+        <v>4400</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B25" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F25" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="G25" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="H25">
-        <v>4966.368</v>
+        <v>36000</v>
       </c>
       <c r="I25">
-        <v>1128720</v>
+        <v>18000000</v>
       </c>
       <c r="J25">
-        <v>4400</v>
+        <v>2000</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -5433,177 +5247,177 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B26" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D26" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="E26" t="s">
-        <v>72</v>
+        <v>142</v>
       </c>
       <c r="F26" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="G26" t="s">
         <v>33</v>
       </c>
       <c r="H26">
-        <v>36000</v>
+        <v>4212</v>
       </c>
       <c r="I26">
-        <v>18000000</v>
+        <v>16200000</v>
       </c>
       <c r="J26">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B27" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D27" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="E27" t="s">
-        <v>147</v>
+        <v>71</v>
       </c>
       <c r="F27" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="G27" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H27">
-        <v>4212</v>
+        <v>26000</v>
       </c>
       <c r="I27">
-        <v>16200000</v>
+        <v>4000000</v>
       </c>
       <c r="J27">
-        <v>26000</v>
+        <v>6500</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B28" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C28" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D28" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="E28" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="F28" t="s">
         <v>94</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H28">
-        <v>15484</v>
+        <v>12636</v>
       </c>
       <c r="I28">
-        <v>1580000</v>
+        <v>16200000</v>
       </c>
       <c r="J28">
-        <v>14000</v>
+        <v>26000</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28">
-        <v>70</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B29" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D29" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E29" t="s">
-        <v>149</v>
+        <v>72</v>
       </c>
       <c r="F29" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="G29" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H29">
-        <v>6636</v>
+        <v>5390</v>
       </c>
       <c r="I29">
-        <v>1580000</v>
+        <v>770000</v>
       </c>
       <c r="J29">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B30" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C30" t="s">
         <v>56</v>
       </c>
       <c r="D30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E30" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F30" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H30">
         <v>12636</v>
@@ -5623,34 +5437,34 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B31" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="C31" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="D31" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="E31" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="F31" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G31" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="H31">
-        <v>26000</v>
+        <v>36850</v>
       </c>
       <c r="I31">
-        <v>4000000</v>
+        <v>3350000</v>
       </c>
       <c r="J31">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -5661,34 +5475,34 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B32" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C32" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="D32" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
       <c r="E32" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F32" t="s">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="G32" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="H32">
-        <v>12636</v>
+        <v>12576.7488</v>
       </c>
       <c r="I32">
-        <v>16200000</v>
+        <v>11580800</v>
       </c>
       <c r="J32">
-        <v>26000</v>
+        <v>36200</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -5699,34 +5513,34 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="C33" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D33" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E33" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="G33" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H33">
-        <v>5390</v>
+        <v>8000</v>
       </c>
       <c r="I33">
-        <v>770000</v>
+        <v>4000000</v>
       </c>
       <c r="J33">
-        <v>7000</v>
+        <v>2000</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -5740,69 +5554,69 @@
         <v>66</v>
       </c>
       <c r="B34" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C34" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="D34" t="s">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="E34" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F34" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="G34" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="H34">
-        <v>12576.7488</v>
+        <v>126360</v>
       </c>
       <c r="I34">
-        <v>11580800</v>
+        <v>16200000</v>
       </c>
       <c r="J34">
-        <v>36200</v>
+        <v>26000</v>
       </c>
       <c r="K34">
         <v>0</v>
       </c>
       <c r="L34">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B35" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E35" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F35" t="s">
         <v>87</v>
       </c>
       <c r="G35" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H35">
-        <v>8000</v>
+        <v>30600</v>
       </c>
       <c r="I35">
-        <v>4000000</v>
+        <v>1800000</v>
       </c>
       <c r="J35">
-        <v>2000</v>
+        <v>17000</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -5813,115 +5627,39 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B36" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D36" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="E36" t="s">
-        <v>147</v>
+        <v>73</v>
       </c>
       <c r="F36" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="G36" t="s">
         <v>32</v>
       </c>
       <c r="H36">
-        <v>126360</v>
+        <v>8000</v>
       </c>
       <c r="I36">
-        <v>16200000</v>
+        <v>4000000</v>
       </c>
       <c r="J36">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="K36">
         <v>0</v>
       </c>
       <c r="L36">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37" t="s">
-        <v>68</v>
-      </c>
-      <c r="B37" t="s">
-        <v>30</v>
-      </c>
-      <c r="C37" t="s">
-        <v>50</v>
-      </c>
-      <c r="D37" t="s">
-        <v>68</v>
-      </c>
-      <c r="E37" t="s">
-        <v>68</v>
-      </c>
-      <c r="F37" t="s">
-        <v>91</v>
-      </c>
-      <c r="G37" t="s">
-        <v>26</v>
-      </c>
-      <c r="H37">
-        <v>30600</v>
-      </c>
-      <c r="I37">
-        <v>1800000</v>
-      </c>
-      <c r="J37">
-        <v>17000</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="A38" t="s">
-        <v>75</v>
-      </c>
-      <c r="B38" t="s">
-        <v>93</v>
-      </c>
-      <c r="C38" t="s">
-        <v>55</v>
-      </c>
-      <c r="D38" t="s">
-        <v>75</v>
-      </c>
-      <c r="E38" t="s">
-        <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>33</v>
-      </c>
-      <c r="G38" t="s">
-        <v>31</v>
-      </c>
-      <c r="H38">
-        <v>8000</v>
-      </c>
-      <c r="I38">
-        <v>4000000</v>
-      </c>
-      <c r="J38">
-        <v>2000</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
         <v>100</v>
       </c>
     </row>

--- a/datasets/corporate-finance-data.xlsx
+++ b/datasets/corporate-finance-data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="145">
   <si>
     <t>상장일</t>
   </si>
@@ -72,6 +72,12 @@
     <t>2023-11-20</t>
   </si>
   <si>
+    <t>2023-11-21</t>
+  </si>
+  <si>
+    <t>2023-11-22</t>
+  </si>
+  <si>
     <t>2023-11-17</t>
   </si>
   <si>
@@ -123,12 +129,15 @@
     <t>2023-10-04</t>
   </si>
   <si>
-    <t>2023-10-06</t>
-  </si>
-  <si>
     <t>스톰테크</t>
   </si>
   <si>
+    <t>에코아이</t>
+  </si>
+  <si>
+    <t>동인기연</t>
+  </si>
+  <si>
     <t>에코프로머티</t>
   </si>
   <si>
@@ -192,12 +201,6 @@
     <t>신한제11호스팩</t>
   </si>
   <si>
-    <t>한싹</t>
-  </si>
-  <si>
-    <t>레뷰코퍼레이션</t>
-  </si>
-  <si>
     <t>코스닥</t>
   </si>
   <si>
@@ -207,21 +210,21 @@
     <t>하이</t>
   </si>
   <si>
+    <t>KB</t>
+  </si>
+  <si>
+    <t>NH</t>
+  </si>
+  <si>
     <t>미래</t>
   </si>
   <si>
-    <t>NH</t>
-  </si>
-  <si>
     <t>삼성</t>
   </si>
   <si>
     <t>한국</t>
   </si>
   <si>
-    <t>KB</t>
-  </si>
-  <si>
     <t>대신</t>
   </si>
   <si>
@@ -366,6 +369,12 @@
     <t>499.64 : 1</t>
   </si>
   <si>
+    <t>19.69 : 1</t>
+  </si>
+  <si>
+    <t>4.043 : 1</t>
+  </si>
+  <si>
     <t>70.04 : 1</t>
   </si>
   <si>
@@ -427,12 +436,6 @@
   </si>
   <si>
     <t>3.18 : 1</t>
-  </si>
-  <si>
-    <t>1437 : 1</t>
-  </si>
-  <si>
-    <t>657.8 : 1</t>
   </si>
   <si>
     <t>인수기관</t>
@@ -869,37 +872,37 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D2">
         <v>368.5</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F2">
         <v>368.5</v>
       </c>
       <c r="G2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M2">
         <v>11000</v>
@@ -908,10 +911,10 @@
         <v>100</v>
       </c>
       <c r="O2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="P2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q2">
         <v>2374500</v>
@@ -922,155 +925,155 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
         <v>61</v>
       </c>
       <c r="D3">
-        <v>4192.2496</v>
+        <v>721.413</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F3">
-        <v>2846.537406</v>
+        <v>721.413</v>
       </c>
       <c r="G3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M3">
-        <v>36200</v>
+        <v>34700</v>
       </c>
       <c r="N3">
-        <v>67.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="O3" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="P3" t="s">
         <v>21</v>
       </c>
       <c r="Q3">
-        <v>19108320</v>
+        <v>1537150</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D4">
-        <v>4192.2496</v>
+        <v>441.12</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F4">
-        <v>1219.944706</v>
+        <v>441.12</v>
       </c>
       <c r="G4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K4" t="s">
         <v>79</v>
       </c>
       <c r="L4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M4">
-        <v>36200</v>
+        <v>30000</v>
       </c>
       <c r="N4">
-        <v>29.1</v>
+        <v>100</v>
       </c>
       <c r="O4" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="P4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q4">
-        <v>19108320</v>
+        <v>1072999</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D5">
         <v>4192.2496</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F5">
-        <v>125.767488</v>
+        <v>2846.537406</v>
       </c>
       <c r="G5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M5">
         <v>36200</v>
       </c>
       <c r="N5">
-        <v>3</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="O5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q5">
         <v>19108320</v>
@@ -1078,55 +1081,55 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D6">
-        <v>63.84</v>
+        <v>4192.2496</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F6">
-        <v>63.84</v>
+        <v>1219.944706</v>
       </c>
       <c r="G6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M6">
-        <v>4000</v>
+        <v>36200</v>
       </c>
       <c r="N6">
-        <v>100</v>
+        <v>29.1</v>
       </c>
       <c r="O6" t="s">
         <v>83</v>
       </c>
       <c r="P6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Q6">
-        <v>1197000</v>
+        <v>19108320</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1134,264 +1137,264 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D7">
-        <v>320</v>
+        <v>4192.2496</v>
       </c>
       <c r="E7" t="s">
         <v>63</v>
       </c>
       <c r="F7">
-        <v>160</v>
+        <v>125.767488</v>
       </c>
       <c r="G7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K7" t="s">
         <v>81</v>
       </c>
       <c r="L7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M7">
-        <v>20000</v>
+        <v>36200</v>
       </c>
       <c r="N7">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="O7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q7">
-        <v>2254770</v>
+        <v>19108320</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D8">
-        <v>320</v>
+        <v>63.84</v>
       </c>
       <c r="E8" t="s">
         <v>65</v>
       </c>
       <c r="F8">
-        <v>160</v>
+        <v>63.84</v>
       </c>
       <c r="G8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M8">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="N8">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="O8" t="s">
         <v>84</v>
       </c>
       <c r="P8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Q8">
-        <v>2254770</v>
+        <v>1197000</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D9">
-        <v>659.0825</v>
+        <v>320</v>
       </c>
       <c r="E9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F9">
-        <v>659.0825</v>
+        <v>160</v>
       </c>
       <c r="G9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K9" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M9">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="N9">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O9" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="P9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="Q9">
-        <v>1827247</v>
+        <v>2254770</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D10">
-        <v>80</v>
+        <v>320</v>
       </c>
       <c r="E10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F10">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="G10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K10" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M10">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="N10">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O10" t="s">
         <v>85</v>
       </c>
       <c r="P10" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="Q10">
-        <v>3000000</v>
+        <v>2254770</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D11">
-        <v>126</v>
+        <v>659.0825</v>
       </c>
       <c r="E11" t="s">
         <v>67</v>
       </c>
       <c r="F11">
-        <v>126</v>
+        <v>659.0825</v>
       </c>
       <c r="G11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M11">
-        <v>1800</v>
+        <v>25000</v>
       </c>
       <c r="N11">
         <v>100</v>
       </c>
       <c r="O11" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="P11" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="Q11">
-        <v>4550000</v>
+        <v>1827247</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1399,264 +1402,264 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D12">
-        <v>249.6</v>
+        <v>80</v>
       </c>
       <c r="E12" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F12">
-        <v>249.6</v>
+        <v>80</v>
       </c>
       <c r="G12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M12">
-        <v>4800</v>
+        <v>2000</v>
       </c>
       <c r="N12">
         <v>100</v>
       </c>
       <c r="O12" t="s">
+        <v>86</v>
+      </c>
+      <c r="P12" t="s">
         <v>84</v>
       </c>
-      <c r="P12" t="s">
-        <v>25</v>
-      </c>
       <c r="Q12">
-        <v>3900000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D13">
-        <v>463.5</v>
+        <v>126</v>
       </c>
       <c r="E13" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F13">
-        <v>463.5</v>
+        <v>126</v>
       </c>
       <c r="G13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M13">
-        <v>22500</v>
+        <v>1800</v>
       </c>
       <c r="N13">
         <v>100</v>
       </c>
       <c r="O13" t="s">
+        <v>86</v>
+      </c>
+      <c r="P13" t="s">
         <v>84</v>
       </c>
-      <c r="P13" t="s">
-        <v>25</v>
-      </c>
       <c r="Q13">
-        <v>1545000</v>
+        <v>4550000</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D14">
-        <v>156</v>
+        <v>249.6</v>
       </c>
       <c r="E14" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F14">
-        <v>156</v>
+        <v>249.6</v>
       </c>
       <c r="G14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M14">
-        <v>13000</v>
+        <v>4800</v>
       </c>
       <c r="N14">
         <v>100</v>
       </c>
       <c r="O14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Q14">
-        <v>840000</v>
+        <v>3900000</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D15">
-        <v>270</v>
+        <v>463.5</v>
       </c>
       <c r="E15" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F15">
-        <v>270</v>
+        <v>463.5</v>
       </c>
       <c r="G15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M15">
-        <v>7500</v>
+        <v>22500</v>
       </c>
       <c r="N15">
         <v>100</v>
       </c>
       <c r="O15" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="P15" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="Q15">
-        <v>2600000</v>
+        <v>1545000</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D16">
-        <v>250</v>
+        <v>156</v>
       </c>
       <c r="E16" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F16">
-        <v>250</v>
+        <v>156</v>
       </c>
       <c r="G16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M16">
-        <v>2000</v>
+        <v>13000</v>
       </c>
       <c r="N16">
         <v>100</v>
       </c>
       <c r="O16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P16" t="s">
         <v>27</v>
       </c>
       <c r="Q16">
-        <v>9375000</v>
+        <v>840000</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1664,93 +1667,93 @@
         <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D17">
-        <v>178.41194</v>
+        <v>270</v>
       </c>
       <c r="E17" t="s">
         <v>64</v>
       </c>
       <c r="F17">
-        <v>178.41194</v>
+        <v>270</v>
       </c>
       <c r="G17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M17">
-        <v>17000</v>
+        <v>7500</v>
       </c>
       <c r="N17">
         <v>100</v>
       </c>
       <c r="O17" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="P17" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="Q17">
-        <v>787111</v>
+        <v>2600000</v>
       </c>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D18">
-        <v>49.66368</v>
+        <v>250</v>
       </c>
       <c r="E18" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F18">
-        <v>49.66368</v>
+        <v>250</v>
       </c>
       <c r="G18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M18">
-        <v>4400</v>
+        <v>2000</v>
       </c>
       <c r="N18">
         <v>100</v>
@@ -1759,48 +1762,48 @@
         <v>87</v>
       </c>
       <c r="P18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q18">
-        <v>846540</v>
+        <v>9375000</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D19">
-        <v>306</v>
+        <v>178.41194</v>
       </c>
       <c r="E19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F19">
-        <v>306</v>
+        <v>178.41194</v>
       </c>
       <c r="G19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M19">
         <v>17000</v>
@@ -1809,13 +1812,13 @@
         <v>100</v>
       </c>
       <c r="O19" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="Q19">
-        <v>1119600</v>
+        <v>787111</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1823,40 +1826,40 @@
         <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20">
-        <v>260</v>
+        <v>49.66368</v>
       </c>
       <c r="E20" t="s">
         <v>71</v>
       </c>
       <c r="F20">
-        <v>260</v>
+        <v>49.66368</v>
       </c>
       <c r="G20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M20">
-        <v>6500</v>
+        <v>4400</v>
       </c>
       <c r="N20">
         <v>100</v>
@@ -1868,7 +1871,7 @@
         <v>30</v>
       </c>
       <c r="Q20">
-        <v>2880000</v>
+        <v>846540</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1876,52 +1879,52 @@
         <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D21">
-        <v>53.9</v>
+        <v>306</v>
       </c>
       <c r="E21" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F21">
-        <v>53.9</v>
+        <v>306</v>
       </c>
       <c r="G21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M21">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="N21">
         <v>100</v>
       </c>
       <c r="O21" t="s">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="P21" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="Q21">
-        <v>577500</v>
+        <v>1119600</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1929,40 +1932,40 @@
         <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D22">
-        <v>520</v>
+        <v>260</v>
       </c>
       <c r="E22" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="F22">
-        <v>520</v>
+        <v>260</v>
       </c>
       <c r="G22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M22">
-        <v>26000</v>
+        <v>6500</v>
       </c>
       <c r="N22">
         <v>100</v>
@@ -1974,7 +1977,7 @@
         <v>32</v>
       </c>
       <c r="Q22">
-        <v>1300000</v>
+        <v>2880000</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1982,52 +1985,52 @@
         <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D23">
-        <v>442.659</v>
+        <v>53.9</v>
       </c>
       <c r="E23" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="F23">
-        <v>442.659</v>
+        <v>53.9</v>
       </c>
       <c r="G23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M23">
-        <v>10700</v>
+        <v>7000</v>
       </c>
       <c r="N23">
         <v>100</v>
       </c>
       <c r="O23" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="P23" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="Q23">
-        <v>3102750</v>
+        <v>577500</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -2035,40 +2038,40 @@
         <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D24">
-        <v>80</v>
+        <v>520</v>
       </c>
       <c r="E24" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F24">
-        <v>80</v>
+        <v>520</v>
       </c>
       <c r="G24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M24">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="N24">
         <v>100</v>
@@ -2080,7 +2083,7 @@
         <v>34</v>
       </c>
       <c r="Q24">
-        <v>3000000</v>
+        <v>1300000</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2088,155 +2091,155 @@
         <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C25" t="s">
         <v>61</v>
       </c>
       <c r="D25">
-        <v>4212</v>
+        <v>442.659</v>
       </c>
       <c r="E25" t="s">
         <v>66</v>
       </c>
       <c r="F25">
-        <v>1263.6</v>
+        <v>442.659</v>
       </c>
       <c r="G25" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H25" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I25" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J25" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L25" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M25">
-        <v>26000</v>
+        <v>10700</v>
       </c>
       <c r="N25">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="O25" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="P25" t="s">
         <v>94</v>
       </c>
       <c r="Q25">
-        <v>87871545</v>
+        <v>3102750</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C26" t="s">
         <v>61</v>
       </c>
       <c r="D26">
-        <v>4212</v>
+        <v>80</v>
       </c>
       <c r="E26" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="F26">
-        <v>1263.6</v>
+        <v>80</v>
       </c>
       <c r="G26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K26" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M26">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="N26">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="O26" t="s">
         <v>91</v>
       </c>
       <c r="P26" t="s">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="Q26">
-        <v>87871545</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D27">
         <v>4212</v>
       </c>
       <c r="E27" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F27">
-        <v>421.2</v>
+        <v>1263.6</v>
       </c>
       <c r="G27" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H27" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I27" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J27" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K27" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L27" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M27">
         <v>26000</v>
       </c>
       <c r="N27">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="O27" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P27" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q27">
         <v>87871545</v>
@@ -2244,52 +2247,52 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D28">
         <v>4212</v>
       </c>
       <c r="E28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F28">
-        <v>421.2</v>
+        <v>1263.6</v>
       </c>
       <c r="G28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K28" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M28">
         <v>26000</v>
       </c>
       <c r="N28">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="O28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P28" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q28">
         <v>87871545</v>
@@ -2297,40 +2300,40 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D29">
         <v>4212</v>
       </c>
       <c r="E29" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="F29">
         <v>421.2</v>
       </c>
       <c r="G29" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H29" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I29" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J29" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K29" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L29" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M29">
         <v>26000</v>
@@ -2339,10 +2342,10 @@
         <v>10</v>
       </c>
       <c r="O29" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P29" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q29">
         <v>87871545</v>
@@ -2350,52 +2353,52 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D30">
         <v>4212</v>
       </c>
       <c r="E30" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F30">
-        <v>126.36</v>
+        <v>421.2</v>
       </c>
       <c r="G30" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H30" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I30" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J30" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K30" t="s">
         <v>80</v>
       </c>
       <c r="L30" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M30">
         <v>26000</v>
       </c>
       <c r="N30">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="O30" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P30" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q30">
         <v>87871545</v>
@@ -2403,13 +2406,13 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D31">
         <v>4212</v>
@@ -2418,37 +2421,37 @@
         <v>75</v>
       </c>
       <c r="F31">
-        <v>126.36</v>
+        <v>421.2</v>
       </c>
       <c r="G31" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H31" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I31" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J31" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K31" t="s">
         <v>80</v>
       </c>
       <c r="L31" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M31">
         <v>26000</v>
       </c>
       <c r="N31">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="O31" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P31" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q31">
         <v>87871545</v>
@@ -2456,13 +2459,13 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C32" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D32">
         <v>4212</v>
@@ -2474,22 +2477,22 @@
         <v>126.36</v>
       </c>
       <c r="G32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M32">
         <v>26000</v>
@@ -2498,10 +2501,10 @@
         <v>3</v>
       </c>
       <c r="O32" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P32" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q32">
         <v>87871545</v>
@@ -2509,13 +2512,13 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C33" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D33">
         <v>4212</v>
@@ -2524,37 +2527,37 @@
         <v>76</v>
       </c>
       <c r="F33">
-        <v>42.12</v>
+        <v>126.36</v>
       </c>
       <c r="G33" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H33" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I33" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J33" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L33" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M33">
         <v>26000</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O33" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P33" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q33">
         <v>87871545</v>
@@ -2562,46 +2565,46 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C34" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D34">
-        <v>360</v>
+        <v>4212</v>
       </c>
       <c r="E34" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F34">
-        <v>360</v>
+        <v>126.36</v>
       </c>
       <c r="G34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K34" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M34">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="N34">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="O34" t="s">
         <v>92</v>
@@ -2610,51 +2613,51 @@
         <v>95</v>
       </c>
       <c r="Q34">
-        <v>13500000</v>
+        <v>87871545</v>
       </c>
     </row>
     <row r="35" spans="1:17">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C35" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D35">
-        <v>187.5</v>
+        <v>4212</v>
       </c>
       <c r="E35" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F35">
-        <v>187.5</v>
+        <v>42.12</v>
       </c>
       <c r="G35" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H35" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I35" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J35" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K35" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L35" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M35">
-        <v>12500</v>
+        <v>26000</v>
       </c>
       <c r="N35">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="O35" t="s">
         <v>92</v>
@@ -2663,60 +2666,60 @@
         <v>95</v>
       </c>
       <c r="Q35">
-        <v>1020000</v>
+        <v>87871545</v>
       </c>
     </row>
     <row r="36" spans="1:17">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C36" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D36">
-        <v>336</v>
+        <v>360</v>
       </c>
       <c r="E36" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F36">
-        <v>336</v>
+        <v>360</v>
       </c>
       <c r="G36" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H36" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I36" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J36" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K36" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L36" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M36">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="N36">
         <v>100</v>
       </c>
       <c r="O36" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P36" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q36">
-        <v>1619200</v>
+        <v>13500000</v>
       </c>
     </row>
   </sheetData>
@@ -2737,10 +2740,10 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>15</v>
@@ -2749,63 +2752,63 @@
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
@@ -2817,7 +2820,7 @@
         <v>3350000</v>
       </c>
       <c r="H2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I2">
         <v>8000</v>
@@ -2826,45 +2829,45 @@
         <v>9500</v>
       </c>
       <c r="K2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L2">
         <v>11000</v>
       </c>
       <c r="M2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="S2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -2873,235 +2876,235 @@
         <v>18</v>
       </c>
       <c r="F3">
-        <v>419224960</v>
+        <v>72141300</v>
       </c>
       <c r="G3">
-        <v>11580800</v>
+        <v>2079000</v>
       </c>
       <c r="H3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I3">
-        <v>36200</v>
+        <v>28500</v>
       </c>
       <c r="J3">
-        <v>44000</v>
+        <v>34700</v>
       </c>
       <c r="K3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L3">
-        <v>36200</v>
+        <v>34700</v>
       </c>
       <c r="M3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="S3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
         <v>19</v>
       </c>
       <c r="F4">
-        <v>6384000</v>
+        <v>44112000</v>
       </c>
       <c r="G4">
-        <v>1596000</v>
+        <v>1470400</v>
       </c>
       <c r="H4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I4">
-        <v>3200</v>
+        <v>33000</v>
       </c>
       <c r="J4">
-        <v>3600</v>
+        <v>37000</v>
       </c>
       <c r="K4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L4">
-        <v>4000</v>
+        <v>30000</v>
       </c>
       <c r="M4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>23.28618063112079</v>
       </c>
       <c r="P4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="S4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
         <v>20</v>
       </c>
       <c r="F5">
-        <v>32000000</v>
+        <v>419224960</v>
       </c>
       <c r="G5">
-        <v>1600000</v>
+        <v>11580800</v>
       </c>
       <c r="H5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I5">
-        <v>29800</v>
+        <v>36200</v>
       </c>
       <c r="J5">
-        <v>33500</v>
+        <v>44000</v>
       </c>
       <c r="K5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L5">
-        <v>20000</v>
+        <v>36200</v>
       </c>
       <c r="M5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="S5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
         <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
         <v>21</v>
       </c>
       <c r="F6">
-        <v>65908250</v>
+        <v>6384000</v>
       </c>
       <c r="G6">
-        <v>2636330</v>
+        <v>1596000</v>
       </c>
       <c r="H6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I6">
-        <v>19100</v>
+        <v>3200</v>
       </c>
       <c r="J6">
-        <v>21400</v>
+        <v>3600</v>
       </c>
       <c r="K6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L6">
-        <v>25000</v>
+        <v>4000</v>
       </c>
       <c r="M6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="S6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -3109,495 +3112,495 @@
         <v>85</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>114</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7">
-        <v>8000000</v>
+        <v>32000000</v>
       </c>
       <c r="G7">
-        <v>4000000</v>
+        <v>1600000</v>
       </c>
       <c r="H7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I7">
-        <v>2000</v>
+        <v>29800</v>
       </c>
       <c r="J7">
-        <v>2000</v>
+        <v>33500</v>
       </c>
       <c r="K7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L7">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="M7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="S7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
         <v>67</v>
       </c>
       <c r="D8" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F8">
-        <v>12600000</v>
+        <v>65908250</v>
       </c>
       <c r="G8">
-        <v>7000000</v>
+        <v>2636330</v>
       </c>
       <c r="H8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I8">
-        <v>1200</v>
+        <v>19100</v>
       </c>
       <c r="J8">
-        <v>1500</v>
+        <v>21400</v>
       </c>
       <c r="K8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L8">
-        <v>1800</v>
+        <v>25000</v>
       </c>
       <c r="M8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="S8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" t="s">
         <v>84</v>
-      </c>
-      <c r="B9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9" t="s">
         <v>23</v>
       </c>
       <c r="F9">
-        <v>24960000</v>
+        <v>8000000</v>
       </c>
       <c r="G9">
-        <v>5200000</v>
+        <v>4000000</v>
       </c>
       <c r="H9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I9">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="J9">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="K9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L9">
-        <v>4800</v>
+        <v>2000</v>
       </c>
       <c r="M9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="S9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" t="s">
         <v>84</v>
       </c>
-      <c r="B10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F10">
-        <v>46350000</v>
+        <v>12600000</v>
       </c>
       <c r="G10">
-        <v>2060000</v>
+        <v>7000000</v>
       </c>
       <c r="H10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I10">
-        <v>20300</v>
+        <v>1200</v>
       </c>
       <c r="J10">
-        <v>22500</v>
+        <v>1500</v>
       </c>
       <c r="K10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L10">
-        <v>22500</v>
+        <v>1800</v>
       </c>
       <c r="M10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O10">
-        <v>2.912621359223301</v>
+        <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="S10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
         <v>25</v>
       </c>
-      <c r="E11" t="s">
-        <v>20</v>
-      </c>
       <c r="F11">
-        <v>15600000</v>
+        <v>24960000</v>
       </c>
       <c r="G11">
-        <v>1200000</v>
+        <v>5200000</v>
       </c>
       <c r="H11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I11">
-        <v>9100</v>
+        <v>3500</v>
       </c>
       <c r="J11">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="K11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L11">
-        <v>13000</v>
+        <v>4800</v>
       </c>
       <c r="M11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="S11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D12" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F12">
-        <v>27000000</v>
+        <v>46350000</v>
       </c>
       <c r="G12">
-        <v>3600000</v>
+        <v>2060000</v>
       </c>
       <c r="H12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I12">
-        <v>5000</v>
+        <v>20300</v>
       </c>
       <c r="J12">
-        <v>7000</v>
+        <v>22500</v>
       </c>
       <c r="K12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L12">
-        <v>7500</v>
+        <v>22500</v>
       </c>
       <c r="M12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>2.912621359223301</v>
       </c>
       <c r="P12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="S12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F13">
-        <v>25000000</v>
+        <v>15600000</v>
       </c>
       <c r="G13">
-        <v>12500000</v>
+        <v>1200000</v>
       </c>
       <c r="H13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I13">
-        <v>2000</v>
+        <v>9100</v>
       </c>
       <c r="J13">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="K13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L13">
-        <v>2000</v>
+        <v>13000</v>
       </c>
       <c r="M13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="S13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
         <v>64</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="E14" t="s">
         <v>26</v>
       </c>
       <c r="F14">
-        <v>17841194</v>
+        <v>27000000</v>
       </c>
       <c r="G14">
-        <v>1049482</v>
+        <v>3600000</v>
       </c>
       <c r="H14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I14">
-        <v>12800</v>
+        <v>5000</v>
       </c>
       <c r="J14">
-        <v>14500</v>
+        <v>7000</v>
       </c>
       <c r="K14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L14">
-        <v>17000</v>
+        <v>7500</v>
       </c>
       <c r="M14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O14">
-        <v>9.999980942979489</v>
+        <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="S14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -3605,123 +3608,123 @@
         <v>87</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F15">
-        <v>4966368</v>
+        <v>25000000</v>
       </c>
       <c r="G15">
-        <v>1128720</v>
+        <v>12500000</v>
       </c>
       <c r="H15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I15">
-        <v>3300</v>
+        <v>2000</v>
       </c>
       <c r="J15">
-        <v>3900</v>
+        <v>2000</v>
       </c>
       <c r="K15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L15">
-        <v>4400</v>
+        <v>2000</v>
       </c>
       <c r="M15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="S15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D16" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F16">
-        <v>30600000</v>
+        <v>17841194</v>
       </c>
       <c r="G16">
-        <v>1800000</v>
+        <v>1049482</v>
       </c>
       <c r="H16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I16">
-        <v>13000</v>
+        <v>12800</v>
       </c>
       <c r="J16">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="K16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L16">
         <v>17000</v>
       </c>
       <c r="M16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>9.999980942979489</v>
       </c>
       <c r="P16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="S16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -3729,7 +3732,7 @@
         <v>88</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C17" t="s">
         <v>71</v>
@@ -3741,111 +3744,111 @@
         <v>28</v>
       </c>
       <c r="F17">
-        <v>26000000</v>
+        <v>4966368</v>
       </c>
       <c r="G17">
-        <v>4000000</v>
+        <v>1128720</v>
       </c>
       <c r="H17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I17">
-        <v>5000</v>
+        <v>3300</v>
       </c>
       <c r="J17">
-        <v>5600</v>
+        <v>3900</v>
       </c>
       <c r="K17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L17">
-        <v>6500</v>
+        <v>4400</v>
       </c>
       <c r="M17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R17" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="S17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D18" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="E18" t="s">
         <v>29</v>
       </c>
       <c r="F18">
-        <v>5390000</v>
+        <v>30600000</v>
       </c>
       <c r="G18">
-        <v>770000</v>
+        <v>1800000</v>
       </c>
       <c r="H18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I18">
-        <v>8200</v>
+        <v>13000</v>
       </c>
       <c r="J18">
-        <v>9400</v>
+        <v>15000</v>
       </c>
       <c r="K18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L18">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="M18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R18" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="S18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -3853,10 +3856,10 @@
         <v>89</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="D19" t="s">
         <v>32</v>
@@ -3865,111 +3868,111 @@
         <v>30</v>
       </c>
       <c r="F19">
-        <v>52000000</v>
+        <v>26000000</v>
       </c>
       <c r="G19">
-        <v>2000000</v>
+        <v>4000000</v>
       </c>
       <c r="H19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I19">
-        <v>22000</v>
+        <v>5000</v>
       </c>
       <c r="J19">
-        <v>25000</v>
+        <v>5600</v>
       </c>
       <c r="K19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L19">
-        <v>26000</v>
+        <v>6500</v>
       </c>
       <c r="M19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R19" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="S19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D20" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="E20" t="s">
         <v>31</v>
       </c>
       <c r="F20">
-        <v>44265900</v>
+        <v>5390000</v>
       </c>
       <c r="G20">
-        <v>4137000</v>
+        <v>770000</v>
       </c>
       <c r="H20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I20">
-        <v>8800</v>
+        <v>8200</v>
       </c>
       <c r="J20">
-        <v>10700</v>
+        <v>9400</v>
       </c>
       <c r="K20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L20">
-        <v>10700</v>
+        <v>7000</v>
       </c>
       <c r="M20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O20">
-        <v>30.21513173797438</v>
+        <v>0</v>
       </c>
       <c r="P20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R20" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="S20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -3977,10 +3980,10 @@
         <v>90</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D21" t="s">
         <v>34</v>
@@ -3989,60 +3992,60 @@
         <v>32</v>
       </c>
       <c r="F21">
-        <v>8000000</v>
+        <v>52000000</v>
       </c>
       <c r="G21">
-        <v>4000000</v>
+        <v>2000000</v>
       </c>
       <c r="H21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I21">
-        <v>2000</v>
+        <v>22000</v>
       </c>
       <c r="J21">
-        <v>2000</v>
+        <v>25000</v>
       </c>
       <c r="K21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L21">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="M21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="S21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C22" t="s">
-        <v>114</v>
+        <v>66</v>
       </c>
       <c r="D22" t="s">
         <v>94</v>
@@ -4051,75 +4054,75 @@
         <v>33</v>
       </c>
       <c r="F22">
-        <v>421200000</v>
+        <v>44265900</v>
       </c>
       <c r="G22">
-        <v>16200000</v>
+        <v>4137000</v>
       </c>
       <c r="H22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I22">
-        <v>21000</v>
+        <v>8800</v>
       </c>
       <c r="J22">
-        <v>26000</v>
+        <v>10700</v>
       </c>
       <c r="K22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L22">
-        <v>26000</v>
+        <v>10700</v>
       </c>
       <c r="M22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>30.21513173797438</v>
       </c>
       <c r="P22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R22" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="S22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C23" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D23" t="s">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="E23" t="s">
         <v>34</v>
       </c>
       <c r="F23">
-        <v>36000000</v>
+        <v>8000000</v>
       </c>
       <c r="G23">
-        <v>18000000</v>
+        <v>4000000</v>
       </c>
       <c r="H23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I23">
         <v>2000</v>
@@ -4128,34 +4131,34 @@
         <v>2000</v>
       </c>
       <c r="K23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L23">
         <v>2000</v>
       </c>
       <c r="M23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R23" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="S23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -4163,123 +4166,123 @@
         <v>92</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C24" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="D24" t="s">
         <v>95</v>
       </c>
       <c r="E24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F24">
-        <v>18750000</v>
+        <v>421200000</v>
       </c>
       <c r="G24">
-        <v>1500000</v>
+        <v>16200000</v>
       </c>
       <c r="H24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I24">
-        <v>8900</v>
+        <v>21000</v>
       </c>
       <c r="J24">
-        <v>11000</v>
+        <v>26000</v>
       </c>
       <c r="K24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L24">
-        <v>12500</v>
+        <v>26000</v>
       </c>
       <c r="M24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R24" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="S24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C25" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D25" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F25">
-        <v>33600000</v>
+        <v>36000000</v>
       </c>
       <c r="G25">
-        <v>2240000</v>
+        <v>18000000</v>
       </c>
       <c r="H25" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I25">
-        <v>11500</v>
+        <v>2000</v>
       </c>
       <c r="J25">
-        <v>13200</v>
+        <v>2000</v>
       </c>
       <c r="K25" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L25">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="M25" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N25" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O25">
-        <v>26.78571428571428</v>
+        <v>0</v>
       </c>
       <c r="P25" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q25" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R25" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="S25" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T25" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -4297,16 +4300,16 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -4318,10 +4321,10 @@
         <v>0</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>12</v>
@@ -4330,30 +4333,30 @@
         <v>6</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H2">
         <v>42120</v>
@@ -4373,25 +4376,25 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H3">
         <v>15600</v>
@@ -4411,34 +4414,34 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H4">
-        <v>25000</v>
+        <v>72141.3</v>
       </c>
       <c r="I4">
-        <v>12500000</v>
+        <v>2079000</v>
       </c>
       <c r="J4">
-        <v>2000</v>
+        <v>34700</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -4449,72 +4452,72 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="E5" t="s">
-        <v>67</v>
+        <v>143</v>
       </c>
       <c r="F5" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="H5">
-        <v>27000</v>
+        <v>42120</v>
       </c>
       <c r="I5">
-        <v>3600000</v>
+        <v>16200000</v>
       </c>
       <c r="J5">
-        <v>7500</v>
+        <v>26000</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H6">
-        <v>12600</v>
+        <v>25000</v>
       </c>
       <c r="I6">
-        <v>7000000</v>
+        <v>12500000</v>
       </c>
       <c r="J6">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -4525,34 +4528,34 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="H7">
-        <v>18750</v>
+        <v>27000</v>
       </c>
       <c r="I7">
-        <v>1500000</v>
+        <v>3600000</v>
       </c>
       <c r="J7">
-        <v>12500</v>
+        <v>7500</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -4563,63 +4566,63 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="E8" t="s">
-        <v>142</v>
+        <v>64</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H8">
-        <v>42120</v>
+        <v>12600</v>
       </c>
       <c r="I8">
-        <v>16200000</v>
+        <v>7000000</v>
       </c>
       <c r="J8">
-        <v>26000</v>
+        <v>1800</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H9">
         <v>42120</v>
@@ -4639,34 +4642,34 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G10" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H10">
-        <v>6384</v>
+        <v>24960</v>
       </c>
       <c r="I10">
-        <v>1596000</v>
+        <v>5200000</v>
       </c>
       <c r="J10">
-        <v>4000</v>
+        <v>4800</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -4677,34 +4680,34 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G11" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H11">
-        <v>24960</v>
+        <v>17841.194</v>
       </c>
       <c r="I11">
-        <v>5200000</v>
+        <v>1049482</v>
       </c>
       <c r="J11">
-        <v>4800</v>
+        <v>17000</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -4715,110 +4718,110 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E12" t="s">
-        <v>143</v>
+        <v>65</v>
       </c>
       <c r="F12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s">
         <v>21</v>
       </c>
-      <c r="G12" t="s">
-        <v>18</v>
-      </c>
       <c r="H12">
-        <v>121994.4706</v>
+        <v>6384</v>
       </c>
       <c r="I12">
-        <v>11580800</v>
+        <v>1596000</v>
       </c>
       <c r="J12">
-        <v>36200</v>
+        <v>4000</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>29.1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>64</v>
+        <v>144</v>
       </c>
       <c r="F13" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G13" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H13">
-        <v>17841.194</v>
+        <v>121994.4706</v>
       </c>
       <c r="I13">
-        <v>1049482</v>
+        <v>11580800</v>
       </c>
       <c r="J13">
-        <v>17000</v>
+        <v>36200</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>100</v>
+        <v>29.1</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B14" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H14">
-        <v>46350</v>
+        <v>44112</v>
       </c>
       <c r="I14">
-        <v>2060000</v>
+        <v>1470400</v>
       </c>
       <c r="J14">
-        <v>22500</v>
+        <v>30000</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -4829,72 +4832,72 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D15" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="E15" t="s">
-        <v>142</v>
+        <v>69</v>
       </c>
       <c r="F15" t="s">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="H15">
-        <v>126360</v>
+        <v>46350</v>
       </c>
       <c r="I15">
-        <v>16200000</v>
+        <v>2060000</v>
       </c>
       <c r="J15">
-        <v>26000</v>
+        <v>22500</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B16" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D16" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E16" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="G16" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H16">
-        <v>52000</v>
+        <v>44265.9</v>
       </c>
       <c r="I16">
-        <v>2000000</v>
+        <v>4137000</v>
       </c>
       <c r="J16">
-        <v>26000</v>
+        <v>10700</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -4905,148 +4908,148 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="E17" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G17" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H17">
-        <v>284653.7406</v>
+        <v>16000</v>
       </c>
       <c r="I17">
-        <v>11580800</v>
+        <v>1600000</v>
       </c>
       <c r="J17">
-        <v>36200</v>
+        <v>20000</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>67.90000000000001</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="E18" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="F18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G18" t="s">
         <v>20</v>
       </c>
       <c r="H18">
-        <v>16000</v>
+        <v>284653.7406</v>
       </c>
       <c r="I18">
-        <v>1600000</v>
+        <v>11580800</v>
       </c>
       <c r="J18">
-        <v>20000</v>
+        <v>36200</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>50</v>
+        <v>67.90000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D19" t="s">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="E19" t="s">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="F19" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G19" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H19">
-        <v>44265.9</v>
+        <v>126360</v>
       </c>
       <c r="I19">
-        <v>4137000</v>
+        <v>16200000</v>
       </c>
       <c r="J19">
-        <v>10700</v>
+        <v>26000</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F20" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="G20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H20">
-        <v>33600</v>
+        <v>52000</v>
       </c>
       <c r="I20">
-        <v>2240000</v>
+        <v>2000000</v>
       </c>
       <c r="J20">
-        <v>15000</v>
+        <v>26000</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -5057,101 +5060,101 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D21" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="E21" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="F21" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H21">
-        <v>65908.25</v>
+        <v>16000</v>
       </c>
       <c r="I21">
-        <v>2636330</v>
+        <v>1600000</v>
       </c>
       <c r="J21">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B22" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D22" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="E22" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="F22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H22">
-        <v>16000</v>
+        <v>65908.25</v>
       </c>
       <c r="I22">
-        <v>1600000</v>
+        <v>2636330</v>
       </c>
       <c r="J22">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B23" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D23" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E23" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G23" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H23">
         <v>12636</v>
@@ -5171,34 +5174,34 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B24" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D24" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E24" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F24" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="G24" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="H24">
-        <v>4966.368</v>
+        <v>36000</v>
       </c>
       <c r="I24">
-        <v>1128720</v>
+        <v>18000000</v>
       </c>
       <c r="J24">
-        <v>4400</v>
+        <v>2000</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -5209,34 +5212,34 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B25" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C25" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D25" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E25" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F25" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="G25" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H25">
-        <v>36000</v>
+        <v>4966.368</v>
       </c>
       <c r="I25">
-        <v>18000000</v>
+        <v>1128720</v>
       </c>
       <c r="J25">
-        <v>2000</v>
+        <v>4400</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -5247,25 +5250,25 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B26" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D26" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E26" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F26" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G26" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H26">
         <v>4212</v>
@@ -5285,25 +5288,25 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B27" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D27" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E27" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F27" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" t="s">
         <v>30</v>
-      </c>
-      <c r="G27" t="s">
-        <v>28</v>
       </c>
       <c r="H27">
         <v>26000</v>
@@ -5323,25 +5326,25 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D28" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E28" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F28" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G28" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H28">
         <v>12636</v>
@@ -5361,124 +5364,124 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B29" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C29" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D29" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="E29" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="G29" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H29">
-        <v>5390</v>
+        <v>12636</v>
       </c>
       <c r="I29">
-        <v>770000</v>
+        <v>16200000</v>
       </c>
       <c r="J29">
-        <v>7000</v>
+        <v>26000</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D30" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="E30" t="s">
-        <v>142</v>
+        <v>73</v>
       </c>
       <c r="F30" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="G30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H30">
-        <v>12636</v>
+        <v>5390</v>
       </c>
       <c r="I30">
-        <v>16200000</v>
+        <v>770000</v>
       </c>
       <c r="J30">
-        <v>26000</v>
+        <v>7000</v>
       </c>
       <c r="K30">
         <v>0</v>
       </c>
       <c r="L30">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" t="s">
+        <v>144</v>
+      </c>
+      <c r="F31" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" t="s">
         <v>20</v>
       </c>
-      <c r="C31" t="s">
-        <v>36</v>
-      </c>
-      <c r="D31" t="s">
-        <v>62</v>
-      </c>
-      <c r="E31" t="s">
-        <v>62</v>
-      </c>
-      <c r="F31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" t="s">
-        <v>17</v>
-      </c>
       <c r="H31">
-        <v>36850</v>
+        <v>12576.7488</v>
       </c>
       <c r="I31">
-        <v>3350000</v>
+        <v>11580800</v>
       </c>
       <c r="J31">
-        <v>11000</v>
+        <v>36200</v>
       </c>
       <c r="K31">
         <v>0</v>
       </c>
       <c r="L31">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B32" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="C32" t="s">
         <v>37</v>
@@ -5487,136 +5490,136 @@
         <v>63</v>
       </c>
       <c r="E32" t="s">
-        <v>143</v>
+        <v>63</v>
       </c>
       <c r="F32" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H32">
-        <v>12576.7488</v>
+        <v>36850</v>
       </c>
       <c r="I32">
-        <v>11580800</v>
+        <v>3350000</v>
       </c>
       <c r="J32">
-        <v>36200</v>
+        <v>11000</v>
       </c>
       <c r="K32">
         <v>0</v>
       </c>
       <c r="L32">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B33" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C33" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="E33" t="s">
-        <v>66</v>
+        <v>143</v>
       </c>
       <c r="F33" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="G33" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="H33">
-        <v>8000</v>
+        <v>126360</v>
       </c>
       <c r="I33">
-        <v>4000000</v>
+        <v>16200000</v>
       </c>
       <c r="J33">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="K33">
         <v>0</v>
       </c>
       <c r="L33">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B34" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D34" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="E34" t="s">
-        <v>142</v>
+        <v>68</v>
       </c>
       <c r="F34" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G34" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H34">
-        <v>126360</v>
+        <v>30600</v>
       </c>
       <c r="I34">
-        <v>16200000</v>
+        <v>1800000</v>
       </c>
       <c r="J34">
-        <v>26000</v>
+        <v>17000</v>
       </c>
       <c r="K34">
         <v>0</v>
       </c>
       <c r="L34">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B35" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="C35" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D35" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E35" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F35" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G35" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H35">
-        <v>30600</v>
+        <v>8000</v>
       </c>
       <c r="I35">
-        <v>1800000</v>
+        <v>4000000</v>
       </c>
       <c r="J35">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -5627,25 +5630,25 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B36" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C36" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D36" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E36" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F36" t="s">
+        <v>36</v>
+      </c>
+      <c r="G36" t="s">
         <v>34</v>
-      </c>
-      <c r="G36" t="s">
-        <v>32</v>
       </c>
       <c r="H36">
         <v>8000</v>

--- a/datasets/corporate-finance-data.xlsx
+++ b/datasets/corporate-finance-data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="138">
   <si>
     <t>상장일</t>
   </si>
@@ -69,6 +69,9 @@
     <t>총기관배정수량</t>
   </si>
   <si>
+    <t>2023-11-24</t>
+  </si>
+  <si>
     <t>2023-11-20</t>
   </si>
   <si>
@@ -123,192 +126,174 @@
     <t>2023-10-13</t>
   </si>
   <si>
+    <t>그린리소스</t>
+  </si>
+  <si>
+    <t>스톰테크</t>
+  </si>
+  <si>
+    <t>한선엔지니어링</t>
+  </si>
+  <si>
+    <t>에코아이</t>
+  </si>
+  <si>
+    <t>동인기연</t>
+  </si>
+  <si>
+    <t>에코프로머티</t>
+  </si>
+  <si>
+    <t>캡스톤파트너스</t>
+  </si>
+  <si>
+    <t>큐로셀</t>
+  </si>
+  <si>
+    <t>에이직랜드</t>
+  </si>
+  <si>
+    <t>한국제13호스팩</t>
+  </si>
+  <si>
+    <t>에스와이스틸텍</t>
+  </si>
+  <si>
+    <t>메가터치</t>
+  </si>
+  <si>
+    <t>컨텍</t>
+  </si>
+  <si>
+    <t>비아이매트릭스</t>
+  </si>
+  <si>
+    <t>쏘닉스</t>
+  </si>
+  <si>
+    <t>KB제27호스팩</t>
+  </si>
+  <si>
+    <t>유진테크놀로지</t>
+  </si>
+  <si>
+    <t>유투바이오</t>
+  </si>
+  <si>
+    <t>퀄리타스반도체</t>
+  </si>
+  <si>
+    <t>워트</t>
+  </si>
+  <si>
+    <t>에스엘에스바이오</t>
+  </si>
+  <si>
+    <t>신성에스티</t>
+  </si>
+  <si>
+    <t>퓨릿</t>
+  </si>
+  <si>
+    <t>에이치엠씨제6호스팩</t>
+  </si>
+  <si>
+    <t>코스닥</t>
+  </si>
+  <si>
+    <t>코스피</t>
+  </si>
+  <si>
+    <t>NH</t>
+  </si>
+  <si>
+    <t>하이</t>
+  </si>
+  <si>
+    <t>대신</t>
+  </si>
+  <si>
+    <t>KB</t>
+  </si>
+  <si>
+    <t>미래</t>
+  </si>
+  <si>
+    <t>삼성</t>
+  </si>
+  <si>
+    <t>한국</t>
+  </si>
+  <si>
+    <t>IBK</t>
+  </si>
+  <si>
+    <t>신한</t>
+  </si>
+  <si>
+    <t>키움</t>
+  </si>
+  <si>
+    <t>하나</t>
+  </si>
+  <si>
+    <t>현대차</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>대표</t>
+  </si>
+  <si>
+    <t>공동</t>
+  </si>
+  <si>
+    <t>인수</t>
+  </si>
+  <si>
+    <t>공동대표</t>
+  </si>
+  <si>
+    <t>2023-11-08</t>
+  </si>
+  <si>
+    <t>2023-11-06</t>
+  </si>
+  <si>
+    <t>2023-10-31</t>
+  </si>
+  <si>
+    <t>2023-11-01</t>
+  </si>
+  <si>
+    <t>2023-10-24</t>
+  </si>
+  <si>
+    <t>2023-10-23</t>
+  </si>
+  <si>
+    <t>2023-10-16</t>
+  </si>
+  <si>
+    <t>2023-10-10</t>
+  </si>
+  <si>
     <t>2023-10-05</t>
   </si>
   <si>
+    <t>2023-09-25</t>
+  </si>
+  <si>
+    <t>2023-11-16</t>
+  </si>
+  <si>
+    <t>2023-10-11</t>
+  </si>
+  <si>
     <t>2023-10-04</t>
   </si>
   <si>
-    <t>스톰테크</t>
-  </si>
-  <si>
-    <t>에코아이</t>
-  </si>
-  <si>
-    <t>동인기연</t>
-  </si>
-  <si>
-    <t>에코프로머티</t>
-  </si>
-  <si>
-    <t>캡스톤파트너스</t>
-  </si>
-  <si>
-    <t>큐로셀</t>
-  </si>
-  <si>
-    <t>에이직랜드</t>
-  </si>
-  <si>
-    <t>한국제13호스팩</t>
-  </si>
-  <si>
-    <t>에스와이스틸텍</t>
-  </si>
-  <si>
-    <t>메가터치</t>
-  </si>
-  <si>
-    <t>컨텍</t>
-  </si>
-  <si>
-    <t>비아이매트릭스</t>
-  </si>
-  <si>
-    <t>쏘닉스</t>
-  </si>
-  <si>
-    <t>KB제27호스팩</t>
-  </si>
-  <si>
-    <t>유진테크놀로지</t>
-  </si>
-  <si>
-    <t>유투바이오</t>
-  </si>
-  <si>
-    <t>퀄리타스반도체</t>
-  </si>
-  <si>
-    <t>워트</t>
-  </si>
-  <si>
-    <t>에스엘에스바이오</t>
-  </si>
-  <si>
-    <t>신성에스티</t>
-  </si>
-  <si>
-    <t>퓨릿</t>
-  </si>
-  <si>
-    <t>에이치엠씨제6호스팩</t>
-  </si>
-  <si>
-    <t>두산로보틱스</t>
-  </si>
-  <si>
-    <t>신한제11호스팩</t>
-  </si>
-  <si>
-    <t>코스닥</t>
-  </si>
-  <si>
-    <t>코스피</t>
-  </si>
-  <si>
-    <t>하이</t>
-  </si>
-  <si>
-    <t>KB</t>
-  </si>
-  <si>
-    <t>NH</t>
-  </si>
-  <si>
-    <t>미래</t>
-  </si>
-  <si>
-    <t>삼성</t>
-  </si>
-  <si>
-    <t>한국</t>
-  </si>
-  <si>
-    <t>대신</t>
-  </si>
-  <si>
-    <t>IBK</t>
-  </si>
-  <si>
-    <t>신한</t>
-  </si>
-  <si>
-    <t>키움</t>
-  </si>
-  <si>
-    <t>하나</t>
-  </si>
-  <si>
-    <t>현대차</t>
-  </si>
-  <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t>신영</t>
-  </si>
-  <si>
-    <t>유비에스</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>대표</t>
-  </si>
-  <si>
-    <t>공동</t>
-  </si>
-  <si>
-    <t>인수</t>
-  </si>
-  <si>
-    <t>공동대표</t>
-  </si>
-  <si>
-    <t>2023-11-08</t>
-  </si>
-  <si>
-    <t>2023-11-06</t>
-  </si>
-  <si>
-    <t>2023-10-31</t>
-  </si>
-  <si>
-    <t>2023-11-01</t>
-  </si>
-  <si>
-    <t>2023-10-24</t>
-  </si>
-  <si>
-    <t>2023-10-23</t>
-  </si>
-  <si>
-    <t>2023-10-16</t>
-  </si>
-  <si>
-    <t>2023-10-10</t>
-  </si>
-  <si>
-    <t>2023-09-25</t>
-  </si>
-  <si>
-    <t>2023-09-21</t>
-  </si>
-  <si>
-    <t>2023-09-19</t>
-  </si>
-  <si>
-    <t>2023-10-11</t>
-  </si>
-  <si>
-    <t>2023-09-26</t>
-  </si>
-  <si>
-    <t>2023-09-22</t>
-  </si>
-  <si>
     <t>회사명</t>
   </si>
   <si>
@@ -363,12 +348,15 @@
     <t>미래, 삼성</t>
   </si>
   <si>
-    <t>한국, 미래</t>
+    <t>590.067 : 1</t>
   </si>
   <si>
     <t>499.64 : 1</t>
   </si>
   <si>
+    <t>1141.25 : 1</t>
+  </si>
+  <si>
     <t>19.69 : 1</t>
   </si>
   <si>
@@ -432,12 +420,6 @@
     <t>61.15 : 1</t>
   </si>
   <si>
-    <t>519.6 : 1</t>
-  </si>
-  <si>
-    <t>3.18 : 1</t>
-  </si>
-  <si>
     <t>인수기관</t>
   </si>
   <si>
@@ -445,9 +427,6 @@
   </si>
   <si>
     <t>인수비율</t>
-  </si>
-  <si>
-    <t>한국, 미래, NH, KB, CS, 키움, 신영, 하나, 유비에스리미티드(영업소)</t>
   </si>
   <si>
     <t>미래, NH, 하이</t>
@@ -808,7 +787,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -872,52 +851,52 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D2">
-        <v>368.5</v>
+        <v>278.8</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F2">
-        <v>368.5</v>
+        <v>278.8</v>
       </c>
       <c r="G2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="M2">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="N2">
         <v>100</v>
       </c>
       <c r="O2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P2" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="Q2">
-        <v>2374500</v>
+        <v>1221420</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -925,158 +904,158 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D3">
-        <v>721.413</v>
+        <v>368.5</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F3">
-        <v>721.413</v>
+        <v>368.5</v>
       </c>
       <c r="G3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="M3">
-        <v>34700</v>
+        <v>11000</v>
       </c>
       <c r="N3">
         <v>100</v>
       </c>
       <c r="O3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" t="s">
         <v>25</v>
       </c>
-      <c r="P3" t="s">
-        <v>21</v>
-      </c>
       <c r="Q3">
-        <v>1537150</v>
+        <v>2374500</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D4">
-        <v>441.12</v>
+        <v>297.5</v>
       </c>
       <c r="E4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F4">
-        <v>441.12</v>
+        <v>297.5</v>
       </c>
       <c r="G4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="M4">
-        <v>30000</v>
+        <v>7000</v>
       </c>
       <c r="N4">
         <v>100</v>
       </c>
       <c r="O4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P4" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="Q4">
-        <v>1072999</v>
+        <v>3187500</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D5">
-        <v>4192.2496</v>
+        <v>721.413</v>
       </c>
       <c r="E5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F5">
-        <v>2846.537406</v>
+        <v>721.413</v>
       </c>
       <c r="G5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="M5">
-        <v>36200</v>
+        <v>34700</v>
       </c>
       <c r="N5">
-        <v>67.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="O5" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="P5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q5">
-        <v>19108320</v>
+        <v>1537150</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1087,99 +1066,99 @@
         <v>40</v>
       </c>
       <c r="C6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6">
+        <v>441.12</v>
+      </c>
+      <c r="E6" t="s">
         <v>62</v>
       </c>
-      <c r="D6">
-        <v>4192.2496</v>
-      </c>
-      <c r="E6" t="s">
-        <v>65</v>
-      </c>
       <c r="F6">
-        <v>1219.944706</v>
+        <v>441.12</v>
       </c>
       <c r="G6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="L6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="M6">
-        <v>36200</v>
+        <v>30000</v>
       </c>
       <c r="N6">
-        <v>29.1</v>
+        <v>100</v>
       </c>
       <c r="O6" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="P6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Q6">
-        <v>19108320</v>
+        <v>1072999</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D7">
         <v>4192.2496</v>
       </c>
       <c r="E7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F7">
-        <v>125.767488</v>
+        <v>2846.537406</v>
       </c>
       <c r="G7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="L7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="M7">
         <v>36200</v>
       </c>
       <c r="N7">
-        <v>3</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="O7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="P7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q7">
         <v>19108320</v>
@@ -1196,99 +1175,99 @@
         <v>61</v>
       </c>
       <c r="D8">
-        <v>63.84</v>
+        <v>4192.2496</v>
       </c>
       <c r="E8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F8">
-        <v>63.84</v>
+        <v>1219.944706</v>
       </c>
       <c r="G8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K8" t="s">
+        <v>76</v>
+      </c>
+      <c r="L8" t="s">
+        <v>74</v>
+      </c>
+      <c r="M8">
+        <v>36200</v>
+      </c>
+      <c r="N8">
+        <v>29.1</v>
+      </c>
+      <c r="O8" t="s">
         <v>79</v>
       </c>
-      <c r="L8" t="s">
-        <v>78</v>
-      </c>
-      <c r="M8">
-        <v>4000</v>
-      </c>
-      <c r="N8">
-        <v>100</v>
-      </c>
-      <c r="O8" t="s">
-        <v>84</v>
-      </c>
       <c r="P8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q8">
-        <v>1197000</v>
+        <v>19108320</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
         <v>61</v>
       </c>
       <c r="D9">
-        <v>320</v>
+        <v>4192.2496</v>
       </c>
       <c r="E9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F9">
-        <v>160</v>
+        <v>125.767488</v>
       </c>
       <c r="G9" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H9" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I9" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J9" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K9" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="L9" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="M9">
-        <v>20000</v>
+        <v>36200</v>
       </c>
       <c r="N9">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="O9" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="P9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Q9">
-        <v>2254770</v>
+        <v>19108320</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1299,49 +1278,49 @@
         <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D10">
-        <v>320</v>
+        <v>63.84</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F10">
-        <v>160</v>
+        <v>63.84</v>
       </c>
       <c r="G10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K10" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="L10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="M10">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="N10">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="O10" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="Q10">
-        <v>2254770</v>
+        <v>1197000</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1352,49 +1331,49 @@
         <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11">
-        <v>659.0825</v>
+        <v>320</v>
       </c>
       <c r="E11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F11">
-        <v>659.0825</v>
+        <v>160</v>
       </c>
       <c r="G11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11" t="s">
+        <v>74</v>
+      </c>
+      <c r="J11" t="s">
+        <v>74</v>
+      </c>
+      <c r="K11" t="s">
         <v>78</v>
       </c>
-      <c r="H11" t="s">
-        <v>78</v>
-      </c>
-      <c r="I11" t="s">
-        <v>78</v>
-      </c>
-      <c r="J11" t="s">
-        <v>78</v>
-      </c>
-      <c r="K11" t="s">
-        <v>79</v>
-      </c>
       <c r="L11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="M11">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="N11">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O11" t="s">
+        <v>81</v>
+      </c>
+      <c r="P11" t="s">
         <v>28</v>
       </c>
-      <c r="P11" t="s">
-        <v>26</v>
-      </c>
       <c r="Q11">
-        <v>1827247</v>
+        <v>2254770</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1402,52 +1381,52 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12">
-        <v>80</v>
+        <v>320</v>
       </c>
       <c r="E12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F12">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="G12" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" t="s">
+        <v>74</v>
+      </c>
+      <c r="I12" t="s">
+        <v>74</v>
+      </c>
+      <c r="J12" t="s">
+        <v>74</v>
+      </c>
+      <c r="K12" t="s">
         <v>78</v>
       </c>
-      <c r="H12" t="s">
-        <v>78</v>
-      </c>
-      <c r="I12" t="s">
-        <v>78</v>
-      </c>
-      <c r="J12" t="s">
-        <v>78</v>
-      </c>
-      <c r="K12" t="s">
-        <v>79</v>
-      </c>
       <c r="L12" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="M12">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="N12">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O12" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="Q12">
-        <v>3000000</v>
+        <v>2254770</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1455,370 +1434,370 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D13">
-        <v>126</v>
+        <v>659.0825</v>
       </c>
       <c r="E13" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F13">
-        <v>126</v>
+        <v>659.0825</v>
       </c>
       <c r="G13" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H13" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I13" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J13" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K13" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L13" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="M13">
-        <v>1800</v>
+        <v>25000</v>
       </c>
       <c r="N13">
         <v>100</v>
       </c>
       <c r="O13" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="P13" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="Q13">
-        <v>4550000</v>
+        <v>1827247</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14">
-        <v>249.6</v>
+        <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F14">
-        <v>249.6</v>
+        <v>80</v>
       </c>
       <c r="G14" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H14" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I14" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J14" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K14" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L14" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="M14">
-        <v>4800</v>
+        <v>2000</v>
       </c>
       <c r="N14">
         <v>100</v>
       </c>
       <c r="O14" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="P14" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="Q14">
-        <v>3900000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D15">
-        <v>463.5</v>
+        <v>126</v>
       </c>
       <c r="E15" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F15">
-        <v>463.5</v>
+        <v>126</v>
       </c>
       <c r="G15" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H15" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I15" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J15" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K15" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L15" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="M15">
-        <v>22500</v>
+        <v>1800</v>
       </c>
       <c r="N15">
         <v>100</v>
       </c>
       <c r="O15" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="P15" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="Q15">
-        <v>1545000</v>
+        <v>4550000</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D16">
-        <v>156</v>
+        <v>249.6</v>
       </c>
       <c r="E16" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F16">
-        <v>156</v>
+        <v>249.6</v>
       </c>
       <c r="G16" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H16" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I16" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J16" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K16" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L16" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="M16">
-        <v>13000</v>
+        <v>4800</v>
       </c>
       <c r="N16">
         <v>100</v>
       </c>
       <c r="O16" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="P16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q16">
-        <v>840000</v>
+        <v>3900000</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D17">
-        <v>270</v>
+        <v>463.5</v>
       </c>
       <c r="E17" t="s">
         <v>64</v>
       </c>
       <c r="F17">
-        <v>270</v>
+        <v>463.5</v>
       </c>
       <c r="G17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K17" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="M17">
-        <v>7500</v>
+        <v>22500</v>
       </c>
       <c r="N17">
         <v>100</v>
       </c>
       <c r="O17" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="P17" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="Q17">
-        <v>2600000</v>
+        <v>1545000</v>
       </c>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D18">
-        <v>250</v>
+        <v>156</v>
       </c>
       <c r="E18" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F18">
-        <v>250</v>
+        <v>156</v>
       </c>
       <c r="G18" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H18" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I18" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J18" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K18" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L18" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="M18">
-        <v>2000</v>
+        <v>13000</v>
       </c>
       <c r="N18">
         <v>100</v>
       </c>
       <c r="O18" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="P18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q18">
-        <v>9375000</v>
+        <v>840000</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D19">
-        <v>178.41194</v>
+        <v>270</v>
       </c>
       <c r="E19" t="s">
         <v>65</v>
       </c>
       <c r="F19">
-        <v>178.41194</v>
+        <v>270</v>
       </c>
       <c r="G19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K19" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="M19">
-        <v>17000</v>
+        <v>7500</v>
       </c>
       <c r="N19">
         <v>100</v>
       </c>
       <c r="O19" t="s">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="P19" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="Q19">
-        <v>787111</v>
+        <v>2600000</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1826,52 +1805,52 @@
         <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20">
-        <v>49.66368</v>
+        <v>250</v>
       </c>
       <c r="E20" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F20">
-        <v>49.66368</v>
+        <v>250</v>
       </c>
       <c r="G20" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H20" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I20" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J20" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K20" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L20" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="M20">
-        <v>4400</v>
+        <v>2000</v>
       </c>
       <c r="N20">
         <v>100</v>
       </c>
       <c r="O20" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="P20" t="s">
         <v>30</v>
       </c>
       <c r="Q20">
-        <v>846540</v>
+        <v>9375000</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1879,37 +1858,37 @@
         <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D21">
-        <v>306</v>
+        <v>178.41194</v>
       </c>
       <c r="E21" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F21">
-        <v>306</v>
+        <v>178.41194</v>
       </c>
       <c r="G21" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H21" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I21" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J21" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K21" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L21" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="M21">
         <v>17000</v>
@@ -1918,331 +1897,331 @@
         <v>100</v>
       </c>
       <c r="O21" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="P21" t="s">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="Q21">
-        <v>1119600</v>
+        <v>787111</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D22">
-        <v>260</v>
+        <v>49.66368</v>
       </c>
       <c r="E22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F22">
-        <v>260</v>
+        <v>49.66368</v>
       </c>
       <c r="G22" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H22" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I22" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J22" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K22" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L22" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="M22">
-        <v>6500</v>
+        <v>4400</v>
       </c>
       <c r="N22">
         <v>100</v>
       </c>
       <c r="O22" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="P22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q22">
-        <v>2880000</v>
+        <v>846540</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D23">
-        <v>53.9</v>
+        <v>306</v>
       </c>
       <c r="E23" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F23">
-        <v>53.9</v>
+        <v>306</v>
       </c>
       <c r="G23" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H23" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I23" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J23" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K23" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L23" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="M23">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="N23">
         <v>100</v>
       </c>
       <c r="O23" t="s">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="P23" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="Q23">
-        <v>577500</v>
+        <v>1119600</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D24">
-        <v>520</v>
+        <v>260</v>
       </c>
       <c r="E24" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F24">
-        <v>520</v>
+        <v>260</v>
       </c>
       <c r="G24" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H24" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I24" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J24" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K24" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L24" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="M24">
-        <v>26000</v>
+        <v>6500</v>
       </c>
       <c r="N24">
         <v>100</v>
       </c>
       <c r="O24" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="P24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q24">
-        <v>1300000</v>
+        <v>2880000</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D25">
-        <v>442.659</v>
+        <v>53.9</v>
       </c>
       <c r="E25" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F25">
-        <v>442.659</v>
+        <v>53.9</v>
       </c>
       <c r="G25" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H25" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I25" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J25" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K25" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L25" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="M25">
-        <v>10700</v>
+        <v>7000</v>
       </c>
       <c r="N25">
         <v>100</v>
       </c>
       <c r="O25" t="s">
+        <v>86</v>
+      </c>
+      <c r="P25" t="s">
         <v>35</v>
       </c>
-      <c r="P25" t="s">
-        <v>94</v>
-      </c>
       <c r="Q25">
-        <v>3102750</v>
+        <v>577500</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D26">
-        <v>80</v>
+        <v>520</v>
       </c>
       <c r="E26" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F26">
-        <v>80</v>
+        <v>520</v>
       </c>
       <c r="G26" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H26" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I26" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J26" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K26" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L26" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="M26">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="N26">
         <v>100</v>
       </c>
       <c r="O26" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q26">
-        <v>3000000</v>
+        <v>1300000</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D27">
-        <v>4212</v>
+        <v>442.659</v>
       </c>
       <c r="E27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F27">
-        <v>1263.6</v>
+        <v>442.659</v>
       </c>
       <c r="G27" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H27" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I27" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J27" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K27" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="L27" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="M27">
-        <v>26000</v>
+        <v>10700</v>
       </c>
       <c r="N27">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="O27" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="P27" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="Q27">
-        <v>87871545</v>
+        <v>3102750</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2253,473 +2232,49 @@
         <v>59</v>
       </c>
       <c r="C28" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D28">
-        <v>4212</v>
+        <v>80</v>
       </c>
       <c r="E28" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F28">
-        <v>1263.6</v>
+        <v>80</v>
       </c>
       <c r="G28" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H28" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I28" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J28" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K28" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="L28" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="M28">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="N28">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="O28" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="P28" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Q28">
-        <v>87871545</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="A29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" t="s">
-        <v>62</v>
-      </c>
-      <c r="D29">
-        <v>4212</v>
-      </c>
-      <c r="E29" t="s">
-        <v>65</v>
-      </c>
-      <c r="F29">
-        <v>421.2</v>
-      </c>
-      <c r="G29" t="s">
-        <v>78</v>
-      </c>
-      <c r="H29" t="s">
-        <v>78</v>
-      </c>
-      <c r="I29" t="s">
-        <v>78</v>
-      </c>
-      <c r="J29" t="s">
-        <v>78</v>
-      </c>
-      <c r="K29" t="s">
-        <v>80</v>
-      </c>
-      <c r="L29" t="s">
-        <v>78</v>
-      </c>
-      <c r="M29">
-        <v>26000</v>
-      </c>
-      <c r="N29">
-        <v>10</v>
-      </c>
-      <c r="O29" t="s">
-        <v>92</v>
-      </c>
-      <c r="P29" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q29">
-        <v>87871545</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="A30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" t="s">
-        <v>62</v>
-      </c>
-      <c r="D30">
-        <v>4212</v>
-      </c>
-      <c r="E30" t="s">
-        <v>64</v>
-      </c>
-      <c r="F30">
-        <v>421.2</v>
-      </c>
-      <c r="G30" t="s">
-        <v>78</v>
-      </c>
-      <c r="H30" t="s">
-        <v>78</v>
-      </c>
-      <c r="I30" t="s">
-        <v>78</v>
-      </c>
-      <c r="J30" t="s">
-        <v>78</v>
-      </c>
-      <c r="K30" t="s">
-        <v>80</v>
-      </c>
-      <c r="L30" t="s">
-        <v>78</v>
-      </c>
-      <c r="M30">
-        <v>26000</v>
-      </c>
-      <c r="N30">
-        <v>10</v>
-      </c>
-      <c r="O30" t="s">
-        <v>92</v>
-      </c>
-      <c r="P30" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q30">
-        <v>87871545</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" t="s">
-        <v>62</v>
-      </c>
-      <c r="D31">
-        <v>4212</v>
-      </c>
-      <c r="E31" t="s">
-        <v>75</v>
-      </c>
-      <c r="F31">
-        <v>421.2</v>
-      </c>
-      <c r="G31" t="s">
-        <v>78</v>
-      </c>
-      <c r="H31" t="s">
-        <v>78</v>
-      </c>
-      <c r="I31" t="s">
-        <v>78</v>
-      </c>
-      <c r="J31" t="s">
-        <v>78</v>
-      </c>
-      <c r="K31" t="s">
-        <v>80</v>
-      </c>
-      <c r="L31" t="s">
-        <v>78</v>
-      </c>
-      <c r="M31">
-        <v>26000</v>
-      </c>
-      <c r="N31">
-        <v>10</v>
-      </c>
-      <c r="O31" t="s">
-        <v>92</v>
-      </c>
-      <c r="P31" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q31">
-        <v>87871545</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" t="s">
-        <v>59</v>
-      </c>
-      <c r="C32" t="s">
-        <v>62</v>
-      </c>
-      <c r="D32">
-        <v>4212</v>
-      </c>
-      <c r="E32" t="s">
-        <v>72</v>
-      </c>
-      <c r="F32">
-        <v>126.36</v>
-      </c>
-      <c r="G32" t="s">
-        <v>78</v>
-      </c>
-      <c r="H32" t="s">
-        <v>78</v>
-      </c>
-      <c r="I32" t="s">
-        <v>78</v>
-      </c>
-      <c r="J32" t="s">
-        <v>78</v>
-      </c>
-      <c r="K32" t="s">
-        <v>81</v>
-      </c>
-      <c r="L32" t="s">
-        <v>78</v>
-      </c>
-      <c r="M32">
-        <v>26000</v>
-      </c>
-      <c r="N32">
-        <v>3</v>
-      </c>
-      <c r="O32" t="s">
-        <v>92</v>
-      </c>
-      <c r="P32" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q32">
-        <v>87871545</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="A33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" t="s">
-        <v>59</v>
-      </c>
-      <c r="C33" t="s">
-        <v>62</v>
-      </c>
-      <c r="D33">
-        <v>4212</v>
-      </c>
-      <c r="E33" t="s">
-        <v>76</v>
-      </c>
-      <c r="F33">
-        <v>126.36</v>
-      </c>
-      <c r="G33" t="s">
-        <v>78</v>
-      </c>
-      <c r="H33" t="s">
-        <v>78</v>
-      </c>
-      <c r="I33" t="s">
-        <v>78</v>
-      </c>
-      <c r="J33" t="s">
-        <v>78</v>
-      </c>
-      <c r="K33" t="s">
-        <v>81</v>
-      </c>
-      <c r="L33" t="s">
-        <v>78</v>
-      </c>
-      <c r="M33">
-        <v>26000</v>
-      </c>
-      <c r="N33">
-        <v>3</v>
-      </c>
-      <c r="O33" t="s">
-        <v>92</v>
-      </c>
-      <c r="P33" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q33">
-        <v>87871545</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="A34" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" t="s">
-        <v>59</v>
-      </c>
-      <c r="C34" t="s">
-        <v>62</v>
-      </c>
-      <c r="D34">
-        <v>4212</v>
-      </c>
-      <c r="E34" t="s">
-        <v>73</v>
-      </c>
-      <c r="F34">
-        <v>126.36</v>
-      </c>
-      <c r="G34" t="s">
-        <v>78</v>
-      </c>
-      <c r="H34" t="s">
-        <v>78</v>
-      </c>
-      <c r="I34" t="s">
-        <v>78</v>
-      </c>
-      <c r="J34" t="s">
-        <v>78</v>
-      </c>
-      <c r="K34" t="s">
-        <v>81</v>
-      </c>
-      <c r="L34" t="s">
-        <v>78</v>
-      </c>
-      <c r="M34">
-        <v>26000</v>
-      </c>
-      <c r="N34">
-        <v>3</v>
-      </c>
-      <c r="O34" t="s">
-        <v>92</v>
-      </c>
-      <c r="P34" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q34">
-        <v>87871545</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" t="s">
-        <v>59</v>
-      </c>
-      <c r="C35" t="s">
-        <v>62</v>
-      </c>
-      <c r="D35">
-        <v>4212</v>
-      </c>
-      <c r="E35" t="s">
-        <v>77</v>
-      </c>
-      <c r="F35">
-        <v>42.12</v>
-      </c>
-      <c r="G35" t="s">
-        <v>78</v>
-      </c>
-      <c r="H35" t="s">
-        <v>78</v>
-      </c>
-      <c r="I35" t="s">
-        <v>78</v>
-      </c>
-      <c r="J35" t="s">
-        <v>78</v>
-      </c>
-      <c r="K35" t="s">
-        <v>81</v>
-      </c>
-      <c r="L35" t="s">
-        <v>78</v>
-      </c>
-      <c r="M35">
-        <v>26000</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35" t="s">
-        <v>92</v>
-      </c>
-      <c r="P35" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q35">
-        <v>87871545</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" t="s">
-        <v>60</v>
-      </c>
-      <c r="C36" t="s">
-        <v>61</v>
-      </c>
-      <c r="D36">
-        <v>360</v>
-      </c>
-      <c r="E36" t="s">
-        <v>71</v>
-      </c>
-      <c r="F36">
-        <v>360</v>
-      </c>
-      <c r="G36" t="s">
-        <v>78</v>
-      </c>
-      <c r="H36" t="s">
-        <v>78</v>
-      </c>
-      <c r="I36" t="s">
-        <v>78</v>
-      </c>
-      <c r="J36" t="s">
-        <v>78</v>
-      </c>
-      <c r="K36" t="s">
-        <v>79</v>
-      </c>
-      <c r="L36" t="s">
-        <v>78</v>
-      </c>
-      <c r="M36">
-        <v>2000</v>
-      </c>
-      <c r="N36">
-        <v>100</v>
-      </c>
-      <c r="O36" t="s">
-        <v>93</v>
-      </c>
-      <c r="P36" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q36">
-        <v>13500000</v>
+        <v>3000000</v>
       </c>
     </row>
   </sheetData>
@@ -2740,10 +2295,10 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>15</v>
@@ -2752,990 +2307,990 @@
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>36850000</v>
+        <v>27880000</v>
       </c>
       <c r="G2">
-        <v>3350000</v>
+        <v>1640000</v>
       </c>
       <c r="H2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I2">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="J2">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="K2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="L2">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="M2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="N2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="Q2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="S2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="T2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" t="s">
         <v>25</v>
-      </c>
-      <c r="B3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
       </c>
       <c r="F3">
-        <v>72141300</v>
+        <v>36850000</v>
       </c>
       <c r="G3">
-        <v>2079000</v>
+        <v>3350000</v>
       </c>
       <c r="H3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I3">
-        <v>28500</v>
+        <v>8000</v>
       </c>
       <c r="J3">
-        <v>34700</v>
+        <v>9500</v>
       </c>
       <c r="K3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="L3">
-        <v>34700</v>
+        <v>11000</v>
       </c>
       <c r="M3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="N3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="Q3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="S3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="T3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F4">
-        <v>44112000</v>
+        <v>29750000</v>
       </c>
       <c r="G4">
-        <v>1470400</v>
+        <v>4250000</v>
       </c>
       <c r="H4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I4">
-        <v>33000</v>
+        <v>5200</v>
       </c>
       <c r="J4">
-        <v>37000</v>
+        <v>6000</v>
       </c>
       <c r="K4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="L4">
-        <v>30000</v>
+        <v>7000</v>
       </c>
       <c r="M4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="N4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="O4">
-        <v>23.28618063112079</v>
+        <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="Q4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="S4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="T4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F5">
-        <v>419224960</v>
+        <v>72141300</v>
       </c>
       <c r="G5">
-        <v>11580800</v>
+        <v>2079000</v>
       </c>
       <c r="H5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I5">
-        <v>36200</v>
+        <v>28500</v>
       </c>
       <c r="J5">
-        <v>44000</v>
+        <v>34700</v>
       </c>
       <c r="K5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="L5">
-        <v>36200</v>
+        <v>34700</v>
       </c>
       <c r="M5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="N5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="Q5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R5" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="S5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="T5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F6">
-        <v>6384000</v>
+        <v>44112000</v>
       </c>
       <c r="G6">
-        <v>1596000</v>
+        <v>1470400</v>
       </c>
       <c r="H6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I6">
-        <v>3200</v>
+        <v>33000</v>
       </c>
       <c r="J6">
-        <v>3600</v>
+        <v>37000</v>
       </c>
       <c r="K6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="L6">
-        <v>4000</v>
+        <v>30000</v>
       </c>
       <c r="M6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="N6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>23.28618063112079</v>
       </c>
       <c r="P6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="Q6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R6" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="S6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="T6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>114</v>
+        <v>66</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F7">
-        <v>32000000</v>
+        <v>419224960</v>
       </c>
       <c r="G7">
-        <v>1600000</v>
+        <v>11580800</v>
       </c>
       <c r="H7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I7">
-        <v>29800</v>
+        <v>36200</v>
       </c>
       <c r="J7">
-        <v>33500</v>
+        <v>44000</v>
       </c>
       <c r="K7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="L7">
-        <v>20000</v>
+        <v>36200</v>
       </c>
       <c r="M7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="N7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="Q7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="S7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="T7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F8">
-        <v>65908250</v>
+        <v>6384000</v>
       </c>
       <c r="G8">
-        <v>2636330</v>
+        <v>1596000</v>
       </c>
       <c r="H8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I8">
-        <v>19100</v>
+        <v>3200</v>
       </c>
       <c r="J8">
-        <v>21400</v>
+        <v>3600</v>
       </c>
       <c r="K8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="L8">
-        <v>25000</v>
+        <v>4000</v>
       </c>
       <c r="M8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="N8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="Q8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R8" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="S8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="T8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="D9" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
         <v>23</v>
       </c>
       <c r="F9">
-        <v>8000000</v>
+        <v>32000000</v>
       </c>
       <c r="G9">
-        <v>4000000</v>
+        <v>1600000</v>
       </c>
       <c r="H9" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I9">
-        <v>2000</v>
+        <v>29800</v>
       </c>
       <c r="J9">
-        <v>2000</v>
+        <v>33500</v>
       </c>
       <c r="K9" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="L9">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="M9" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="N9" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="Q9" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R9" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="S9" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="T9" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D10" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
         <v>24</v>
       </c>
       <c r="F10">
-        <v>12600000</v>
+        <v>65908250</v>
       </c>
       <c r="G10">
-        <v>7000000</v>
+        <v>2636330</v>
       </c>
       <c r="H10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I10">
-        <v>1200</v>
+        <v>19100</v>
       </c>
       <c r="J10">
-        <v>1500</v>
+        <v>21400</v>
       </c>
       <c r="K10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="L10">
-        <v>1800</v>
+        <v>25000</v>
       </c>
       <c r="M10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="N10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="Q10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R10" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="S10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="T10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F11">
-        <v>24960000</v>
+        <v>8000000</v>
       </c>
       <c r="G11">
-        <v>5200000</v>
+        <v>4000000</v>
       </c>
       <c r="H11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I11">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="J11">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="K11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="L11">
-        <v>4800</v>
+        <v>2000</v>
       </c>
       <c r="M11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="N11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="Q11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R11" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="S11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="T11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F12">
-        <v>46350000</v>
+        <v>12600000</v>
       </c>
       <c r="G12">
-        <v>2060000</v>
+        <v>7000000</v>
       </c>
       <c r="H12" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I12">
-        <v>20300</v>
+        <v>1200</v>
       </c>
       <c r="J12">
-        <v>22500</v>
+        <v>1500</v>
       </c>
       <c r="K12" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="L12">
-        <v>22500</v>
+        <v>1800</v>
       </c>
       <c r="M12" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="N12" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="O12">
-        <v>2.912621359223301</v>
+        <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="Q12" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R12" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="S12" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="T12" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F13">
-        <v>15600000</v>
+        <v>24960000</v>
       </c>
       <c r="G13">
-        <v>1200000</v>
+        <v>5200000</v>
       </c>
       <c r="H13" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I13">
-        <v>9100</v>
+        <v>3500</v>
       </c>
       <c r="J13">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="K13" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="L13">
-        <v>13000</v>
+        <v>4800</v>
       </c>
       <c r="M13" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="N13" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="Q13" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R13" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="S13" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="T13" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
         <v>64</v>
       </c>
       <c r="D14" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="E14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F14">
-        <v>27000000</v>
+        <v>46350000</v>
       </c>
       <c r="G14">
-        <v>3600000</v>
+        <v>2060000</v>
       </c>
       <c r="H14" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I14">
-        <v>5000</v>
+        <v>20300</v>
       </c>
       <c r="J14">
-        <v>7000</v>
+        <v>22500</v>
       </c>
       <c r="K14" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="L14">
-        <v>7500</v>
+        <v>22500</v>
       </c>
       <c r="M14" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="N14" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>2.912621359223301</v>
       </c>
       <c r="P14" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="Q14" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R14" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="S14" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="T14" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F15">
-        <v>25000000</v>
+        <v>15600000</v>
       </c>
       <c r="G15">
-        <v>12500000</v>
+        <v>1200000</v>
       </c>
       <c r="H15" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I15">
-        <v>2000</v>
+        <v>9100</v>
       </c>
       <c r="J15">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="K15" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="L15">
-        <v>2000</v>
+        <v>13000</v>
       </c>
       <c r="M15" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="N15" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="Q15" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R15" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="S15" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="T15" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
         <v>65</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="E16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F16">
-        <v>17841194</v>
+        <v>27000000</v>
       </c>
       <c r="G16">
-        <v>1049482</v>
+        <v>3600000</v>
       </c>
       <c r="H16" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I16">
-        <v>12800</v>
+        <v>5000</v>
       </c>
       <c r="J16">
-        <v>14500</v>
+        <v>7000</v>
       </c>
       <c r="K16" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="L16">
-        <v>17000</v>
+        <v>7500</v>
       </c>
       <c r="M16" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="N16" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="O16">
-        <v>9.999980942979489</v>
+        <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="Q16" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R16" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="S16" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="T16" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D17" t="s">
         <v>30</v>
@@ -3744,509 +3299,509 @@
         <v>28</v>
       </c>
       <c r="F17">
-        <v>4966368</v>
+        <v>25000000</v>
       </c>
       <c r="G17">
-        <v>1128720</v>
+        <v>12500000</v>
       </c>
       <c r="H17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I17">
-        <v>3300</v>
+        <v>2000</v>
       </c>
       <c r="J17">
-        <v>3900</v>
+        <v>2000</v>
       </c>
       <c r="K17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="L17">
-        <v>4400</v>
+        <v>2000</v>
       </c>
       <c r="M17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="N17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="Q17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R17" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="S17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="T17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D18" t="s">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="E18" t="s">
         <v>29</v>
       </c>
       <c r="F18">
-        <v>30600000</v>
+        <v>17841194</v>
       </c>
       <c r="G18">
-        <v>1800000</v>
+        <v>1049482</v>
       </c>
       <c r="H18" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I18">
-        <v>13000</v>
+        <v>12800</v>
       </c>
       <c r="J18">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="K18" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="L18">
         <v>17000</v>
       </c>
       <c r="M18" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="N18" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>9.999980942979489</v>
       </c>
       <c r="P18" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="Q18" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R18" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="S18" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="T18" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F19">
-        <v>26000000</v>
+        <v>4966368</v>
       </c>
       <c r="G19">
-        <v>4000000</v>
+        <v>1128720</v>
       </c>
       <c r="H19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I19">
-        <v>5000</v>
+        <v>3300</v>
       </c>
       <c r="J19">
-        <v>5600</v>
+        <v>3900</v>
       </c>
       <c r="K19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="L19">
-        <v>6500</v>
+        <v>4400</v>
       </c>
       <c r="M19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="N19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="Q19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R19" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="S19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="T19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C20" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D20" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="E20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F20">
-        <v>5390000</v>
+        <v>30600000</v>
       </c>
       <c r="G20">
-        <v>770000</v>
+        <v>1800000</v>
       </c>
       <c r="H20" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I20">
-        <v>8200</v>
+        <v>13000</v>
       </c>
       <c r="J20">
-        <v>9400</v>
+        <v>15000</v>
       </c>
       <c r="K20" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="L20">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="M20" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="N20" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="Q20" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R20" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="S20" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="T20" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F21">
-        <v>52000000</v>
+        <v>26000000</v>
       </c>
       <c r="G21">
-        <v>2000000</v>
+        <v>4000000</v>
       </c>
       <c r="H21" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I21">
-        <v>22000</v>
+        <v>5000</v>
       </c>
       <c r="J21">
-        <v>25000</v>
+        <v>5600</v>
       </c>
       <c r="K21" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="L21">
-        <v>26000</v>
+        <v>6500</v>
       </c>
       <c r="M21" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="N21" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="Q21" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R21" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="S21" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="T21" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" t="s">
         <v>35</v>
       </c>
-      <c r="B22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" t="s">
-        <v>94</v>
-      </c>
       <c r="E22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F22">
-        <v>44265900</v>
+        <v>5390000</v>
       </c>
       <c r="G22">
-        <v>4137000</v>
+        <v>770000</v>
       </c>
       <c r="H22" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I22">
-        <v>8800</v>
+        <v>8200</v>
       </c>
       <c r="J22">
-        <v>10700</v>
+        <v>9400</v>
       </c>
       <c r="K22" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="L22">
-        <v>10700</v>
+        <v>7000</v>
       </c>
       <c r="M22" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="N22" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="O22">
-        <v>30.21513173797438</v>
+        <v>0</v>
       </c>
       <c r="P22" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="Q22" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R22" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="S22" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="T22" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F23">
-        <v>8000000</v>
+        <v>52000000</v>
       </c>
       <c r="G23">
-        <v>4000000</v>
+        <v>2000000</v>
       </c>
       <c r="H23" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I23">
-        <v>2000</v>
+        <v>22000</v>
       </c>
       <c r="J23">
-        <v>2000</v>
+        <v>25000</v>
       </c>
       <c r="K23" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="L23">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="M23" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="N23" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="Q23" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R23" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="S23" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="T23" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="D24" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F24">
-        <v>421200000</v>
+        <v>44265900</v>
       </c>
       <c r="G24">
-        <v>16200000</v>
+        <v>4137000</v>
       </c>
       <c r="H24" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I24">
-        <v>21000</v>
+        <v>8800</v>
       </c>
       <c r="J24">
-        <v>26000</v>
+        <v>10700</v>
       </c>
       <c r="K24" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="L24">
-        <v>26000</v>
+        <v>10700</v>
       </c>
       <c r="M24" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="N24" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>30.21513173797438</v>
       </c>
       <c r="P24" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="Q24" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R24" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="S24" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="T24" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C25" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D25" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F25">
-        <v>36000000</v>
+        <v>8000000</v>
       </c>
       <c r="G25">
-        <v>18000000</v>
+        <v>4000000</v>
       </c>
       <c r="H25" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I25">
         <v>2000</v>
@@ -4255,34 +3810,34 @@
         <v>2000</v>
       </c>
       <c r="K25" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="L25">
         <v>2000</v>
       </c>
       <c r="M25" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="N25" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="Q25" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R25" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="S25" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="T25" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -4292,7 +3847,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4300,16 +3855,16 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -4321,10 +3876,10 @@
         <v>0</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>12</v>
@@ -4333,77 +3888,77 @@
         <v>6</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="E2" t="s">
-        <v>143</v>
+        <v>69</v>
       </c>
       <c r="F2" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H2">
-        <v>42120</v>
+        <v>15600</v>
       </c>
       <c r="I2">
-        <v>16200000</v>
+        <v>1200000</v>
       </c>
       <c r="J2">
-        <v>26000</v>
+        <v>13000</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H3">
-        <v>15600</v>
+        <v>12600</v>
       </c>
       <c r="I3">
-        <v>1200000</v>
+        <v>7000000</v>
       </c>
       <c r="J3">
-        <v>13000</v>
+        <v>1800</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -4414,34 +3969,34 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H4">
-        <v>72141.3</v>
+        <v>25000</v>
       </c>
       <c r="I4">
-        <v>2079000</v>
+        <v>12500000</v>
       </c>
       <c r="J4">
-        <v>34700</v>
+        <v>2000</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -4452,72 +4007,72 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>143</v>
+        <v>65</v>
       </c>
       <c r="F5" t="s">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="H5">
-        <v>42120</v>
+        <v>72141.3</v>
       </c>
       <c r="I5">
-        <v>16200000</v>
+        <v>2079000</v>
       </c>
       <c r="J5">
-        <v>26000</v>
+        <v>34700</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
         <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
         <v>27</v>
       </c>
       <c r="H6">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="I6">
-        <v>12500000</v>
+        <v>3600000</v>
       </c>
       <c r="J6">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -4528,34 +4083,34 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H7">
-        <v>27000</v>
+        <v>17841.194</v>
       </c>
       <c r="I7">
-        <v>3600000</v>
+        <v>1049482</v>
       </c>
       <c r="J7">
-        <v>7500</v>
+        <v>17000</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -4566,34 +4121,34 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H8">
-        <v>12600</v>
+        <v>24960</v>
       </c>
       <c r="I8">
-        <v>7000000</v>
+        <v>5200000</v>
       </c>
       <c r="J8">
-        <v>1800</v>
+        <v>4800</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -4604,72 +4159,72 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>143</v>
+        <v>62</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="H9">
-        <v>42120</v>
+        <v>6384</v>
       </c>
       <c r="I9">
-        <v>16200000</v>
+        <v>1596000</v>
       </c>
       <c r="J9">
-        <v>26000</v>
+        <v>4000</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="G10" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H10">
-        <v>24960</v>
+        <v>27880</v>
       </c>
       <c r="I10">
-        <v>5200000</v>
+        <v>1640000</v>
       </c>
       <c r="J10">
-        <v>4800</v>
+        <v>17000</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -4680,34 +4235,34 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G11" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H11">
-        <v>17841.194</v>
+        <v>44112</v>
       </c>
       <c r="I11">
-        <v>1049482</v>
+        <v>1470400</v>
       </c>
       <c r="J11">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -4718,110 +4273,110 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C12" t="s">
         <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>65</v>
+        <v>137</v>
       </c>
       <c r="F12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G12" t="s">
         <v>21</v>
       </c>
       <c r="H12">
-        <v>6384</v>
+        <v>121994.4706</v>
       </c>
       <c r="I12">
-        <v>1596000</v>
+        <v>11580800</v>
       </c>
       <c r="J12">
-        <v>4000</v>
+        <v>36200</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>100</v>
+        <v>29.1</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E13" t="s">
-        <v>144</v>
+        <v>64</v>
       </c>
       <c r="F13" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="G13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H13">
-        <v>121994.4706</v>
+        <v>29750</v>
       </c>
       <c r="I13">
-        <v>11580800</v>
+        <v>4250000</v>
       </c>
       <c r="J13">
-        <v>36200</v>
+        <v>7000</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>29.1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F14" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G14" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H14">
-        <v>44112</v>
+        <v>46350</v>
       </c>
       <c r="I14">
-        <v>1470400</v>
+        <v>2060000</v>
       </c>
       <c r="J14">
-        <v>30000</v>
+        <v>22500</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -4832,34 +4387,34 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="D15" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E15" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F15" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="G15" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="H15">
-        <v>46350</v>
+        <v>52000</v>
       </c>
       <c r="I15">
-        <v>2060000</v>
+        <v>2000000</v>
       </c>
       <c r="J15">
-        <v>22500</v>
+        <v>26000</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -4873,37 +4428,37 @@
         <v>66</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
         <v>66</v>
       </c>
       <c r="E16" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="F16" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="H16">
-        <v>44265.9</v>
+        <v>284653.7406</v>
       </c>
       <c r="I16">
-        <v>4137000</v>
+        <v>11580800</v>
       </c>
       <c r="J16">
-        <v>10700</v>
+        <v>36200</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>100</v>
+        <v>67.90000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -4911,22 +4466,22 @@
         <v>66</v>
       </c>
       <c r="B17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E17" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H17">
         <v>16000</v>
@@ -4949,183 +4504,183 @@
         <v>66</v>
       </c>
       <c r="B18" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D18" t="s">
         <v>66</v>
       </c>
       <c r="E18" t="s">
-        <v>144</v>
+        <v>66</v>
       </c>
       <c r="F18" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="G18" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="H18">
-        <v>284653.7406</v>
+        <v>44265.9</v>
       </c>
       <c r="I18">
-        <v>11580800</v>
+        <v>4137000</v>
       </c>
       <c r="J18">
-        <v>36200</v>
+        <v>10700</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>67.90000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B19" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="E19" t="s">
-        <v>143</v>
+        <v>67</v>
       </c>
       <c r="F19" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="G19" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="H19">
-        <v>126360</v>
+        <v>65908.25</v>
       </c>
       <c r="I19">
-        <v>16200000</v>
+        <v>2636330</v>
       </c>
       <c r="J19">
-        <v>26000</v>
+        <v>25000</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D20" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="E20" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G20" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="H20">
-        <v>52000</v>
+        <v>16000</v>
       </c>
       <c r="I20">
-        <v>2000000</v>
+        <v>1600000</v>
       </c>
       <c r="J20">
-        <v>26000</v>
+        <v>20000</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="D21" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="E21" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="F21" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G21" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H21">
-        <v>16000</v>
+        <v>4966.368</v>
       </c>
       <c r="I21">
-        <v>1600000</v>
+        <v>1128720</v>
       </c>
       <c r="J21">
-        <v>20000</v>
+        <v>4400</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="D22" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E22" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F22" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G22" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H22">
-        <v>65908.25</v>
+        <v>26000</v>
       </c>
       <c r="I22">
-        <v>2636330</v>
+        <v>4000000</v>
       </c>
       <c r="J22">
-        <v>25000</v>
+        <v>6500</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -5136,110 +4691,110 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B23" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D23" t="s">
-        <v>115</v>
+        <v>72</v>
       </c>
       <c r="E23" t="s">
-        <v>143</v>
+        <v>72</v>
       </c>
       <c r="F23" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="G23" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H23">
-        <v>12636</v>
+        <v>5390</v>
       </c>
       <c r="I23">
-        <v>16200000</v>
+        <v>770000</v>
       </c>
       <c r="J23">
-        <v>26000</v>
+        <v>7000</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B24" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E24" t="s">
-        <v>71</v>
+        <v>137</v>
       </c>
       <c r="F24" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="G24" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="H24">
-        <v>36000</v>
+        <v>12576.7488</v>
       </c>
       <c r="I24">
-        <v>18000000</v>
+        <v>11580800</v>
       </c>
       <c r="J24">
-        <v>2000</v>
+        <v>36200</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B25" t="s">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D25" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E25" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G25" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H25">
-        <v>4966.368</v>
+        <v>36850</v>
       </c>
       <c r="I25">
-        <v>1128720</v>
+        <v>3350000</v>
       </c>
       <c r="J25">
-        <v>4400</v>
+        <v>11000</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -5250,72 +4805,72 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B26" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C26" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="D26" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="E26" t="s">
-        <v>143</v>
+        <v>68</v>
       </c>
       <c r="F26" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="G26" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="H26">
-        <v>4212</v>
+        <v>8000</v>
       </c>
       <c r="I26">
-        <v>16200000</v>
+        <v>4000000</v>
       </c>
       <c r="J26">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B27" t="s">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
         <v>54</v>
       </c>
       <c r="D27" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E27" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="G27" t="s">
         <v>30</v>
       </c>
       <c r="H27">
-        <v>26000</v>
+        <v>30600</v>
       </c>
       <c r="I27">
-        <v>4000000</v>
+        <v>1800000</v>
       </c>
       <c r="J27">
-        <v>6500</v>
+        <v>17000</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -5326,343 +4881,39 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B28" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C28" t="s">
         <v>59</v>
       </c>
       <c r="D28" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="E28" t="s">
-        <v>143</v>
+        <v>73</v>
       </c>
       <c r="F28" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G28" t="s">
         <v>35</v>
       </c>
       <c r="H28">
-        <v>12636</v>
+        <v>8000</v>
       </c>
       <c r="I28">
-        <v>16200000</v>
+        <v>4000000</v>
       </c>
       <c r="J28">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" t="s">
-        <v>73</v>
-      </c>
-      <c r="B29" t="s">
-        <v>92</v>
-      </c>
-      <c r="C29" t="s">
-        <v>59</v>
-      </c>
-      <c r="D29" t="s">
-        <v>115</v>
-      </c>
-      <c r="E29" t="s">
-        <v>143</v>
-      </c>
-      <c r="F29" t="s">
-        <v>95</v>
-      </c>
-      <c r="G29" t="s">
-        <v>35</v>
-      </c>
-      <c r="H29">
-        <v>12636</v>
-      </c>
-      <c r="I29">
-        <v>16200000</v>
-      </c>
-      <c r="J29">
-        <v>26000</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" t="s">
-        <v>73</v>
-      </c>
-      <c r="B30" t="s">
-        <v>90</v>
-      </c>
-      <c r="C30" t="s">
-        <v>55</v>
-      </c>
-      <c r="D30" t="s">
-        <v>73</v>
-      </c>
-      <c r="E30" t="s">
-        <v>73</v>
-      </c>
-      <c r="F30" t="s">
-        <v>34</v>
-      </c>
-      <c r="G30" t="s">
-        <v>31</v>
-      </c>
-      <c r="H30">
-        <v>5390</v>
-      </c>
-      <c r="I30">
-        <v>770000</v>
-      </c>
-      <c r="J30">
-        <v>7000</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" t="s">
-        <v>63</v>
-      </c>
-      <c r="B31" t="s">
-        <v>83</v>
-      </c>
-      <c r="C31" t="s">
-        <v>40</v>
-      </c>
-      <c r="D31" t="s">
-        <v>66</v>
-      </c>
-      <c r="E31" t="s">
-        <v>144</v>
-      </c>
-      <c r="F31" t="s">
-        <v>23</v>
-      </c>
-      <c r="G31" t="s">
-        <v>20</v>
-      </c>
-      <c r="H31">
-        <v>12576.7488</v>
-      </c>
-      <c r="I31">
-        <v>11580800</v>
-      </c>
-      <c r="J31">
-        <v>36200</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" t="s">
-        <v>63</v>
-      </c>
-      <c r="E32" t="s">
-        <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>24</v>
-      </c>
-      <c r="G32" t="s">
-        <v>17</v>
-      </c>
-      <c r="H32">
-        <v>36850</v>
-      </c>
-      <c r="I32">
-        <v>3350000</v>
-      </c>
-      <c r="J32">
-        <v>11000</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" t="s">
-        <v>68</v>
-      </c>
-      <c r="B33" t="s">
-        <v>92</v>
-      </c>
-      <c r="C33" t="s">
-        <v>59</v>
-      </c>
-      <c r="D33" t="s">
-        <v>115</v>
-      </c>
-      <c r="E33" t="s">
-        <v>143</v>
-      </c>
-      <c r="F33" t="s">
-        <v>95</v>
-      </c>
-      <c r="G33" t="s">
-        <v>35</v>
-      </c>
-      <c r="H33">
-        <v>126360</v>
-      </c>
-      <c r="I33">
-        <v>16200000</v>
-      </c>
-      <c r="J33">
-        <v>26000</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" t="s">
-        <v>68</v>
-      </c>
-      <c r="B34" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" t="s">
-        <v>53</v>
-      </c>
-      <c r="D34" t="s">
-        <v>68</v>
-      </c>
-      <c r="E34" t="s">
-        <v>68</v>
-      </c>
-      <c r="F34" t="s">
-        <v>88</v>
-      </c>
-      <c r="G34" t="s">
-        <v>29</v>
-      </c>
-      <c r="H34">
-        <v>30600</v>
-      </c>
-      <c r="I34">
-        <v>1800000</v>
-      </c>
-      <c r="J34">
-        <v>17000</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35" t="s">
-        <v>68</v>
-      </c>
-      <c r="B35" t="s">
-        <v>86</v>
-      </c>
-      <c r="C35" t="s">
-        <v>44</v>
-      </c>
-      <c r="D35" t="s">
-        <v>68</v>
-      </c>
-      <c r="E35" t="s">
-        <v>68</v>
-      </c>
-      <c r="F35" t="s">
-        <v>84</v>
-      </c>
-      <c r="G35" t="s">
-        <v>23</v>
-      </c>
-      <c r="H35">
-        <v>8000</v>
-      </c>
-      <c r="I35">
-        <v>4000000</v>
-      </c>
-      <c r="J35">
-        <v>2000</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36" t="s">
-        <v>74</v>
-      </c>
-      <c r="B36" t="s">
-        <v>91</v>
-      </c>
-      <c r="C36" t="s">
-        <v>58</v>
-      </c>
-      <c r="D36" t="s">
-        <v>74</v>
-      </c>
-      <c r="E36" t="s">
-        <v>74</v>
-      </c>
-      <c r="F36" t="s">
-        <v>36</v>
-      </c>
-      <c r="G36" t="s">
-        <v>34</v>
-      </c>
-      <c r="H36">
-        <v>8000</v>
-      </c>
-      <c r="I36">
-        <v>4000000</v>
-      </c>
-      <c r="J36">
-        <v>2000</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
         <v>100</v>
       </c>
     </row>

--- a/datasets/corporate-finance-data.xlsx
+++ b/datasets/corporate-finance-data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="141">
   <si>
     <t>상장일</t>
   </si>
@@ -69,6 +69,9 @@
     <t>총기관배정수량</t>
   </si>
   <si>
+    <t>2023-11-28</t>
+  </si>
+  <si>
     <t>2023-11-24</t>
   </si>
   <si>
@@ -126,6 +129,9 @@
     <t>2023-10-13</t>
   </si>
   <si>
+    <t>에이에스텍</t>
+  </si>
+  <si>
     <t>그린리소스</t>
   </si>
   <si>
@@ -204,6 +210,9 @@
     <t>코스피</t>
   </si>
   <si>
+    <t>미래</t>
+  </si>
+  <si>
     <t>NH</t>
   </si>
   <si>
@@ -216,9 +225,6 @@
     <t>KB</t>
   </si>
   <si>
-    <t>미래</t>
-  </si>
-  <si>
     <t>삼성</t>
   </si>
   <si>
@@ -255,6 +261,9 @@
     <t>공동대표</t>
   </si>
   <si>
+    <t>2023-11-16</t>
+  </si>
+  <si>
     <t>2023-11-08</t>
   </si>
   <si>
@@ -285,9 +294,6 @@
     <t>2023-09-25</t>
   </si>
   <si>
-    <t>2023-11-16</t>
-  </si>
-  <si>
     <t>2023-10-11</t>
   </si>
   <si>
@@ -346,6 +352,9 @@
   </si>
   <si>
     <t>미래, 삼성</t>
+  </si>
+  <si>
+    <t>1356 : 1</t>
   </si>
   <si>
     <t>590.067 : 1</t>
@@ -787,7 +796,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -851,52 +860,52 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D2">
-        <v>278.8</v>
+        <v>393.96</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F2">
-        <v>278.8</v>
+        <v>393.96</v>
       </c>
       <c r="G2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M2">
-        <v>17000</v>
+        <v>28000</v>
       </c>
       <c r="N2">
         <v>100</v>
       </c>
       <c r="O2" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="Q2">
-        <v>1221420</v>
+        <v>1055250</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -904,93 +913,93 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D3">
-        <v>368.5</v>
+        <v>278.8</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F3">
-        <v>368.5</v>
+        <v>278.8</v>
       </c>
       <c r="G3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M3">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="N3">
         <v>100</v>
       </c>
       <c r="O3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="P3" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="Q3">
-        <v>2374500</v>
+        <v>1221420</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D4">
-        <v>297.5</v>
+        <v>368.5</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F4">
-        <v>297.5</v>
+        <v>368.5</v>
       </c>
       <c r="G4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M4">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="N4">
         <v>100</v>
@@ -999,63 +1008,63 @@
         <v>24</v>
       </c>
       <c r="P4" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="Q4">
-        <v>3187500</v>
+        <v>2374500</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D5">
-        <v>721.413</v>
+        <v>297.5</v>
       </c>
       <c r="E5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F5">
-        <v>721.413</v>
+        <v>297.5</v>
       </c>
       <c r="G5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M5">
-        <v>34700</v>
+        <v>7000</v>
       </c>
       <c r="N5">
         <v>100</v>
       </c>
       <c r="O5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P5" t="s">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="Q5">
-        <v>1537150</v>
+        <v>3187500</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1063,52 +1072,52 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D6">
-        <v>441.12</v>
+        <v>721.413</v>
       </c>
       <c r="E6" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F6">
-        <v>441.12</v>
+        <v>721.413</v>
       </c>
       <c r="G6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M6">
-        <v>30000</v>
+        <v>34700</v>
       </c>
       <c r="N6">
         <v>100</v>
       </c>
       <c r="O6" t="s">
+        <v>27</v>
+      </c>
+      <c r="P6" t="s">
         <v>23</v>
       </c>
-      <c r="P6" t="s">
-        <v>25</v>
-      </c>
       <c r="Q6">
-        <v>1072999</v>
+        <v>1537150</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1116,102 +1125,102 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D7">
-        <v>4192.2496</v>
+        <v>441.12</v>
       </c>
       <c r="E7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F7">
-        <v>2846.537406</v>
+        <v>441.12</v>
       </c>
       <c r="G7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M7">
-        <v>36200</v>
+        <v>30000</v>
       </c>
       <c r="N7">
-        <v>67.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="O7" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="P7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Q7">
-        <v>19108320</v>
+        <v>1072999</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D8">
         <v>4192.2496</v>
       </c>
       <c r="E8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F8">
-        <v>1219.944706</v>
+        <v>2846.537406</v>
       </c>
       <c r="G8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M8">
         <v>36200</v>
       </c>
       <c r="N8">
-        <v>29.1</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="O8" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q8">
         <v>19108320</v>
@@ -1219,52 +1228,52 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D9">
         <v>4192.2496</v>
       </c>
       <c r="E9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F9">
-        <v>125.767488</v>
+        <v>1219.944706</v>
       </c>
       <c r="G9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M9">
         <v>36200</v>
       </c>
       <c r="N9">
-        <v>3</v>
+        <v>29.1</v>
       </c>
       <c r="O9" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="P9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q9">
         <v>19108320</v>
@@ -1275,52 +1284,52 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D10">
-        <v>63.84</v>
+        <v>4192.2496</v>
       </c>
       <c r="E10" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F10">
-        <v>63.84</v>
+        <v>125.767488</v>
       </c>
       <c r="G10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K10" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="L10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M10">
-        <v>4000</v>
+        <v>36200</v>
       </c>
       <c r="N10">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="O10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="P10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Q10">
-        <v>1197000</v>
+        <v>19108320</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1328,90 +1337,90 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D11">
-        <v>320</v>
+        <v>63.84</v>
       </c>
       <c r="E11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F11">
-        <v>160</v>
+        <v>63.84</v>
       </c>
       <c r="G11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M11">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="N11">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="O11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="Q11">
-        <v>2254770</v>
+        <v>1197000</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D12">
         <v>320</v>
       </c>
       <c r="E12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F12">
         <v>160</v>
       </c>
       <c r="G12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M12">
         <v>20000</v>
@@ -1420,10 +1429,10 @@
         <v>50</v>
       </c>
       <c r="O12" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q12">
         <v>2254770</v>
@@ -1434,105 +1443,105 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D13">
-        <v>659.0825</v>
+        <v>320</v>
       </c>
       <c r="E13" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F13">
-        <v>659.0825</v>
+        <v>160</v>
       </c>
       <c r="G13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K13" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M13">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="N13">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O13" t="s">
+        <v>84</v>
+      </c>
+      <c r="P13" t="s">
         <v>29</v>
       </c>
-      <c r="P13" t="s">
-        <v>27</v>
-      </c>
       <c r="Q13">
-        <v>1827247</v>
+        <v>2254770</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D14">
-        <v>80</v>
+        <v>659.0825</v>
       </c>
       <c r="E14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F14">
-        <v>80</v>
+        <v>659.0825</v>
       </c>
       <c r="G14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M14">
-        <v>2000</v>
+        <v>25000</v>
       </c>
       <c r="N14">
         <v>100</v>
       </c>
       <c r="O14" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="P14" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="Q14">
-        <v>3000000</v>
+        <v>1827247</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1540,52 +1549,52 @@
         <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D15">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="E15" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F15">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="G15" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H15" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I15" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J15" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K15" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L15" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M15">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="N15">
         <v>100</v>
       </c>
       <c r="O15" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P15" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="Q15">
-        <v>4550000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1593,211 +1602,211 @@
         <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D16">
-        <v>249.6</v>
+        <v>126</v>
       </c>
       <c r="E16" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F16">
-        <v>249.6</v>
+        <v>126</v>
       </c>
       <c r="G16" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H16" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I16" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J16" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K16" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L16" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M16">
-        <v>4800</v>
+        <v>1800</v>
       </c>
       <c r="N16">
         <v>100</v>
       </c>
       <c r="O16" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P16" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="Q16">
-        <v>3900000</v>
+        <v>4550000</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D17">
-        <v>463.5</v>
+        <v>249.6</v>
       </c>
       <c r="E17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F17">
-        <v>463.5</v>
+        <v>249.6</v>
       </c>
       <c r="G17" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H17" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I17" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J17" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K17" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L17" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M17">
-        <v>22500</v>
+        <v>4800</v>
       </c>
       <c r="N17">
         <v>100</v>
       </c>
       <c r="O17" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="P17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q17">
-        <v>1545000</v>
+        <v>3900000</v>
       </c>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D18">
-        <v>156</v>
+        <v>463.5</v>
       </c>
       <c r="E18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F18">
-        <v>156</v>
+        <v>463.5</v>
       </c>
       <c r="G18" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H18" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I18" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J18" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K18" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L18" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M18">
-        <v>13000</v>
+        <v>22500</v>
       </c>
       <c r="N18">
         <v>100</v>
       </c>
       <c r="O18" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="P18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q18">
-        <v>840000</v>
+        <v>1545000</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D19">
-        <v>270</v>
+        <v>156</v>
       </c>
       <c r="E19" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F19">
-        <v>270</v>
+        <v>156</v>
       </c>
       <c r="G19" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H19" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I19" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J19" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K19" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L19" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M19">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="N19">
         <v>100</v>
       </c>
       <c r="O19" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="Q19">
-        <v>2600000</v>
+        <v>840000</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1805,52 +1814,52 @@
         <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D20">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="E20" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F20">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="G20" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H20" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I20" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J20" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K20" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L20" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M20">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="N20">
         <v>100</v>
       </c>
       <c r="O20" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="P20" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="Q20">
-        <v>9375000</v>
+        <v>2600000</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1858,105 +1867,105 @@
         <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D21">
-        <v>178.41194</v>
+        <v>250</v>
       </c>
       <c r="E21" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F21">
-        <v>178.41194</v>
+        <v>250</v>
       </c>
       <c r="G21" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H21" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I21" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J21" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K21" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L21" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M21">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="N21">
         <v>100</v>
       </c>
       <c r="O21" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P21" t="s">
         <v>31</v>
       </c>
       <c r="Q21">
-        <v>787111</v>
+        <v>9375000</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D22">
-        <v>49.66368</v>
+        <v>178.41194</v>
       </c>
       <c r="E22" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F22">
-        <v>49.66368</v>
+        <v>178.41194</v>
       </c>
       <c r="G22" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H22" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I22" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J22" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K22" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L22" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M22">
-        <v>4400</v>
+        <v>17000</v>
       </c>
       <c r="N22">
         <v>100</v>
       </c>
       <c r="O22" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="P22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q22">
-        <v>846540</v>
+        <v>787111</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1964,52 +1973,52 @@
         <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D23">
-        <v>306</v>
+        <v>49.66368</v>
       </c>
       <c r="E23" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F23">
-        <v>306</v>
+        <v>49.66368</v>
       </c>
       <c r="G23" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H23" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I23" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J23" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K23" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L23" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M23">
-        <v>17000</v>
+        <v>4400</v>
       </c>
       <c r="N23">
         <v>100</v>
       </c>
       <c r="O23" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="Q23">
-        <v>1119600</v>
+        <v>846540</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -2017,52 +2026,52 @@
         <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D24">
-        <v>260</v>
+        <v>306</v>
       </c>
       <c r="E24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F24">
-        <v>260</v>
+        <v>306</v>
       </c>
       <c r="G24" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H24" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I24" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J24" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L24" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M24">
-        <v>6500</v>
+        <v>17000</v>
       </c>
       <c r="N24">
         <v>100</v>
       </c>
       <c r="O24" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="P24" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="Q24">
-        <v>2880000</v>
+        <v>1119600</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2070,52 +2079,52 @@
         <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C25" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D25">
-        <v>53.9</v>
+        <v>260</v>
       </c>
       <c r="E25" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F25">
-        <v>53.9</v>
+        <v>260</v>
       </c>
       <c r="G25" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H25" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I25" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J25" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K25" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L25" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M25">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="N25">
         <v>100</v>
       </c>
       <c r="O25" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q25">
-        <v>577500</v>
+        <v>2880000</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2123,52 +2132,52 @@
         <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C26" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D26">
-        <v>520</v>
+        <v>53.9</v>
       </c>
       <c r="E26" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="F26">
-        <v>520</v>
+        <v>53.9</v>
       </c>
       <c r="G26" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H26" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I26" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J26" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K26" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L26" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M26">
-        <v>26000</v>
+        <v>7000</v>
       </c>
       <c r="N26">
         <v>100</v>
       </c>
       <c r="O26" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="P26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q26">
-        <v>1300000</v>
+        <v>577500</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2176,52 +2185,52 @@
         <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D27">
-        <v>442.659</v>
+        <v>520</v>
       </c>
       <c r="E27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F27">
-        <v>442.659</v>
+        <v>520</v>
       </c>
       <c r="G27" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H27" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I27" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J27" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K27" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L27" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M27">
-        <v>10700</v>
+        <v>26000</v>
       </c>
       <c r="N27">
         <v>100</v>
       </c>
       <c r="O27" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P27" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="Q27">
-        <v>3102750</v>
+        <v>1300000</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2229,51 +2238,104 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C28" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D28">
-        <v>80</v>
+        <v>442.659</v>
       </c>
       <c r="E28" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="F28">
-        <v>80</v>
+        <v>442.659</v>
       </c>
       <c r="G28" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H28" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I28" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J28" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K28" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L28" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M28">
-        <v>2000</v>
+        <v>10700</v>
       </c>
       <c r="N28">
         <v>100</v>
       </c>
       <c r="O28" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P28" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q28">
+        <v>3102750</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29">
+        <v>80</v>
+      </c>
+      <c r="E29" t="s">
+        <v>75</v>
+      </c>
+      <c r="F29">
+        <v>80</v>
+      </c>
+      <c r="G29" t="s">
+        <v>76</v>
+      </c>
+      <c r="H29" t="s">
+        <v>76</v>
+      </c>
+      <c r="I29" t="s">
+        <v>76</v>
+      </c>
+      <c r="J29" t="s">
+        <v>76</v>
+      </c>
+      <c r="K29" t="s">
+        <v>77</v>
+      </c>
+      <c r="L29" t="s">
+        <v>76</v>
+      </c>
+      <c r="M29">
+        <v>2000</v>
+      </c>
+      <c r="N29">
+        <v>100</v>
+      </c>
+      <c r="O29" t="s">
         <v>91</v>
       </c>
-      <c r="Q28">
+      <c r="P29" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q29">
         <v>3000000</v>
       </c>
     </row>
@@ -2284,7 +2346,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2295,10 +2357,10 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>15</v>
@@ -2307,173 +2369,173 @@
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>27880000</v>
+        <v>39396000</v>
       </c>
       <c r="G2">
-        <v>1640000</v>
+        <v>1407000</v>
       </c>
       <c r="H2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I2">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="J2">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="K2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L2">
-        <v>17000</v>
+        <v>28000</v>
       </c>
       <c r="M2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>40.01421464108032</v>
       </c>
       <c r="P2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="S2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
       </c>
       <c r="F3">
-        <v>36850000</v>
+        <v>27880000</v>
       </c>
       <c r="G3">
-        <v>3350000</v>
+        <v>1640000</v>
       </c>
       <c r="H3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I3">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="J3">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="K3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L3">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="M3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="S3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -2481,878 +2543,878 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D4" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F4">
-        <v>29750000</v>
+        <v>36850000</v>
       </c>
       <c r="G4">
-        <v>4250000</v>
+        <v>3350000</v>
       </c>
       <c r="H4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I4">
-        <v>5200</v>
+        <v>8000</v>
       </c>
       <c r="J4">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="K4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L4">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="S4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5">
-        <v>72141300</v>
+        <v>29750000</v>
       </c>
       <c r="G5">
-        <v>2079000</v>
+        <v>4250000</v>
       </c>
       <c r="H5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I5">
-        <v>28500</v>
+        <v>5200</v>
       </c>
       <c r="J5">
-        <v>34700</v>
+        <v>6000</v>
       </c>
       <c r="K5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L5">
-        <v>34700</v>
+        <v>7000</v>
       </c>
       <c r="M5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="S5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
       </c>
       <c r="E6" t="s">
         <v>20</v>
       </c>
       <c r="F6">
-        <v>44112000</v>
+        <v>72141300</v>
       </c>
       <c r="G6">
-        <v>1470400</v>
+        <v>2079000</v>
       </c>
       <c r="H6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I6">
-        <v>33000</v>
+        <v>28500</v>
       </c>
       <c r="J6">
-        <v>37000</v>
+        <v>34700</v>
       </c>
       <c r="K6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L6">
-        <v>30000</v>
+        <v>34700</v>
       </c>
       <c r="M6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O6">
-        <v>23.28618063112079</v>
+        <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R6" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="S6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
         <v>21</v>
       </c>
       <c r="F7">
-        <v>419224960</v>
+        <v>44112000</v>
       </c>
       <c r="G7">
-        <v>11580800</v>
+        <v>1470400</v>
       </c>
       <c r="H7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I7">
-        <v>36200</v>
+        <v>33000</v>
       </c>
       <c r="J7">
-        <v>44000</v>
+        <v>37000</v>
       </c>
       <c r="K7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L7">
-        <v>36200</v>
+        <v>30000</v>
       </c>
       <c r="M7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>23.28618063112079</v>
       </c>
       <c r="P7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="S7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
         <v>22</v>
       </c>
       <c r="F8">
-        <v>6384000</v>
+        <v>419224960</v>
       </c>
       <c r="G8">
-        <v>1596000</v>
+        <v>11580800</v>
       </c>
       <c r="H8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I8">
-        <v>3200</v>
+        <v>36200</v>
       </c>
       <c r="J8">
-        <v>3600</v>
+        <v>44000</v>
       </c>
       <c r="K8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L8">
-        <v>4000</v>
+        <v>36200</v>
       </c>
       <c r="M8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="S8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
         <v>23</v>
       </c>
       <c r="F9">
-        <v>32000000</v>
+        <v>6384000</v>
       </c>
       <c r="G9">
-        <v>1600000</v>
+        <v>1596000</v>
       </c>
       <c r="H9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I9">
-        <v>29800</v>
+        <v>3200</v>
       </c>
       <c r="J9">
-        <v>33500</v>
+        <v>3600</v>
       </c>
       <c r="K9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L9">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="M9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="S9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" t="s">
         <v>29</v>
-      </c>
-      <c r="B10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
       </c>
       <c r="E10" t="s">
         <v>24</v>
       </c>
       <c r="F10">
-        <v>65908250</v>
+        <v>32000000</v>
       </c>
       <c r="G10">
-        <v>2636330</v>
+        <v>1600000</v>
       </c>
       <c r="H10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I10">
-        <v>19100</v>
+        <v>29800</v>
       </c>
       <c r="J10">
-        <v>21400</v>
+        <v>33500</v>
       </c>
       <c r="K10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L10">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R10" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="S10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F11">
-        <v>8000000</v>
+        <v>65908250</v>
       </c>
       <c r="G11">
-        <v>4000000</v>
+        <v>2636330</v>
       </c>
       <c r="H11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I11">
-        <v>2000</v>
+        <v>19100</v>
       </c>
       <c r="J11">
-        <v>2000</v>
+        <v>21400</v>
       </c>
       <c r="K11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L11">
-        <v>2000</v>
+        <v>25000</v>
       </c>
       <c r="M11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R11" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="S11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E12" t="s">
         <v>25</v>
       </c>
       <c r="F12">
-        <v>12600000</v>
+        <v>8000000</v>
       </c>
       <c r="G12">
-        <v>7000000</v>
+        <v>4000000</v>
       </c>
       <c r="H12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I12">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="J12">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="K12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L12">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="M12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R12" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="S12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="E13" t="s">
         <v>26</v>
       </c>
       <c r="F13">
-        <v>24960000</v>
+        <v>12600000</v>
       </c>
       <c r="G13">
-        <v>5200000</v>
+        <v>7000000</v>
       </c>
       <c r="H13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I13">
-        <v>3500</v>
+        <v>1200</v>
       </c>
       <c r="J13">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="K13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L13">
-        <v>4800</v>
+        <v>1800</v>
       </c>
       <c r="M13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R13" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="S13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F14">
-        <v>46350000</v>
+        <v>24960000</v>
       </c>
       <c r="G14">
-        <v>2060000</v>
+        <v>5200000</v>
       </c>
       <c r="H14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I14">
-        <v>20300</v>
+        <v>3500</v>
       </c>
       <c r="J14">
-        <v>22500</v>
+        <v>4000</v>
       </c>
       <c r="K14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L14">
-        <v>22500</v>
+        <v>4800</v>
       </c>
       <c r="M14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O14">
-        <v>2.912621359223301</v>
+        <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R14" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="S14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F15">
-        <v>15600000</v>
+        <v>46350000</v>
       </c>
       <c r="G15">
-        <v>1200000</v>
+        <v>2060000</v>
       </c>
       <c r="H15" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I15">
-        <v>9100</v>
+        <v>20300</v>
       </c>
       <c r="J15">
-        <v>11000</v>
+        <v>22500</v>
       </c>
       <c r="K15" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L15">
-        <v>13000</v>
+        <v>22500</v>
       </c>
       <c r="M15" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N15" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>2.912621359223301</v>
       </c>
       <c r="P15" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q15" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R15" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="S15" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T15" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D16" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="E16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F16">
-        <v>27000000</v>
+        <v>15600000</v>
       </c>
       <c r="G16">
-        <v>3600000</v>
+        <v>1200000</v>
       </c>
       <c r="H16" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I16">
-        <v>5000</v>
+        <v>9100</v>
       </c>
       <c r="J16">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="K16" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L16">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="M16" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N16" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q16" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R16" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="S16" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T16" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="E17" t="s">
         <v>28</v>
       </c>
       <c r="F17">
-        <v>25000000</v>
+        <v>27000000</v>
       </c>
       <c r="G17">
-        <v>12500000</v>
+        <v>3600000</v>
       </c>
       <c r="H17" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I17">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="J17">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="K17" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L17">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="M17" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N17" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q17" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R17" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="S17" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T17" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D18" t="s">
         <v>31</v>
@@ -3361,483 +3423,545 @@
         <v>29</v>
       </c>
       <c r="F18">
-        <v>17841194</v>
+        <v>25000000</v>
       </c>
       <c r="G18">
-        <v>1049482</v>
+        <v>12500000</v>
       </c>
       <c r="H18" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I18">
-        <v>12800</v>
+        <v>2000</v>
       </c>
       <c r="J18">
-        <v>14500</v>
+        <v>2000</v>
       </c>
       <c r="K18" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L18">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="M18" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N18" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O18">
-        <v>9.999980942979489</v>
+        <v>0</v>
       </c>
       <c r="P18" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q18" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R18" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="S18" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T18" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C19" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F19">
-        <v>4966368</v>
+        <v>17841194</v>
       </c>
       <c r="G19">
-        <v>1128720</v>
+        <v>1049482</v>
       </c>
       <c r="H19" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I19">
-        <v>3300</v>
+        <v>12800</v>
       </c>
       <c r="J19">
-        <v>3900</v>
+        <v>14500</v>
       </c>
       <c r="K19" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L19">
-        <v>4400</v>
+        <v>17000</v>
       </c>
       <c r="M19" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N19" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>9.999980942979489</v>
       </c>
       <c r="P19" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q19" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R19" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="S19" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T19" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D20" t="s">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="E20" t="s">
         <v>30</v>
       </c>
       <c r="F20">
-        <v>30600000</v>
+        <v>4966368</v>
       </c>
       <c r="G20">
-        <v>1800000</v>
+        <v>1128720</v>
       </c>
       <c r="H20" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I20">
-        <v>13000</v>
+        <v>3300</v>
       </c>
       <c r="J20">
-        <v>15000</v>
+        <v>3900</v>
       </c>
       <c r="K20" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L20">
-        <v>17000</v>
+        <v>4400</v>
       </c>
       <c r="M20" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N20" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q20" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R20" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="S20" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T20" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D21" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="E21" t="s">
         <v>31</v>
       </c>
       <c r="F21">
-        <v>26000000</v>
+        <v>30600000</v>
       </c>
       <c r="G21">
-        <v>4000000</v>
+        <v>1800000</v>
       </c>
       <c r="H21" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I21">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="J21">
-        <v>5600</v>
+        <v>15000</v>
       </c>
       <c r="K21" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L21">
-        <v>6500</v>
+        <v>17000</v>
       </c>
       <c r="M21" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N21" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q21" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="S21" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T21" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E22" t="s">
         <v>32</v>
       </c>
       <c r="F22">
-        <v>5390000</v>
+        <v>26000000</v>
       </c>
       <c r="G22">
-        <v>770000</v>
+        <v>4000000</v>
       </c>
       <c r="H22" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I22">
-        <v>8200</v>
+        <v>5000</v>
       </c>
       <c r="J22">
-        <v>9400</v>
+        <v>5600</v>
       </c>
       <c r="K22" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L22">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="M22" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N22" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q22" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R22" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="S22" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T22" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C23" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E23" t="s">
         <v>33</v>
       </c>
       <c r="F23">
-        <v>52000000</v>
+        <v>5390000</v>
       </c>
       <c r="G23">
-        <v>2000000</v>
+        <v>770000</v>
       </c>
       <c r="H23" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I23">
-        <v>22000</v>
+        <v>8200</v>
       </c>
       <c r="J23">
-        <v>25000</v>
+        <v>9400</v>
       </c>
       <c r="K23" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L23">
-        <v>26000</v>
+        <v>7000</v>
       </c>
       <c r="M23" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N23" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q23" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R23" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="S23" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T23" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D24" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="E24" t="s">
         <v>34</v>
       </c>
       <c r="F24">
-        <v>44265900</v>
+        <v>52000000</v>
       </c>
       <c r="G24">
-        <v>4137000</v>
+        <v>2000000</v>
       </c>
       <c r="H24" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I24">
-        <v>8800</v>
+        <v>22000</v>
       </c>
       <c r="J24">
-        <v>10700</v>
+        <v>25000</v>
       </c>
       <c r="K24" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L24">
-        <v>10700</v>
+        <v>26000</v>
       </c>
       <c r="M24" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N24" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O24">
-        <v>30.21513173797438</v>
+        <v>0</v>
       </c>
       <c r="P24" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q24" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R24" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="S24" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T24" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D25" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E25" t="s">
         <v>35</v>
       </c>
       <c r="F25">
+        <v>44265900</v>
+      </c>
+      <c r="G25">
+        <v>4137000</v>
+      </c>
+      <c r="H25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I25">
+        <v>8800</v>
+      </c>
+      <c r="J25">
+        <v>10700</v>
+      </c>
+      <c r="K25" t="s">
+        <v>76</v>
+      </c>
+      <c r="L25">
+        <v>10700</v>
+      </c>
+      <c r="M25" t="s">
+        <v>76</v>
+      </c>
+      <c r="N25" t="s">
+        <v>76</v>
+      </c>
+      <c r="O25">
+        <v>30.21513173797438</v>
+      </c>
+      <c r="P25" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>76</v>
+      </c>
+      <c r="R25" t="s">
+        <v>135</v>
+      </c>
+      <c r="S25" t="s">
+        <v>76</v>
+      </c>
+      <c r="T25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26">
         <v>8000000</v>
       </c>
-      <c r="G25">
+      <c r="G26">
         <v>4000000</v>
       </c>
-      <c r="H25" t="s">
-        <v>74</v>
-      </c>
-      <c r="I25">
+      <c r="H26" t="s">
+        <v>76</v>
+      </c>
+      <c r="I26">
         <v>2000</v>
       </c>
-      <c r="J25">
+      <c r="J26">
         <v>2000</v>
       </c>
-      <c r="K25" t="s">
-        <v>74</v>
-      </c>
-      <c r="L25">
+      <c r="K26" t="s">
+        <v>76</v>
+      </c>
+      <c r="L26">
         <v>2000</v>
       </c>
-      <c r="M25" t="s">
-        <v>74</v>
-      </c>
-      <c r="N25" t="s">
-        <v>74</v>
-      </c>
-      <c r="O25">
+      <c r="M26" t="s">
+        <v>76</v>
+      </c>
+      <c r="N26" t="s">
+        <v>76</v>
+      </c>
+      <c r="O26">
         <v>0</v>
       </c>
-      <c r="P25" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>74</v>
-      </c>
-      <c r="R25" t="s">
-        <v>133</v>
-      </c>
-      <c r="S25" t="s">
-        <v>74</v>
-      </c>
-      <c r="T25" t="s">
-        <v>74</v>
+      <c r="P26" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>76</v>
+      </c>
+      <c r="R26" t="s">
+        <v>136</v>
+      </c>
+      <c r="S26" t="s">
+        <v>76</v>
+      </c>
+      <c r="T26" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -3847,7 +3971,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3855,16 +3979,16 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -3876,10 +4000,10 @@
         <v>0</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>12</v>
@@ -3888,30 +4012,30 @@
         <v>6</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H2">
         <v>15600</v>
@@ -3931,25 +4055,25 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H3">
         <v>12600</v>
@@ -3969,34 +4093,34 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="G4" t="s">
         <v>28</v>
       </c>
       <c r="H4">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="I4">
-        <v>12500000</v>
+        <v>3600000</v>
       </c>
       <c r="J4">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -4007,25 +4131,25 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H5">
         <v>72141.3</v>
@@ -4045,34 +4169,34 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" t="s">
         <v>31</v>
       </c>
-      <c r="C6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" t="s">
-        <v>81</v>
-      </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H6">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="I6">
-        <v>3600000</v>
+        <v>12500000</v>
       </c>
       <c r="J6">
-        <v>7500</v>
+        <v>2000</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -4083,34 +4207,34 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H7">
-        <v>17841.194</v>
+        <v>24960</v>
       </c>
       <c r="I7">
-        <v>1049482</v>
+        <v>5200000</v>
       </c>
       <c r="J7">
-        <v>17000</v>
+        <v>4800</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -4121,34 +4245,34 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H8">
-        <v>24960</v>
+        <v>6384</v>
       </c>
       <c r="I8">
-        <v>5200000</v>
+        <v>1596000</v>
       </c>
       <c r="J8">
-        <v>4800</v>
+        <v>4000</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -4159,34 +4283,34 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G9" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H9">
-        <v>6384</v>
+        <v>17841.194</v>
       </c>
       <c r="I9">
-        <v>1596000</v>
+        <v>1049482</v>
       </c>
       <c r="J9">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -4197,34 +4321,34 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F10" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="G10" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H10">
-        <v>27880</v>
+        <v>44112</v>
       </c>
       <c r="I10">
-        <v>1640000</v>
+        <v>1470400</v>
       </c>
       <c r="J10">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -4235,34 +4359,34 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="G11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H11">
-        <v>44112</v>
+        <v>27880</v>
       </c>
       <c r="I11">
-        <v>1470400</v>
+        <v>1640000</v>
       </c>
       <c r="J11">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -4273,25 +4397,25 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E12" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H12">
         <v>121994.4706</v>
@@ -4311,34 +4435,34 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" t="s">
-        <v>89</v>
-      </c>
-      <c r="G13" t="s">
-        <v>17</v>
-      </c>
       <c r="H13">
-        <v>29750</v>
+        <v>46350</v>
       </c>
       <c r="I13">
-        <v>4250000</v>
+        <v>2060000</v>
       </c>
       <c r="J13">
-        <v>7000</v>
+        <v>22500</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -4349,34 +4473,34 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" t="s">
         <v>81</v>
       </c>
-      <c r="C14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
-      </c>
       <c r="G14" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H14">
-        <v>46350</v>
+        <v>29750</v>
       </c>
       <c r="I14">
-        <v>2060000</v>
+        <v>4250000</v>
       </c>
       <c r="J14">
-        <v>22500</v>
+        <v>7000</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -4387,148 +4511,148 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="D15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E15" t="s">
-        <v>66</v>
+        <v>140</v>
       </c>
       <c r="F15" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="H15">
-        <v>52000</v>
+        <v>284653.7406</v>
       </c>
       <c r="I15">
-        <v>2000000</v>
+        <v>11580800</v>
       </c>
       <c r="J15">
-        <v>26000</v>
+        <v>36200</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>100</v>
+        <v>67.90000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="E16" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="F16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" t="s">
         <v>24</v>
       </c>
-      <c r="G16" t="s">
-        <v>21</v>
-      </c>
       <c r="H16">
-        <v>284653.7406</v>
+        <v>16000</v>
       </c>
       <c r="I16">
-        <v>11580800</v>
+        <v>1600000</v>
       </c>
       <c r="J16">
-        <v>36200</v>
+        <v>20000</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>67.90000000000001</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="D17" t="s">
-        <v>109</v>
+        <v>64</v>
       </c>
       <c r="E17" t="s">
-        <v>109</v>
+        <v>64</v>
       </c>
       <c r="F17" t="s">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="G17" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="H17">
-        <v>16000</v>
+        <v>44265.9</v>
       </c>
       <c r="I17">
-        <v>1600000</v>
+        <v>4137000</v>
       </c>
       <c r="J17">
-        <v>20000</v>
+        <v>10700</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F18" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="G18" t="s">
         <v>34</v>
       </c>
       <c r="H18">
-        <v>44265.9</v>
+        <v>52000</v>
       </c>
       <c r="I18">
-        <v>4137000</v>
+        <v>2000000</v>
       </c>
       <c r="J18">
-        <v>10700</v>
+        <v>26000</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -4539,34 +4663,34 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D19" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E19" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F19" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G19" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H19">
-        <v>65908.25</v>
+        <v>39396</v>
       </c>
       <c r="I19">
-        <v>2636330</v>
+        <v>1407000</v>
       </c>
       <c r="J19">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -4577,110 +4701,110 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D20" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="E20" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="F20" t="s">
         <v>28</v>
       </c>
       <c r="G20" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H20">
-        <v>16000</v>
+        <v>65908.25</v>
       </c>
       <c r="I20">
-        <v>1600000</v>
+        <v>2636330</v>
       </c>
       <c r="J20">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D21" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="E21" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H21">
-        <v>4966.368</v>
+        <v>16000</v>
       </c>
       <c r="I21">
-        <v>1128720</v>
+        <v>1600000</v>
       </c>
       <c r="J21">
-        <v>4400</v>
+        <v>20000</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C22" t="s">
         <v>55</v>
       </c>
       <c r="D22" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E22" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H22">
-        <v>26000</v>
+        <v>4966.368</v>
       </c>
       <c r="I22">
-        <v>4000000</v>
+        <v>1128720</v>
       </c>
       <c r="J22">
-        <v>6500</v>
+        <v>4400</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -4691,34 +4815,34 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D23" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E23" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G23" t="s">
         <v>32</v>
       </c>
       <c r="H23">
-        <v>5390</v>
+        <v>26000</v>
       </c>
       <c r="I23">
-        <v>770000</v>
+        <v>4000000</v>
       </c>
       <c r="J23">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -4729,110 +4853,110 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="B24" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C24" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D24" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="E24" t="s">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="F24" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="H24">
-        <v>12576.7488</v>
+        <v>5390</v>
       </c>
       <c r="I24">
-        <v>11580800</v>
+        <v>770000</v>
       </c>
       <c r="J24">
-        <v>36200</v>
+        <v>7000</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="C25" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E25" t="s">
-        <v>63</v>
+        <v>140</v>
       </c>
       <c r="F25" t="s">
         <v>25</v>
       </c>
       <c r="G25" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H25">
-        <v>36850</v>
+        <v>12576.7488</v>
       </c>
       <c r="I25">
-        <v>3350000</v>
+        <v>11580800</v>
       </c>
       <c r="J25">
-        <v>11000</v>
+        <v>36200</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B26" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F26" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="G26" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H26">
-        <v>8000</v>
+        <v>36850</v>
       </c>
       <c r="I26">
-        <v>4000000</v>
+        <v>3350000</v>
       </c>
       <c r="J26">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -4843,34 +4967,34 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D27" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E27" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G27" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H27">
-        <v>30600</v>
+        <v>8000</v>
       </c>
       <c r="I27">
-        <v>1800000</v>
+        <v>4000000</v>
       </c>
       <c r="J27">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -4881,39 +5005,77 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B28" t="s">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D28" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E28" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F28" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H28">
-        <v>8000</v>
+        <v>30600</v>
       </c>
       <c r="I28">
-        <v>4000000</v>
+        <v>1800000</v>
       </c>
       <c r="J28">
-        <v>2000</v>
+        <v>17000</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" t="s">
+        <v>75</v>
+      </c>
+      <c r="F29" t="s">
+        <v>93</v>
+      </c>
+      <c r="G29" t="s">
+        <v>36</v>
+      </c>
+      <c r="H29">
+        <v>8000</v>
+      </c>
+      <c r="I29">
+        <v>4000000</v>
+      </c>
+      <c r="J29">
+        <v>2000</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
         <v>100</v>
       </c>
     </row>

--- a/datasets/corporate-finance-data.xlsx
+++ b/datasets/corporate-finance-data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="146">
   <si>
     <t>상장일</t>
   </si>
@@ -69,6 +69,9 @@
     <t>총기관배정수량</t>
   </si>
   <si>
+    <t>2023-12-01</t>
+  </si>
+  <si>
     <t>2023-11-28</t>
   </si>
   <si>
@@ -129,6 +132,12 @@
     <t>2023-10-13</t>
   </si>
   <si>
+    <t>에이텀</t>
+  </si>
+  <si>
+    <t>엔에이치스팩30호</t>
+  </si>
+  <si>
     <t>에이에스텍</t>
   </si>
   <si>
@@ -210,12 +219,15 @@
     <t>코스피</t>
   </si>
   <si>
+    <t>하나</t>
+  </si>
+  <si>
+    <t>NH</t>
+  </si>
+  <si>
     <t>미래</t>
   </si>
   <si>
-    <t>NH</t>
-  </si>
-  <si>
     <t>하이</t>
   </si>
   <si>
@@ -240,9 +252,6 @@
     <t>키움</t>
   </si>
   <si>
-    <t>하나</t>
-  </si>
-  <si>
     <t>현대차</t>
   </si>
   <si>
@@ -352,6 +361,12 @@
   </si>
   <si>
     <t>미래, 삼성</t>
+  </si>
+  <si>
+    <t>1622 : 1</t>
+  </si>
+  <si>
+    <t>146.76 : 1</t>
   </si>
   <si>
     <t>1356 : 1</t>
@@ -796,7 +811,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -860,211 +875,211 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D2">
-        <v>393.96</v>
+        <v>117</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F2">
-        <v>393.96</v>
+        <v>117</v>
       </c>
       <c r="G2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M2">
-        <v>28000</v>
+        <v>18000</v>
       </c>
       <c r="N2">
         <v>100</v>
       </c>
       <c r="O2" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="P2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q2">
-        <v>1055250</v>
+        <v>487500</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D3">
-        <v>278.8</v>
+        <v>160</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F3">
-        <v>278.8</v>
+        <v>160</v>
       </c>
       <c r="G3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M3">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="N3">
         <v>100</v>
       </c>
       <c r="O3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="P3" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="Q3">
-        <v>1221420</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D4">
-        <v>368.5</v>
+        <v>393.96</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F4">
-        <v>368.5</v>
+        <v>393.96</v>
       </c>
       <c r="G4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M4">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="N4">
         <v>100</v>
       </c>
       <c r="O4" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="Q4">
-        <v>2374500</v>
+        <v>1055250</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D5">
-        <v>297.5</v>
+        <v>278.8</v>
       </c>
       <c r="E5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F5">
-        <v>297.5</v>
+        <v>278.8</v>
       </c>
       <c r="G5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M5">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="N5">
         <v>100</v>
       </c>
       <c r="O5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="Q5">
-        <v>3187500</v>
+        <v>1221420</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1072,158 +1087,158 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D6">
-        <v>721.413</v>
+        <v>368.5</v>
       </c>
       <c r="E6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F6">
-        <v>721.413</v>
+        <v>368.5</v>
       </c>
       <c r="G6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M6">
-        <v>34700</v>
+        <v>11000</v>
       </c>
       <c r="N6">
         <v>100</v>
       </c>
       <c r="O6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P6" t="s">
         <v>27</v>
       </c>
-      <c r="P6" t="s">
-        <v>23</v>
-      </c>
       <c r="Q6">
-        <v>1537150</v>
+        <v>2374500</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D7">
-        <v>441.12</v>
+        <v>297.5</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F7">
-        <v>441.12</v>
+        <v>297.5</v>
       </c>
       <c r="G7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M7">
-        <v>30000</v>
+        <v>7000</v>
       </c>
       <c r="N7">
         <v>100</v>
       </c>
       <c r="O7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="P7" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="Q7">
-        <v>1072999</v>
+        <v>3187500</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D8">
-        <v>4192.2496</v>
+        <v>721.413</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="F8">
-        <v>2846.537406</v>
+        <v>721.413</v>
       </c>
       <c r="G8" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H8" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I8" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J8" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K8" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L8" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M8">
-        <v>36200</v>
+        <v>34700</v>
       </c>
       <c r="N8">
-        <v>67.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="O8" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="P8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q8">
-        <v>19108320</v>
+        <v>1537150</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1231,102 +1246,102 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D9">
-        <v>4192.2496</v>
+        <v>441.12</v>
       </c>
       <c r="E9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F9">
-        <v>1219.944706</v>
+        <v>441.12</v>
       </c>
       <c r="G9" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H9" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I9" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J9" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L9" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M9">
-        <v>36200</v>
+        <v>30000</v>
       </c>
       <c r="N9">
-        <v>29.1</v>
+        <v>100</v>
       </c>
       <c r="O9" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="P9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Q9">
-        <v>19108320</v>
+        <v>1072999</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D10">
         <v>4192.2496</v>
       </c>
       <c r="E10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F10">
-        <v>125.767488</v>
+        <v>2846.537406</v>
       </c>
       <c r="G10" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H10" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I10" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J10" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L10" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M10">
         <v>36200</v>
       </c>
       <c r="N10">
-        <v>3</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="O10" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q10">
         <v>19108320</v>
@@ -1337,105 +1352,105 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D11">
-        <v>63.84</v>
+        <v>4192.2496</v>
       </c>
       <c r="E11" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F11">
-        <v>63.84</v>
+        <v>1219.944706</v>
       </c>
       <c r="G11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="L11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M11">
-        <v>4000</v>
+        <v>36200</v>
       </c>
       <c r="N11">
-        <v>100</v>
+        <v>29.1</v>
       </c>
       <c r="O11" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Q11">
-        <v>1197000</v>
+        <v>19108320</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D12">
-        <v>320</v>
+        <v>4192.2496</v>
       </c>
       <c r="E12" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="F12">
-        <v>160</v>
+        <v>125.767488</v>
       </c>
       <c r="G12" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I12" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J12" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L12" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M12">
-        <v>20000</v>
+        <v>36200</v>
       </c>
       <c r="N12">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="O12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Q12">
-        <v>2254770</v>
+        <v>19108320</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1443,52 +1458,52 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D13">
-        <v>320</v>
+        <v>63.84</v>
       </c>
       <c r="E13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F13">
-        <v>160</v>
+        <v>63.84</v>
       </c>
       <c r="G13" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H13" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I13" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J13" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K13" t="s">
         <v>80</v>
       </c>
       <c r="L13" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M13">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="N13">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="O13" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="Q13">
-        <v>2254770</v>
+        <v>1197000</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1496,52 +1511,52 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D14">
-        <v>659.0825</v>
+        <v>320</v>
       </c>
       <c r="E14" t="s">
         <v>69</v>
       </c>
       <c r="F14">
-        <v>659.0825</v>
+        <v>160</v>
       </c>
       <c r="G14" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I14" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J14" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K14" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="L14" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M14">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="N14">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O14" t="s">
+        <v>87</v>
+      </c>
+      <c r="P14" t="s">
         <v>30</v>
       </c>
-      <c r="P14" t="s">
-        <v>28</v>
-      </c>
       <c r="Q14">
-        <v>1827247</v>
+        <v>2254770</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1549,52 +1564,52 @@
         <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D15">
-        <v>80</v>
+        <v>320</v>
       </c>
       <c r="E15" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F15">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="G15" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H15" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I15" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J15" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K15" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="L15" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M15">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="N15">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="Q15">
-        <v>3000000</v>
+        <v>2254770</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1602,370 +1617,370 @@
         <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D16">
-        <v>126</v>
+        <v>659.0825</v>
       </c>
       <c r="E16" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F16">
-        <v>126</v>
+        <v>659.0825</v>
       </c>
       <c r="G16" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H16" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I16" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J16" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K16" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L16" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M16">
-        <v>1800</v>
+        <v>25000</v>
       </c>
       <c r="N16">
         <v>100</v>
       </c>
       <c r="O16" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="P16" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="Q16">
-        <v>4550000</v>
+        <v>1827247</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D17">
-        <v>249.6</v>
+        <v>80</v>
       </c>
       <c r="E17" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="F17">
-        <v>249.6</v>
+        <v>80</v>
       </c>
       <c r="G17" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H17" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I17" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J17" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K17" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L17" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M17">
-        <v>4800</v>
+        <v>2000</v>
       </c>
       <c r="N17">
         <v>100</v>
       </c>
       <c r="O17" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="P17" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="Q17">
-        <v>3900000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D18">
-        <v>463.5</v>
+        <v>126</v>
       </c>
       <c r="E18" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F18">
-        <v>463.5</v>
+        <v>126</v>
       </c>
       <c r="G18" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H18" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I18" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J18" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K18" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L18" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M18">
-        <v>22500</v>
+        <v>1800</v>
       </c>
       <c r="N18">
         <v>100</v>
       </c>
       <c r="O18" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="P18" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="Q18">
-        <v>1545000</v>
+        <v>4550000</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D19">
-        <v>156</v>
+        <v>249.6</v>
       </c>
       <c r="E19" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F19">
-        <v>156</v>
+        <v>249.6</v>
       </c>
       <c r="G19" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H19" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I19" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J19" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K19" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L19" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M19">
-        <v>13000</v>
+        <v>4800</v>
       </c>
       <c r="N19">
         <v>100</v>
       </c>
       <c r="O19" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q19">
-        <v>840000</v>
+        <v>3900000</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D20">
-        <v>270</v>
+        <v>463.5</v>
       </c>
       <c r="E20" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F20">
-        <v>270</v>
+        <v>463.5</v>
       </c>
       <c r="G20" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H20" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I20" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J20" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K20" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L20" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M20">
-        <v>7500</v>
+        <v>22500</v>
       </c>
       <c r="N20">
         <v>100</v>
       </c>
       <c r="O20" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="P20" t="s">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="Q20">
-        <v>2600000</v>
+        <v>1545000</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D21">
-        <v>250</v>
+        <v>156</v>
       </c>
       <c r="E21" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="F21">
-        <v>250</v>
+        <v>156</v>
       </c>
       <c r="G21" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H21" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I21" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J21" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K21" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L21" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M21">
-        <v>2000</v>
+        <v>13000</v>
       </c>
       <c r="N21">
         <v>100</v>
       </c>
       <c r="O21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q21">
-        <v>9375000</v>
+        <v>840000</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D22">
-        <v>178.41194</v>
+        <v>270</v>
       </c>
       <c r="E22" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="F22">
-        <v>178.41194</v>
+        <v>270</v>
       </c>
       <c r="G22" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H22" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I22" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J22" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K22" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L22" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M22">
-        <v>17000</v>
+        <v>7500</v>
       </c>
       <c r="N22">
         <v>100</v>
       </c>
       <c r="O22" t="s">
+        <v>33</v>
+      </c>
+      <c r="P22" t="s">
         <v>87</v>
       </c>
-      <c r="P22" t="s">
-        <v>32</v>
-      </c>
       <c r="Q22">
-        <v>787111</v>
+        <v>2600000</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1973,52 +1988,52 @@
         <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D23">
-        <v>49.66368</v>
+        <v>250</v>
       </c>
       <c r="E23" t="s">
         <v>72</v>
       </c>
       <c r="F23">
-        <v>49.66368</v>
+        <v>250</v>
       </c>
       <c r="G23" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H23" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I23" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J23" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K23" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L23" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M23">
-        <v>4400</v>
+        <v>2000</v>
       </c>
       <c r="N23">
         <v>100</v>
       </c>
       <c r="O23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P23" t="s">
         <v>32</v>
       </c>
       <c r="Q23">
-        <v>846540</v>
+        <v>9375000</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -2026,37 +2041,37 @@
         <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D24">
-        <v>306</v>
+        <v>178.41194</v>
       </c>
       <c r="E24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F24">
-        <v>306</v>
+        <v>178.41194</v>
       </c>
       <c r="G24" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H24" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I24" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J24" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K24" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L24" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M24">
         <v>17000</v>
@@ -2065,277 +2080,383 @@
         <v>100</v>
       </c>
       <c r="O24" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="P24" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="Q24">
-        <v>1119600</v>
+        <v>787111</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D25">
-        <v>260</v>
+        <v>49.66368</v>
       </c>
       <c r="E25" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F25">
-        <v>260</v>
+        <v>49.66368</v>
       </c>
       <c r="G25" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H25" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I25" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J25" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K25" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L25" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M25">
-        <v>6500</v>
+        <v>4400</v>
       </c>
       <c r="N25">
         <v>100</v>
       </c>
       <c r="O25" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q25">
-        <v>2880000</v>
+        <v>846540</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D26">
-        <v>53.9</v>
+        <v>306</v>
       </c>
       <c r="E26" t="s">
         <v>74</v>
       </c>
       <c r="F26">
-        <v>53.9</v>
+        <v>306</v>
       </c>
       <c r="G26" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I26" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J26" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K26" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L26" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M26">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="N26">
         <v>100</v>
       </c>
       <c r="O26" t="s">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="P26" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="Q26">
-        <v>577500</v>
+        <v>1119600</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C27" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D27">
-        <v>520</v>
+        <v>260</v>
       </c>
       <c r="E27" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="F27">
-        <v>520</v>
+        <v>260</v>
       </c>
       <c r="G27" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I27" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J27" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K27" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L27" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M27">
-        <v>26000</v>
+        <v>6500</v>
       </c>
       <c r="N27">
         <v>100</v>
       </c>
       <c r="O27" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q27">
-        <v>1300000</v>
+        <v>2880000</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C28" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D28">
-        <v>442.659</v>
+        <v>53.9</v>
       </c>
       <c r="E28" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F28">
-        <v>442.659</v>
+        <v>53.9</v>
       </c>
       <c r="G28" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H28" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I28" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J28" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K28" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L28" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M28">
-        <v>10700</v>
+        <v>7000</v>
       </c>
       <c r="N28">
         <v>100</v>
       </c>
       <c r="O28" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P28" t="s">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="Q28">
-        <v>3102750</v>
+        <v>577500</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D29">
+        <v>520</v>
+      </c>
+      <c r="E29" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29">
+        <v>520</v>
+      </c>
+      <c r="G29" t="s">
+        <v>79</v>
+      </c>
+      <c r="H29" t="s">
+        <v>79</v>
+      </c>
+      <c r="I29" t="s">
+        <v>79</v>
+      </c>
+      <c r="J29" t="s">
+        <v>79</v>
+      </c>
+      <c r="K29" t="s">
         <v>80</v>
       </c>
-      <c r="E29" t="s">
-        <v>75</v>
-      </c>
-      <c r="F29">
-        <v>80</v>
-      </c>
-      <c r="G29" t="s">
-        <v>76</v>
-      </c>
-      <c r="H29" t="s">
-        <v>76</v>
-      </c>
-      <c r="I29" t="s">
-        <v>76</v>
-      </c>
-      <c r="J29" t="s">
-        <v>76</v>
-      </c>
-      <c r="K29" t="s">
-        <v>77</v>
-      </c>
       <c r="L29" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M29">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="N29">
         <v>100</v>
       </c>
       <c r="O29" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P29" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q29">
+        <v>1300000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30">
+        <v>442.659</v>
+      </c>
+      <c r="E30" t="s">
+        <v>69</v>
+      </c>
+      <c r="F30">
+        <v>442.659</v>
+      </c>
+      <c r="G30" t="s">
+        <v>79</v>
+      </c>
+      <c r="H30" t="s">
+        <v>79</v>
+      </c>
+      <c r="I30" t="s">
+        <v>79</v>
+      </c>
+      <c r="J30" t="s">
+        <v>79</v>
+      </c>
+      <c r="K30" t="s">
+        <v>80</v>
+      </c>
+      <c r="L30" t="s">
+        <v>79</v>
+      </c>
+      <c r="M30">
+        <v>10700</v>
+      </c>
+      <c r="N30">
+        <v>100</v>
+      </c>
+      <c r="O30" t="s">
         <v>93</v>
       </c>
-      <c r="Q29">
+      <c r="P30" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q30">
+        <v>3102750</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31">
+        <v>80</v>
+      </c>
+      <c r="E31" t="s">
+        <v>78</v>
+      </c>
+      <c r="F31">
+        <v>80</v>
+      </c>
+      <c r="G31" t="s">
+        <v>79</v>
+      </c>
+      <c r="H31" t="s">
+        <v>79</v>
+      </c>
+      <c r="I31" t="s">
+        <v>79</v>
+      </c>
+      <c r="J31" t="s">
+        <v>79</v>
+      </c>
+      <c r="K31" t="s">
+        <v>80</v>
+      </c>
+      <c r="L31" t="s">
+        <v>79</v>
+      </c>
+      <c r="M31">
+        <v>2000</v>
+      </c>
+      <c r="N31">
+        <v>100</v>
+      </c>
+      <c r="O31" t="s">
+        <v>94</v>
+      </c>
+      <c r="P31" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q31">
         <v>3000000</v>
       </c>
     </row>
@@ -2346,7 +2467,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2357,10 +2478,10 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>15</v>
@@ -2369,1173 +2490,1173 @@
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>39396000</v>
+        <v>11700000</v>
       </c>
       <c r="G2">
-        <v>1407000</v>
+        <v>650000</v>
       </c>
       <c r="H2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I2">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="J2">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="K2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L2">
-        <v>28000</v>
+        <v>18000</v>
       </c>
       <c r="M2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="N2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="O2">
-        <v>40.01421464108032</v>
+        <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Q2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="R2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="S2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="T2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3">
-        <v>27880000</v>
+        <v>16000000</v>
       </c>
       <c r="G3">
-        <v>1640000</v>
+        <v>8000000</v>
       </c>
       <c r="H3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I3">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="J3">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="K3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L3">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="M3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="N3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Q3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="R3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="S3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="T3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4">
-        <v>36850000</v>
+        <v>39396000</v>
       </c>
       <c r="G4">
-        <v>3350000</v>
+        <v>1407000</v>
       </c>
       <c r="H4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I4">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="J4">
-        <v>9500</v>
+        <v>25000</v>
       </c>
       <c r="K4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L4">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="M4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="N4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>40.01421464108032</v>
       </c>
       <c r="P4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Q4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="R4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="S4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="T4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5">
-        <v>29750000</v>
+        <v>27880000</v>
       </c>
       <c r="G5">
-        <v>4250000</v>
+        <v>1640000</v>
       </c>
       <c r="H5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I5">
-        <v>5200</v>
+        <v>11000</v>
       </c>
       <c r="J5">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L5">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="M5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="N5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Q5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="R5" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="S5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="T5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" t="s">
         <v>27</v>
-      </c>
-      <c r="B6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
       </c>
       <c r="E6" t="s">
         <v>20</v>
       </c>
       <c r="F6">
-        <v>72141300</v>
+        <v>36850000</v>
       </c>
       <c r="G6">
-        <v>2079000</v>
+        <v>3350000</v>
       </c>
       <c r="H6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I6">
-        <v>28500</v>
+        <v>8000</v>
       </c>
       <c r="J6">
-        <v>34700</v>
+        <v>9500</v>
       </c>
       <c r="K6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L6">
-        <v>34700</v>
+        <v>11000</v>
       </c>
       <c r="M6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="N6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Q6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="R6" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="S6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="T6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F7">
-        <v>44112000</v>
+        <v>29750000</v>
       </c>
       <c r="G7">
-        <v>1470400</v>
+        <v>4250000</v>
       </c>
       <c r="H7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I7">
-        <v>33000</v>
+        <v>5200</v>
       </c>
       <c r="J7">
-        <v>37000</v>
+        <v>6000</v>
       </c>
       <c r="K7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L7">
-        <v>30000</v>
+        <v>7000</v>
       </c>
       <c r="M7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="N7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="O7">
-        <v>23.28618063112079</v>
+        <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Q7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="R7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="S7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="T7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F8">
-        <v>419224960</v>
+        <v>72141300</v>
       </c>
       <c r="G8">
-        <v>11580800</v>
+        <v>2079000</v>
       </c>
       <c r="H8" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I8">
-        <v>36200</v>
+        <v>28500</v>
       </c>
       <c r="J8">
-        <v>44000</v>
+        <v>34700</v>
       </c>
       <c r="K8" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L8">
-        <v>36200</v>
+        <v>34700</v>
       </c>
       <c r="M8" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="N8" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Q8" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="R8" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="S8" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="T8" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9">
-        <v>6384000</v>
+        <v>44112000</v>
       </c>
       <c r="G9">
-        <v>1596000</v>
+        <v>1470400</v>
       </c>
       <c r="H9" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I9">
-        <v>3200</v>
+        <v>33000</v>
       </c>
       <c r="J9">
-        <v>3600</v>
+        <v>37000</v>
       </c>
       <c r="K9" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L9">
-        <v>4000</v>
+        <v>30000</v>
       </c>
       <c r="M9" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="N9" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>23.28618063112079</v>
       </c>
       <c r="P9" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Q9" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="R9" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="S9" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="T9" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F10">
-        <v>32000000</v>
+        <v>419224960</v>
       </c>
       <c r="G10">
-        <v>1600000</v>
+        <v>11580800</v>
       </c>
       <c r="H10" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I10">
-        <v>29800</v>
+        <v>36200</v>
       </c>
       <c r="J10">
-        <v>33500</v>
+        <v>44000</v>
       </c>
       <c r="K10" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L10">
-        <v>20000</v>
+        <v>36200</v>
       </c>
       <c r="M10" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="N10" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Q10" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="R10" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="S10" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="T10" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F11">
-        <v>65908250</v>
+        <v>6384000</v>
       </c>
       <c r="G11">
-        <v>2636330</v>
+        <v>1596000</v>
       </c>
       <c r="H11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I11">
-        <v>19100</v>
+        <v>3200</v>
       </c>
       <c r="J11">
-        <v>21400</v>
+        <v>3600</v>
       </c>
       <c r="K11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L11">
-        <v>25000</v>
+        <v>4000</v>
       </c>
       <c r="M11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="N11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Q11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="R11" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="S11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="T11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="D12" t="s">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
         <v>25</v>
       </c>
       <c r="F12">
-        <v>8000000</v>
+        <v>32000000</v>
       </c>
       <c r="G12">
-        <v>4000000</v>
+        <v>1600000</v>
       </c>
       <c r="H12" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I12">
-        <v>2000</v>
+        <v>29800</v>
       </c>
       <c r="J12">
-        <v>2000</v>
+        <v>33500</v>
       </c>
       <c r="K12" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L12">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="M12" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="N12" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Q12" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="R12" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="S12" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="T12" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D13" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
         <v>26</v>
       </c>
       <c r="F13">
-        <v>12600000</v>
+        <v>65908250</v>
       </c>
       <c r="G13">
-        <v>7000000</v>
+        <v>2636330</v>
       </c>
       <c r="H13" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I13">
-        <v>1200</v>
+        <v>19100</v>
       </c>
       <c r="J13">
-        <v>1500</v>
+        <v>21400</v>
       </c>
       <c r="K13" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L13">
-        <v>1800</v>
+        <v>25000</v>
       </c>
       <c r="M13" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="N13" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Q13" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="R13" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="S13" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="T13" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F14">
-        <v>24960000</v>
+        <v>8000000</v>
       </c>
       <c r="G14">
-        <v>5200000</v>
+        <v>4000000</v>
       </c>
       <c r="H14" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I14">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="J14">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="K14" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L14">
-        <v>4800</v>
+        <v>2000</v>
       </c>
       <c r="M14" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="N14" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Q14" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="R14" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="S14" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="T14" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="E15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F15">
-        <v>46350000</v>
+        <v>12600000</v>
       </c>
       <c r="G15">
-        <v>2060000</v>
+        <v>7000000</v>
       </c>
       <c r="H15" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I15">
-        <v>20300</v>
+        <v>1200</v>
       </c>
       <c r="J15">
-        <v>22500</v>
+        <v>1500</v>
       </c>
       <c r="K15" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L15">
-        <v>22500</v>
+        <v>1800</v>
       </c>
       <c r="M15" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="N15" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="O15">
-        <v>2.912621359223301</v>
+        <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Q15" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="R15" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="S15" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="T15" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F16">
-        <v>15600000</v>
+        <v>24960000</v>
       </c>
       <c r="G16">
-        <v>1200000</v>
+        <v>5200000</v>
       </c>
       <c r="H16" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I16">
-        <v>9100</v>
+        <v>3500</v>
       </c>
       <c r="J16">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="K16" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L16">
-        <v>13000</v>
+        <v>4800</v>
       </c>
       <c r="M16" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="N16" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Q16" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="R16" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="S16" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="T16" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D17" t="s">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F17">
-        <v>27000000</v>
+        <v>46350000</v>
       </c>
       <c r="G17">
-        <v>3600000</v>
+        <v>2060000</v>
       </c>
       <c r="H17" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I17">
-        <v>5000</v>
+        <v>20300</v>
       </c>
       <c r="J17">
-        <v>7000</v>
+        <v>22500</v>
       </c>
       <c r="K17" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L17">
-        <v>7500</v>
+        <v>22500</v>
       </c>
       <c r="M17" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="N17" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>2.912621359223301</v>
       </c>
       <c r="P17" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Q17" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="R17" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="S17" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="T17" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E18" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F18">
-        <v>25000000</v>
+        <v>15600000</v>
       </c>
       <c r="G18">
-        <v>12500000</v>
+        <v>1200000</v>
       </c>
       <c r="H18" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I18">
-        <v>2000</v>
+        <v>9100</v>
       </c>
       <c r="J18">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="K18" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L18">
-        <v>2000</v>
+        <v>13000</v>
       </c>
       <c r="M18" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="N18" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Q18" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="R18" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="S18" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="T18" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" t="s">
         <v>87</v>
       </c>
-      <c r="B19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" t="s">
-        <v>32</v>
-      </c>
       <c r="E19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F19">
-        <v>17841194</v>
+        <v>27000000</v>
       </c>
       <c r="G19">
-        <v>1049482</v>
+        <v>3600000</v>
       </c>
       <c r="H19" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I19">
-        <v>12800</v>
+        <v>5000</v>
       </c>
       <c r="J19">
-        <v>14500</v>
+        <v>7000</v>
       </c>
       <c r="K19" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L19">
-        <v>17000</v>
+        <v>7500</v>
       </c>
       <c r="M19" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="N19" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="O19">
-        <v>9.999980942979489</v>
+        <v>0</v>
       </c>
       <c r="P19" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Q19" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="R19" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="S19" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="T19" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
         <v>72</v>
@@ -3547,421 +3668,545 @@
         <v>30</v>
       </c>
       <c r="F20">
-        <v>4966368</v>
+        <v>25000000</v>
       </c>
       <c r="G20">
-        <v>1128720</v>
+        <v>12500000</v>
       </c>
       <c r="H20" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I20">
-        <v>3300</v>
+        <v>2000</v>
       </c>
       <c r="J20">
-        <v>3900</v>
+        <v>2000</v>
       </c>
       <c r="K20" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L20">
-        <v>4400</v>
+        <v>2000</v>
       </c>
       <c r="M20" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="N20" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Q20" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="R20" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="S20" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="T20" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D21" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="E21" t="s">
         <v>31</v>
       </c>
       <c r="F21">
-        <v>30600000</v>
+        <v>17841194</v>
       </c>
       <c r="G21">
-        <v>1800000</v>
+        <v>1049482</v>
       </c>
       <c r="H21" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I21">
-        <v>13000</v>
+        <v>12800</v>
       </c>
       <c r="J21">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="K21" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L21">
         <v>17000</v>
       </c>
       <c r="M21" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="N21" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>9.999980942979489</v>
       </c>
       <c r="P21" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Q21" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="R21" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="S21" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="T21" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F22">
-        <v>26000000</v>
+        <v>4966368</v>
       </c>
       <c r="G22">
-        <v>4000000</v>
+        <v>1128720</v>
       </c>
       <c r="H22" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I22">
-        <v>5000</v>
+        <v>3300</v>
       </c>
       <c r="J22">
-        <v>5600</v>
+        <v>3900</v>
       </c>
       <c r="K22" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L22">
-        <v>6500</v>
+        <v>4400</v>
       </c>
       <c r="M22" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="N22" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Q22" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="R22" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="S22" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="T22" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C23" t="s">
         <v>74</v>
       </c>
       <c r="D23" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="E23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F23">
-        <v>5390000</v>
+        <v>30600000</v>
       </c>
       <c r="G23">
-        <v>770000</v>
+        <v>1800000</v>
       </c>
       <c r="H23" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I23">
-        <v>8200</v>
+        <v>13000</v>
       </c>
       <c r="J23">
-        <v>9400</v>
+        <v>15000</v>
       </c>
       <c r="K23" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L23">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="M23" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="N23" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Q23" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="R23" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="S23" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="T23" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F24">
-        <v>52000000</v>
+        <v>26000000</v>
       </c>
       <c r="G24">
-        <v>2000000</v>
+        <v>4000000</v>
       </c>
       <c r="H24" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I24">
-        <v>22000</v>
+        <v>5000</v>
       </c>
       <c r="J24">
-        <v>25000</v>
+        <v>5600</v>
       </c>
       <c r="K24" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L24">
-        <v>26000</v>
+        <v>6500</v>
       </c>
       <c r="M24" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="N24" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Q24" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="R24" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="S24" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="T24" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C25" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D25" t="s">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="E25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F25">
-        <v>44265900</v>
+        <v>5390000</v>
       </c>
       <c r="G25">
-        <v>4137000</v>
+        <v>770000</v>
       </c>
       <c r="H25" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I25">
-        <v>8800</v>
+        <v>8200</v>
       </c>
       <c r="J25">
-        <v>10700</v>
+        <v>9400</v>
       </c>
       <c r="K25" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L25">
-        <v>10700</v>
+        <v>7000</v>
       </c>
       <c r="M25" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="N25" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="O25">
-        <v>30.21513173797438</v>
+        <v>0</v>
       </c>
       <c r="P25" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Q25" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="R25" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="S25" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="T25" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:20">
       <c r="A26" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B26" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D26" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="E26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F26">
-        <v>8000000</v>
+        <v>52000000</v>
       </c>
       <c r="G26">
-        <v>4000000</v>
+        <v>2000000</v>
       </c>
       <c r="H26" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I26">
-        <v>2000</v>
+        <v>22000</v>
       </c>
       <c r="J26">
-        <v>2000</v>
+        <v>25000</v>
       </c>
       <c r="K26" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L26">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="M26" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="N26" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="O26">
         <v>0</v>
       </c>
       <c r="P26" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Q26" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="R26" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="S26" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="T26" t="s">
-        <v>76</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27">
+        <v>44265900</v>
+      </c>
+      <c r="G27">
+        <v>4137000</v>
+      </c>
+      <c r="H27" t="s">
+        <v>79</v>
+      </c>
+      <c r="I27">
+        <v>8800</v>
+      </c>
+      <c r="J27">
+        <v>10700</v>
+      </c>
+      <c r="K27" t="s">
+        <v>79</v>
+      </c>
+      <c r="L27">
+        <v>10700</v>
+      </c>
+      <c r="M27" t="s">
+        <v>79</v>
+      </c>
+      <c r="N27" t="s">
+        <v>79</v>
+      </c>
+      <c r="O27">
+        <v>30.21513173797438</v>
+      </c>
+      <c r="P27" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>79</v>
+      </c>
+      <c r="R27" t="s">
+        <v>140</v>
+      </c>
+      <c r="S27" t="s">
+        <v>79</v>
+      </c>
+      <c r="T27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28">
+        <v>8000000</v>
+      </c>
+      <c r="G28">
+        <v>4000000</v>
+      </c>
+      <c r="H28" t="s">
+        <v>79</v>
+      </c>
+      <c r="I28">
+        <v>2000</v>
+      </c>
+      <c r="J28">
+        <v>2000</v>
+      </c>
+      <c r="K28" t="s">
+        <v>79</v>
+      </c>
+      <c r="L28">
+        <v>2000</v>
+      </c>
+      <c r="M28" t="s">
+        <v>79</v>
+      </c>
+      <c r="N28" t="s">
+        <v>79</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>79</v>
+      </c>
+      <c r="R28" t="s">
+        <v>141</v>
+      </c>
+      <c r="S28" t="s">
+        <v>79</v>
+      </c>
+      <c r="T28" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -3971,7 +4216,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3979,16 +4224,16 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -4000,10 +4245,10 @@
         <v>0</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>12</v>
@@ -4012,30 +4257,30 @@
         <v>6</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2">
         <v>15600</v>
@@ -4055,25 +4300,25 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H3">
         <v>12600</v>
@@ -4093,25 +4338,25 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H4">
         <v>27000</v>
@@ -4131,34 +4376,34 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H5">
-        <v>72141.3</v>
+        <v>25000</v>
       </c>
       <c r="I5">
-        <v>2079000</v>
+        <v>12500000</v>
       </c>
       <c r="J5">
-        <v>34700</v>
+        <v>2000</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -4169,34 +4414,34 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E6" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H6">
-        <v>25000</v>
+        <v>72141.3</v>
       </c>
       <c r="I6">
-        <v>12500000</v>
+        <v>2079000</v>
       </c>
       <c r="J6">
-        <v>2000</v>
+        <v>34700</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -4207,34 +4452,34 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H7">
-        <v>24960</v>
+        <v>6384</v>
       </c>
       <c r="I7">
-        <v>5200000</v>
+        <v>1596000</v>
       </c>
       <c r="J7">
-        <v>4800</v>
+        <v>4000</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -4245,34 +4490,34 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H8">
-        <v>6384</v>
+        <v>17841.194</v>
       </c>
       <c r="I8">
-        <v>1596000</v>
+        <v>1049482</v>
       </c>
       <c r="J8">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -4283,34 +4528,34 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B9" t="s">
         <v>87</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9">
-        <v>17841.194</v>
+        <v>24960</v>
       </c>
       <c r="I9">
-        <v>1049482</v>
+        <v>5200000</v>
       </c>
       <c r="J9">
-        <v>17000</v>
+        <v>4800</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -4321,72 +4566,72 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E10" t="s">
-        <v>65</v>
+        <v>145</v>
       </c>
       <c r="F10" t="s">
         <v>26</v>
       </c>
       <c r="G10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H10">
-        <v>44112</v>
+        <v>121994.4706</v>
       </c>
       <c r="I10">
-        <v>1470400</v>
+        <v>11580800</v>
       </c>
       <c r="J10">
-        <v>30000</v>
+        <v>36200</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>100</v>
+        <v>29.1</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F11" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="G11" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H11">
-        <v>27880</v>
+        <v>44112</v>
       </c>
       <c r="I11">
-        <v>1640000</v>
+        <v>1470400</v>
       </c>
       <c r="J11">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -4397,72 +4642,72 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E12" t="s">
-        <v>140</v>
+        <v>68</v>
       </c>
       <c r="F12" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="G12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H12">
-        <v>121994.4706</v>
+        <v>27880</v>
       </c>
       <c r="I12">
-        <v>11580800</v>
+        <v>1640000</v>
       </c>
       <c r="J12">
-        <v>36200</v>
+        <v>17000</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>29.1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G13" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H13">
-        <v>46350</v>
+        <v>16000</v>
       </c>
       <c r="I13">
-        <v>2060000</v>
+        <v>8000000</v>
       </c>
       <c r="J13">
-        <v>22500</v>
+        <v>2000</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -4473,25 +4718,25 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E14" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F14" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H14">
         <v>29750</v>
@@ -4511,148 +4756,148 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E15" t="s">
-        <v>140</v>
+        <v>71</v>
       </c>
       <c r="F15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" t="s">
         <v>25</v>
       </c>
-      <c r="G15" t="s">
-        <v>22</v>
-      </c>
       <c r="H15">
-        <v>284653.7406</v>
+        <v>46350</v>
       </c>
       <c r="I15">
-        <v>11580800</v>
+        <v>2060000</v>
       </c>
       <c r="J15">
-        <v>36200</v>
+        <v>22500</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>67.90000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B16" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="D16" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="E16" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G16" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="H16">
-        <v>16000</v>
+        <v>52000</v>
       </c>
       <c r="I16">
-        <v>1600000</v>
+        <v>2000000</v>
       </c>
       <c r="J16">
-        <v>20000</v>
+        <v>26000</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B17" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="E17" t="s">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="F17" t="s">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="G17" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H17">
-        <v>44265.9</v>
+        <v>16000</v>
       </c>
       <c r="I17">
-        <v>4137000</v>
+        <v>1600000</v>
       </c>
       <c r="J17">
-        <v>10700</v>
+        <v>20000</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D18" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E18" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F18" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" t="s">
         <v>36</v>
       </c>
-      <c r="G18" t="s">
-        <v>34</v>
-      </c>
       <c r="H18">
-        <v>52000</v>
+        <v>44265.9</v>
       </c>
       <c r="I18">
-        <v>2000000</v>
+        <v>4137000</v>
       </c>
       <c r="J18">
-        <v>26000</v>
+        <v>10700</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -4663,25 +4908,25 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D19" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E19" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H19">
         <v>39396</v>
@@ -4704,7 +4949,7 @@
         <v>69</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="C20" t="s">
         <v>46</v>
@@ -4713,136 +4958,136 @@
         <v>69</v>
       </c>
       <c r="E20" t="s">
-        <v>69</v>
+        <v>145</v>
       </c>
       <c r="F20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H20">
-        <v>65908.25</v>
+        <v>284653.7406</v>
       </c>
       <c r="I20">
-        <v>2636330</v>
+        <v>11580800</v>
       </c>
       <c r="J20">
-        <v>25000</v>
+        <v>36200</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>100</v>
+        <v>67.90000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B21" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D21" t="s">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="E21" t="s">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="F21" t="s">
         <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H21">
-        <v>16000</v>
+        <v>65908.25</v>
       </c>
       <c r="I21">
-        <v>1600000</v>
+        <v>2636330</v>
       </c>
       <c r="J21">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B22" t="s">
         <v>87</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D22" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="E22" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G22" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H22">
-        <v>4966.368</v>
+        <v>16000</v>
       </c>
       <c r="I22">
-        <v>1128720</v>
+        <v>1600000</v>
       </c>
       <c r="J22">
-        <v>4400</v>
+        <v>20000</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B23" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D23" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E23" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H23">
-        <v>26000</v>
+        <v>4966.368</v>
       </c>
       <c r="I23">
-        <v>4000000</v>
+        <v>1128720</v>
       </c>
       <c r="J23">
-        <v>6500</v>
+        <v>4400</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -4853,34 +5098,34 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C24" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D24" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E24" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G24" t="s">
         <v>33</v>
       </c>
       <c r="H24">
-        <v>5390</v>
+        <v>26000</v>
       </c>
       <c r="I24">
-        <v>770000</v>
+        <v>4000000</v>
       </c>
       <c r="J24">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -4891,72 +5136,72 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B25" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C25" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="D25" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E25" t="s">
-        <v>140</v>
+        <v>67</v>
       </c>
       <c r="F25" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="G25" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H25">
-        <v>12576.7488</v>
+        <v>5390</v>
       </c>
       <c r="I25">
-        <v>11580800</v>
+        <v>770000</v>
       </c>
       <c r="J25">
-        <v>36200</v>
+        <v>7000</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D26" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E26" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F26" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G26" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H26">
-        <v>36850</v>
+        <v>11700</v>
       </c>
       <c r="I26">
-        <v>3350000</v>
+        <v>650000</v>
       </c>
       <c r="J26">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -4973,34 +5218,34 @@
         <v>85</v>
       </c>
       <c r="C27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E27" t="s">
-        <v>70</v>
+        <v>145</v>
       </c>
       <c r="F27" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="G27" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H27">
-        <v>8000</v>
+        <v>12576.7488</v>
       </c>
       <c r="I27">
-        <v>4000000</v>
+        <v>11580800</v>
       </c>
       <c r="J27">
-        <v>2000</v>
+        <v>36200</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -5008,10 +5253,10 @@
         <v>70</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D28" t="s">
         <v>70</v>
@@ -5020,19 +5265,19 @@
         <v>70</v>
       </c>
       <c r="F28" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="G28" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H28">
-        <v>30600</v>
+        <v>36850</v>
       </c>
       <c r="I28">
-        <v>1800000</v>
+        <v>3350000</v>
       </c>
       <c r="J28">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -5043,25 +5288,25 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B29" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F29" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G29" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="H29">
         <v>8000</v>
@@ -5076,6 +5321,82 @@
         <v>0</v>
       </c>
       <c r="L29">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" t="s">
+        <v>74</v>
+      </c>
+      <c r="F30" t="s">
+        <v>90</v>
+      </c>
+      <c r="G30" t="s">
+        <v>32</v>
+      </c>
+      <c r="H30">
+        <v>30600</v>
+      </c>
+      <c r="I30">
+        <v>1800000</v>
+      </c>
+      <c r="J30">
+        <v>17000</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" t="s">
+        <v>78</v>
+      </c>
+      <c r="F31" t="s">
+        <v>96</v>
+      </c>
+      <c r="G31" t="s">
+        <v>37</v>
+      </c>
+      <c r="H31">
+        <v>8000</v>
+      </c>
+      <c r="I31">
+        <v>4000000</v>
+      </c>
+      <c r="J31">
+        <v>2000</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
         <v>100</v>
       </c>
     </row>

--- a/datasets/corporate-finance-data.xlsx
+++ b/datasets/corporate-finance-data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="141">
   <si>
     <t>상장일</t>
   </si>
@@ -129,186 +129,174 @@
     <t>2023-10-18</t>
   </si>
   <si>
+    <t>에이텀</t>
+  </si>
+  <si>
+    <t>엔에이치스팩30호</t>
+  </si>
+  <si>
+    <t>에이에스텍</t>
+  </si>
+  <si>
+    <t>그린리소스</t>
+  </si>
+  <si>
+    <t>스톰테크</t>
+  </si>
+  <si>
+    <t>한선엔지니어링</t>
+  </si>
+  <si>
+    <t>에코아이</t>
+  </si>
+  <si>
+    <t>동인기연</t>
+  </si>
+  <si>
+    <t>에코프로머티</t>
+  </si>
+  <si>
+    <t>캡스톤파트너스</t>
+  </si>
+  <si>
+    <t>큐로셀</t>
+  </si>
+  <si>
+    <t>에이직랜드</t>
+  </si>
+  <si>
+    <t>한국제13호스팩</t>
+  </si>
+  <si>
+    <t>에스와이스틸텍</t>
+  </si>
+  <si>
+    <t>메가터치</t>
+  </si>
+  <si>
+    <t>컨텍</t>
+  </si>
+  <si>
+    <t>비아이매트릭스</t>
+  </si>
+  <si>
+    <t>쏘닉스</t>
+  </si>
+  <si>
+    <t>KB제27호스팩</t>
+  </si>
+  <si>
+    <t>유진테크놀로지</t>
+  </si>
+  <si>
+    <t>유투바이오</t>
+  </si>
+  <si>
+    <t>퀄리타스반도체</t>
+  </si>
+  <si>
+    <t>워트</t>
+  </si>
+  <si>
+    <t>에스엘에스바이오</t>
+  </si>
+  <si>
+    <t>신성에스티</t>
+  </si>
+  <si>
+    <t>퓨릿</t>
+  </si>
+  <si>
+    <t>코스닥</t>
+  </si>
+  <si>
+    <t>코스피</t>
+  </si>
+  <si>
+    <t>하나</t>
+  </si>
+  <si>
+    <t>NH</t>
+  </si>
+  <si>
+    <t>미래</t>
+  </si>
+  <si>
+    <t>하이</t>
+  </si>
+  <si>
+    <t>대신</t>
+  </si>
+  <si>
+    <t>KB</t>
+  </si>
+  <si>
+    <t>삼성</t>
+  </si>
+  <si>
+    <t>한국</t>
+  </si>
+  <si>
+    <t>IBK</t>
+  </si>
+  <si>
+    <t>신한</t>
+  </si>
+  <si>
+    <t>키움</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>대표</t>
+  </si>
+  <si>
+    <t>공동</t>
+  </si>
+  <si>
+    <t>인수</t>
+  </si>
+  <si>
+    <t>공동대표</t>
+  </si>
+  <si>
+    <t>2023-11-16</t>
+  </si>
+  <si>
+    <t>2023-11-08</t>
+  </si>
+  <si>
+    <t>2023-11-06</t>
+  </si>
+  <si>
+    <t>2023-10-31</t>
+  </si>
+  <si>
+    <t>2023-11-01</t>
+  </si>
+  <si>
+    <t>2023-10-24</t>
+  </si>
+  <si>
+    <t>2023-10-23</t>
+  </si>
+  <si>
+    <t>2023-10-16</t>
+  </si>
+  <si>
+    <t>2023-10-10</t>
+  </si>
+  <si>
+    <t>2023-10-05</t>
+  </si>
+  <si>
     <t>2023-10-13</t>
   </si>
   <si>
-    <t>에이텀</t>
-  </si>
-  <si>
-    <t>엔에이치스팩30호</t>
-  </si>
-  <si>
-    <t>에이에스텍</t>
-  </si>
-  <si>
-    <t>그린리소스</t>
-  </si>
-  <si>
-    <t>스톰테크</t>
-  </si>
-  <si>
-    <t>한선엔지니어링</t>
-  </si>
-  <si>
-    <t>에코아이</t>
-  </si>
-  <si>
-    <t>동인기연</t>
-  </si>
-  <si>
-    <t>에코프로머티</t>
-  </si>
-  <si>
-    <t>캡스톤파트너스</t>
-  </si>
-  <si>
-    <t>큐로셀</t>
-  </si>
-  <si>
-    <t>에이직랜드</t>
-  </si>
-  <si>
-    <t>한국제13호스팩</t>
-  </si>
-  <si>
-    <t>에스와이스틸텍</t>
-  </si>
-  <si>
-    <t>메가터치</t>
-  </si>
-  <si>
-    <t>컨텍</t>
-  </si>
-  <si>
-    <t>비아이매트릭스</t>
-  </si>
-  <si>
-    <t>쏘닉스</t>
-  </si>
-  <si>
-    <t>KB제27호스팩</t>
-  </si>
-  <si>
-    <t>유진테크놀로지</t>
-  </si>
-  <si>
-    <t>유투바이오</t>
-  </si>
-  <si>
-    <t>퀄리타스반도체</t>
-  </si>
-  <si>
-    <t>워트</t>
-  </si>
-  <si>
-    <t>에스엘에스바이오</t>
-  </si>
-  <si>
-    <t>신성에스티</t>
-  </si>
-  <si>
-    <t>퓨릿</t>
-  </si>
-  <si>
-    <t>에이치엠씨제6호스팩</t>
-  </si>
-  <si>
-    <t>코스닥</t>
-  </si>
-  <si>
-    <t>코스피</t>
-  </si>
-  <si>
-    <t>하나</t>
-  </si>
-  <si>
-    <t>NH</t>
-  </si>
-  <si>
-    <t>미래</t>
-  </si>
-  <si>
-    <t>하이</t>
-  </si>
-  <si>
-    <t>대신</t>
-  </si>
-  <si>
-    <t>KB</t>
-  </si>
-  <si>
-    <t>삼성</t>
-  </si>
-  <si>
-    <t>한국</t>
-  </si>
-  <si>
-    <t>IBK</t>
-  </si>
-  <si>
-    <t>신한</t>
-  </si>
-  <si>
-    <t>키움</t>
-  </si>
-  <si>
-    <t>현대차</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>대표</t>
-  </si>
-  <si>
-    <t>공동</t>
-  </si>
-  <si>
-    <t>인수</t>
-  </si>
-  <si>
-    <t>공동대표</t>
-  </si>
-  <si>
-    <t>2023-11-16</t>
-  </si>
-  <si>
-    <t>2023-11-08</t>
-  </si>
-  <si>
-    <t>2023-11-06</t>
-  </si>
-  <si>
-    <t>2023-10-31</t>
-  </si>
-  <si>
-    <t>2023-11-01</t>
-  </si>
-  <si>
-    <t>2023-10-24</t>
-  </si>
-  <si>
-    <t>2023-10-23</t>
-  </si>
-  <si>
-    <t>2023-10-16</t>
-  </si>
-  <si>
-    <t>2023-10-10</t>
-  </si>
-  <si>
-    <t>2023-10-05</t>
-  </si>
-  <si>
-    <t>2023-09-25</t>
-  </si>
-  <si>
     <t>2023-10-11</t>
   </si>
   <si>
-    <t>2023-10-04</t>
-  </si>
-  <si>
     <t>회사명</t>
   </si>
   <si>
@@ -439,9 +427,6 @@
   </si>
   <si>
     <t>1415.77 : 1</t>
-  </si>
-  <si>
-    <t>61.15 : 1</t>
   </si>
   <si>
     <t>인수기관</t>
@@ -811,7 +796,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -875,37 +860,37 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D2">
         <v>117</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F2">
         <v>117</v>
       </c>
       <c r="G2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="M2">
         <v>18000</v>
@@ -928,37 +913,37 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D3">
         <v>160</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F3">
         <v>160</v>
       </c>
       <c r="G3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="M3">
         <v>2000</v>
@@ -981,37 +966,37 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D4">
         <v>393.96</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F4">
         <v>393.96</v>
       </c>
       <c r="G4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="M4">
         <v>28000</v>
@@ -1020,7 +1005,7 @@
         <v>100</v>
       </c>
       <c r="O4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="P4" t="s">
         <v>21</v>
@@ -1034,37 +1019,37 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D5">
         <v>278.8</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F5">
         <v>278.8</v>
       </c>
       <c r="G5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="M5">
         <v>17000</v>
@@ -1076,7 +1061,7 @@
         <v>26</v>
       </c>
       <c r="P5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="Q5">
         <v>1221420</v>
@@ -1087,37 +1072,37 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D6">
         <v>368.5</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F6">
         <v>368.5</v>
       </c>
       <c r="G6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="M6">
         <v>11000</v>
@@ -1140,37 +1125,37 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D7">
         <v>297.5</v>
       </c>
       <c r="E7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F7">
         <v>297.5</v>
       </c>
       <c r="G7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="M7">
         <v>7000</v>
@@ -1182,7 +1167,7 @@
         <v>26</v>
       </c>
       <c r="P7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="Q7">
         <v>3187500</v>
@@ -1193,37 +1178,37 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D8">
         <v>721.413</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F8">
         <v>721.413</v>
       </c>
       <c r="G8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="M8">
         <v>34700</v>
@@ -1246,37 +1231,37 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D9">
         <v>441.12</v>
       </c>
       <c r="E9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F9">
         <v>441.12</v>
       </c>
       <c r="G9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="M9">
         <v>30000</v>
@@ -1299,37 +1284,37 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D10">
         <v>4192.2496</v>
       </c>
       <c r="E10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F10">
         <v>2846.537406</v>
       </c>
       <c r="G10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="M10">
         <v>36200</v>
@@ -1338,7 +1323,7 @@
         <v>67.90000000000001</v>
       </c>
       <c r="O10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="P10" t="s">
         <v>26</v>
@@ -1352,37 +1337,37 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D11">
         <v>4192.2496</v>
       </c>
       <c r="E11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F11">
         <v>1219.944706</v>
       </c>
       <c r="G11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="L11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="M11">
         <v>36200</v>
@@ -1391,7 +1376,7 @@
         <v>29.1</v>
       </c>
       <c r="O11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="P11" t="s">
         <v>26</v>
@@ -1405,37 +1390,37 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D12">
         <v>4192.2496</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F12">
         <v>125.767488</v>
       </c>
       <c r="G12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" t="s">
+        <v>76</v>
+      </c>
+      <c r="I12" t="s">
+        <v>76</v>
+      </c>
+      <c r="J12" t="s">
+        <v>76</v>
+      </c>
+      <c r="K12" t="s">
         <v>79</v>
       </c>
-      <c r="H12" t="s">
-        <v>79</v>
-      </c>
-      <c r="I12" t="s">
-        <v>79</v>
-      </c>
-      <c r="J12" t="s">
-        <v>79</v>
-      </c>
-      <c r="K12" t="s">
-        <v>82</v>
-      </c>
       <c r="L12" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="M12">
         <v>36200</v>
@@ -1444,7 +1429,7 @@
         <v>3</v>
       </c>
       <c r="O12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="P12" t="s">
         <v>26</v>
@@ -1458,37 +1443,37 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D13">
         <v>63.84</v>
       </c>
       <c r="E13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F13">
         <v>63.84</v>
       </c>
       <c r="G13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="M13">
         <v>4000</v>
@@ -1497,7 +1482,7 @@
         <v>100</v>
       </c>
       <c r="O13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="P13" t="s">
         <v>25</v>
@@ -1511,37 +1496,37 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D14">
         <v>320</v>
       </c>
       <c r="E14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F14">
         <v>160</v>
       </c>
       <c r="G14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="M14">
         <v>20000</v>
@@ -1550,7 +1535,7 @@
         <v>50</v>
       </c>
       <c r="O14" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="P14" t="s">
         <v>30</v>
@@ -1564,37 +1549,37 @@
         <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D15">
         <v>320</v>
       </c>
       <c r="E15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F15">
         <v>160</v>
       </c>
       <c r="G15" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H15" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I15" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J15" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K15" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L15" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="M15">
         <v>20000</v>
@@ -1603,7 +1588,7 @@
         <v>50</v>
       </c>
       <c r="O15" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="P15" t="s">
         <v>30</v>
@@ -1617,37 +1602,37 @@
         <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D16">
         <v>659.0825</v>
       </c>
       <c r="E16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F16">
         <v>659.0825</v>
       </c>
       <c r="G16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K16" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="M16">
         <v>25000</v>
@@ -1670,37 +1655,37 @@
         <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D17">
         <v>80</v>
       </c>
       <c r="E17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F17">
         <v>80</v>
       </c>
       <c r="G17" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H17" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I17" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J17" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K17" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L17" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="M17">
         <v>2000</v>
@@ -1709,10 +1694,10 @@
         <v>100</v>
       </c>
       <c r="O17" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P17" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="Q17">
         <v>3000000</v>
@@ -1723,37 +1708,37 @@
         <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D18">
         <v>126</v>
       </c>
       <c r="E18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F18">
         <v>126</v>
       </c>
       <c r="G18" t="s">
-        <v>79</